--- a/bh3/550601222371727765_2021-07-23_18-13-57.xlsx
+++ b/bh3/550601222371727765_2021-07-23_18-13-57.xlsx
@@ -836,7 +836,7 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
@@ -3857,7 +3857,7 @@
         </is>
       </c>
       <c r="I47" t="n">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="J47" t="inlineStr">
         <is>
@@ -4639,7 +4639,7 @@
         </is>
       </c>
       <c r="I58" t="n">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="J58" t="inlineStr">
         <is>
@@ -5033,11 +5033,11 @@
         </is>
       </c>
       <c r="I63" t="n">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>网页</t>
         </is>
       </c>
       <c r="K63" t="inlineStr">
@@ -7635,7 +7635,7 @@
         </is>
       </c>
       <c r="I98" t="n">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="J98" t="inlineStr">
         <is>

--- a/bh3/550601222371727765_2021-07-23_18-13-57.xlsx
+++ b/bh3/550601222371727765_2021-07-23_18-13-57.xlsx
@@ -515,20 +515,20 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>4989391476</t>
+          <t>5004844996</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>白毛薛定谔</t>
+          <t>何不R</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>-1</v>
+        <v>70</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>看满离[doge]</t>
+          <t>我宣布我支持ch一切决定，玩家不满全都是玩家的错，再杠你们也是千人律者[doge]</t>
         </is>
       </c>
       <c r="F2" t="n">
@@ -536,12 +536,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>4989391476</t>
+          <t>0</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2021-07-25 19:46:03</t>
+          <t>2021-07-27 19:30:43</t>
         </is>
       </c>
       <c r="I2" t="n">
@@ -549,12 +549,12 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>网页</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>349251074</t>
+          <t>1719757053</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
@@ -564,22 +564,14 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>究极懒汉，想更就更～(￣▽￣～)(～￣▽￣)～</t>
+          <t>：D</t>
         </is>
       </c>
       <c r="N2" t="n">
-        <v>4</v>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>大会员</t>
-        </is>
-      </c>
-      <c r="P2" t="inlineStr">
-        <is>
-          <t>BW2020</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="O2" t="inlineStr"/>
+      <c r="P2" t="inlineStr"/>
       <c r="Q2" t="inlineStr"/>
     </row>
     <row r="3">
@@ -590,20 +582,20 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>4985409612</t>
+          <t>5003803568</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>黑羽丶沫白</t>
+          <t>违规昵称处理通知呵呵</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>人偶怎么还在啊</t>
+          <t>乌合之众？</t>
         </is>
       </c>
       <c r="F3" t="n">
@@ -611,12 +603,12 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>4985409612</t>
+          <t>5003803568</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2021-07-25 09:03:40</t>
+          <t>2021-07-27 17:21:16</t>
         </is>
       </c>
       <c r="I3" t="n">
@@ -629,7 +621,7 @@
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>6131259</t>
+          <t>259851623</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
@@ -639,27 +631,19 @@
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>这个人是个憨批</t>
+          <t>想冲的私信</t>
         </is>
       </c>
       <c r="N3" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>年度大会员</t>
-        </is>
-      </c>
-      <c r="P3" t="inlineStr">
-        <is>
-          <t>崩坏3·天穹流星</t>
-        </is>
-      </c>
-      <c r="Q3" t="inlineStr">
-        <is>
-          <t>崩坏3·天穹流星</t>
-        </is>
-      </c>
+          <t>大会员</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr"/>
+      <c r="Q3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -669,20 +653,21 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>4984853533</t>
+          <t>5000256491</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>残翼之幻影</t>
+          <t>mhy养殖鸡场</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>-1</v>
+        <v>69</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>干，回不去了[tv_白眼]</t>
+          <t>0.98mhy概率诈骗，实际概率与文案不符合。开天剑 原效果为主动攻击削弱100%防御，后因为骗氪改为80%。凰剑在1.8版本之前效果为火伤增加118%?来着？后因为炎八新角色砍为每击附加118火伤?2.2，2.3连着2个S，炽翎，冰卡 惹到氪金佬 ，停氪弃坑新S滚，然后连续2版本送这2个S角色。空中劈叉，第二次夏日活动文案直接骂玩家是空中劈叉的睿智清洁工。二周年就是个nt周年庆，让玩家各种肝肝肝凹排名拿限定徽章。双塌缩，好像是月轮可以靠闪避打出双塌缩低成本打龙虾，后面修复。黑皮蛋改版，战圣鬼 直接秒黑蛋 不符合预期，直接官方修改黑蛋设定。游骑兵十字架，这个武器可以低成本拿丽塔BOSS高分，后因为低成本 直接不符合预期给你改数据。无限激光，山吹未增幅前大招在激光攻击时候可以直接释放不会终止攻击，即利用大招攻击脆弱敌人回血，再利用量子2主动聚怪，可以低成本打无尽深渊，最开始官方确定了是设定没问题，后面直接翻脸 不符合预期，更改了这个技能。大月卡蛋黄，最开始出凭证没有说过那个蛋黄期限，后面4.2版本突然说那个东西有期限了，导致玩家之前几个版本想屯蛋黄换后续好东西的直接玩完，然后官方并且推出 玩家亏本蛋黄置换蛋紫的方案，公然压榨玩家。佐罗套，这套圣痕在beta服有bug，快乐猎人可以触发 回血更多，降低无尽深渊成本，官方不修复，但是在佐罗套up后几个小时突然说修复，然后补偿了1k水晶来着？连10连都不够。雷刀-鬼角 这装备一直都有个问题 攻击附带40%雷伤来着？忘了 反正给月光用当初很厉害 超越了电磁炮，后面几个版本后不符合预期 补偿点水晶修复...反正多的去了。 只要威胁到官方的利益 从装备到玩家自己开拓的玩法，全部砍。
+我会在每个动态下发一遍，什么叫用户粘性啊（后仰）</t>
         </is>
       </c>
       <c r="F4" t="n">
@@ -690,12 +675,12 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>4984853533</t>
+          <t>0</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2021-07-25 04:21:20</t>
+          <t>2021-07-27 08:08:18</t>
         </is>
       </c>
       <c r="I4" t="n">
@@ -703,12 +688,12 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>344600257</t>
+          <t>28446194</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
@@ -716,11 +701,7 @@
           <t>男</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>在游戏中寻找另一种可能性</t>
-        </is>
-      </c>
+      <c r="M4" t="inlineStr"/>
       <c r="N4" t="n">
         <v>5</v>
       </c>
@@ -740,12 +721,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>4980306948</t>
+          <t>4989391476</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>宵宫ず</t>
+          <t>白毛薛定谔</t>
         </is>
       </c>
       <c r="D5" t="n">
@@ -753,7 +734,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>啊这</t>
+          <t>看满离[doge]</t>
         </is>
       </c>
       <c r="F5" t="n">
@@ -761,12 +742,12 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>4980306948</t>
+          <t>4989391476</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>2021-07-24 15:05:29</t>
+          <t>2021-07-25 19:46:03</t>
         </is>
       </c>
       <c r="I5" t="n">
@@ -779,7 +760,7 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>133155882</t>
+          <t>349251074</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
@@ -789,11 +770,11 @@
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>《单推人》</t>
+          <t>究极懒汉，想更就更～(￣▽￣～)(～￣▽￣)～</t>
         </is>
       </c>
       <c r="N5" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="O5" t="inlineStr">
         <is>
@@ -802,14 +783,10 @@
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>呜米</t>
-        </is>
-      </c>
-      <c r="Q5" t="inlineStr">
-        <is>
-          <t>呜米</t>
-        </is>
-      </c>
+          <t>BW2020</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -819,64 +796,76 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>4977912700</t>
+          <t>4985409612</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>大师傅x</t>
+          <t>黑羽丶沫白</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>67</v>
+        <v>1</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>爬</t>
+          <t>人偶怎么还在啊</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4985409612</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>2021-07-24 08:19:10</t>
+          <t>2021-07-25 09:03:40</t>
         </is>
       </c>
       <c r="I6" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>20568348</t>
+          <t>6131259</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>男</t>
-        </is>
-      </c>
-      <c r="M6" t="inlineStr"/>
+          <t>保密</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>这个人是个憨批</t>
+        </is>
+      </c>
       <c r="N6" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>大会员</t>
-        </is>
-      </c>
-      <c r="P6" t="inlineStr"/>
-      <c r="Q6" t="inlineStr"/>
+          <t>年度大会员</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>崩坏3·天穹流星</t>
+        </is>
+      </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>崩坏3·天穹流星</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -886,300 +875,292 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>4984853533</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>残翼之幻影</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>干，回不去了[tv_白眼]</t>
+        </is>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>4984853533</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>2021-07-25 04:21:20</t>
+        </is>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>未知</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>344600257</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>男</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>在游戏中寻找另一种可能性</t>
+        </is>
+      </c>
+      <c r="N7" t="n">
+        <v>5</v>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>年度大会员</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr"/>
+      <c r="Q7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>256667467</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>4980306948</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>宵宫ず</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>-1</v>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>啊这</t>
+        </is>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>4980306948</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>2021-07-24 15:05:29</t>
+        </is>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>未知</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>133155882</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>保密</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>《单推人》</t>
+        </is>
+      </c>
+      <c r="N8" t="n">
+        <v>5</v>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>大会员</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>呜米</t>
+        </is>
+      </c>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>呜米</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>256667467</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>4977912700</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>大师傅x</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>67</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>爬</t>
+        </is>
+      </c>
+      <c r="F9" t="n">
+        <v>3</v>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>2021-07-24 08:19:10</t>
+        </is>
+      </c>
+      <c r="I9" t="n">
+        <v>4</v>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>安卓</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>20568348</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>男</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr"/>
+      <c r="N9" t="n">
+        <v>5</v>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>大会员</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr"/>
+      <c r="Q9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>256667467</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>4977855933</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="C10" t="inlineStr">
         <is>
           <t>神里淩华</t>
         </is>
       </c>
-      <c r="D7" t="n">
+      <c r="D10" t="n">
         <v>66</v>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>找个人跟我用图4/5希儿情侣头像[doge]</t>
         </is>
       </c>
-      <c r="F7" t="n">
-        <v>0</v>
-      </c>
-      <c r="G7" t="inlineStr">
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
+      <c r="H10" t="inlineStr">
         <is>
           <t>2021-07-24 08:00:28</t>
         </is>
       </c>
-      <c r="I7" t="n">
+      <c r="I10" t="n">
         <v>1</v>
       </c>
-      <c r="J7" t="inlineStr">
+      <c r="J10" t="inlineStr">
         <is>
           <t>安卓</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr">
+      <c r="K10" t="inlineStr">
         <is>
           <t>57747963</t>
         </is>
       </c>
-      <c r="L7" t="inlineStr">
+      <c r="L10" t="inlineStr">
         <is>
           <t>女</t>
         </is>
       </c>
-      <c r="M7" t="inlineStr">
+      <c r="M10" t="inlineStr">
         <is>
           <t>卧槽，我竟然是原批！(´°̥̥̥̥̥̥̥̥ω°̥̥̥̥̥̥̥̥｀)
 原批，原批，嗯？原胚？哪有原胚！</t>
         </is>
       </c>
-      <c r="N7" t="n">
-        <v>5</v>
-      </c>
-      <c r="O7" t="inlineStr">
-        <is>
-          <t>年度大会员</t>
-        </is>
-      </c>
-      <c r="P7" t="inlineStr">
-        <is>
-          <t>神里绫华</t>
-        </is>
-      </c>
-      <c r="Q7" t="inlineStr">
-        <is>
-          <t>hanser</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>256667467</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>4976484153</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Edmond_Dontes</t>
-        </is>
-      </c>
-      <c r="D8" t="n">
-        <v>63</v>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>是夏天，好耶！！！</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>0</v>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>2021-07-23 23:35:20</t>
-        </is>
-      </c>
-      <c r="I8" t="n">
-        <v>1</v>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>安卓</t>
-        </is>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>5422614</t>
-        </is>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>男</t>
-        </is>
-      </c>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>爱是丝线，希望是织布者，愿吾等的纹样中充满祝福。</t>
-        </is>
-      </c>
-      <c r="N8" t="n">
-        <v>5</v>
-      </c>
-      <c r="O8" t="inlineStr">
-        <is>
-          <t>年度大会员</t>
-        </is>
-      </c>
-      <c r="P8" t="inlineStr">
-        <is>
-          <t>明日方舟</t>
-        </is>
-      </c>
-      <c r="Q8" t="inlineStr">
-        <is>
-          <t>原神</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>256667467</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>4976252099</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>风后沉木</t>
-        </is>
-      </c>
-      <c r="D9" t="n">
-        <v>-1</v>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>艹</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>0</v>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>4976252099</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>2021-07-23 23:05:53</t>
-        </is>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>安卓</t>
-        </is>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>293223906</t>
-        </is>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>保密</t>
-        </is>
-      </c>
-      <c r="M9" t="inlineStr">
-        <is>
-          <t>一遍又一遍地确认存在</t>
-        </is>
-      </c>
-      <c r="N9" t="n">
-        <v>4</v>
-      </c>
-      <c r="O9" t="inlineStr">
-        <is>
-          <t>年度大会员</t>
-        </is>
-      </c>
-      <c r="P9" t="inlineStr"/>
-      <c r="Q9" t="inlineStr"/>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>256667467</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>4976010134</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>资深舰长</t>
-        </is>
-      </c>
-      <c r="D10" t="n">
-        <v>-1</v>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>以前的评论区终于回来了[笑哭][笑哭]</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>0</v>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>4976010134</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>2021-07-23 22:36:09</t>
-        </is>
-      </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>未知</t>
-        </is>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>175409874</t>
-        </is>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>保密</t>
-        </is>
-      </c>
-      <c r="M10" t="inlineStr"/>
       <c r="N10" t="n">
         <v>5</v>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>大会员</t>
+          <t>年度大会员</t>
         </is>
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>崩坏3·天穹流星</t>
+          <t>神里绫华</t>
         </is>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>崩坏3·天穹流星</t>
+          <t>hanser</t>
         </is>
       </c>
     </row>
@@ -1191,20 +1172,20 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>4975563347</t>
+          <t>4976484153</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>多吃包菜身体好</t>
+          <t>Edmond_Dontes</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>-1</v>
+        <v>63</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>回复 @崩坏3 :三蹦子，开心点，至少你超过了米游社的那个牛角包</t>
+          <t>是夏天，好耶！！！</t>
         </is>
       </c>
       <c r="F11" t="n">
@@ -1212,49 +1193,53 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>4974131160</t>
+          <t>0</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>2021-07-23 21:41:34</t>
+          <t>2021-07-23 23:35:20</t>
         </is>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>115250934</t>
+          <t>5422614</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>保密</t>
-        </is>
-      </c>
-      <c r="M11" t="inlineStr"/>
+          <t>男</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>爱是丝线，希望是织布者，愿吾等的纹样中充满祝福。</t>
+        </is>
+      </c>
       <c r="N11" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>大会员</t>
+          <t>年度大会员</t>
         </is>
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>崩坏3·天穹流星</t>
+          <t>明日方舟</t>
         </is>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>崩坏3·天穹流星</t>
+          <t>原神</t>
         </is>
       </c>
     </row>
@@ -1266,20 +1251,20 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>4975543259</t>
+          <t>4976252099</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>龙虎一生推哟</t>
+          <t>风后沉木</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>62</v>
+        <v>-1</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>识宝太可爱了 快给老子抱抱</t>
+          <t>艹</t>
         </is>
       </c>
       <c r="F12" t="n">
@@ -1287,12 +1272,12 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4976252099</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>2021-07-23 21:39:01</t>
+          <t>2021-07-23 23:05:53</t>
         </is>
       </c>
       <c r="I12" t="n">
@@ -1300,42 +1285,34 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>苹果</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>11086956</t>
+          <t>293223906</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>男</t>
+          <t>保密</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>大河与龙儿，还有亚美、实乃梨、北村，一定要幸福啊！</t>
+          <t>一遍又一遍地确认存在</t>
         </is>
       </c>
       <c r="N12" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="O12" t="inlineStr">
         <is>
           <t>年度大会员</t>
         </is>
       </c>
-      <c r="P12" t="inlineStr">
-        <is>
-          <t>拳皇</t>
-        </is>
-      </c>
-      <c r="Q12" t="inlineStr">
-        <is>
-          <t>碧蓝航线2020</t>
-        </is>
-      </c>
+      <c r="P12" t="inlineStr"/>
+      <c r="Q12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1345,12 +1322,12 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>4975465141</t>
+          <t>4976010134</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>新世紀鹹魚戰士</t>
+          <t>资深舰长</t>
         </is>
       </c>
       <c r="D13" t="n">
@@ -1358,7 +1335,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>回复 @崩坏3 :今超原？[doge]</t>
+          <t>以前的评论区终于回来了[笑哭][笑哭]</t>
         </is>
       </c>
       <c r="F13" t="n">
@@ -1366,12 +1343,12 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>4974131160</t>
+          <t>4976010134</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>2021-07-23 21:28:00</t>
+          <t>2021-07-23 22:36:09</t>
         </is>
       </c>
       <c r="I13" t="n">
@@ -1379,17 +1356,17 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>网页</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>361795316</t>
+          <t>175409874</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>男</t>
+          <t>保密</t>
         </is>
       </c>
       <c r="M13" t="inlineStr"/>
@@ -1401,8 +1378,16 @@
           <t>大会员</t>
         </is>
       </c>
-      <c r="P13" t="inlineStr"/>
-      <c r="Q13" t="inlineStr"/>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>崩坏3·天穹流星</t>
+        </is>
+      </c>
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>崩坏3·天穹流星</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1412,12 +1397,12 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>4975306917</t>
+          <t>4975563347</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>无名的小宅</t>
+          <t>多吃包菜身体好</t>
         </is>
       </c>
       <c r="D14" t="n">
@@ -1425,7 +1410,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>回复 @崩坏3 :今超鹿？[doge]</t>
+          <t>回复 @崩坏3 :三蹦子，开心点，至少你超过了米游社的那个牛角包</t>
         </is>
       </c>
       <c r="F14" t="n">
@@ -1438,7 +1423,7 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>2021-07-23 21:06:48</t>
+          <t>2021-07-23 21:41:34</t>
         </is>
       </c>
       <c r="I14" t="n">
@@ -1451,7 +1436,7 @@
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>440120576</t>
+          <t>115250934</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
@@ -1470,7 +1455,7 @@
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>良辰美景·不问天</t>
+          <t>崩坏3·天穹流星</t>
         </is>
       </c>
       <c r="Q14" t="inlineStr">
@@ -1487,274 +1472,290 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
+          <t>4975543259</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>龙虎一生推哟</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>62</v>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>识宝太可爱了 快给老子抱抱</t>
+        </is>
+      </c>
+      <c r="F15" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>2021-07-23 21:39:01</t>
+        </is>
+      </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>苹果</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>11086956</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>男</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>大河与龙儿，还有亚美、实乃梨、北村，一定要幸福啊！</t>
+        </is>
+      </c>
+      <c r="N15" t="n">
+        <v>6</v>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>年度大会员</t>
+        </is>
+      </c>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>拳皇</t>
+        </is>
+      </c>
+      <c r="Q15" t="inlineStr">
+        <is>
+          <t>碧蓝航线2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>256667467</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>4975465141</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>新世紀鹹魚戰士</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>回复 @崩坏3 :今超原？[doge]</t>
+        </is>
+      </c>
+      <c r="F16" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>4974131160</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>2021-07-23 21:28:00</t>
+        </is>
+      </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>网页</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>361795316</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>男</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr"/>
+      <c r="N16" t="n">
+        <v>5</v>
+      </c>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>大会员</t>
+        </is>
+      </c>
+      <c r="P16" t="inlineStr"/>
+      <c r="Q16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>256667467</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>4975306917</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>无名的小宅</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>-1</v>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>回复 @崩坏3 :今超鹿？[doge]</t>
+        </is>
+      </c>
+      <c r="F17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>4974131160</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>2021-07-23 21:06:48</t>
+        </is>
+      </c>
+      <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>安卓</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>440120576</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>保密</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr"/>
+      <c r="N17" t="n">
+        <v>4</v>
+      </c>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>大会员</t>
+        </is>
+      </c>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>良辰美景·不问天</t>
+        </is>
+      </c>
+      <c r="Q17" t="inlineStr">
+        <is>
+          <t>崩坏3·天穹流星</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>256667467</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
           <t>4975297596</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="C18" t="inlineStr">
         <is>
           <t>改掉这破ID</t>
         </is>
       </c>
-      <c r="D15" t="n">
+      <c r="D18" t="n">
         <v>61</v>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>我什么时候能看到呆鹅，主线活动都没存在感[大哭]</t>
         </is>
       </c>
-      <c r="F15" t="n">
-        <v>0</v>
-      </c>
-      <c r="G15" t="inlineStr">
+      <c r="F18" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
+      <c r="H18" t="inlineStr">
         <is>
           <t>2021-07-23 21:06:01</t>
         </is>
       </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="inlineStr">
+      <c r="I18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" t="inlineStr">
         <is>
           <t>安卓</t>
         </is>
       </c>
-      <c r="K15" t="inlineStr">
+      <c r="K18" t="inlineStr">
         <is>
           <t>27631207</t>
         </is>
       </c>
-      <c r="L15" t="inlineStr">
+      <c r="L18" t="inlineStr">
         <is>
           <t>保密</t>
         </is>
       </c>
-      <c r="M15" t="inlineStr">
+      <c r="M18" t="inlineStr">
         <is>
           <t xml:space="preserve">
     </t>
         </is>
       </c>
-      <c r="N15" t="n">
+      <c r="N18" t="n">
         <v>5</v>
       </c>
-      <c r="O15" t="inlineStr">
+      <c r="O18" t="inlineStr">
         <is>
           <t>大会员</t>
         </is>
       </c>
-      <c r="P15" t="inlineStr"/>
-      <c r="Q15" t="inlineStr"/>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>256667467</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>4975236290</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>泳君</t>
-        </is>
-      </c>
-      <c r="D16" t="n">
-        <v>60</v>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>@崩坏3第一偶像爱酱 @崩坏3 @崩坏3 @崩坏3 崩坏3高级区，打深渊卡住啦，这不快点搞一下那个怪，有血量，但是看不到怪，被读死了，我重进了三四次都不行，嗯？重新开始打到最后，就是有一个怪卡在那里</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>0</v>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>2021-07-23 20:57:48</t>
-        </is>
-      </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t>安卓</t>
-        </is>
-      </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>2110035331</t>
-        </is>
-      </c>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>保密</t>
-        </is>
-      </c>
-      <c r="M16" t="inlineStr"/>
-      <c r="N16" t="n">
-        <v>2</v>
-      </c>
-      <c r="O16" t="inlineStr"/>
-      <c r="P16" t="inlineStr"/>
-      <c r="Q16" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>256667467</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>4975157612</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>冰棘23</t>
-        </is>
-      </c>
-      <c r="D17" t="n">
-        <v>-1</v>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>看满离[doge]</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
-        <v>0</v>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>4975157612</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>2021-07-23 20:47:29</t>
-        </is>
-      </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" t="inlineStr">
-        <is>
-          <t>未知</t>
-        </is>
-      </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>2035760191</t>
-        </is>
-      </c>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>保密</t>
-        </is>
-      </c>
-      <c r="M17" t="inlineStr"/>
-      <c r="N17" t="n">
-        <v>2</v>
-      </c>
-      <c r="O17" t="inlineStr"/>
-      <c r="P17" t="inlineStr"/>
-      <c r="Q17" t="inlineStr"/>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>256667467</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>4975027242</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>爱丽丝日常白给</t>
-        </is>
-      </c>
-      <c r="D18" t="n">
-        <v>2</v>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>回复 @七重樱嘤嘤嘤 :7.9号的那个动态咯，到现在都没个信</t>
-        </is>
-      </c>
-      <c r="F18" t="n">
-        <v>0</v>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>4974958215</t>
-        </is>
-      </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>2021-07-23 20:29:07</t>
-        </is>
-      </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
-      <c r="J18" t="inlineStr">
-        <is>
-          <t>未知</t>
-        </is>
-      </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>1795287</t>
-        </is>
-      </c>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>女</t>
-        </is>
-      </c>
-      <c r="M18" t="inlineStr">
-        <is>
-          <t>生活让人们失望，游戏反而鼓励人们找到希望；生活没有教会人们的道理游戏反而教会了，真是讽刺</t>
-        </is>
-      </c>
-      <c r="N18" t="n">
-        <v>6</v>
-      </c>
-      <c r="O18" t="inlineStr">
-        <is>
-          <t>年度大会员</t>
-        </is>
-      </c>
-      <c r="P18" t="inlineStr">
-        <is>
-          <t>少女前线</t>
-        </is>
-      </c>
-      <c r="Q18" t="inlineStr">
-        <is>
-          <t>三周年恋曲</t>
-        </is>
-      </c>
+      <c r="P18" t="inlineStr"/>
+      <c r="Q18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1764,20 +1765,20 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>4975020698</t>
+          <t>4975236290</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>い粉笺难赋</t>
+          <t>泳君</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>识宝真可爱啊</t>
+          <t>@崩坏3第一偶像爱酱 @崩坏3 @崩坏3 @崩坏3 崩坏3高级区，打深渊卡住啦，这不快点搞一下那个怪，有血量，但是看不到怪，被读死了，我重进了三四次都不行，嗯？重新开始打到最后，就是有一个怪卡在那里</t>
         </is>
       </c>
       <c r="F19" t="n">
@@ -1790,7 +1791,7 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>2021-07-23 20:28:05</t>
+          <t>2021-07-23 20:57:48</t>
         </is>
       </c>
       <c r="I19" t="n">
@@ -1798,42 +1799,26 @@
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>网页</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>276970091</t>
+          <t>2110035331</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>男</t>
-        </is>
-      </c>
-      <c r="M19" t="inlineStr">
-        <is>
-          <t>别这样，再这样，我拳头都硬了</t>
-        </is>
-      </c>
+          <t>保密</t>
+        </is>
+      </c>
+      <c r="M19" t="inlineStr"/>
       <c r="N19" t="n">
-        <v>5</v>
-      </c>
-      <c r="O19" t="inlineStr">
-        <is>
-          <t>年度大会员</t>
-        </is>
-      </c>
-      <c r="P19" t="inlineStr">
-        <is>
-          <t>hanser</t>
-        </is>
-      </c>
-      <c r="Q19" t="inlineStr">
-        <is>
-          <t>鹿乃</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="O19" t="inlineStr"/>
+      <c r="P19" t="inlineStr"/>
+      <c r="Q19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1843,20 +1828,20 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>4974976400</t>
+          <t>4975157612</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>陌梓希</t>
+          <t>冰棘23</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>58</v>
+        <v>-1</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>识宝麻麻爱你[给心心]等等，我上仙呢[惊讶]阿符不在，等下孩子闹起来可没人能唬得住[藏狐]</t>
+          <t>看满离[doge]</t>
         </is>
       </c>
       <c r="F20" t="n">
@@ -1864,12 +1849,12 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4975157612</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>2021-07-23 20:21:45</t>
+          <t>2021-07-23 20:47:29</t>
         </is>
       </c>
       <c r="I20" t="n">
@@ -1882,7 +1867,7 @@
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>290845597</t>
+          <t>2035760191</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
@@ -1890,19 +1875,11 @@
           <t>保密</t>
         </is>
       </c>
-      <c r="M20" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> ( ゜- ゜)つロ 干杯</t>
-        </is>
-      </c>
+      <c r="M20" t="inlineStr"/>
       <c r="N20" t="n">
-        <v>5</v>
-      </c>
-      <c r="O20" t="inlineStr">
-        <is>
-          <t>年度大会员</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="O20" t="inlineStr"/>
       <c r="P20" t="inlineStr"/>
       <c r="Q20" t="inlineStr"/>
     </row>
@@ -1914,33 +1891,33 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
+          <t>4975027242</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>爱丽丝日常白给</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>2</v>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>回复 @七重樱嘤嘤嘤 :7.9号的那个动态咯，到现在都没个信</t>
+        </is>
+      </c>
+      <c r="F21" t="n">
+        <v>0</v>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
           <t>4974958215</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>七重樱嘤嘤嘤</t>
-        </is>
-      </c>
-      <c r="D21" t="n">
-        <v>1</v>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>咋？你中奖了？</t>
-        </is>
-      </c>
-      <c r="F21" t="n">
-        <v>0</v>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>4974958215</t>
-        </is>
-      </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>2021-07-23 20:20:20</t>
+          <t>2021-07-23 20:29:07</t>
         </is>
       </c>
       <c r="I21" t="n">
@@ -1948,22 +1925,22 @@
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>12006065</t>
+          <t>1795287</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>男</t>
+          <t>女</t>
         </is>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>一次是偶然，两次是巧合，三次就是恶性事件了。</t>
+          <t>生活让人们失望，游戏反而鼓励人们找到希望；生活没有教会人们的道理游戏反而教会了，真是讽刺</t>
         </is>
       </c>
       <c r="N21" t="n">
@@ -1976,12 +1953,12 @@
       </c>
       <c r="P21" t="inlineStr">
         <is>
-          <t>崩坏3·天穹流星</t>
+          <t>少女前线</t>
         </is>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>崩坏3·天穹流星</t>
+          <t>三周年恋曲</t>
         </is>
       </c>
     </row>
@@ -1993,20 +1970,20 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>4974941228</t>
+          <t>4975020698</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>b站太棒捏</t>
+          <t>い粉笺难赋</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>为毛没兔女郎</t>
+          <t>识宝真可爱啊</t>
         </is>
       </c>
       <c r="F22" t="n">
@@ -2019,30 +1996,30 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>2021-07-23 20:17:09</t>
+          <t>2021-07-23 20:28:05</t>
         </is>
       </c>
       <c r="I22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>网页</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>99364443</t>
+          <t>276970091</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>保密</t>
+          <t>男</t>
         </is>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>淦</t>
+          <t>别这样，再这样，我拳头都硬了</t>
         </is>
       </c>
       <c r="N22" t="n">
@@ -2050,11 +2027,19 @@
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>大会员</t>
-        </is>
-      </c>
-      <c r="P22" t="inlineStr"/>
-      <c r="Q22" t="inlineStr"/>
+          <t>年度大会员</t>
+        </is>
+      </c>
+      <c r="P22" t="inlineStr">
+        <is>
+          <t>hanser</t>
+        </is>
+      </c>
+      <c r="Q22" t="inlineStr">
+        <is>
+          <t>鹿乃</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -2064,20 +2049,20 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>4974857837</t>
+          <t>4974976400</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>泥土中的樱花</t>
+          <t>陌梓希</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>-1</v>
+        <v>58</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>不忍直视[灵魂出窍]</t>
+          <t>识宝麻麻爱你[给心心]等等，我上仙呢[惊讶]阿符不在，等下孩子闹起来可没人能唬得住[藏狐]</t>
         </is>
       </c>
       <c r="F23" t="n">
@@ -2085,25 +2070,25 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>4974857837</t>
+          <t>0</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>2021-07-23 20:06:28</t>
+          <t>2021-07-23 20:21:45</t>
         </is>
       </c>
       <c r="I23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>14263038</t>
+          <t>290845597</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
@@ -2113,27 +2098,19 @@
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>烟波浩淼的东湖</t>
+          <t xml:space="preserve"> ( ゜- ゜)つロ 干杯</t>
         </is>
       </c>
       <c r="N23" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>大会员</t>
-        </is>
-      </c>
-      <c r="P23" t="inlineStr">
-        <is>
-          <t>雪未来</t>
-        </is>
-      </c>
-      <c r="Q23" t="inlineStr">
-        <is>
-          <t>2021拜年纪</t>
-        </is>
-      </c>
+          <t>年度大会员</t>
+        </is>
+      </c>
+      <c r="P23" t="inlineStr"/>
+      <c r="Q23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -2143,20 +2120,20 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>4974837959</t>
+          <t>4974958215</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>古明地覺得不行</t>
+          <t>七重樱嘤嘤嘤</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>看满离[doge]</t>
+          <t>咋？你中奖了？</t>
         </is>
       </c>
       <c r="F24" t="n">
@@ -2164,12 +2141,12 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>4974837959</t>
+          <t>4974958215</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>2021-07-23 20:03:17</t>
+          <t>2021-07-23 20:20:20</t>
         </is>
       </c>
       <c r="I24" t="n">
@@ -2177,12 +2154,12 @@
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>苹果</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>74341467</t>
+          <t>12006065</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
@@ -2192,19 +2169,27 @@
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>所以饿神到底是个啥 ＾▽＾</t>
+          <t>一次是偶然，两次是巧合，三次就是恶性事件了。</t>
         </is>
       </c>
       <c r="N24" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>大会员</t>
-        </is>
-      </c>
-      <c r="P24" t="inlineStr"/>
-      <c r="Q24" t="inlineStr"/>
+          <t>年度大会员</t>
+        </is>
+      </c>
+      <c r="P24" t="inlineStr">
+        <is>
+          <t>崩坏3·天穹流星</t>
+        </is>
+      </c>
+      <c r="Q24" t="inlineStr">
+        <is>
+          <t>崩坏3·天穹流星</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -2214,20 +2199,20 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>4974811071</t>
+          <t>4974941228</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>远方的彩虹海</t>
+          <t>b站太棒捏</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>-1</v>
+        <v>57</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>蛮恶臭的，别玩了，这就像女生对其他女生荡妇羞辱一样，都是射到草人上的箭，现在咱怎么欢快玩梗，将来拳师就怎么打咱们。</t>
+          <t>为毛没兔女郎</t>
         </is>
       </c>
       <c r="F25" t="n">
@@ -2235,35 +2220,35 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>4974811071</t>
+          <t>0</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>2021-07-23 19:59:32</t>
+          <t>2021-07-23 20:17:09</t>
         </is>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>苹果</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>255954947</t>
+          <t>99364443</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>男</t>
+          <t>保密</t>
         </is>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>惊涛入海觅螭虎，风雪归山斩妖邪。</t>
+          <t>淦</t>
         </is>
       </c>
       <c r="N25" t="n">
@@ -2285,20 +2270,20 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>4974735780</t>
+          <t>4974857837</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>养鸽能手小黄</t>
+          <t>泥土中的樱花</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>56</v>
+        <v>-1</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>识 宝 可 爱 妈妈爱[给心心]</t>
+          <t>不忍直视[灵魂出窍]</t>
         </is>
       </c>
       <c r="F26" t="n">
@@ -2306,16 +2291,16 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4974857837</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>2021-07-23 19:49:31</t>
+          <t>2021-07-23 20:06:28</t>
         </is>
       </c>
       <c r="I26" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="J26" t="inlineStr">
         <is>
@@ -2324,17 +2309,17 @@
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>44597512</t>
+          <t>14263038</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>男</t>
+          <t>保密</t>
         </is>
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>这个人一点也不懒，但他就是没写︿(￣︶￣)︿</t>
+          <t>烟波浩淼的东湖</t>
         </is>
       </c>
       <c r="N26" t="n">
@@ -2345,8 +2330,16 @@
           <t>大会员</t>
         </is>
       </c>
-      <c r="P26" t="inlineStr"/>
-      <c r="Q26" t="inlineStr"/>
+      <c r="P26" t="inlineStr">
+        <is>
+          <t>雪未来</t>
+        </is>
+      </c>
+      <c r="Q26" t="inlineStr">
+        <is>
+          <t>2021拜年纪</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -2356,20 +2349,20 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>4974657720</t>
+          <t>4974837959</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>白色立方糖</t>
+          <t>古明地覺得不行</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>55</v>
+        <v>-1</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>罗莎莉娅那个表情包好嗨呀[笑哭]</t>
+          <t>看满离[doge]</t>
         </is>
       </c>
       <c r="F27" t="n">
@@ -2377,12 +2370,12 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4974837959</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>2021-07-23 19:39:09</t>
+          <t>2021-07-23 20:03:17</t>
         </is>
       </c>
       <c r="I27" t="n">
@@ -2395,7 +2388,7 @@
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>442275517</t>
+          <t>74341467</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
@@ -2405,13 +2398,17 @@
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>做一个真实的自己，开心就好。</t>
+          <t>所以饿神到底是个啥 ＾▽＾</t>
         </is>
       </c>
       <c r="N27" t="n">
-        <v>4</v>
-      </c>
-      <c r="O27" t="inlineStr"/>
+        <v>5</v>
+      </c>
+      <c r="O27" t="inlineStr">
+        <is>
+          <t>大会员</t>
+        </is>
+      </c>
       <c r="P27" t="inlineStr"/>
       <c r="Q27" t="inlineStr"/>
     </row>
@@ -2423,20 +2420,20 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>4974655342</t>
+          <t>4974811071</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>椎名真曰</t>
+          <t>远方的彩虹海</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>54</v>
+        <v>-1</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>我~~们~~是~~地~~球~~人~~</t>
+          <t>蛮恶臭的，别玩了，这就像女生对其他女生荡妇羞辱一样，都是射到草人上的箭，现在咱怎么欢快玩梗，将来拳师就怎么打咱们。</t>
         </is>
       </c>
       <c r="F28" t="n">
@@ -2444,39 +2441,39 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4974811071</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>2021-07-23 19:38:17</t>
+          <t>2021-07-23 19:59:32</t>
         </is>
       </c>
       <c r="I28" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>网页</t>
+          <t>苹果</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>507199496</t>
+          <t>255954947</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>保密</t>
+          <t>男</t>
         </is>
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>岁月静好</t>
+          <t>惊涛入海觅螭虎，风雪归山斩妖邪。</t>
         </is>
       </c>
       <c r="N28" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="O28" t="inlineStr">
         <is>
@@ -2494,20 +2491,20 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>4974556569</t>
+          <t>4974735780</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>梦游月</t>
+          <t>养鸽能手小黄</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>-1</v>
+        <v>56</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>我那个很大，你忍一下[崩坏3_糖葫芦]</t>
+          <t>识 宝 可 爱 妈妈爱[给心心]</t>
         </is>
       </c>
       <c r="F29" t="n">
@@ -2515,25 +2512,25 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>4974556569</t>
+          <t>0</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>2021-07-23 19:25:52</t>
+          <t>2021-07-23 19:49:31</t>
         </is>
       </c>
       <c r="I29" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>92912408</t>
+          <t>44597512</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
@@ -2543,23 +2540,19 @@
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>赤鸢仙人，我没有说谎</t>
+          <t>这个人一点也不懒，但他就是没写︿(￣︶￣)︿</t>
         </is>
       </c>
       <c r="N29" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>年度大会员</t>
+          <t>大会员</t>
         </is>
       </c>
       <c r="P29" t="inlineStr"/>
-      <c r="Q29" t="inlineStr">
-        <is>
-          <t>原神</t>
-        </is>
-      </c>
+      <c r="Q29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -2569,20 +2562,20 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>4974537365</t>
+          <t>4974657720</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>胖子还有小男孩</t>
+          <t>白色立方糖</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>[原神_哇][原神_哼][原神_嗯][原神_欸嘿][原神_喝茶][原神_生气]</t>
+          <t>罗莎莉娅那个表情包好嗨呀[笑哭]</t>
         </is>
       </c>
       <c r="F30" t="n">
@@ -2595,11 +2588,11 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>2021-07-23 19:23:22</t>
+          <t>2021-07-23 19:39:09</t>
         </is>
       </c>
       <c r="I30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J30" t="inlineStr">
         <is>
@@ -2608,7 +2601,7 @@
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>171877728</t>
+          <t>442275517</t>
         </is>
       </c>
       <c r="L30" t="inlineStr">
@@ -2616,15 +2609,15 @@
           <t>男</t>
         </is>
       </c>
-      <c r="M30" t="inlineStr"/>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>做一个真实的自己，开心就好。</t>
+        </is>
+      </c>
       <c r="N30" t="n">
-        <v>5</v>
-      </c>
-      <c r="O30" t="inlineStr">
-        <is>
-          <t>大会员</t>
-        </is>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="O30" t="inlineStr"/>
       <c r="P30" t="inlineStr"/>
       <c r="Q30" t="inlineStr"/>
     </row>
@@ -2636,20 +2629,20 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>4974446826</t>
+          <t>4974655342</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>绫濑艾莉娅-Official</t>
+          <t>椎名真曰</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>-1</v>
+        <v>54</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>就你离谱</t>
+          <t>我~~们~~是~~地~~球~~人~~</t>
         </is>
       </c>
       <c r="F31" t="n">
@@ -2657,25 +2650,25 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>4974446826</t>
+          <t>0</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>2021-07-23 19:11:15</t>
+          <t>2021-07-23 19:38:17</t>
         </is>
       </c>
       <c r="I31" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>网页</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>270737513</t>
+          <t>507199496</t>
         </is>
       </c>
       <c r="L31" t="inlineStr">
@@ -2685,27 +2678,19 @@
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>这里是Aria，是一位DD，目前在上高中，请多多关照。</t>
+          <t>岁月静好</t>
         </is>
       </c>
       <c r="N31" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>年度大会员</t>
-        </is>
-      </c>
-      <c r="P31" t="inlineStr">
-        <is>
-          <t>还有醒着的么</t>
-        </is>
-      </c>
-      <c r="Q31" t="inlineStr">
-        <is>
-          <t>希萝Hiiro</t>
-        </is>
-      </c>
+          <t>大会员</t>
+        </is>
+      </c>
+      <c r="P31" t="inlineStr"/>
+      <c r="Q31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -2715,37 +2700,37 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>4974378784</t>
+          <t>4974556569</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>爱丽丝日常白给</t>
+          <t>梦游月</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>52</v>
+        <v>-1</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>在?转发中奖的事给我个回信?</t>
+          <t>我那个很大，你忍一下[崩坏3_糖葫芦]</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4974556569</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>2021-07-23 19:02:20</t>
+          <t>2021-07-23 19:25:52</t>
         </is>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J32" t="inlineStr">
         <is>
@@ -2754,35 +2739,31 @@
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>1795287</t>
+          <t>92912408</t>
         </is>
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>女</t>
+          <t>男</t>
         </is>
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>生活让人们失望，游戏反而鼓励人们找到希望；生活没有教会人们的道理游戏反而教会了，真是讽刺</t>
+          <t>赤鸢仙人，我没有说谎</t>
         </is>
       </c>
       <c r="N32" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="O32" t="inlineStr">
         <is>
           <t>年度大会员</t>
         </is>
       </c>
-      <c r="P32" t="inlineStr">
-        <is>
-          <t>少女前线</t>
-        </is>
-      </c>
+      <c r="P32" t="inlineStr"/>
       <c r="Q32" t="inlineStr">
         <is>
-          <t>三周年恋曲</t>
+          <t>原神</t>
         </is>
       </c>
     </row>
@@ -2794,20 +2775,20 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>4974364070</t>
+          <t>4974537365</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>起风瓜瓜格</t>
+          <t>胖子还有小男孩</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>2</v>
+        <v>53</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>俺也一样[崩坏3_口水]</t>
+          <t>[原神_哇][原神_哼][原神_嗯][原神_欸嘿][原神_喝茶][原神_生气]</t>
         </is>
       </c>
       <c r="F33" t="n">
@@ -2815,30 +2796,30 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>4974364070</t>
+          <t>0</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>2021-07-23 19:00:41</t>
+          <t>2021-07-23 19:23:22</t>
         </is>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>286329857</t>
+          <t>171877728</t>
         </is>
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>保密</t>
+          <t>男</t>
         </is>
       </c>
       <c r="M33" t="inlineStr"/>
@@ -2850,11 +2831,7 @@
           <t>大会员</t>
         </is>
       </c>
-      <c r="P33" t="inlineStr">
-        <is>
-          <t>小闪电</t>
-        </is>
-      </c>
+      <c r="P33" t="inlineStr"/>
       <c r="Q33" t="inlineStr"/>
     </row>
     <row r="34">
@@ -2865,20 +2842,20 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>4974353773</t>
+          <t>4974446826</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>这个名字我竟无言以对</t>
+          <t>绫濑艾莉娅-Official</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>51</v>
+        <v>-1</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>[崩坏3_口水]</t>
+          <t>就你离谱</t>
         </is>
       </c>
       <c r="F34" t="n">
@@ -2886,25 +2863,25 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4974446826</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>2021-07-23 18:59:38</t>
+          <t>2021-07-23 19:11:15</t>
         </is>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>73457516</t>
+          <t>270737513</t>
         </is>
       </c>
       <c r="L34" t="inlineStr">
@@ -2914,7 +2891,7 @@
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>身为正骨老中医，不要问我为什么这么强。我会告诉你，久病成良医啊！</t>
+          <t>这里是Aria，是一位DD，目前在上高中，请多多关照。</t>
         </is>
       </c>
       <c r="N34" t="n">
@@ -2927,12 +2904,12 @@
       </c>
       <c r="P34" t="inlineStr">
         <is>
-          <t>洛天依9th生日纪念</t>
+          <t>还有醒着的么</t>
         </is>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
-          <t>洛天依9th生日纪念</t>
+          <t>希萝Hiiro</t>
         </is>
       </c>
     </row>
@@ -2944,37 +2921,37 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>4974360909</t>
+          <t>4974378784</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>晓歌冬渔</t>
+          <t>爱丽丝日常白给</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>-1</v>
+        <v>52</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>韩国舰长[辣眼睛]</t>
+          <t>在?转发中奖的事给我个回信?</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>4974360909</t>
+          <t>0</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>2021-07-23 18:59:31</t>
+          <t>2021-07-23 19:02:20</t>
         </is>
       </c>
       <c r="I35" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="J35" t="inlineStr">
         <is>
@@ -2983,29 +2960,37 @@
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>36117689</t>
+          <t>1795287</t>
         </is>
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>保密</t>
+          <t>女</t>
         </is>
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>（つ*'ω'*c）</t>
+          <t>生活让人们失望，游戏反而鼓励人们找到希望；生活没有教会人们的道理游戏反而教会了，真是讽刺</t>
         </is>
       </c>
       <c r="N35" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>大会员</t>
-        </is>
-      </c>
-      <c r="P35" t="inlineStr"/>
-      <c r="Q35" t="inlineStr"/>
+          <t>年度大会员</t>
+        </is>
+      </c>
+      <c r="P35" t="inlineStr">
+        <is>
+          <t>少女前线</t>
+        </is>
+      </c>
+      <c r="Q35" t="inlineStr">
+        <is>
+          <t>三周年恋曲</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -3015,20 +3000,20 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>4974347908</t>
+          <t>4974364070</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>千凋家的凋凋子派蒙</t>
+          <t>起风瓜瓜格</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>回复 @42584845195_bili :大草[原神_喝茶]</t>
+          <t>俺也一样[崩坏3_口水]</t>
         </is>
       </c>
       <c r="F36" t="n">
@@ -3036,25 +3021,25 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>4974142271</t>
+          <t>4974364070</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>2021-07-23 18:58:25</t>
+          <t>2021-07-23 19:00:41</t>
         </is>
       </c>
       <c r="I36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>319187707</t>
+          <t>286329857</t>
         </is>
       </c>
       <c r="L36" t="inlineStr">
@@ -3064,14 +3049,18 @@
       </c>
       <c r="M36" t="inlineStr"/>
       <c r="N36" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="O36" t="inlineStr">
         <is>
           <t>大会员</t>
         </is>
       </c>
-      <c r="P36" t="inlineStr"/>
+      <c r="P36" t="inlineStr">
+        <is>
+          <t>小闪电</t>
+        </is>
+      </c>
       <c r="Q36" t="inlineStr"/>
     </row>
     <row r="37">
@@ -3082,20 +3071,20 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>4974334796</t>
+          <t>4974353773</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>夜お金</t>
+          <t>这个名字我竟无言以对</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>-1</v>
+        <v>51</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>看满离[doge]</t>
+          <t>[崩坏3_口水]</t>
         </is>
       </c>
       <c r="F37" t="n">
@@ -3103,12 +3092,12 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>4974334796</t>
+          <t>0</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>2021-07-23 18:57:17</t>
+          <t>2021-07-23 18:59:38</t>
         </is>
       </c>
       <c r="I37" t="n">
@@ -3116,12 +3105,12 @@
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>324060656</t>
+          <t>73457516</t>
         </is>
       </c>
       <c r="L37" t="inlineStr">
@@ -3131,7 +3120,7 @@
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>平平淡淡才是真</t>
+          <t>身为正骨老中医，不要问我为什么这么强。我会告诉你，久病成良医啊！</t>
         </is>
       </c>
       <c r="N37" t="n">
@@ -3139,17 +3128,17 @@
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>大会员</t>
+          <t>年度大会员</t>
         </is>
       </c>
       <c r="P37" t="inlineStr">
         <is>
-          <t>崩坏3·天穹流星</t>
+          <t>洛天依9th生日纪念</t>
         </is>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
-          <t>崩坏3·天穹流星</t>
+          <t>洛天依9th生日纪念</t>
         </is>
       </c>
     </row>
@@ -3161,20 +3150,20 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>4974336354</t>
+          <t>4974360909</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>冬月伊织</t>
+          <t>晓歌冬渔</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>50</v>
+        <v>-1</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>识宝对风扇发声也太憨了[大笑]</t>
+          <t>韩国舰长[辣眼睛]</t>
         </is>
       </c>
       <c r="F38" t="n">
@@ -3182,16 +3171,16 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4974360909</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>2021-07-23 18:56:21</t>
+          <t>2021-07-23 18:59:31</t>
         </is>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="J38" t="inlineStr">
         <is>
@@ -3200,7 +3189,7 @@
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>9365560</t>
+          <t>36117689</t>
         </is>
       </c>
       <c r="L38" t="inlineStr">
@@ -3210,27 +3199,19 @@
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>今天依旧是没有中奖的一天呢~</t>
+          <t>（つ*'ω'*c）</t>
         </is>
       </c>
       <c r="N38" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>年度大会员</t>
-        </is>
-      </c>
-      <c r="P38" t="inlineStr">
-        <is>
-          <t>萌宠小兔挂件</t>
-        </is>
-      </c>
-      <c r="Q38" t="inlineStr">
-        <is>
-          <t>崩坏3·天穹流星</t>
-        </is>
-      </c>
+          <t>大会员</t>
+        </is>
+      </c>
+      <c r="P38" t="inlineStr"/>
+      <c r="Q38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -3240,60 +3221,56 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>4974319504</t>
+          <t>4974347908</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Emotional_梓皓</t>
+          <t>千凋家的凋凋子派蒙</t>
         </is>
       </c>
       <c r="D39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>回复 @42584845195_bili :大草[原神_喝茶]</t>
+        </is>
+      </c>
+      <c r="F39" t="n">
+        <v>0</v>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>4974142271</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>2021-07-23 18:58:25</t>
+        </is>
+      </c>
+      <c r="I39" t="n">
         <v>1</v>
       </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>上大号？</t>
-        </is>
-      </c>
-      <c r="F39" t="n">
-        <v>0</v>
-      </c>
-      <c r="G39" t="inlineStr">
-        <is>
-          <t>4974319504</t>
-        </is>
-      </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>2021-07-23 18:55:33</t>
-        </is>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>396422021</t>
+          <t>319187707</t>
         </is>
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>男</t>
-        </is>
-      </c>
-      <c r="M39" t="inlineStr">
-        <is>
-          <t>一直在抽奖，一直没中QAQ</t>
-        </is>
-      </c>
+          <t>保密</t>
+        </is>
+      </c>
+      <c r="M39" t="inlineStr"/>
       <c r="N39" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="O39" t="inlineStr">
         <is>
@@ -3311,20 +3288,20 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>4974312942</t>
+          <t>4974334796</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>匹诺曹Pinoc</t>
+          <t>夜お金</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>48</v>
+        <v>-1</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>新的弔图马上出现</t>
+          <t>看满离[doge]</t>
         </is>
       </c>
       <c r="F40" t="n">
@@ -3332,12 +3309,12 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4974334796</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>2021-07-23 18:54:02</t>
+          <t>2021-07-23 18:57:17</t>
         </is>
       </c>
       <c r="I40" t="n">
@@ -3350,7 +3327,7 @@
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>36567254</t>
+          <t>324060656</t>
         </is>
       </c>
       <c r="L40" t="inlineStr">
@@ -3358,13 +3335,17 @@
           <t>保密</t>
         </is>
       </c>
-      <c r="M40" t="inlineStr"/>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>平平淡淡才是真</t>
+        </is>
+      </c>
       <c r="N40" t="n">
         <v>5</v>
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>年度大会员</t>
+          <t>大会员</t>
         </is>
       </c>
       <c r="P40" t="inlineStr">
@@ -3386,20 +3367,20 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>4974304105</t>
+          <t>4974336354</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>在心动_</t>
+          <t>冬月伊织</t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>好家伙，我都快开学了</t>
+          <t>识宝对风扇发声也太憨了[大笑]</t>
         </is>
       </c>
       <c r="F41" t="n">
@@ -3412,7 +3393,7 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>2021-07-23 18:53:10</t>
+          <t>2021-07-23 18:56:21</t>
         </is>
       </c>
       <c r="I41" t="n">
@@ -3425,7 +3406,7 @@
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>357064238</t>
+          <t>9365560</t>
         </is>
       </c>
       <c r="L41" t="inlineStr">
@@ -3435,25 +3416,25 @@
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>❕该账号封禁中</t>
+          <t>今天依旧是没有中奖的一天呢~</t>
         </is>
       </c>
       <c r="N41" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>大会员</t>
+          <t>年度大会员</t>
         </is>
       </c>
       <c r="P41" t="inlineStr">
         <is>
-          <t>星座系列：水瓶座</t>
+          <t>萌宠小兔挂件</t>
         </is>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
-          <t>星座系列：水瓶座</t>
+          <t>崩坏3·天穹流星</t>
         </is>
       </c>
     </row>
@@ -3465,20 +3446,20 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>4974281840</t>
+          <t>4974319504</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>计屁碍事GPS</t>
+          <t>Emotional_梓皓</t>
         </is>
       </c>
       <c r="D42" t="n">
-        <v>46</v>
+        <v>1</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>希儿情头[崩坏3_GKD][崩坏3_拜托了]</t>
+          <t>上大号？</t>
         </is>
       </c>
       <c r="F42" t="n">
@@ -3486,12 +3467,12 @@
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4974319504</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>2021-07-23 18:49:37</t>
+          <t>2021-07-23 18:55:33</t>
         </is>
       </c>
       <c r="I42" t="n">
@@ -3499,12 +3480,12 @@
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>苹果</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>34482589</t>
+          <t>396422021</t>
         </is>
       </c>
       <c r="L42" t="inlineStr">
@@ -3512,7 +3493,11 @@
           <t>男</t>
         </is>
       </c>
-      <c r="M42" t="inlineStr"/>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>一直在抽奖，一直没中QAQ</t>
+        </is>
+      </c>
       <c r="N42" t="n">
         <v>5</v>
       </c>
@@ -3521,11 +3506,7 @@
           <t>大会员</t>
         </is>
       </c>
-      <c r="P42" t="inlineStr">
-        <is>
-          <t>原神</t>
-        </is>
-      </c>
+      <c r="P42" t="inlineStr"/>
       <c r="Q42" t="inlineStr"/>
     </row>
     <row r="43">
@@ -3536,20 +3517,20 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>4974269060</t>
+          <t>4974312942</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>纯白恶魔_</t>
+          <t>匹诺曹Pinoc</t>
         </is>
       </c>
       <c r="D43" t="n">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>芜湖，有情头诶，</t>
+          <t>新的弔图马上出现</t>
         </is>
       </c>
       <c r="F43" t="n">
@@ -3562,7 +3543,7 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>2021-07-23 18:48:34</t>
+          <t>2021-07-23 18:54:02</t>
         </is>
       </c>
       <c r="I43" t="n">
@@ -3575,12 +3556,12 @@
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>34199793</t>
+          <t>36567254</t>
         </is>
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>女</t>
+          <t>保密</t>
         </is>
       </c>
       <c r="M43" t="inlineStr"/>
@@ -3589,7 +3570,7 @@
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>大会员</t>
+          <t>年度大会员</t>
         </is>
       </c>
       <c r="P43" t="inlineStr">
@@ -3611,705 +3592,705 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
+          <t>4974304105</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>在心动_</t>
+        </is>
+      </c>
+      <c r="D44" t="n">
+        <v>47</v>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>好家伙，我都快开学了</t>
+        </is>
+      </c>
+      <c r="F44" t="n">
+        <v>0</v>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>2021-07-23 18:53:10</t>
+        </is>
+      </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>安卓</t>
+        </is>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>357064238</t>
+        </is>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>保密</t>
+        </is>
+      </c>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>❕该账号封禁中</t>
+        </is>
+      </c>
+      <c r="N44" t="n">
+        <v>4</v>
+      </c>
+      <c r="O44" t="inlineStr">
+        <is>
+          <t>大会员</t>
+        </is>
+      </c>
+      <c r="P44" t="inlineStr">
+        <is>
+          <t>星座系列：水瓶座</t>
+        </is>
+      </c>
+      <c r="Q44" t="inlineStr">
+        <is>
+          <t>星座系列：水瓶座</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>256667467</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>4974281840</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>计屁碍事GPS</t>
+        </is>
+      </c>
+      <c r="D45" t="n">
+        <v>46</v>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>希儿情头[崩坏3_GKD][崩坏3_拜托了]</t>
+        </is>
+      </c>
+      <c r="F45" t="n">
+        <v>0</v>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>2021-07-23 18:49:37</t>
+        </is>
+      </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>苹果</t>
+        </is>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>34482589</t>
+        </is>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>男</t>
+        </is>
+      </c>
+      <c r="M45" t="inlineStr"/>
+      <c r="N45" t="n">
+        <v>5</v>
+      </c>
+      <c r="O45" t="inlineStr">
+        <is>
+          <t>大会员</t>
+        </is>
+      </c>
+      <c r="P45" t="inlineStr">
+        <is>
+          <t>原神</t>
+        </is>
+      </c>
+      <c r="Q45" t="inlineStr"/>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>256667467</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>4974269060</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>纯白恶魔_</t>
+        </is>
+      </c>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>芜湖，有情头诶，</t>
+        </is>
+      </c>
+      <c r="F46" t="n">
+        <v>0</v>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>2021-07-23 18:48:34</t>
+        </is>
+      </c>
+      <c r="I46" t="n">
+        <v>0</v>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>安卓</t>
+        </is>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>34199793</t>
+        </is>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>女</t>
+        </is>
+      </c>
+      <c r="M46" t="inlineStr"/>
+      <c r="N46" t="n">
+        <v>5</v>
+      </c>
+      <c r="O46" t="inlineStr">
+        <is>
+          <t>大会员</t>
+        </is>
+      </c>
+      <c r="P46" t="inlineStr">
+        <is>
+          <t>崩坏3·天穹流星</t>
+        </is>
+      </c>
+      <c r="Q46" t="inlineStr">
+        <is>
+          <t>崩坏3·天穹流星</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>256667467</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
           <t>4974258532</t>
         </is>
       </c>
-      <c r="C44" t="inlineStr">
+      <c r="C47" t="inlineStr">
         <is>
           <t>和大的啊大</t>
         </is>
       </c>
-      <c r="D44" t="n">
+      <c r="D47" t="n">
         <v>44</v>
       </c>
-      <c r="E44" t="inlineStr">
+      <c r="E47" t="inlineStr">
         <is>
           <t>第八个表情让我想到那个喷射的那个图[笑哭][笑哭]
 此刻正是，审判之时[doge][doge]</t>
         </is>
       </c>
-      <c r="F44" t="n">
-        <v>0</v>
-      </c>
-      <c r="G44" t="inlineStr">
+      <c r="F47" t="n">
+        <v>0</v>
+      </c>
+      <c r="G47" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="H44" t="inlineStr">
+      <c r="H47" t="inlineStr">
         <is>
           <t>2021-07-23 18:46:24</t>
         </is>
       </c>
-      <c r="I44" t="n">
+      <c r="I47" t="n">
         <v>1</v>
       </c>
-      <c r="J44" t="inlineStr">
+      <c r="J47" t="inlineStr">
         <is>
           <t>安卓</t>
         </is>
       </c>
-      <c r="K44" t="inlineStr">
+      <c r="K47" t="inlineStr">
         <is>
           <t>26957615</t>
         </is>
       </c>
-      <c r="L44" t="inlineStr">
+      <c r="L47" t="inlineStr">
         <is>
           <t>男</t>
         </is>
       </c>
-      <c r="M44" t="inlineStr">
+      <c r="M47" t="inlineStr">
         <is>
           <t>***</t>
         </is>
       </c>
-      <c r="N44" t="n">
+      <c r="N47" t="n">
         <v>6</v>
       </c>
-      <c r="O44" t="inlineStr">
+      <c r="O47" t="inlineStr">
         <is>
           <t>年度大会员</t>
         </is>
       </c>
-      <c r="P44" t="inlineStr"/>
-      <c r="Q44" t="inlineStr">
+      <c r="P47" t="inlineStr"/>
+      <c r="Q47" t="inlineStr">
         <is>
           <t>崩坏3·天穹流星</t>
         </is>
       </c>
     </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>256667467</t>
-        </is>
-      </c>
-      <c r="B45" t="inlineStr">
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>256667467</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
         <is>
           <t>4974256618</t>
         </is>
       </c>
-      <c r="C45" t="inlineStr">
+      <c r="C48" t="inlineStr">
         <is>
           <t>十玄殿</t>
         </is>
       </c>
-      <c r="D45" t="n">
+      <c r="D48" t="n">
         <v>43</v>
       </c>
-      <c r="E45" t="inlineStr">
+      <c r="E48" t="inlineStr">
         <is>
           <t>识律小屁孩[笑哭]</t>
         </is>
       </c>
-      <c r="F45" t="n">
-        <v>0</v>
-      </c>
-      <c r="G45" t="inlineStr">
+      <c r="F48" t="n">
+        <v>0</v>
+      </c>
+      <c r="G48" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="H45" t="inlineStr">
+      <c r="H48" t="inlineStr">
         <is>
           <t>2021-07-23 18:45:39</t>
         </is>
       </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="inlineStr">
+      <c r="I48" t="n">
+        <v>0</v>
+      </c>
+      <c r="J48" t="inlineStr">
         <is>
           <t>安卓</t>
         </is>
       </c>
-      <c r="K45" t="inlineStr">
+      <c r="K48" t="inlineStr">
         <is>
           <t>19103673</t>
         </is>
       </c>
-      <c r="L45" t="inlineStr">
+      <c r="L48" t="inlineStr">
         <is>
           <t>男</t>
         </is>
       </c>
-      <c r="M45" t="inlineStr">
+      <c r="M48" t="inlineStr">
         <is>
           <t>幻想，只是灵魂的力量。(￣_￣ )
 在现实中，毫无作用Ծ‸Ծ</t>
         </is>
       </c>
-      <c r="N45" t="n">
+      <c r="N48" t="n">
         <v>5</v>
       </c>
-      <c r="O45" t="inlineStr">
+      <c r="O48" t="inlineStr">
         <is>
           <t>大会员</t>
         </is>
       </c>
-      <c r="P45" t="inlineStr"/>
-      <c r="Q45" t="inlineStr"/>
-    </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>256667467</t>
-        </is>
-      </c>
-      <c r="B46" t="inlineStr">
+      <c r="P48" t="inlineStr"/>
+      <c r="Q48" t="inlineStr"/>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>256667467</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
         <is>
           <t>4974235389</t>
         </is>
       </c>
-      <c r="C46" t="inlineStr">
+      <c r="C49" t="inlineStr">
         <is>
           <t>红星的照耀</t>
         </is>
       </c>
-      <c r="D46" t="n">
+      <c r="D49" t="n">
         <v>42</v>
       </c>
-      <c r="E46" t="inlineStr">
+      <c r="E49" t="inlineStr">
         <is>
           <t>飞鱼丸，你又在转发动态了，休息一下吧[doge]</t>
         </is>
       </c>
-      <c r="F46" t="n">
-        <v>0</v>
-      </c>
-      <c r="G46" t="inlineStr">
+      <c r="F49" t="n">
+        <v>0</v>
+      </c>
+      <c r="G49" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="H46" t="inlineStr">
+      <c r="H49" t="inlineStr">
         <is>
           <t>2021-07-23 18:42:46</t>
         </is>
       </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
-      <c r="J46" t="inlineStr">
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="inlineStr">
         <is>
           <t>安卓</t>
         </is>
       </c>
-      <c r="K46" t="inlineStr">
+      <c r="K49" t="inlineStr">
         <is>
           <t>492363445</t>
         </is>
       </c>
-      <c r="L46" t="inlineStr">
+      <c r="L49" t="inlineStr">
         <is>
           <t>保密</t>
         </is>
       </c>
-      <c r="M46" t="inlineStr"/>
-      <c r="N46" t="n">
+      <c r="M49" t="inlineStr"/>
+      <c r="N49" t="n">
         <v>4</v>
       </c>
-      <c r="O46" t="inlineStr">
+      <c r="O49" t="inlineStr">
         <is>
           <t>大会员</t>
         </is>
       </c>
-      <c r="P46" t="inlineStr"/>
-      <c r="Q46" t="inlineStr"/>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>256667467</t>
-        </is>
-      </c>
-      <c r="B47" t="inlineStr">
+      <c r="P49" t="inlineStr"/>
+      <c r="Q49" t="inlineStr"/>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>256667467</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
         <is>
           <t>4974225868</t>
         </is>
       </c>
-      <c r="C47" t="inlineStr">
+      <c r="C50" t="inlineStr">
         <is>
           <t>彼时溯</t>
         </is>
       </c>
-      <c r="D47" t="n">
+      <c r="D50" t="n">
         <v>41</v>
       </c>
-      <c r="E47" t="inlineStr">
+      <c r="E50" t="inlineStr">
         <is>
           <t>图四黑希：舰长，你怎么只有这么点？[嫌弃][嫌弃]
 图五希儿：舰长，你只有这么点[害羞][害羞]</t>
         </is>
       </c>
-      <c r="F47" t="n">
+      <c r="F50" t="n">
         <v>8</v>
       </c>
-      <c r="G47" t="inlineStr">
+      <c r="G50" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="H47" t="inlineStr">
+      <c r="H50" t="inlineStr">
         <is>
           <t>2021-07-23 18:41:20</t>
         </is>
       </c>
-      <c r="I47" t="n">
-        <v>135</v>
-      </c>
-      <c r="J47" t="inlineStr">
+      <c r="I50" t="n">
+        <v>140</v>
+      </c>
+      <c r="J50" t="inlineStr">
         <is>
           <t>安卓</t>
         </is>
       </c>
-      <c r="K47" t="inlineStr">
+      <c r="K50" t="inlineStr">
         <is>
           <t>95947256</t>
         </is>
       </c>
-      <c r="L47" t="inlineStr">
+      <c r="L50" t="inlineStr">
         <is>
           <t>男</t>
         </is>
       </c>
-      <c r="M47" t="inlineStr">
+      <c r="M50" t="inlineStr">
         <is>
           <t>没有那个必要</t>
         </is>
       </c>
-      <c r="N47" t="n">
+      <c r="N50" t="n">
         <v>5</v>
       </c>
-      <c r="O47" t="inlineStr"/>
-      <c r="P47" t="inlineStr"/>
-      <c r="Q47" t="inlineStr"/>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>256667467</t>
-        </is>
-      </c>
-      <c r="B48" t="inlineStr">
+      <c r="O50" t="inlineStr"/>
+      <c r="P50" t="inlineStr"/>
+      <c r="Q50" t="inlineStr"/>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>256667467</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
         <is>
           <t>4974221584</t>
         </is>
       </c>
-      <c r="C48" t="inlineStr">
+      <c r="C51" t="inlineStr">
         <is>
           <t>蒲柯</t>
         </is>
       </c>
-      <c r="D48" t="n">
+      <c r="D51" t="n">
         <v>40</v>
       </c>
-      <c r="E48" t="inlineStr">
+      <c r="E51" t="inlineStr">
         <is>
           <t>很喜欢米桑的精彩剧情文案“奇怪明明穿的不是很多感觉很热。”“用兔耳朵和运气赢得尊严和未来。”“你们不开放些，客人们是不会喜欢的。”“可恶，这件也太小了吧，肉都被挤出来了”[给心心]</t>
         </is>
       </c>
-      <c r="F48" t="n">
-        <v>0</v>
-      </c>
-      <c r="G48" t="inlineStr">
+      <c r="F51" t="n">
+        <v>0</v>
+      </c>
+      <c r="G51" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="H48" t="inlineStr">
+      <c r="H51" t="inlineStr">
         <is>
           <t>2021-07-23 18:41:18</t>
         </is>
       </c>
-      <c r="I48" t="n">
+      <c r="I51" t="n">
         <v>1</v>
       </c>
-      <c r="J48" t="inlineStr">
+      <c r="J51" t="inlineStr">
         <is>
           <t>安卓</t>
         </is>
       </c>
-      <c r="K48" t="inlineStr">
+      <c r="K51" t="inlineStr">
         <is>
           <t>1251837426</t>
         </is>
       </c>
-      <c r="L48" t="inlineStr">
+      <c r="L51" t="inlineStr">
         <is>
           <t>保密</t>
         </is>
       </c>
-      <c r="M48" t="inlineStr"/>
-      <c r="N48" t="n">
+      <c r="M51" t="inlineStr"/>
+      <c r="N51" t="n">
         <v>2</v>
       </c>
-      <c r="O48" t="inlineStr"/>
-      <c r="P48" t="inlineStr"/>
-      <c r="Q48" t="inlineStr"/>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>256667467</t>
-        </is>
-      </c>
-      <c r="B49" t="inlineStr">
+      <c r="O51" t="inlineStr"/>
+      <c r="P51" t="inlineStr"/>
+      <c r="Q51" t="inlineStr"/>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>256667467</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
         <is>
           <t>4974217019</t>
         </is>
       </c>
-      <c r="C49" t="inlineStr">
+      <c r="C52" t="inlineStr">
         <is>
           <t>蒲柯</t>
         </is>
       </c>
-      <c r="D49" t="n">
+      <c r="D52" t="n">
         <v>39</v>
       </c>
-      <c r="E49" t="inlineStr">
+      <c r="E52" t="inlineStr">
         <is>
           <t>为视频里所有的美好而战崩坏3PⅤBV1YA41157Dt[给心心]</t>
         </is>
       </c>
-      <c r="F49" t="n">
+      <c r="F52" t="n">
         <v>1</v>
       </c>
-      <c r="G49" t="inlineStr">
+      <c r="G52" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="H49" t="inlineStr">
+      <c r="H52" t="inlineStr">
         <is>
           <t>2021-07-23 18:41:12</t>
         </is>
       </c>
-      <c r="I49" t="n">
+      <c r="I52" t="n">
         <v>3</v>
       </c>
-      <c r="J49" t="inlineStr">
+      <c r="J52" t="inlineStr">
         <is>
           <t>安卓</t>
         </is>
       </c>
-      <c r="K49" t="inlineStr">
+      <c r="K52" t="inlineStr">
         <is>
           <t>1251837426</t>
         </is>
       </c>
-      <c r="L49" t="inlineStr">
+      <c r="L52" t="inlineStr">
         <is>
           <t>保密</t>
         </is>
       </c>
-      <c r="M49" t="inlineStr"/>
-      <c r="N49" t="n">
+      <c r="M52" t="inlineStr"/>
+      <c r="N52" t="n">
         <v>2</v>
       </c>
-      <c r="O49" t="inlineStr"/>
-      <c r="P49" t="inlineStr"/>
-      <c r="Q49" t="inlineStr"/>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>256667467</t>
-        </is>
-      </c>
-      <c r="B50" t="inlineStr">
+      <c r="O52" t="inlineStr"/>
+      <c r="P52" t="inlineStr"/>
+      <c r="Q52" t="inlineStr"/>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>256667467</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
         <is>
           <t>4974199687</t>
         </is>
       </c>
-      <c r="C50" t="inlineStr">
+      <c r="C53" t="inlineStr">
         <is>
           <t>殺丘さま</t>
         </is>
       </c>
-      <c r="D50" t="n">
+      <c r="D53" t="n">
         <v>-1</v>
       </c>
-      <c r="E50" t="inlineStr">
+      <c r="E53" t="inlineStr">
         <is>
           <t>爷青回</t>
         </is>
       </c>
-      <c r="F50" t="n">
-        <v>0</v>
-      </c>
-      <c r="G50" t="inlineStr">
+      <c r="F53" t="n">
+        <v>0</v>
+      </c>
+      <c r="G53" t="inlineStr">
         <is>
           <t>4974199687</t>
         </is>
       </c>
-      <c r="H50" t="inlineStr">
+      <c r="H53" t="inlineStr">
         <is>
           <t>2021-07-23 18:38:52</t>
         </is>
       </c>
-      <c r="I50" t="n">
-        <v>0</v>
-      </c>
-      <c r="J50" t="inlineStr">
+      <c r="I53" t="n">
+        <v>0</v>
+      </c>
+      <c r="J53" t="inlineStr">
         <is>
           <t>苹果</t>
         </is>
       </c>
-      <c r="K50" t="inlineStr">
+      <c r="K53" t="inlineStr">
         <is>
           <t>530958433</t>
         </is>
       </c>
-      <c r="L50" t="inlineStr">
+      <c r="L53" t="inlineStr">
         <is>
           <t>保密</t>
         </is>
       </c>
-      <c r="M50" t="inlineStr">
+      <c r="M53" t="inlineStr">
         <is>
           <t>住校，六日回来 QQ：2686232730
 邮箱：seizekenkill@outlook</t>
         </is>
       </c>
-      <c r="N50" t="n">
+      <c r="N53" t="n">
         <v>4</v>
       </c>
-      <c r="O50" t="inlineStr">
+      <c r="O53" t="inlineStr">
         <is>
           <t>大会员</t>
         </is>
       </c>
-      <c r="P50" t="inlineStr"/>
-      <c r="Q50" t="inlineStr">
+      <c r="P53" t="inlineStr"/>
+      <c r="Q53" t="inlineStr">
         <is>
           <t>#EveOneCat</t>
-        </is>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>256667467</t>
-        </is>
-      </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>4974189871</t>
-        </is>
-      </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>散華-禮瀰</t>
-        </is>
-      </c>
-      <c r="D51" t="n">
-        <v>37</v>
-      </c>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>识宝，你怎么跟个傻子一样[doge]</t>
-        </is>
-      </c>
-      <c r="F51" t="n">
-        <v>0</v>
-      </c>
-      <c r="G51" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>2021-07-23 18:38:02</t>
-        </is>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="inlineStr">
-        <is>
-          <t>安卓</t>
-        </is>
-      </c>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>96260615</t>
-        </is>
-      </c>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>男</t>
-        </is>
-      </c>
-      <c r="M51" t="inlineStr">
-        <is>
-          <t>淦！</t>
-        </is>
-      </c>
-      <c r="N51" t="n">
-        <v>5</v>
-      </c>
-      <c r="O51" t="inlineStr">
-        <is>
-          <t>年度大会员</t>
-        </is>
-      </c>
-      <c r="P51" t="inlineStr">
-        <is>
-          <t>原神</t>
-        </is>
-      </c>
-      <c r="Q51" t="inlineStr">
-        <is>
-          <t>原神</t>
-        </is>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>256667467</t>
-        </is>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>4974190638</t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>可爱布丁舰长</t>
-        </is>
-      </c>
-      <c r="D52" t="n">
-        <v>36</v>
-      </c>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>识三岁呵呵呵呵</t>
-        </is>
-      </c>
-      <c r="F52" t="n">
-        <v>0</v>
-      </c>
-      <c r="G52" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>2021-07-23 18:37:09</t>
-        </is>
-      </c>
-      <c r="I52" t="n">
-        <v>7</v>
-      </c>
-      <c r="J52" t="inlineStr">
-        <is>
-          <t>安卓</t>
-        </is>
-      </c>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>49981668</t>
-        </is>
-      </c>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>保密</t>
-        </is>
-      </c>
-      <c r="M52" t="inlineStr"/>
-      <c r="N52" t="n">
-        <v>5</v>
-      </c>
-      <c r="O52" t="inlineStr">
-        <is>
-          <t>年度大会员</t>
-        </is>
-      </c>
-      <c r="P52" t="inlineStr"/>
-      <c r="Q52" t="inlineStr"/>
-    </row>
-    <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>256667467</t>
-        </is>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>4974176186</t>
-        </is>
-      </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>硫酸兑水滴眼睛</t>
-        </is>
-      </c>
-      <c r="D53" t="n">
-        <v>1</v>
-      </c>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>口水擦擦[崩坏3_吃惊]</t>
-        </is>
-      </c>
-      <c r="F53" t="n">
-        <v>0</v>
-      </c>
-      <c r="G53" t="inlineStr">
-        <is>
-          <t>4974176186</t>
-        </is>
-      </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>2021-07-23 18:35:25</t>
-        </is>
-      </c>
-      <c r="I53" t="n">
-        <v>3</v>
-      </c>
-      <c r="J53" t="inlineStr">
-        <is>
-          <t>未知</t>
-        </is>
-      </c>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>439160450</t>
-        </is>
-      </c>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>保密</t>
-        </is>
-      </c>
-      <c r="M53" t="inlineStr">
-        <is>
-          <t>白内障看不清，硫酸兑水滴眼睛O_O"</t>
-        </is>
-      </c>
-      <c r="N53" t="n">
-        <v>5</v>
-      </c>
-      <c r="O53" t="inlineStr">
-        <is>
-          <t>大会员</t>
-        </is>
-      </c>
-      <c r="P53" t="inlineStr">
-        <is>
-          <t>原神</t>
-        </is>
-      </c>
-      <c r="Q53" t="inlineStr">
-        <is>
-          <t>原神</t>
         </is>
       </c>
     </row>
@@ -4321,20 +4302,20 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>4974171920</t>
+          <t>4974189871</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>简約の</t>
+          <t>散華-禮瀰</t>
         </is>
       </c>
       <c r="D54" t="n">
-        <v>-1</v>
+        <v>37</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>看一下我的满命钟离[崩坏3_口水]</t>
+          <t>识宝，你怎么跟个傻子一样[doge]</t>
         </is>
       </c>
       <c r="F54" t="n">
@@ -4342,35 +4323,35 @@
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>4974171920</t>
+          <t>0</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>2021-07-23 18:34:30</t>
+          <t>2021-07-23 18:38:02</t>
         </is>
       </c>
       <c r="I54" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>32291048</t>
+          <t>96260615</t>
         </is>
       </c>
       <c r="L54" t="inlineStr">
         <is>
-          <t>保密</t>
+          <t>男</t>
         </is>
       </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t>知足常乐 ʘᴗʘ</t>
+          <t>淦！</t>
         </is>
       </c>
       <c r="N54" t="n">
@@ -4386,7 +4367,11 @@
           <t>原神</t>
         </is>
       </c>
-      <c r="Q54" t="inlineStr"/>
+      <c r="Q54" t="inlineStr">
+        <is>
+          <t>原神</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -4396,20 +4381,20 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>4974168659</t>
+          <t>4974190638</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>烤奶全糖不加冰丶</t>
+          <t>可爱布丁舰长</t>
         </is>
       </c>
       <c r="D55" t="n">
-        <v>-1</v>
+        <v>36</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>今超鹿？[doge]</t>
+          <t>识三岁呵呵呵呵</t>
         </is>
       </c>
       <c r="F55" t="n">
@@ -4417,25 +4402,25 @@
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>4974168659</t>
+          <t>0</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>2021-07-23 18:34:29</t>
+          <t>2021-07-23 18:37:09</t>
         </is>
       </c>
       <c r="I55" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>293262117</t>
+          <t>49981668</t>
         </is>
       </c>
       <c r="L55" t="inlineStr">
@@ -4449,7 +4434,7 @@
       </c>
       <c r="O55" t="inlineStr">
         <is>
-          <t>大会员</t>
+          <t>年度大会员</t>
         </is>
       </c>
       <c r="P55" t="inlineStr"/>
@@ -4463,20 +4448,20 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>4974159461</t>
+          <t>4974176186</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>42584845195_bili</t>
+          <t>硫酸兑水滴眼睛</t>
         </is>
       </c>
       <c r="D56" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>回复 @等待樱花的下一次绽放 :难道不是：看！满命钟离[呲牙]</t>
+          <t>口水擦擦[崩坏3_吃惊]</t>
         </is>
       </c>
       <c r="F56" t="n">
@@ -4484,47 +4469,55 @@
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>4974142271</t>
+          <t>4974176186</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>2021-07-23 18:33:24</t>
+          <t>2021-07-23 18:35:25</t>
         </is>
       </c>
       <c r="I56" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>398412542</t>
+          <t>439160450</t>
         </is>
       </c>
       <c r="L56" t="inlineStr">
         <is>
-          <t>男</t>
+          <t>保密</t>
         </is>
       </c>
       <c r="M56" t="inlineStr">
         <is>
-          <t>这个人很神秘，什么都没有写</t>
+          <t>白内障看不清，硫酸兑水滴眼睛O_O"</t>
         </is>
       </c>
       <c r="N56" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="O56" t="inlineStr">
         <is>
           <t>大会员</t>
         </is>
       </c>
-      <c r="P56" t="inlineStr"/>
-      <c r="Q56" t="inlineStr"/>
+      <c r="P56" t="inlineStr">
+        <is>
+          <t>原神</t>
+        </is>
+      </c>
+      <c r="Q56" t="inlineStr">
+        <is>
+          <t>原神</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -4534,12 +4527,12 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>4974157893</t>
+          <t>4974171920</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>尘封的微风</t>
+          <t>简約の</t>
         </is>
       </c>
       <c r="D57" t="n">
@@ -4547,7 +4540,7 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>回复 @等待樱花的下一次绽放 :懂了懂了</t>
+          <t>看一下我的满命钟离[崩坏3_口水]</t>
         </is>
       </c>
       <c r="F57" t="n">
@@ -4555,25 +4548,25 @@
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>4974142271</t>
+          <t>4974171920</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>2021-07-23 18:32:41</t>
+          <t>2021-07-23 18:34:30</t>
         </is>
       </c>
       <c r="I57" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>苹果</t>
         </is>
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>349002256</t>
+          <t>32291048</t>
         </is>
       </c>
       <c r="L57" t="inlineStr">
@@ -4581,9 +4574,13 @@
           <t>保密</t>
         </is>
       </c>
-      <c r="M57" t="inlineStr"/>
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>知足常乐 ʘᴗʘ</t>
+        </is>
+      </c>
       <c r="N57" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="O57" t="inlineStr">
         <is>
@@ -4592,14 +4589,10 @@
       </c>
       <c r="P57" t="inlineStr">
         <is>
-          <t>崩坏3·天穹流星</t>
-        </is>
-      </c>
-      <c r="Q57" t="inlineStr">
-        <is>
-          <t>崩坏3·天穹流星</t>
-        </is>
-      </c>
+          <t>原神</t>
+        </is>
+      </c>
+      <c r="Q57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -4609,54 +4602,267 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
+          <t>4974168659</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>烤奶全糖不加冰丶</t>
+        </is>
+      </c>
+      <c r="D58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>今超鹿？[doge]</t>
+        </is>
+      </c>
+      <c r="F58" t="n">
+        <v>0</v>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>4974168659</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>2021-07-23 18:34:29</t>
+        </is>
+      </c>
+      <c r="I58" t="n">
+        <v>1</v>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>安卓</t>
+        </is>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>293262117</t>
+        </is>
+      </c>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>保密</t>
+        </is>
+      </c>
+      <c r="M58" t="inlineStr"/>
+      <c r="N58" t="n">
+        <v>5</v>
+      </c>
+      <c r="O58" t="inlineStr">
+        <is>
+          <t>大会员</t>
+        </is>
+      </c>
+      <c r="P58" t="inlineStr"/>
+      <c r="Q58" t="inlineStr"/>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>256667467</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>4974159461</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>42584845195_bili</t>
+        </is>
+      </c>
+      <c r="D59" t="n">
+        <v>-1</v>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>回复 @等待樱花的下一次绽放 :难道不是：看！满命钟离[呲牙]</t>
+        </is>
+      </c>
+      <c r="F59" t="n">
+        <v>0</v>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>4974142271</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>2021-07-23 18:33:24</t>
+        </is>
+      </c>
+      <c r="I59" t="n">
+        <v>1</v>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>安卓</t>
+        </is>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>398412542</t>
+        </is>
+      </c>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>男</t>
+        </is>
+      </c>
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>这个人很神秘，什么都没有写</t>
+        </is>
+      </c>
+      <c r="N59" t="n">
+        <v>4</v>
+      </c>
+      <c r="O59" t="inlineStr">
+        <is>
+          <t>大会员</t>
+        </is>
+      </c>
+      <c r="P59" t="inlineStr"/>
+      <c r="Q59" t="inlineStr"/>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>256667467</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>4974157893</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>尘封的微风</t>
+        </is>
+      </c>
+      <c r="D60" t="n">
+        <v>-1</v>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>回复 @等待樱花的下一次绽放 :懂了懂了</t>
+        </is>
+      </c>
+      <c r="F60" t="n">
+        <v>0</v>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>4974142271</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>2021-07-23 18:32:41</t>
+        </is>
+      </c>
+      <c r="I60" t="n">
+        <v>0</v>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>安卓</t>
+        </is>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>349002256</t>
+        </is>
+      </c>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>保密</t>
+        </is>
+      </c>
+      <c r="M60" t="inlineStr"/>
+      <c r="N60" t="n">
+        <v>4</v>
+      </c>
+      <c r="O60" t="inlineStr">
+        <is>
+          <t>年度大会员</t>
+        </is>
+      </c>
+      <c r="P60" t="inlineStr">
+        <is>
+          <t>崩坏3·天穹流星</t>
+        </is>
+      </c>
+      <c r="Q60" t="inlineStr">
+        <is>
+          <t>崩坏3·天穹流星</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>256667467</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
           <t>4974156233</t>
         </is>
       </c>
-      <c r="C58" t="inlineStr">
+      <c r="C61" t="inlineStr">
         <is>
           <t>开心的琳芙斯</t>
         </is>
       </c>
-      <c r="D58" t="n">
+      <c r="D61" t="n">
         <v>35</v>
       </c>
-      <c r="E58" t="inlineStr">
+      <c r="E61" t="inlineStr">
         <is>
           <t>我喜欢你[崩坏3_口水]</t>
         </is>
       </c>
-      <c r="F58" t="n">
+      <c r="F61" t="n">
         <v>2</v>
       </c>
-      <c r="G58" t="inlineStr">
+      <c r="G61" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="H58" t="inlineStr">
+      <c r="H61" t="inlineStr">
         <is>
           <t>2021-07-23 18:31:58</t>
         </is>
       </c>
-      <c r="I58" t="n">
-        <v>70</v>
-      </c>
-      <c r="J58" t="inlineStr">
+      <c r="I61" t="n">
+        <v>73</v>
+      </c>
+      <c r="J61" t="inlineStr">
         <is>
           <t>安卓</t>
         </is>
       </c>
-      <c r="K58" t="inlineStr">
+      <c r="K61" t="inlineStr">
         <is>
           <t>20918170</t>
         </is>
       </c>
-      <c r="L58" t="inlineStr">
+      <c r="L61" t="inlineStr">
         <is>
           <t>男</t>
         </is>
       </c>
-      <c r="M58" t="inlineStr">
+      <c r="M61" t="inlineStr">
         <is>
           <t>执手听音裙流香，弦断魂销，芳心何伤？
 笑靥花落明眸动，残梦惊醒，因何彷徨？
@@ -4664,241 +4870,8 @@
 风翩柳絮月容黯，香肩微寒，叶落凄凉。</t>
         </is>
       </c>
-      <c r="N58" t="n">
+      <c r="N61" t="n">
         <v>6</v>
-      </c>
-      <c r="O58" t="inlineStr">
-        <is>
-          <t>年度大会员</t>
-        </is>
-      </c>
-      <c r="P58" t="inlineStr">
-        <is>
-          <t>崩坏3·天穹流星</t>
-        </is>
-      </c>
-      <c r="Q58" t="inlineStr">
-        <is>
-          <t>崩坏3·天穹流星</t>
-        </is>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="inlineStr">
-        <is>
-          <t>256667467</t>
-        </is>
-      </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>4974155780</t>
-        </is>
-      </c>
-      <c r="C59" t="inlineStr">
-        <is>
-          <t>等待樱花的下一次绽放</t>
-        </is>
-      </c>
-      <c r="D59" t="n">
-        <v>-1</v>
-      </c>
-      <c r="E59" t="inlineStr">
-        <is>
-          <t>回复 @崩坏3 :你连未定的都超不过，丢不丢人呀[doge]</t>
-        </is>
-      </c>
-      <c r="F59" t="n">
-        <v>0</v>
-      </c>
-      <c r="G59" t="inlineStr">
-        <is>
-          <t>4974131160</t>
-        </is>
-      </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>2021-07-23 18:31:45</t>
-        </is>
-      </c>
-      <c r="I59" t="n">
-        <v>17</v>
-      </c>
-      <c r="J59" t="inlineStr">
-        <is>
-          <t>未知</t>
-        </is>
-      </c>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>316319966</t>
-        </is>
-      </c>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>保密</t>
-        </is>
-      </c>
-      <c r="M59" t="inlineStr">
-        <is>
-          <t>我真的真的单推符华</t>
-        </is>
-      </c>
-      <c r="N59" t="n">
-        <v>5</v>
-      </c>
-      <c r="O59" t="inlineStr">
-        <is>
-          <t>大会员</t>
-        </is>
-      </c>
-      <c r="P59" t="inlineStr">
-        <is>
-          <t>崩坏3·天穹流星</t>
-        </is>
-      </c>
-      <c r="Q59" t="inlineStr">
-        <is>
-          <t>崩坏3·天穹流星</t>
-        </is>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="inlineStr">
-        <is>
-          <t>256667467</t>
-        </is>
-      </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>4974143710</t>
-        </is>
-      </c>
-      <c r="C60" t="inlineStr">
-        <is>
-          <t>等待樱花的下一次绽放</t>
-        </is>
-      </c>
-      <c r="D60" t="n">
-        <v>-1</v>
-      </c>
-      <c r="E60" t="inlineStr">
-        <is>
-          <t>回复 @尘封的微风 :进来看到自己想看的东西，满意地离开</t>
-        </is>
-      </c>
-      <c r="F60" t="n">
-        <v>0</v>
-      </c>
-      <c r="G60" t="inlineStr">
-        <is>
-          <t>4974142271</t>
-        </is>
-      </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>2021-07-23 18:30:41</t>
-        </is>
-      </c>
-      <c r="I60" t="n">
-        <v>5</v>
-      </c>
-      <c r="J60" t="inlineStr">
-        <is>
-          <t>未知</t>
-        </is>
-      </c>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>316319966</t>
-        </is>
-      </c>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>保密</t>
-        </is>
-      </c>
-      <c r="M60" t="inlineStr">
-        <is>
-          <t>我真的真的单推符华</t>
-        </is>
-      </c>
-      <c r="N60" t="n">
-        <v>5</v>
-      </c>
-      <c r="O60" t="inlineStr">
-        <is>
-          <t>大会员</t>
-        </is>
-      </c>
-      <c r="P60" t="inlineStr">
-        <is>
-          <t>崩坏3·天穹流星</t>
-        </is>
-      </c>
-      <c r="Q60" t="inlineStr">
-        <is>
-          <t>崩坏3·天穹流星</t>
-        </is>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="inlineStr">
-        <is>
-          <t>256667467</t>
-        </is>
-      </c>
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>4974142271</t>
-        </is>
-      </c>
-      <c r="C61" t="inlineStr">
-        <is>
-          <t>尘封的微风</t>
-        </is>
-      </c>
-      <c r="D61" t="n">
-        <v>-1</v>
-      </c>
-      <c r="E61" t="inlineStr">
-        <is>
-          <t>看满离是什么意思？</t>
-        </is>
-      </c>
-      <c r="F61" t="n">
-        <v>0</v>
-      </c>
-      <c r="G61" t="inlineStr">
-        <is>
-          <t>4974142271</t>
-        </is>
-      </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>2021-07-23 18:30:08</t>
-        </is>
-      </c>
-      <c r="I61" t="n">
-        <v>1</v>
-      </c>
-      <c r="J61" t="inlineStr">
-        <is>
-          <t>安卓</t>
-        </is>
-      </c>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>349002256</t>
-        </is>
-      </c>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>保密</t>
-        </is>
-      </c>
-      <c r="M61" t="inlineStr"/>
-      <c r="N61" t="n">
-        <v>4</v>
       </c>
       <c r="O61" t="inlineStr">
         <is>
@@ -4924,20 +4897,20 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>4974140902</t>
+          <t>4974155780</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>FABAGV</t>
+          <t>等待樱花的下一次绽放</t>
         </is>
       </c>
       <c r="D62" t="n">
-        <v>34</v>
+        <v>-1</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>好哎[崩坏3_干杯]</t>
+          <t>回复 @崩坏3 :你连未定的都超不过，丢不丢人呀[doge]</t>
         </is>
       </c>
       <c r="F62" t="n">
@@ -4945,16 +4918,16 @@
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4974131160</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>2021-07-23 18:29:37</t>
+          <t>2021-07-23 18:31:45</t>
         </is>
       </c>
       <c r="I62" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="J62" t="inlineStr">
         <is>
@@ -4963,21 +4936,21 @@
       </c>
       <c r="K62" t="inlineStr">
         <is>
-          <t>426864347</t>
+          <t>316319966</t>
         </is>
       </c>
       <c r="L62" t="inlineStr">
         <is>
-          <t>男</t>
+          <t>保密</t>
         </is>
       </c>
       <c r="M62" t="inlineStr">
         <is>
-          <t>Nobody exists on purpose. Nobody belongs any where.</t>
+          <t>我真的真的单推符华</t>
         </is>
       </c>
       <c r="N62" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="O62" t="inlineStr">
         <is>
@@ -5003,12 +4976,12 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>4974131160</t>
+          <t>4974143710</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>崩坏3</t>
+          <t>等待樱花的下一次绽放</t>
         </is>
       </c>
       <c r="D63" t="n">
@@ -5016,7 +4989,7 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>听不见听不见（自我催眠中……</t>
+          <t>回复 @尘封的微风 :进来看到自己想看的东西，满意地离开</t>
         </is>
       </c>
       <c r="F63" t="n">
@@ -5024,25 +4997,25 @@
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>4974131160</t>
+          <t>4974142271</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>2021-07-23 18:29:20</t>
+          <t>2021-07-23 18:30:41</t>
         </is>
       </c>
       <c r="I63" t="n">
-        <v>90</v>
+        <v>5</v>
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>网页</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>256667467</t>
+          <t>316319966</t>
         </is>
       </c>
       <c r="L63" t="inlineStr">
@@ -5052,15 +5025,15 @@
       </c>
       <c r="M63" t="inlineStr">
         <is>
-          <t>怒*大伟哥出奇迹！</t>
+          <t>我真的真的单推符华</t>
         </is>
       </c>
       <c r="N63" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="O63" t="inlineStr">
         <is>
-          <t>年度大会员</t>
+          <t>大会员</t>
         </is>
       </c>
       <c r="P63" t="inlineStr">
@@ -5082,20 +5055,20 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>4974130142</t>
+          <t>4974142271</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>指针影子</t>
+          <t>尘封的微风</t>
         </is>
       </c>
       <c r="D64" t="n">
-        <v>33</v>
+        <v>-1</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>[崩坏3_赞][崩坏3_赞][崩坏3_赞][崩坏3_赞][崩坏3_赞][崩坏3_赞][崩坏3_赞][崩坏3_赞][崩坏3_赞][崩坏3_赞][崩坏3_赞][崩坏3_赞][崩坏3_赞][崩坏3_赞]</t>
+          <t>看满离是什么意思？</t>
         </is>
       </c>
       <c r="F64" t="n">
@@ -5103,16 +5076,16 @@
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4974142271</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>2021-07-23 18:28:56</t>
+          <t>2021-07-23 18:30:08</t>
         </is>
       </c>
       <c r="I64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J64" t="inlineStr">
         <is>
@@ -5121,7 +5094,7 @@
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>384999</t>
+          <t>349002256</t>
         </is>
       </c>
       <c r="L64" t="inlineStr">
@@ -5129,17 +5102,13 @@
           <t>保密</t>
         </is>
       </c>
-      <c r="M64" t="inlineStr">
-        <is>
-          <t>不在你辉煌时慕名而来，也未曾在你低谷时离你而去。拨弄时光的指针；遨游命运的影子；欺诈与恶作剧的化身</t>
-        </is>
-      </c>
+      <c r="M64" t="inlineStr"/>
       <c r="N64" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="O64" t="inlineStr">
         <is>
-          <t>大会员</t>
+          <t>年度大会员</t>
         </is>
       </c>
       <c r="P64" t="inlineStr">
@@ -5161,20 +5130,20 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>4974127966</t>
+          <t>4974140902</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Aqopz</t>
+          <t>FABAGV</t>
         </is>
       </c>
       <c r="D65" t="n">
-        <v>-1</v>
+        <v>34</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>看满离</t>
+          <t>好哎[崩坏3_干杯]</t>
         </is>
       </c>
       <c r="F65" t="n">
@@ -5182,12 +5151,12 @@
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>4974127966</t>
+          <t>0</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>2021-07-23 18:28:30</t>
+          <t>2021-07-23 18:29:37</t>
         </is>
       </c>
       <c r="I65" t="n">
@@ -5200,7 +5169,7 @@
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>197612281</t>
+          <t>426864347</t>
         </is>
       </c>
       <c r="L65" t="inlineStr">
@@ -5210,11 +5179,11 @@
       </c>
       <c r="M65" t="inlineStr">
         <is>
-          <t>嘘</t>
+          <t>Nobody exists on purpose. Nobody belongs any where.</t>
         </is>
       </c>
       <c r="N65" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="O65" t="inlineStr">
         <is>
@@ -5223,7 +5192,7 @@
       </c>
       <c r="P65" t="inlineStr">
         <is>
-          <t>AQZ</t>
+          <t>崩坏3·天穹流星</t>
         </is>
       </c>
       <c r="Q65" t="inlineStr">
@@ -5240,20 +5209,20 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>4974125533</t>
+          <t>4974131160</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>佐佐木栅栏小姐</t>
+          <t>崩坏3</t>
         </is>
       </c>
       <c r="D66" t="n">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>老熟人了</t>
+          <t>听不见听不见（自我催眠中……</t>
         </is>
       </c>
       <c r="F66" t="n">
@@ -5261,47 +5230,55 @@
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>4974125533</t>
+          <t>4974131160</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>2021-07-23 18:27:34</t>
+          <t>2021-07-23 18:29:20</t>
         </is>
       </c>
       <c r="I66" t="n">
-        <v>0</v>
+        <v>93</v>
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>网页</t>
         </is>
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>11084927</t>
+          <t>256667467</t>
         </is>
       </c>
       <c r="L66" t="inlineStr">
         <is>
-          <t>男</t>
+          <t>保密</t>
         </is>
       </c>
       <c r="M66" t="inlineStr">
         <is>
-          <t>脆弱，纳米什么时候锁啊</t>
+          <t>怒*大伟哥出奇迹！</t>
         </is>
       </c>
       <c r="N66" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O66" t="inlineStr">
         <is>
-          <t>大会员</t>
-        </is>
-      </c>
-      <c r="P66" t="inlineStr"/>
-      <c r="Q66" t="inlineStr"/>
+          <t>年度大会员</t>
+        </is>
+      </c>
+      <c r="P66" t="inlineStr">
+        <is>
+          <t>崩坏3·天穹流星</t>
+        </is>
+      </c>
+      <c r="Q66" t="inlineStr">
+        <is>
+          <t>崩坏3·天穹流星</t>
+        </is>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -5311,18 +5288,247 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
+          <t>4974130142</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>指针影子</t>
+        </is>
+      </c>
+      <c r="D67" t="n">
+        <v>33</v>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>[崩坏3_赞][崩坏3_赞][崩坏3_赞][崩坏3_赞][崩坏3_赞][崩坏3_赞][崩坏3_赞][崩坏3_赞][崩坏3_赞][崩坏3_赞][崩坏3_赞][崩坏3_赞][崩坏3_赞][崩坏3_赞]</t>
+        </is>
+      </c>
+      <c r="F67" t="n">
+        <v>0</v>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>2021-07-23 18:28:56</t>
+        </is>
+      </c>
+      <c r="I67" t="n">
+        <v>0</v>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>安卓</t>
+        </is>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>384999</t>
+        </is>
+      </c>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>保密</t>
+        </is>
+      </c>
+      <c r="M67" t="inlineStr">
+        <is>
+          <t>不在你辉煌时慕名而来，也未曾在你低谷时离你而去。拨弄时光的指针；遨游命运的影子；欺诈与恶作剧的化身</t>
+        </is>
+      </c>
+      <c r="N67" t="n">
+        <v>6</v>
+      </c>
+      <c r="O67" t="inlineStr">
+        <is>
+          <t>大会员</t>
+        </is>
+      </c>
+      <c r="P67" t="inlineStr">
+        <is>
+          <t>崩坏3·天穹流星</t>
+        </is>
+      </c>
+      <c r="Q67" t="inlineStr">
+        <is>
+          <t>崩坏3·天穹流星</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>256667467</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>4974127966</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>Aqopz</t>
+        </is>
+      </c>
+      <c r="D68" t="n">
+        <v>-1</v>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>看满离</t>
+        </is>
+      </c>
+      <c r="F68" t="n">
+        <v>0</v>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>4974127966</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>2021-07-23 18:28:30</t>
+        </is>
+      </c>
+      <c r="I68" t="n">
+        <v>1</v>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>未知</t>
+        </is>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>197612281</t>
+        </is>
+      </c>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>男</t>
+        </is>
+      </c>
+      <c r="M68" t="inlineStr">
+        <is>
+          <t>嘘</t>
+        </is>
+      </c>
+      <c r="N68" t="n">
+        <v>5</v>
+      </c>
+      <c r="O68" t="inlineStr">
+        <is>
+          <t>大会员</t>
+        </is>
+      </c>
+      <c r="P68" t="inlineStr">
+        <is>
+          <t>AQZ</t>
+        </is>
+      </c>
+      <c r="Q68" t="inlineStr">
+        <is>
+          <t>崩坏3·天穹流星</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>256667467</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>4974125533</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>佐佐木栅栏小姐</t>
+        </is>
+      </c>
+      <c r="D69" t="n">
+        <v>2</v>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>老熟人了</t>
+        </is>
+      </c>
+      <c r="F69" t="n">
+        <v>0</v>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>4974125533</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>2021-07-23 18:27:34</t>
+        </is>
+      </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>未知</t>
+        </is>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>11084927</t>
+        </is>
+      </c>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>男</t>
+        </is>
+      </c>
+      <c r="M69" t="inlineStr">
+        <is>
+          <t>脆弱，纳米什么时候锁啊</t>
+        </is>
+      </c>
+      <c r="N69" t="n">
+        <v>5</v>
+      </c>
+      <c r="O69" t="inlineStr">
+        <is>
+          <t>大会员</t>
+        </is>
+      </c>
+      <c r="P69" t="inlineStr"/>
+      <c r="Q69" t="inlineStr"/>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>256667467</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
           <t>4974113913</t>
         </is>
       </c>
-      <c r="C67" t="inlineStr">
+      <c r="C70" t="inlineStr">
         <is>
           <t>帅哥冬东</t>
         </is>
       </c>
-      <c r="D67" t="n">
+      <c r="D70" t="n">
         <v>32</v>
       </c>
-      <c r="E67" t="inlineStr">
+      <c r="E70" t="inlineStr">
         <is>
           <t>那些口口声声，说崩坏三越来越氪的人
 应该看看你们，像我一样
@@ -5368,253 +5574,40 @@
 氪金吧，崩浪！[给心心][给心心][给心心]</t>
         </is>
       </c>
-      <c r="F67" t="n">
-        <v>0</v>
-      </c>
-      <c r="G67" t="inlineStr">
+      <c r="F70" t="n">
+        <v>0</v>
+      </c>
+      <c r="G70" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="H67" t="inlineStr">
+      <c r="H70" t="inlineStr">
         <is>
           <t>2021-07-23 18:26:58</t>
         </is>
       </c>
-      <c r="I67" t="n">
+      <c r="I70" t="n">
         <v>5</v>
       </c>
-      <c r="J67" t="inlineStr">
+      <c r="J70" t="inlineStr">
         <is>
           <t>安卓</t>
         </is>
       </c>
-      <c r="K67" t="inlineStr">
+      <c r="K70" t="inlineStr">
         <is>
           <t>25322750</t>
         </is>
       </c>
-      <c r="L67" t="inlineStr">
+      <c r="L70" t="inlineStr">
         <is>
           <t>男</t>
         </is>
       </c>
-      <c r="M67" t="inlineStr"/>
-      <c r="N67" t="n">
+      <c r="M70" t="inlineStr"/>
+      <c r="N70" t="n">
         <v>5</v>
-      </c>
-      <c r="O67" t="inlineStr">
-        <is>
-          <t>大会员</t>
-        </is>
-      </c>
-      <c r="P67" t="inlineStr"/>
-      <c r="Q67" t="inlineStr"/>
-    </row>
-    <row r="68">
-      <c r="A68" t="inlineStr">
-        <is>
-          <t>256667467</t>
-        </is>
-      </c>
-      <c r="B68" t="inlineStr">
-        <is>
-          <t>4974104274</t>
-        </is>
-      </c>
-      <c r="C68" t="inlineStr">
-        <is>
-          <t>VentiWW</t>
-        </is>
-      </c>
-      <c r="D68" t="n">
-        <v>31</v>
-      </c>
-      <c r="E68" t="inlineStr">
-        <is>
-          <t>崩壞3但粉絲再不超過愛醬，就要和愛醬一起下鍋(</t>
-        </is>
-      </c>
-      <c r="F68" t="n">
-        <v>0</v>
-      </c>
-      <c r="G68" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t>2021-07-23 18:26:37</t>
-        </is>
-      </c>
-      <c r="I68" t="n">
-        <v>0</v>
-      </c>
-      <c r="J68" t="inlineStr">
-        <is>
-          <t>安卓</t>
-        </is>
-      </c>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>690551146</t>
-        </is>
-      </c>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>保密</t>
-        </is>
-      </c>
-      <c r="M68" t="inlineStr">
-        <is>
-          <t>當我的指尖劃過你的面頰，我恍然夢醒，我們從未處於同一世界...</t>
-        </is>
-      </c>
-      <c r="N68" t="n">
-        <v>3</v>
-      </c>
-      <c r="O68" t="inlineStr"/>
-      <c r="P68" t="inlineStr"/>
-      <c r="Q68" t="inlineStr"/>
-    </row>
-    <row r="69">
-      <c r="A69" t="inlineStr">
-        <is>
-          <t>256667467</t>
-        </is>
-      </c>
-      <c r="B69" t="inlineStr">
-        <is>
-          <t>4974100428</t>
-        </is>
-      </c>
-      <c r="C69" t="inlineStr">
-        <is>
-          <t>樱花庄的罪骨银鸦</t>
-        </is>
-      </c>
-      <c r="D69" t="n">
-        <v>30</v>
-      </c>
-      <c r="E69" t="inlineStr">
-        <is>
-          <t>https://b23.tv/wrrGh9</t>
-        </is>
-      </c>
-      <c r="F69" t="n">
-        <v>0</v>
-      </c>
-      <c r="G69" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>2021-07-23 18:24:53</t>
-        </is>
-      </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="inlineStr">
-        <is>
-          <t>安卓</t>
-        </is>
-      </c>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>238286273</t>
-        </is>
-      </c>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>男</t>
-        </is>
-      </c>
-      <c r="M69" t="inlineStr">
-        <is>
-          <t>一个喜欢玩游戏的舞铲阶级菜比</t>
-        </is>
-      </c>
-      <c r="N69" t="n">
-        <v>5</v>
-      </c>
-      <c r="O69" t="inlineStr">
-        <is>
-          <t>年度大会员</t>
-        </is>
-      </c>
-      <c r="P69" t="inlineStr">
-        <is>
-          <t>工作细胞</t>
-        </is>
-      </c>
-      <c r="Q69" t="inlineStr"/>
-    </row>
-    <row r="70">
-      <c r="A70" t="inlineStr">
-        <is>
-          <t>256667467</t>
-        </is>
-      </c>
-      <c r="B70" t="inlineStr">
-        <is>
-          <t>4974093015</t>
-        </is>
-      </c>
-      <c r="C70" t="inlineStr">
-        <is>
-          <t>这什么人啊</t>
-        </is>
-      </c>
-      <c r="D70" t="n">
-        <v>3</v>
-      </c>
-      <c r="E70" t="inlineStr">
-        <is>
-          <t>看满离</t>
-        </is>
-      </c>
-      <c r="F70" t="n">
-        <v>0</v>
-      </c>
-      <c r="G70" t="inlineStr">
-        <is>
-          <t>4974093015</t>
-        </is>
-      </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>2021-07-23 18:24:02</t>
-        </is>
-      </c>
-      <c r="I70" t="n">
-        <v>0</v>
-      </c>
-      <c r="J70" t="inlineStr">
-        <is>
-          <t>安卓</t>
-        </is>
-      </c>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>2037192383</t>
-        </is>
-      </c>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>保密</t>
-        </is>
-      </c>
-      <c r="M70" t="inlineStr">
-        <is>
-          <t>我真的好菜啊——</t>
-        </is>
-      </c>
-      <c r="N70" t="n">
-        <v>2</v>
       </c>
       <c r="O70" t="inlineStr">
         <is>
@@ -5632,20 +5625,20 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>4974088325</t>
+          <t>4974104274</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Truismers</t>
+          <t>VentiWW</t>
         </is>
       </c>
       <c r="D71" t="n">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>今天三蹦子的粉丝超过爱酱了吗？[脱单doge][脱单doge][脱单doge]</t>
+          <t>崩壞3但粉絲再不超過愛醬，就要和愛醬一起下鍋(</t>
         </is>
       </c>
       <c r="F71" t="n">
@@ -5658,7 +5651,7 @@
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>2021-07-23 18:23:56</t>
+          <t>2021-07-23 18:26:37</t>
         </is>
       </c>
       <c r="I71" t="n">
@@ -5671,7 +5664,7 @@
       </c>
       <c r="K71" t="inlineStr">
         <is>
-          <t>359363400</t>
+          <t>690551146</t>
         </is>
       </c>
       <c r="L71" t="inlineStr">
@@ -5681,17 +5674,13 @@
       </c>
       <c r="M71" t="inlineStr">
         <is>
-          <t>世上本无事，庸人自扰之。</t>
+          <t>當我的指尖劃過你的面頰，我恍然夢醒，我們從未處於同一世界...</t>
         </is>
       </c>
       <c r="N71" t="n">
-        <v>5</v>
-      </c>
-      <c r="O71" t="inlineStr">
-        <is>
-          <t>大会员</t>
-        </is>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="O71" t="inlineStr"/>
       <c r="P71" t="inlineStr"/>
       <c r="Q71" t="inlineStr"/>
     </row>
@@ -5703,20 +5692,20 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>4974084270</t>
+          <t>4974100428</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>惜寒EXCE</t>
+          <t>樱花庄的罪骨银鸦</t>
         </is>
       </c>
       <c r="D72" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>[原神_生气]</t>
+          <t>https://b23.tv/wrrGh9</t>
         </is>
       </c>
       <c r="F72" t="n">
@@ -5729,7 +5718,7 @@
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>2021-07-23 18:23:18</t>
+          <t>2021-07-23 18:24:53</t>
         </is>
       </c>
       <c r="I72" t="n">
@@ -5742,17 +5731,17 @@
       </c>
       <c r="K72" t="inlineStr">
         <is>
-          <t>236993234</t>
+          <t>238286273</t>
         </is>
       </c>
       <c r="L72" t="inlineStr">
         <is>
-          <t>保密</t>
+          <t>男</t>
         </is>
       </c>
       <c r="M72" t="inlineStr">
         <is>
-          <t>！该账号封禁中</t>
+          <t>一个喜欢玩游戏的舞铲阶级菜比</t>
         </is>
       </c>
       <c r="N72" t="n">
@@ -5760,12 +5749,12 @@
       </c>
       <c r="O72" t="inlineStr">
         <is>
-          <t>大会员</t>
+          <t>年度大会员</t>
         </is>
       </c>
       <c r="P72" t="inlineStr">
         <is>
-          <t>12周年夏日狂欢</t>
+          <t>工作细胞</t>
         </is>
       </c>
       <c r="Q72" t="inlineStr"/>
@@ -5778,20 +5767,20 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>4974091234</t>
+          <t>4974093015</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>崩坏三第一偶像渡鸦</t>
+          <t>这什么人啊</t>
         </is>
       </c>
       <c r="D73" t="n">
-        <v>27</v>
+        <v>3</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>好耶</t>
+          <t>看满离</t>
         </is>
       </c>
       <c r="F73" t="n">
@@ -5799,55 +5788,47 @@
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4974093015</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>2021-07-23 18:23:17</t>
+          <t>2021-07-23 18:24:02</t>
         </is>
       </c>
       <c r="I73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K73" t="inlineStr">
         <is>
-          <t>34208931</t>
+          <t>2037192383</t>
         </is>
       </c>
       <c r="L73" t="inlineStr">
         <is>
-          <t>男</t>
+          <t>保密</t>
         </is>
       </c>
       <c r="M73" t="inlineStr">
         <is>
-          <t>爱酱?真不熟，还得是我渡鸦！</t>
+          <t>我真的好菜啊——</t>
         </is>
       </c>
       <c r="N73" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="O73" t="inlineStr">
         <is>
           <t>大会员</t>
         </is>
       </c>
-      <c r="P73" t="inlineStr">
-        <is>
-          <t>崩坏3·天穹流星</t>
-        </is>
-      </c>
-      <c r="Q73" t="inlineStr">
-        <is>
-          <t>崩坏3·天穹流星</t>
-        </is>
-      </c>
+      <c r="P73" t="inlineStr"/>
+      <c r="Q73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -5857,20 +5838,20 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>4974083755</t>
+          <t>4974088325</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>ko-ra</t>
+          <t>Truismers</t>
         </is>
       </c>
       <c r="D74" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>你看这个飞鱼丸，就这么些评论，真的太逊了[doge]</t>
+          <t>今天三蹦子的粉丝超过爱酱了吗？[脱单doge][脱单doge][脱单doge]</t>
         </is>
       </c>
       <c r="F74" t="n">
@@ -5883,7 +5864,7 @@
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>2021-07-23 18:23:07</t>
+          <t>2021-07-23 18:23:56</t>
         </is>
       </c>
       <c r="I74" t="n">
@@ -5896,33 +5877,29 @@
       </c>
       <c r="K74" t="inlineStr">
         <is>
-          <t>294588772</t>
+          <t>359363400</t>
         </is>
       </c>
       <c r="L74" t="inlineStr">
         <is>
-          <t>男</t>
-        </is>
-      </c>
-      <c r="M74" t="inlineStr"/>
+          <t>保密</t>
+        </is>
+      </c>
+      <c r="M74" t="inlineStr">
+        <is>
+          <t>世上本无事，庸人自扰之。</t>
+        </is>
+      </c>
       <c r="N74" t="n">
         <v>5</v>
       </c>
       <c r="O74" t="inlineStr">
         <is>
-          <t>年度大会员</t>
-        </is>
-      </c>
-      <c r="P74" t="inlineStr">
-        <is>
-          <t>总之就是非常可爱</t>
-        </is>
-      </c>
-      <c r="Q74" t="inlineStr">
-        <is>
-          <t>总之就是非常可爱</t>
-        </is>
-      </c>
+          <t>大会员</t>
+        </is>
+      </c>
+      <c r="P74" t="inlineStr"/>
+      <c r="Q74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -5932,20 +5909,20 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>4974086397</t>
+          <t>4974084270</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>绫华_刻晴</t>
+          <t>惜寒EXCE</t>
         </is>
       </c>
       <c r="D75" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>啊啊啊啊。我的识宝[喜欢][喜欢]</t>
+          <t>[原神_生气]</t>
         </is>
       </c>
       <c r="F75" t="n">
@@ -5958,7 +5935,7 @@
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>2021-07-23 18:23:05</t>
+          <t>2021-07-23 18:23:18</t>
         </is>
       </c>
       <c r="I75" t="n">
@@ -5971,33 +5948,33 @@
       </c>
       <c r="K75" t="inlineStr">
         <is>
-          <t>385556903</t>
+          <t>236993234</t>
         </is>
       </c>
       <c r="L75" t="inlineStr">
         <is>
-          <t>男</t>
-        </is>
-      </c>
-      <c r="M75" t="inlineStr"/>
+          <t>保密</t>
+        </is>
+      </c>
+      <c r="M75" t="inlineStr">
+        <is>
+          <t>！该账号封禁中</t>
+        </is>
+      </c>
       <c r="N75" t="n">
         <v>5</v>
       </c>
       <c r="O75" t="inlineStr">
         <is>
-          <t>年度大会员</t>
+          <t>大会员</t>
         </is>
       </c>
       <c r="P75" t="inlineStr">
         <is>
-          <t>星座系列：巨蟹座</t>
-        </is>
-      </c>
-      <c r="Q75" t="inlineStr">
-        <is>
-          <t>星座装扮巨蟹座</t>
-        </is>
-      </c>
+          <t>12周年夏日狂欢</t>
+        </is>
+      </c>
+      <c r="Q75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -6007,20 +5984,20 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>4974085423</t>
+          <t>4974091234</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>IO-zza</t>
+          <t>崩坏三第一偶像渡鸦</t>
         </is>
       </c>
       <c r="D76" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>所以为什么人均只有一个鼻孔？[doge]</t>
+          <t>好耶</t>
         </is>
       </c>
       <c r="F76" t="n">
@@ -6033,20 +6010,20 @@
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>2021-07-23 18:22:38</t>
+          <t>2021-07-23 18:23:17</t>
         </is>
       </c>
       <c r="I76" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J76" t="inlineStr">
         <is>
-          <t>苹果</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K76" t="inlineStr">
         <is>
-          <t>266986370</t>
+          <t>34208931</t>
         </is>
       </c>
       <c r="L76" t="inlineStr">
@@ -6056,19 +6033,27 @@
       </c>
       <c r="M76" t="inlineStr">
         <is>
-          <t>本人架子鼓8级，获金牌2个，银牌2个，现为Medly萌新，求各位大佬传授乐理~</t>
+          <t>爱酱?真不熟，还得是我渡鸦！</t>
         </is>
       </c>
       <c r="N76" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="O76" t="inlineStr">
         <is>
           <t>大会员</t>
         </is>
       </c>
-      <c r="P76" t="inlineStr"/>
-      <c r="Q76" t="inlineStr"/>
+      <c r="P76" t="inlineStr">
+        <is>
+          <t>崩坏3·天穹流星</t>
+        </is>
+      </c>
+      <c r="Q76" t="inlineStr">
+        <is>
+          <t>崩坏3·天穹流星</t>
+        </is>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -6078,20 +6063,20 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>4974062172</t>
+          <t>4974083755</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>大师傅x</t>
+          <t>ko-ra</t>
         </is>
       </c>
       <c r="D77" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>爬</t>
+          <t>你看这个飞鱼丸，就这么些评论，真的太逊了[doge]</t>
         </is>
       </c>
       <c r="F77" t="n">
@@ -6104,20 +6089,20 @@
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>2021-07-23 18:19:40</t>
+          <t>2021-07-23 18:23:07</t>
         </is>
       </c>
       <c r="I77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>网页</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K77" t="inlineStr">
         <is>
-          <t>20568348</t>
+          <t>294588772</t>
         </is>
       </c>
       <c r="L77" t="inlineStr">
@@ -6131,11 +6116,19 @@
       </c>
       <c r="O77" t="inlineStr">
         <is>
-          <t>大会员</t>
-        </is>
-      </c>
-      <c r="P77" t="inlineStr"/>
-      <c r="Q77" t="inlineStr"/>
+          <t>年度大会员</t>
+        </is>
+      </c>
+      <c r="P77" t="inlineStr">
+        <is>
+          <t>总之就是非常可爱</t>
+        </is>
+      </c>
+      <c r="Q77" t="inlineStr">
+        <is>
+          <t>总之就是非常可爱</t>
+        </is>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -6145,20 +6138,20 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>4974053928</t>
+          <t>4974086397</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>也也是也</t>
+          <t>绫华_刻晴</t>
         </is>
       </c>
       <c r="D78" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>[冷][吃瓜]</t>
+          <t>啊啊啊啊。我的识宝[喜欢][喜欢]</t>
         </is>
       </c>
       <c r="F78" t="n">
@@ -6171,11 +6164,11 @@
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>2021-07-23 18:19:26</t>
+          <t>2021-07-23 18:23:05</t>
         </is>
       </c>
       <c r="I78" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="J78" t="inlineStr">
         <is>
@@ -6184,21 +6177,17 @@
       </c>
       <c r="K78" t="inlineStr">
         <is>
-          <t>48980755</t>
+          <t>385556903</t>
         </is>
       </c>
       <c r="L78" t="inlineStr">
         <is>
-          <t>保密</t>
-        </is>
-      </c>
-      <c r="M78" t="inlineStr">
-        <is>
-          <t>你氪金 肝时间，游戏公司赚钱，我白嫖。(๑˙ー˙๑)</t>
-        </is>
-      </c>
+          <t>男</t>
+        </is>
+      </c>
+      <c r="M78" t="inlineStr"/>
       <c r="N78" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="O78" t="inlineStr">
         <is>
@@ -6207,12 +6196,12 @@
       </c>
       <c r="P78" t="inlineStr">
         <is>
-          <t>汉化日记</t>
+          <t>星座系列：巨蟹座</t>
         </is>
       </c>
       <c r="Q78" t="inlineStr">
         <is>
-          <t>年度大会员</t>
+          <t>星座装扮巨蟹座</t>
         </is>
       </c>
     </row>
@@ -6224,72 +6213,68 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>4974057731</t>
+          <t>4974085423</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>illusion星环</t>
+          <t>IO-zza</t>
         </is>
       </c>
       <c r="D79" t="n">
+        <v>24</v>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>所以为什么人均只有一个鼻孔？[doge]</t>
+        </is>
+      </c>
+      <c r="F79" t="n">
+        <v>0</v>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>2021-07-23 18:22:38</t>
+        </is>
+      </c>
+      <c r="I79" t="n">
         <v>2</v>
       </c>
-      <c r="E79" t="inlineStr">
-        <is>
-          <t>看满离[doge]</t>
-        </is>
-      </c>
-      <c r="F79" t="n">
-        <v>0</v>
-      </c>
-      <c r="G79" t="inlineStr">
-        <is>
-          <t>4974057731</t>
-        </is>
-      </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>2021-07-23 18:19:14</t>
-        </is>
-      </c>
-      <c r="I79" t="n">
-        <v>1</v>
-      </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>苹果</t>
         </is>
       </c>
       <c r="K79" t="inlineStr">
         <is>
-          <t>349096036</t>
+          <t>266986370</t>
         </is>
       </c>
       <c r="L79" t="inlineStr">
         <is>
-          <t>保密</t>
+          <t>男</t>
         </is>
       </c>
       <c r="M79" t="inlineStr">
         <is>
-          <t>我才没有懒到什么都不写</t>
+          <t>本人架子鼓8级，获金牌2个，银牌2个，现为Medly萌新，求各位大佬传授乐理~</t>
         </is>
       </c>
       <c r="N79" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="O79" t="inlineStr">
         <is>
-          <t>年度大会员</t>
+          <t>大会员</t>
         </is>
       </c>
       <c r="P79" t="inlineStr"/>
-      <c r="Q79" t="inlineStr">
-        <is>
-          <t>年度大会员</t>
-        </is>
-      </c>
+      <c r="Q79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -6299,20 +6284,20 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>4974061024</t>
+          <t>4974062172</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>墨语书文香芳古</t>
+          <t>大师傅x</t>
         </is>
       </c>
       <c r="D80" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>识宝，我的识宝[打call]！</t>
+          <t>爬</t>
         </is>
       </c>
       <c r="F80" t="n">
@@ -6325,20 +6310,20 @@
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>2021-07-23 18:19:13</t>
+          <t>2021-07-23 18:19:40</t>
         </is>
       </c>
       <c r="I80" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J80" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>网页</t>
         </is>
       </c>
       <c r="K80" t="inlineStr">
         <is>
-          <t>24817850</t>
+          <t>20568348</t>
         </is>
       </c>
       <c r="L80" t="inlineStr">
@@ -6348,23 +6333,15 @@
       </c>
       <c r="M80" t="inlineStr"/>
       <c r="N80" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="O80" t="inlineStr">
         <is>
-          <t>年度大会员</t>
-        </is>
-      </c>
-      <c r="P80" t="inlineStr">
-        <is>
-          <t>崩坏3·天穹流星</t>
-        </is>
-      </c>
-      <c r="Q80" t="inlineStr">
-        <is>
-          <t>崩坏3·天穹流星</t>
-        </is>
-      </c>
+          <t>大会员</t>
+        </is>
+      </c>
+      <c r="P80" t="inlineStr"/>
+      <c r="Q80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -6374,282 +6351,298 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
+          <t>4974053928</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>也也是也</t>
+        </is>
+      </c>
+      <c r="D81" t="n">
+        <v>22</v>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>[冷][吃瓜]</t>
+        </is>
+      </c>
+      <c r="F81" t="n">
+        <v>0</v>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>2021-07-23 18:19:26</t>
+        </is>
+      </c>
+      <c r="I81" t="n">
+        <v>7</v>
+      </c>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>安卓</t>
+        </is>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>48980755</t>
+        </is>
+      </c>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>保密</t>
+        </is>
+      </c>
+      <c r="M81" t="inlineStr">
+        <is>
+          <t>你氪金 肝时间，游戏公司赚钱，我白嫖。(๑˙ー˙๑)</t>
+        </is>
+      </c>
+      <c r="N81" t="n">
+        <v>6</v>
+      </c>
+      <c r="O81" t="inlineStr">
+        <is>
+          <t>年度大会员</t>
+        </is>
+      </c>
+      <c r="P81" t="inlineStr">
+        <is>
+          <t>汉化日记</t>
+        </is>
+      </c>
+      <c r="Q81" t="inlineStr">
+        <is>
+          <t>年度大会员</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>256667467</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>4974057731</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>illusion星环</t>
+        </is>
+      </c>
+      <c r="D82" t="n">
+        <v>2</v>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>看满离[doge]</t>
+        </is>
+      </c>
+      <c r="F82" t="n">
+        <v>0</v>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>4974057731</t>
+        </is>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>2021-07-23 18:19:14</t>
+        </is>
+      </c>
+      <c r="I82" t="n">
+        <v>2</v>
+      </c>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>未知</t>
+        </is>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>349096036</t>
+        </is>
+      </c>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>保密</t>
+        </is>
+      </c>
+      <c r="M82" t="inlineStr">
+        <is>
+          <t>我才没有懒到什么都不写</t>
+        </is>
+      </c>
+      <c r="N82" t="n">
+        <v>5</v>
+      </c>
+      <c r="O82" t="inlineStr">
+        <is>
+          <t>年度大会员</t>
+        </is>
+      </c>
+      <c r="P82" t="inlineStr"/>
+      <c r="Q82" t="inlineStr">
+        <is>
+          <t>年度大会员</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>256667467</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>4974061024</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>墨语书文香芳古</t>
+        </is>
+      </c>
+      <c r="D83" t="n">
+        <v>21</v>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>识宝，我的识宝[打call]！</t>
+        </is>
+      </c>
+      <c r="F83" t="n">
+        <v>0</v>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>2021-07-23 18:19:13</t>
+        </is>
+      </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>安卓</t>
+        </is>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>24817850</t>
+        </is>
+      </c>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>男</t>
+        </is>
+      </c>
+      <c r="M83" t="inlineStr"/>
+      <c r="N83" t="n">
+        <v>6</v>
+      </c>
+      <c r="O83" t="inlineStr">
+        <is>
+          <t>年度大会员</t>
+        </is>
+      </c>
+      <c r="P83" t="inlineStr">
+        <is>
+          <t>崩坏3·天穹流星</t>
+        </is>
+      </c>
+      <c r="Q83" t="inlineStr">
+        <is>
+          <t>崩坏3·天穹流星</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>256667467</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
           <t>4974049054</t>
         </is>
       </c>
-      <c r="C81" t="inlineStr">
+      <c r="C84" t="inlineStr">
         <is>
           <t>爱阿比的咕哒子</t>
         </is>
       </c>
-      <c r="D81" t="n">
+      <c r="D84" t="n">
         <v>20</v>
       </c>
-      <c r="E81" t="inlineStr">
+      <c r="E84" t="inlineStr">
         <is>
           <t>我还以为是派蒙的画作[doge]</t>
         </is>
       </c>
-      <c r="F81" t="n">
-        <v>0</v>
-      </c>
-      <c r="G81" t="inlineStr">
+      <c r="F84" t="n">
+        <v>0</v>
+      </c>
+      <c r="G84" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="H81" t="inlineStr">
+      <c r="H84" t="inlineStr">
         <is>
           <t>2021-07-23 18:18:25</t>
         </is>
       </c>
-      <c r="I81" t="n">
+      <c r="I84" t="n">
         <v>1</v>
       </c>
-      <c r="J81" t="inlineStr">
+      <c r="J84" t="inlineStr">
         <is>
           <t>安卓</t>
         </is>
       </c>
-      <c r="K81" t="inlineStr">
+      <c r="K84" t="inlineStr">
         <is>
           <t>14592499</t>
         </is>
       </c>
-      <c r="L81" t="inlineStr">
+      <c r="L84" t="inlineStr">
         <is>
           <t>男</t>
         </is>
       </c>
-      <c r="M81" t="inlineStr">
+      <c r="M84" t="inlineStr">
         <is>
           <t>你来啦
 要被你看光了呢(๑°3°๑)</t>
         </is>
       </c>
-      <c r="N81" t="n">
+      <c r="N84" t="n">
         <v>5</v>
       </c>
-      <c r="O81" t="inlineStr">
+      <c r="O84" t="inlineStr">
         <is>
           <t>年度大会员</t>
         </is>
       </c>
-      <c r="P81" t="inlineStr"/>
-      <c r="Q81" t="inlineStr"/>
-    </row>
-    <row r="82">
-      <c r="A82" t="inlineStr">
-        <is>
-          <t>256667467</t>
-        </is>
-      </c>
-      <c r="B82" t="inlineStr">
-        <is>
-          <t>4974046809</t>
-        </is>
-      </c>
-      <c r="C82" t="inlineStr">
-        <is>
-          <t>无史大帝</t>
-        </is>
-      </c>
-      <c r="D82" t="n">
-        <v>1</v>
-      </c>
-      <c r="E82" t="inlineStr">
-        <is>
-          <t>哟，这不那谁吗</t>
-        </is>
-      </c>
-      <c r="F82" t="n">
-        <v>0</v>
-      </c>
-      <c r="G82" t="inlineStr">
-        <is>
-          <t>4974046809</t>
-        </is>
-      </c>
-      <c r="H82" t="inlineStr">
-        <is>
-          <t>2021-07-23 18:17:31</t>
-        </is>
-      </c>
-      <c r="I82" t="n">
-        <v>0</v>
-      </c>
-      <c r="J82" t="inlineStr">
-        <is>
-          <t>未知</t>
-        </is>
-      </c>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>4559635</t>
-        </is>
-      </c>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>男</t>
-        </is>
-      </c>
-      <c r="M82" t="inlineStr"/>
-      <c r="N82" t="n">
-        <v>5</v>
-      </c>
-      <c r="O82" t="inlineStr">
-        <is>
-          <t>大会员</t>
-        </is>
-      </c>
-      <c r="P82" t="inlineStr">
-        <is>
-          <t>原神</t>
-        </is>
-      </c>
-      <c r="Q82" t="inlineStr">
-        <is>
-          <t>原神</t>
-        </is>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" t="inlineStr">
-        <is>
-          <t>256667467</t>
-        </is>
-      </c>
-      <c r="B83" t="inlineStr">
-        <is>
-          <t>4974045406</t>
-        </is>
-      </c>
-      <c r="C83" t="inlineStr">
-        <is>
-          <t>月影心殇</t>
-        </is>
-      </c>
-      <c r="D83" t="n">
-        <v>19</v>
-      </c>
-      <c r="E83" t="inlineStr">
-        <is>
-          <t>识宝有两张，[热词系列_排面]</t>
-        </is>
-      </c>
-      <c r="F83" t="n">
-        <v>0</v>
-      </c>
-      <c r="G83" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H83" t="inlineStr">
-        <is>
-          <t>2021-07-23 18:16:57</t>
-        </is>
-      </c>
-      <c r="I83" t="n">
-        <v>1</v>
-      </c>
-      <c r="J83" t="inlineStr">
-        <is>
-          <t>苹果</t>
-        </is>
-      </c>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>503382801</t>
-        </is>
-      </c>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>保密</t>
-        </is>
-      </c>
-      <c r="M83" t="inlineStr"/>
-      <c r="N83" t="n">
-        <v>4</v>
-      </c>
-      <c r="O83" t="inlineStr">
-        <is>
-          <t>大会员</t>
-        </is>
-      </c>
-      <c r="P83" t="inlineStr"/>
-      <c r="Q83" t="inlineStr"/>
-    </row>
-    <row r="84">
-      <c r="A84" t="inlineStr">
-        <is>
-          <t>256667467</t>
-        </is>
-      </c>
-      <c r="B84" t="inlineStr">
-        <is>
-          <t>4974045209</t>
-        </is>
-      </c>
-      <c r="C84" t="inlineStr">
-        <is>
-          <t>月墮の零</t>
-        </is>
-      </c>
-      <c r="D84" t="n">
-        <v>18</v>
-      </c>
-      <c r="E84" t="inlineStr">
-        <is>
-          <t>[tv_点赞]新表情包get~</t>
-        </is>
-      </c>
-      <c r="F84" t="n">
-        <v>0</v>
-      </c>
-      <c r="G84" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H84" t="inlineStr">
-        <is>
-          <t>2021-07-23 18:16:52</t>
-        </is>
-      </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
-      <c r="J84" t="inlineStr">
-        <is>
-          <t>网页</t>
-        </is>
-      </c>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>149018</t>
-        </is>
-      </c>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>保密</t>
-        </is>
-      </c>
-      <c r="M84" t="inlineStr"/>
-      <c r="N84" t="n">
-        <v>6</v>
-      </c>
-      <c r="O84" t="inlineStr">
-        <is>
-          <t>年度大会员</t>
-        </is>
-      </c>
       <c r="P84" t="inlineStr"/>
-      <c r="Q84" t="inlineStr">
-        <is>
-          <t>椎名菜羽</t>
-        </is>
-      </c>
+      <c r="Q84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -6659,20 +6652,20 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>4974034792</t>
+          <t>4974046809</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>北辰一刀流y</t>
+          <t>无史大帝</t>
         </is>
       </c>
       <c r="D85" t="n">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>识宝朝风扇啊啊啊的样子也太小孩了哈哈哈[2233娘_大笑]</t>
+          <t>哟，这不那谁吗</t>
         </is>
       </c>
       <c r="F85" t="n">
@@ -6680,37 +6673,33 @@
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4974046809</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>2021-07-23 18:16:41</t>
+          <t>2021-07-23 18:17:31</t>
         </is>
       </c>
       <c r="I85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J85" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K85" t="inlineStr">
         <is>
-          <t>296563884</t>
+          <t>4559635</t>
         </is>
       </c>
       <c r="L85" t="inlineStr">
         <is>
-          <t>保密</t>
-        </is>
-      </c>
-      <c r="M85" t="inlineStr">
-        <is>
-          <t>这个人是个懒狗，什么都没有写</t>
-        </is>
-      </c>
+          <t>男</t>
+        </is>
+      </c>
+      <c r="M85" t="inlineStr"/>
       <c r="N85" t="n">
         <v>5</v>
       </c>
@@ -6721,10 +6710,14 @@
       </c>
       <c r="P85" t="inlineStr">
         <is>
-          <t>斗破苍穹</t>
-        </is>
-      </c>
-      <c r="Q85" t="inlineStr"/>
+          <t>原神</t>
+        </is>
+      </c>
+      <c r="Q85" t="inlineStr">
+        <is>
+          <t>原神</t>
+        </is>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -6734,20 +6727,20 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>4974041268</t>
+          <t>4974045406</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>櫻之梦</t>
+          <t>月影心殇</t>
         </is>
       </c>
       <c r="D86" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>不送卡差评</t>
+          <t>识宝有两张，[热词系列_排面]</t>
         </is>
       </c>
       <c r="F86" t="n">
@@ -6760,11 +6753,11 @@
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>2021-07-23 18:16:33</t>
+          <t>2021-07-23 18:16:57</t>
         </is>
       </c>
       <c r="I86" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J86" t="inlineStr">
         <is>
@@ -6773,7 +6766,7 @@
       </c>
       <c r="K86" t="inlineStr">
         <is>
-          <t>386915650</t>
+          <t>503382801</t>
         </is>
       </c>
       <c r="L86" t="inlineStr">
@@ -6781,13 +6774,9 @@
           <t>保密</t>
         </is>
       </c>
-      <c r="M86" t="inlineStr">
-        <is>
-          <t>医学考研学习中…</t>
-        </is>
-      </c>
+      <c r="M86" t="inlineStr"/>
       <c r="N86" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="O86" t="inlineStr">
         <is>
@@ -6805,20 +6794,20 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>4974036012</t>
+          <t>4974045209</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>漆黑ノ白</t>
+          <t>月墮の零</t>
         </is>
       </c>
       <c r="D87" t="n">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>感觉好久没看到这句话了</t>
+          <t>[tv_点赞]新表情包get~</t>
         </is>
       </c>
       <c r="F87" t="n">
@@ -6826,25 +6815,25 @@
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>4974036012</t>
+          <t>0</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>2021-07-23 18:16:13</t>
+          <t>2021-07-23 18:16:52</t>
         </is>
       </c>
       <c r="I87" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="J87" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>网页</t>
         </is>
       </c>
       <c r="K87" t="inlineStr">
         <is>
-          <t>35648711</t>
+          <t>149018</t>
         </is>
       </c>
       <c r="L87" t="inlineStr">
@@ -6852,13 +6841,9 @@
           <t>保密</t>
         </is>
       </c>
-      <c r="M87" t="inlineStr">
-        <is>
-          <t>追逐幻影</t>
-        </is>
-      </c>
+      <c r="M87" t="inlineStr"/>
       <c r="N87" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O87" t="inlineStr">
         <is>
@@ -6866,7 +6851,11 @@
         </is>
       </c>
       <c r="P87" t="inlineStr"/>
-      <c r="Q87" t="inlineStr"/>
+      <c r="Q87" t="inlineStr">
+        <is>
+          <t>椎名菜羽</t>
+        </is>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -6876,256 +6865,473 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
+          <t>4974034792</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>北辰一刀流y</t>
+        </is>
+      </c>
+      <c r="D88" t="n">
+        <v>17</v>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>识宝朝风扇啊啊啊的样子也太小孩了哈哈哈[2233娘_大笑]</t>
+        </is>
+      </c>
+      <c r="F88" t="n">
+        <v>0</v>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>2021-07-23 18:16:41</t>
+        </is>
+      </c>
+      <c r="I88" t="n">
+        <v>1</v>
+      </c>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>安卓</t>
+        </is>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>296563884</t>
+        </is>
+      </c>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>保密</t>
+        </is>
+      </c>
+      <c r="M88" t="inlineStr">
+        <is>
+          <t>这个人是个懒狗，什么都没有写</t>
+        </is>
+      </c>
+      <c r="N88" t="n">
+        <v>5</v>
+      </c>
+      <c r="O88" t="inlineStr">
+        <is>
+          <t>大会员</t>
+        </is>
+      </c>
+      <c r="P88" t="inlineStr">
+        <is>
+          <t>斗破苍穹</t>
+        </is>
+      </c>
+      <c r="Q88" t="inlineStr"/>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>256667467</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>4974041268</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>櫻之梦</t>
+        </is>
+      </c>
+      <c r="D89" t="n">
+        <v>16</v>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>不送卡差评</t>
+        </is>
+      </c>
+      <c r="F89" t="n">
+        <v>0</v>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>2021-07-23 18:16:33</t>
+        </is>
+      </c>
+      <c r="I89" t="n">
+        <v>0</v>
+      </c>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>苹果</t>
+        </is>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>386915650</t>
+        </is>
+      </c>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>保密</t>
+        </is>
+      </c>
+      <c r="M89" t="inlineStr">
+        <is>
+          <t>医学考研学习中…</t>
+        </is>
+      </c>
+      <c r="N89" t="n">
+        <v>5</v>
+      </c>
+      <c r="O89" t="inlineStr">
+        <is>
+          <t>大会员</t>
+        </is>
+      </c>
+      <c r="P89" t="inlineStr"/>
+      <c r="Q89" t="inlineStr"/>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>256667467</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>4974036012</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>漆黑ノ白</t>
+        </is>
+      </c>
+      <c r="D90" t="n">
+        <v>1</v>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>感觉好久没看到这句话了</t>
+        </is>
+      </c>
+      <c r="F90" t="n">
+        <v>0</v>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>4974036012</t>
+        </is>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>2021-07-23 18:16:13</t>
+        </is>
+      </c>
+      <c r="I90" t="n">
+        <v>12</v>
+      </c>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>安卓</t>
+        </is>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>35648711</t>
+        </is>
+      </c>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>保密</t>
+        </is>
+      </c>
+      <c r="M90" t="inlineStr">
+        <is>
+          <t>追逐幻影</t>
+        </is>
+      </c>
+      <c r="N90" t="n">
+        <v>5</v>
+      </c>
+      <c r="O90" t="inlineStr">
+        <is>
+          <t>年度大会员</t>
+        </is>
+      </c>
+      <c r="P90" t="inlineStr"/>
+      <c r="Q90" t="inlineStr"/>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>256667467</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
           <t>4974040444</t>
         </is>
       </c>
-      <c r="C88" t="inlineStr">
+      <c r="C91" t="inlineStr">
         <is>
           <t>二十二的二次方</t>
         </is>
       </c>
-      <c r="D88" t="n">
+      <c r="D91" t="n">
         <v>15</v>
       </c>
-      <c r="E88" t="inlineStr">
+      <c r="E91" t="inlineStr">
         <is>
           <t>好肥哦</t>
         </is>
       </c>
-      <c r="F88" t="n">
-        <v>0</v>
-      </c>
-      <c r="G88" t="inlineStr">
+      <c r="F91" t="n">
+        <v>0</v>
+      </c>
+      <c r="G91" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="H88" t="inlineStr">
+      <c r="H91" t="inlineStr">
         <is>
           <t>2021-07-23 18:16:13</t>
         </is>
       </c>
-      <c r="I88" t="n">
-        <v>0</v>
-      </c>
-      <c r="J88" t="inlineStr">
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="inlineStr">
         <is>
           <t>安卓</t>
         </is>
       </c>
-      <c r="K88" t="inlineStr">
+      <c r="K91" t="inlineStr">
         <is>
           <t>27540972</t>
         </is>
       </c>
-      <c r="L88" t="inlineStr">
+      <c r="L91" t="inlineStr">
         <is>
           <t>保密</t>
         </is>
       </c>
-      <c r="M88" t="inlineStr">
+      <c r="M91" t="inlineStr">
         <is>
           <t>我喜欢原神崩三，人总不能连自己喜欢的东西都不敢承认吧，错的一直不是游戏而是人。
 以及八重樱赛高！！！！</t>
         </is>
       </c>
-      <c r="N88" t="n">
+      <c r="N91" t="n">
         <v>5</v>
       </c>
-      <c r="O88" t="inlineStr">
+      <c r="O91" t="inlineStr">
         <is>
           <t>大会员</t>
         </is>
       </c>
-      <c r="P88" t="inlineStr">
+      <c r="P91" t="inlineStr">
         <is>
           <t>原神</t>
         </is>
       </c>
-      <c r="Q88" t="inlineStr">
+      <c r="Q91" t="inlineStr">
         <is>
           <t>崩坏3·天穹流星</t>
         </is>
       </c>
     </row>
-    <row r="89">
-      <c r="A89" t="inlineStr">
-        <is>
-          <t>256667467</t>
-        </is>
-      </c>
-      <c r="B89" t="inlineStr">
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>256667467</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
         <is>
           <t>4974033561</t>
         </is>
       </c>
-      <c r="C89" t="inlineStr">
+      <c r="C92" t="inlineStr">
         <is>
           <t>东风41D洲际战略核导弹</t>
         </is>
       </c>
-      <c r="D89" t="n">
+      <c r="D92" t="n">
         <v>14</v>
       </c>
-      <c r="E89" t="inlineStr">
+      <c r="E92" t="inlineStr">
         <is>
           <t>在？能不能出个琪亚娜1:7的手办？顺带给琪亚娜霓裳挂画补一下货！[生气]</t>
         </is>
       </c>
-      <c r="F89" t="n">
-        <v>0</v>
-      </c>
-      <c r="G89" t="inlineStr">
+      <c r="F92" t="n">
+        <v>0</v>
+      </c>
+      <c r="G92" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="H89" t="inlineStr">
+      <c r="H92" t="inlineStr">
         <is>
           <t>2021-07-23 18:16:11</t>
         </is>
       </c>
-      <c r="I89" t="n">
+      <c r="I92" t="n">
         <v>16</v>
       </c>
-      <c r="J89" t="inlineStr">
+      <c r="J92" t="inlineStr">
         <is>
           <t>苹果</t>
         </is>
       </c>
-      <c r="K89" t="inlineStr">
+      <c r="K92" t="inlineStr">
         <is>
           <t>350738745</t>
         </is>
       </c>
-      <c r="L89" t="inlineStr">
+      <c r="L92" t="inlineStr">
         <is>
           <t>男</t>
         </is>
       </c>
-      <c r="M89" t="inlineStr">
+      <c r="M92" t="inlineStr">
         <is>
           <t>无～</t>
         </is>
       </c>
-      <c r="N89" t="n">
+      <c r="N92" t="n">
         <v>5</v>
       </c>
-      <c r="O89" t="inlineStr">
+      <c r="O92" t="inlineStr">
         <is>
           <t>年度大会员</t>
         </is>
       </c>
-      <c r="P89" t="inlineStr">
+      <c r="P92" t="inlineStr">
         <is>
           <t>原神</t>
         </is>
       </c>
-      <c r="Q89" t="inlineStr">
+      <c r="Q92" t="inlineStr">
         <is>
           <t>崩坏3·天穹流星</t>
         </is>
       </c>
     </row>
-    <row r="90">
-      <c r="A90" t="inlineStr">
-        <is>
-          <t>256667467</t>
-        </is>
-      </c>
-      <c r="B90" t="inlineStr">
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>256667467</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
         <is>
           <t>4974032578</t>
         </is>
       </c>
-      <c r="C90" t="inlineStr">
+      <c r="C93" t="inlineStr">
         <is>
           <t>魔法少爷Daddy</t>
         </is>
       </c>
-      <c r="D90" t="n">
+      <c r="D93" t="n">
         <v>13</v>
       </c>
-      <c r="E90" t="inlineStr">
+      <c r="E93" t="inlineStr">
         <is>
           <t>B站能用吗？[脱单doge]</t>
         </is>
       </c>
-      <c r="F90" t="n">
-        <v>0</v>
-      </c>
-      <c r="G90" t="inlineStr">
+      <c r="F93" t="n">
+        <v>0</v>
+      </c>
+      <c r="G93" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="H90" t="inlineStr">
+      <c r="H93" t="inlineStr">
         <is>
           <t>2021-07-23 18:15:47</t>
         </is>
       </c>
-      <c r="I90" t="n">
-        <v>20</v>
-      </c>
-      <c r="J90" t="inlineStr">
+      <c r="I93" t="n">
+        <v>21</v>
+      </c>
+      <c r="J93" t="inlineStr">
         <is>
           <t>安卓</t>
         </is>
       </c>
-      <c r="K90" t="inlineStr">
+      <c r="K93" t="inlineStr">
         <is>
           <t>347850432</t>
         </is>
       </c>
-      <c r="L90" t="inlineStr">
+      <c r="L93" t="inlineStr">
         <is>
           <t>保密</t>
         </is>
       </c>
-      <c r="M90" t="inlineStr">
+      <c r="M93" t="inlineStr">
         <is>
           <t>❕该帐号封禁中</t>
         </is>
       </c>
-      <c r="N90" t="n">
+      <c r="N93" t="n">
         <v>4</v>
       </c>
-      <c r="O90" t="inlineStr">
+      <c r="O93" t="inlineStr">
         <is>
           <t>大会员</t>
         </is>
       </c>
-      <c r="P90" t="inlineStr">
+      <c r="P93" t="inlineStr">
         <is>
           <t>2021拜年纪</t>
         </is>
       </c>
-      <c r="Q90" t="inlineStr">
+      <c r="Q93" t="inlineStr">
         <is>
           <t>2021拜年纪</t>
         </is>
       </c>
     </row>
-    <row r="91">
-      <c r="A91" t="inlineStr">
-        <is>
-          <t>256667467</t>
-        </is>
-      </c>
-      <c r="B91" t="inlineStr">
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>256667467</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
         <is>
           <t>4974023960</t>
         </is>
       </c>
-      <c r="C91" t="inlineStr">
+      <c r="C94" t="inlineStr">
         <is>
           <t>帅哥冬东</t>
         </is>
       </c>
-      <c r="D91" t="n">
+      <c r="D94" t="n">
         <v>11</v>
       </c>
-      <c r="E91" t="inlineStr">
+      <c r="E94" t="inlineStr">
         <is>
           <t>喂喂，听得到吗？这边是刺耳的杂音。
 这边淘宝花费260获得的重装月兔外面签到获得什么时候给个解释?
@@ -7140,249 +7346,40 @@
 2021.7.23</t>
         </is>
       </c>
-      <c r="F91" t="n">
+      <c r="F94" t="n">
         <v>2</v>
       </c>
-      <c r="G91" t="inlineStr">
+      <c r="G94" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="H91" t="inlineStr">
+      <c r="H94" t="inlineStr">
         <is>
           <t>2021-07-23 18:15:19</t>
         </is>
       </c>
-      <c r="I91" t="n">
+      <c r="I94" t="n">
         <v>3</v>
       </c>
-      <c r="J91" t="inlineStr">
+      <c r="J94" t="inlineStr">
         <is>
           <t>安卓</t>
         </is>
       </c>
-      <c r="K91" t="inlineStr">
+      <c r="K94" t="inlineStr">
         <is>
           <t>25322750</t>
         </is>
       </c>
-      <c r="L91" t="inlineStr">
+      <c r="L94" t="inlineStr">
         <is>
           <t>男</t>
-        </is>
-      </c>
-      <c r="M91" t="inlineStr"/>
-      <c r="N91" t="n">
-        <v>5</v>
-      </c>
-      <c r="O91" t="inlineStr">
-        <is>
-          <t>大会员</t>
-        </is>
-      </c>
-      <c r="P91" t="inlineStr"/>
-      <c r="Q91" t="inlineStr"/>
-    </row>
-    <row r="92">
-      <c r="A92" t="inlineStr">
-        <is>
-          <t>256667467</t>
-        </is>
-      </c>
-      <c r="B92" t="inlineStr">
-        <is>
-          <t>4974030846</t>
-        </is>
-      </c>
-      <c r="C92" t="inlineStr">
-        <is>
-          <t>hello_rain</t>
-        </is>
-      </c>
-      <c r="D92" t="n">
-        <v>10</v>
-      </c>
-      <c r="E92" t="inlineStr">
-        <is>
-          <t>识宝怎么憨憨的？[doge]</t>
-        </is>
-      </c>
-      <c r="F92" t="n">
-        <v>0</v>
-      </c>
-      <c r="G92" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H92" t="inlineStr">
-        <is>
-          <t>2021-07-23 18:15:06</t>
-        </is>
-      </c>
-      <c r="I92" t="n">
-        <v>0</v>
-      </c>
-      <c r="J92" t="inlineStr">
-        <is>
-          <t>安卓</t>
-        </is>
-      </c>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>85982269</t>
-        </is>
-      </c>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>男</t>
-        </is>
-      </c>
-      <c r="M92" t="inlineStr"/>
-      <c r="N92" t="n">
-        <v>5</v>
-      </c>
-      <c r="O92" t="inlineStr">
-        <is>
-          <t>年度大会员</t>
-        </is>
-      </c>
-      <c r="P92" t="inlineStr">
-        <is>
-          <t>凹凸世界</t>
-        </is>
-      </c>
-      <c r="Q92" t="inlineStr"/>
-    </row>
-    <row r="93">
-      <c r="A93" t="inlineStr">
-        <is>
-          <t>256667467</t>
-        </is>
-      </c>
-      <c r="B93" t="inlineStr">
-        <is>
-          <t>4974027064</t>
-        </is>
-      </c>
-      <c r="C93" t="inlineStr">
-        <is>
-          <t>1340732447</t>
-        </is>
-      </c>
-      <c r="D93" t="n">
-        <v>9</v>
-      </c>
-      <c r="E93" t="inlineStr">
-        <is>
-          <t>为什么没有绯狱丸的表情包</t>
-        </is>
-      </c>
-      <c r="F93" t="n">
-        <v>0</v>
-      </c>
-      <c r="G93" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H93" t="inlineStr">
-        <is>
-          <t>2021-07-23 18:14:58</t>
-        </is>
-      </c>
-      <c r="I93" t="n">
-        <v>0</v>
-      </c>
-      <c r="J93" t="inlineStr">
-        <is>
-          <t>安卓</t>
-        </is>
-      </c>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>1801856</t>
-        </is>
-      </c>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>男</t>
-        </is>
-      </c>
-      <c r="M93" t="inlineStr"/>
-      <c r="N93" t="n">
-        <v>5</v>
-      </c>
-      <c r="O93" t="inlineStr">
-        <is>
-          <t>年度大会员</t>
-        </is>
-      </c>
-      <c r="P93" t="inlineStr"/>
-      <c r="Q93" t="inlineStr">
-        <is>
-          <t>崩坏3·天穹流星</t>
-        </is>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" t="inlineStr">
-        <is>
-          <t>256667467</t>
-        </is>
-      </c>
-      <c r="B94" t="inlineStr">
-        <is>
-          <t>4974026948</t>
-        </is>
-      </c>
-      <c r="C94" t="inlineStr">
-        <is>
-          <t>很非的嘤樱怪</t>
-        </is>
-      </c>
-      <c r="D94" t="n">
-        <v>8</v>
-      </c>
-      <c r="E94" t="inlineStr">
-        <is>
-          <t>希儿[打call]</t>
-        </is>
-      </c>
-      <c r="F94" t="n">
-        <v>0</v>
-      </c>
-      <c r="G94" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H94" t="inlineStr">
-        <is>
-          <t>2021-07-23 18:14:56</t>
-        </is>
-      </c>
-      <c r="I94" t="n">
-        <v>1</v>
-      </c>
-      <c r="J94" t="inlineStr">
-        <is>
-          <t>安卓</t>
-        </is>
-      </c>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>495136074</t>
-        </is>
-      </c>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>保密</t>
         </is>
       </c>
       <c r="M94" t="inlineStr"/>
       <c r="N94" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="O94" t="inlineStr">
         <is>
@@ -7400,20 +7397,20 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>4974022894</t>
+          <t>4974030846</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>秋风悲-夏雨泪</t>
+          <t>hello_rain</t>
         </is>
       </c>
       <c r="D95" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>第一[藏狐]</t>
+          <t>识宝怎么憨憨的？[doge]</t>
         </is>
       </c>
       <c r="F95" t="n">
@@ -7426,7 +7423,7 @@
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>2021-07-23 18:14:51</t>
+          <t>2021-07-23 18:15:06</t>
         </is>
       </c>
       <c r="I95" t="n">
@@ -7439,7 +7436,7 @@
       </c>
       <c r="K95" t="inlineStr">
         <is>
-          <t>347550815</t>
+          <t>85982269</t>
         </is>
       </c>
       <c r="L95" t="inlineStr">
@@ -7447,20 +7444,20 @@
           <t>男</t>
         </is>
       </c>
-      <c r="M95" t="inlineStr">
-        <is>
-          <t>二次元萌新，请多多指教。</t>
-        </is>
-      </c>
+      <c r="M95" t="inlineStr"/>
       <c r="N95" t="n">
         <v>5</v>
       </c>
       <c r="O95" t="inlineStr">
         <is>
-          <t>大会员</t>
-        </is>
-      </c>
-      <c r="P95" t="inlineStr"/>
+          <t>年度大会员</t>
+        </is>
+      </c>
+      <c r="P95" t="inlineStr">
+        <is>
+          <t>凹凸世界</t>
+        </is>
+      </c>
       <c r="Q95" t="inlineStr"/>
     </row>
     <row r="96">
@@ -7471,20 +7468,20 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>4974022736</t>
+          <t>4974027064</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>叶陨辰迹</t>
+          <t>1340732447</t>
         </is>
       </c>
       <c r="D96" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>前排踢你pg[脱单doge]</t>
+          <t>为什么没有绯狱丸的表情包</t>
         </is>
       </c>
       <c r="F96" t="n">
@@ -7497,7 +7494,7 @@
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>2021-07-23 18:14:47</t>
+          <t>2021-07-23 18:14:58</t>
         </is>
       </c>
       <c r="I96" t="n">
@@ -7510,7 +7507,7 @@
       </c>
       <c r="K96" t="inlineStr">
         <is>
-          <t>277697315</t>
+          <t>1801856</t>
         </is>
       </c>
       <c r="L96" t="inlineStr">
@@ -7524,11 +7521,15 @@
       </c>
       <c r="O96" t="inlineStr">
         <is>
-          <t>大会员</t>
+          <t>年度大会员</t>
         </is>
       </c>
       <c r="P96" t="inlineStr"/>
-      <c r="Q96" t="inlineStr"/>
+      <c r="Q96" t="inlineStr">
+        <is>
+          <t>崩坏3·天穹流星</t>
+        </is>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -7538,7 +7539,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>4974026405</t>
+          <t>4974026948</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -7547,11 +7548,11 @@
         </is>
       </c>
       <c r="D97" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>丽塔[打call]</t>
+          <t>希儿[打call]</t>
         </is>
       </c>
       <c r="F97" t="n">
@@ -7564,11 +7565,11 @@
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>2021-07-23 18:14:43</t>
+          <t>2021-07-23 18:14:56</t>
         </is>
       </c>
       <c r="I97" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J97" t="inlineStr">
         <is>
@@ -7605,24 +7606,24 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>4974019538</t>
+          <t>4974022894</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>南宫司雀</t>
+          <t>秋风悲-夏雨泪</t>
         </is>
       </c>
       <c r="D98" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>老梗来一遍，今超爱？[doge]</t>
+          <t>第一[藏狐]</t>
         </is>
       </c>
       <c r="F98" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="G98" t="inlineStr">
         <is>
@@ -7631,11 +7632,11 @@
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>2021-07-23 18:14:33</t>
+          <t>2021-07-23 18:14:51</t>
         </is>
       </c>
       <c r="I98" t="n">
-        <v>321</v>
+        <v>0</v>
       </c>
       <c r="J98" t="inlineStr">
         <is>
@@ -7644,17 +7645,17 @@
       </c>
       <c r="K98" t="inlineStr">
         <is>
-          <t>346525097</t>
+          <t>347550815</t>
         </is>
       </c>
       <c r="L98" t="inlineStr">
         <is>
-          <t>保密</t>
+          <t>男</t>
         </is>
       </c>
       <c r="M98" t="inlineStr">
         <is>
-          <t>不定期更新。</t>
+          <t>二次元萌新，请多多指教。</t>
         </is>
       </c>
       <c r="N98" t="n">
@@ -7676,20 +7677,20 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>4974019342</t>
+          <t>4974022736</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>哭泣的贤者</t>
+          <t>叶陨辰迹</t>
         </is>
       </c>
       <c r="D99" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>[藏狐]</t>
+          <t>前排踢你pg[脱单doge]</t>
         </is>
       </c>
       <c r="F99" t="n">
@@ -7702,7 +7703,7 @@
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>2021-07-23 18:14:28</t>
+          <t>2021-07-23 18:14:47</t>
         </is>
       </c>
       <c r="I99" t="n">
@@ -7715,12 +7716,12 @@
       </c>
       <c r="K99" t="inlineStr">
         <is>
-          <t>123252656</t>
+          <t>277697315</t>
         </is>
       </c>
       <c r="L99" t="inlineStr">
         <is>
-          <t>保密</t>
+          <t>男</t>
         </is>
       </c>
       <c r="M99" t="inlineStr"/>
@@ -7734,6 +7735,211 @@
       </c>
       <c r="P99" t="inlineStr"/>
       <c r="Q99" t="inlineStr"/>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>256667467</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>4974026405</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>很非的嘤樱怪</t>
+        </is>
+      </c>
+      <c r="D100" t="n">
+        <v>4</v>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>丽塔[打call]</t>
+        </is>
+      </c>
+      <c r="F100" t="n">
+        <v>0</v>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H100" t="inlineStr">
+        <is>
+          <t>2021-07-23 18:14:43</t>
+        </is>
+      </c>
+      <c r="I100" t="n">
+        <v>3</v>
+      </c>
+      <c r="J100" t="inlineStr">
+        <is>
+          <t>安卓</t>
+        </is>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>495136074</t>
+        </is>
+      </c>
+      <c r="L100" t="inlineStr">
+        <is>
+          <t>保密</t>
+        </is>
+      </c>
+      <c r="M100" t="inlineStr"/>
+      <c r="N100" t="n">
+        <v>4</v>
+      </c>
+      <c r="O100" t="inlineStr">
+        <is>
+          <t>大会员</t>
+        </is>
+      </c>
+      <c r="P100" t="inlineStr"/>
+      <c r="Q100" t="inlineStr"/>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>256667467</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>4974019538</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>南宫司雀</t>
+        </is>
+      </c>
+      <c r="D101" t="n">
+        <v>3</v>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>老梗来一遍，今超爱？[doge]</t>
+        </is>
+      </c>
+      <c r="F101" t="n">
+        <v>22</v>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t>2021-07-23 18:14:33</t>
+        </is>
+      </c>
+      <c r="I101" t="n">
+        <v>328</v>
+      </c>
+      <c r="J101" t="inlineStr">
+        <is>
+          <t>安卓</t>
+        </is>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>346525097</t>
+        </is>
+      </c>
+      <c r="L101" t="inlineStr">
+        <is>
+          <t>保密</t>
+        </is>
+      </c>
+      <c r="M101" t="inlineStr">
+        <is>
+          <t>不定期更新。</t>
+        </is>
+      </c>
+      <c r="N101" t="n">
+        <v>5</v>
+      </c>
+      <c r="O101" t="inlineStr">
+        <is>
+          <t>大会员</t>
+        </is>
+      </c>
+      <c r="P101" t="inlineStr"/>
+      <c r="Q101" t="inlineStr"/>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>256667467</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>4974019342</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>哭泣的贤者</t>
+        </is>
+      </c>
+      <c r="D102" t="n">
+        <v>1</v>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>[藏狐]</t>
+        </is>
+      </c>
+      <c r="F102" t="n">
+        <v>0</v>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H102" t="inlineStr">
+        <is>
+          <t>2021-07-23 18:14:28</t>
+        </is>
+      </c>
+      <c r="I102" t="n">
+        <v>0</v>
+      </c>
+      <c r="J102" t="inlineStr">
+        <is>
+          <t>安卓</t>
+        </is>
+      </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>123252656</t>
+        </is>
+      </c>
+      <c r="L102" t="inlineStr">
+        <is>
+          <t>保密</t>
+        </is>
+      </c>
+      <c r="M102" t="inlineStr"/>
+      <c r="N102" t="n">
+        <v>5</v>
+      </c>
+      <c r="O102" t="inlineStr">
+        <is>
+          <t>大会员</t>
+        </is>
+      </c>
+      <c r="P102" t="inlineStr"/>
+      <c r="Q102" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/bh3/550601222371727765_2021-07-23_18-13-57.xlsx
+++ b/bh3/550601222371727765_2021-07-23_18-13-57.xlsx
@@ -515,20 +515,20 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>5004844996</t>
+          <t>5021940869</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>何不R</t>
+          <t>伊玔Kasylana</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>70</v>
+        <v>-1</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>我宣布我支持ch一切决定，玩家不满全都是玩家的错，再杠你们也是千人律者[doge]</t>
+          <t>乆乆乆乆乆乆乆乆乆乆乆</t>
         </is>
       </c>
       <c r="F2" t="n">
@@ -536,12 +536,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5021940869</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2021-07-27 19:30:43</t>
+          <t>2021-07-29 20:29:57</t>
         </is>
       </c>
       <c r="I2" t="n">
@@ -549,12 +549,12 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>网页</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>1719757053</t>
+          <t>35421357</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
@@ -564,15 +564,27 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>：D</t>
+          <t>愿薪火相传，美德不灭。</t>
         </is>
       </c>
       <c r="N2" t="n">
-        <v>2</v>
-      </c>
-      <c r="O2" t="inlineStr"/>
-      <c r="P2" t="inlineStr"/>
-      <c r="Q2" t="inlineStr"/>
+        <v>5</v>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>年度大会员</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>原神</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>原神</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -582,20 +594,20 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>5003803568</t>
+          <t>5004844996</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>违规昵称处理通知呵呵</t>
+          <t>何不R</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>-1</v>
+        <v>70</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>乌合之众？</t>
+          <t>我宣布我支持ch一切决定，玩家不满全都是玩家的错，再杠你们也是千人律者[doge]</t>
         </is>
       </c>
       <c r="F3" t="n">
@@ -603,12 +615,12 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>5003803568</t>
+          <t>0</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2021-07-27 17:21:16</t>
+          <t>2021-07-27 19:30:43</t>
         </is>
       </c>
       <c r="I3" t="n">
@@ -616,12 +628,12 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>网页</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>259851623</t>
+          <t>1719757053</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
@@ -631,17 +643,13 @@
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>想冲的私信</t>
+          <t>：D</t>
         </is>
       </c>
       <c r="N3" t="n">
-        <v>5</v>
-      </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>大会员</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="O3" t="inlineStr"/>
       <c r="P3" t="inlineStr"/>
       <c r="Q3" t="inlineStr"/>
     </row>
@@ -653,139 +661,135 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>5003803568</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>违规昵称处理通知呵呵</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>-1</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>乌合之众？</t>
+        </is>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>5003803568</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>2021-07-27 17:21:16</t>
+        </is>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>未知</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>259851623</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>保密</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>想冲的私信</t>
+        </is>
+      </c>
+      <c r="N4" t="n">
+        <v>5</v>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>大会员</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr"/>
+      <c r="Q4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>256667467</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>5000256491</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C5" t="inlineStr">
         <is>
           <t>mhy养殖鸡场</t>
         </is>
       </c>
-      <c r="D4" t="n">
+      <c r="D5" t="n">
         <v>69</v>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>0.98mhy概率诈骗，实际概率与文案不符合。开天剑 原效果为主动攻击削弱100%防御，后因为骗氪改为80%。凰剑在1.8版本之前效果为火伤增加118%?来着？后因为炎八新角色砍为每击附加118火伤?2.2，2.3连着2个S，炽翎，冰卡 惹到氪金佬 ，停氪弃坑新S滚，然后连续2版本送这2个S角色。空中劈叉，第二次夏日活动文案直接骂玩家是空中劈叉的睿智清洁工。二周年就是个nt周年庆，让玩家各种肝肝肝凹排名拿限定徽章。双塌缩，好像是月轮可以靠闪避打出双塌缩低成本打龙虾，后面修复。黑皮蛋改版，战圣鬼 直接秒黑蛋 不符合预期，直接官方修改黑蛋设定。游骑兵十字架，这个武器可以低成本拿丽塔BOSS高分，后因为低成本 直接不符合预期给你改数据。无限激光，山吹未增幅前大招在激光攻击时候可以直接释放不会终止攻击，即利用大招攻击脆弱敌人回血，再利用量子2主动聚怪，可以低成本打无尽深渊，最开始官方确定了是设定没问题，后面直接翻脸 不符合预期，更改了这个技能。大月卡蛋黄，最开始出凭证没有说过那个蛋黄期限，后面4.2版本突然说那个东西有期限了，导致玩家之前几个版本想屯蛋黄换后续好东西的直接玩完，然后官方并且推出 玩家亏本蛋黄置换蛋紫的方案，公然压榨玩家。佐罗套，这套圣痕在beta服有bug，快乐猎人可以触发 回血更多，降低无尽深渊成本，官方不修复，但是在佐罗套up后几个小时突然说修复，然后补偿了1k水晶来着？连10连都不够。雷刀-鬼角 这装备一直都有个问题 攻击附带40%雷伤来着？忘了 反正给月光用当初很厉害 超越了电磁炮，后面几个版本后不符合预期 补偿点水晶修复...反正多的去了。 只要威胁到官方的利益 从装备到玩家自己开拓的玩法，全部砍。
 我会在每个动态下发一遍，什么叫用户粘性啊（后仰）</t>
         </is>
       </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="inlineStr">
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>2021-07-27 08:08:18</t>
         </is>
       </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="inlineStr">
+      <c r="I5" t="n">
+        <v>3</v>
+      </c>
+      <c r="J5" t="inlineStr">
         <is>
           <t>安卓</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t>28446194</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="L5" t="inlineStr">
         <is>
           <t>男</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr"/>
-      <c r="N4" t="n">
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="n">
         <v>5</v>
       </c>
-      <c r="O4" t="inlineStr">
+      <c r="O5" t="inlineStr">
         <is>
           <t>年度大会员</t>
         </is>
       </c>
-      <c r="P4" t="inlineStr"/>
-      <c r="Q4" t="inlineStr"/>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>256667467</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>4989391476</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>白毛薛定谔</t>
-        </is>
-      </c>
-      <c r="D5" t="n">
-        <v>-1</v>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>看满离[doge]</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>4989391476</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>2021-07-25 19:46:03</t>
-        </is>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>未知</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>349251074</t>
-        </is>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>保密</t>
-        </is>
-      </c>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>究极懒汉，想更就更～(￣▽￣～)(～￣▽￣)～</t>
-        </is>
-      </c>
-      <c r="N5" t="n">
-        <v>4</v>
-      </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>大会员</t>
-        </is>
-      </c>
-      <c r="P5" t="inlineStr">
-        <is>
-          <t>BW2020</t>
-        </is>
-      </c>
+      <c r="P5" t="inlineStr"/>
       <c r="Q5" t="inlineStr"/>
     </row>
     <row r="6">
@@ -796,20 +800,20 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>4985409612</t>
+          <t>4989391476</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>黑羽丶沫白</t>
+          <t>白毛薛定谔</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>人偶怎么还在啊</t>
+          <t>看满离[doge]</t>
         </is>
       </c>
       <c r="F6" t="n">
@@ -817,12 +821,12 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>4985409612</t>
+          <t>4989391476</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>2021-07-25 09:03:40</t>
+          <t>2021-07-25 19:46:03</t>
         </is>
       </c>
       <c r="I6" t="n">
@@ -830,12 +834,12 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>6131259</t>
+          <t>349251074</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
@@ -845,27 +849,23 @@
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>这个人是个憨批</t>
+          <t>究极懒汉，想更就更～(￣▽￣～)(～￣▽￣)～</t>
         </is>
       </c>
       <c r="N6" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>年度大会员</t>
+          <t>大会员</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>崩坏3·天穹流星</t>
-        </is>
-      </c>
-      <c r="Q6" t="inlineStr">
-        <is>
-          <t>崩坏3·天穹流星</t>
-        </is>
-      </c>
+          <t>BW2020</t>
+        </is>
+      </c>
+      <c r="Q6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -875,20 +875,20 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>4984853533</t>
+          <t>4985409612</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>残翼之幻影</t>
+          <t>黑羽丶沫白</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>干，回不去了[tv_白眼]</t>
+          <t>人偶怎么还在啊</t>
         </is>
       </c>
       <c r="F7" t="n">
@@ -896,47 +896,55 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>4984853533</t>
+          <t>4985409612</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>2021-07-25 04:21:20</t>
+          <t>2021-07-25 09:03:40</t>
         </is>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>344600257</t>
+          <t>6131259</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>男</t>
+          <t>保密</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>在游戏中寻找另一种可能性</t>
+          <t>这个人是个憨批</t>
         </is>
       </c>
       <c r="N7" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O7" t="inlineStr">
         <is>
           <t>年度大会员</t>
         </is>
       </c>
-      <c r="P7" t="inlineStr"/>
-      <c r="Q7" t="inlineStr"/>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>崩坏3·天穹流星</t>
+        </is>
+      </c>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>崩坏3·天穹流星</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -946,12 +954,12 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>4980306948</t>
+          <t>4984853533</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>宵宫ず</t>
+          <t>残翼之幻影</t>
         </is>
       </c>
       <c r="D8" t="n">
@@ -959,7 +967,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>啊这</t>
+          <t>干，回不去了[tv_白眼]</t>
         </is>
       </c>
       <c r="F8" t="n">
@@ -967,12 +975,12 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>4980306948</t>
+          <t>4984853533</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>2021-07-24 15:05:29</t>
+          <t>2021-07-25 04:21:20</t>
         </is>
       </c>
       <c r="I8" t="n">
@@ -980,22 +988,22 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>133155882</t>
+          <t>344600257</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>保密</t>
+          <t>男</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>《单推人》</t>
+          <t>在游戏中寻找另一种可能性</t>
         </is>
       </c>
       <c r="N8" t="n">
@@ -1003,19 +1011,11 @@
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>大会员</t>
-        </is>
-      </c>
-      <c r="P8" t="inlineStr">
-        <is>
-          <t>呜米</t>
-        </is>
-      </c>
-      <c r="Q8" t="inlineStr">
-        <is>
-          <t>呜米</t>
-        </is>
-      </c>
+          <t>年度大会员</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr"/>
+      <c r="Q8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1025,37 +1025,37 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>4977912700</t>
+          <t>4980306948</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>大师傅x</t>
+          <t>宵宫ず</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>67</v>
+        <v>-1</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>爬</t>
+          <t>啊这</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4980306948</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>2021-07-24 08:19:10</t>
+          <t>2021-07-24 15:05:29</t>
         </is>
       </c>
       <c r="I9" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
@@ -1064,15 +1064,19 @@
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>20568348</t>
+          <t>133155882</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>男</t>
-        </is>
-      </c>
-      <c r="M9" t="inlineStr"/>
+          <t>保密</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>《单推人》</t>
+        </is>
+      </c>
       <c r="N9" t="n">
         <v>5</v>
       </c>
@@ -1081,8 +1085,16 @@
           <t>大会员</t>
         </is>
       </c>
-      <c r="P9" t="inlineStr"/>
-      <c r="Q9" t="inlineStr"/>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>呜米</t>
+        </is>
+      </c>
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>呜米</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1092,138 +1104,126 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
+          <t>4977912700</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>大师傅x</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>67</v>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>爬</t>
+        </is>
+      </c>
+      <c r="F10" t="n">
+        <v>5</v>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>2021-07-24 08:19:10</t>
+        </is>
+      </c>
+      <c r="I10" t="n">
+        <v>5</v>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>未知</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>20568348</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>男</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr"/>
+      <c r="N10" t="n">
+        <v>5</v>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>大会员</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr"/>
+      <c r="Q10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>256667467</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
           <t>4977855933</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="C11" t="inlineStr">
         <is>
           <t>神里淩华</t>
         </is>
       </c>
-      <c r="D10" t="n">
+      <c r="D11" t="n">
         <v>66</v>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>找个人跟我用图4/5希儿情侣头像[doge]</t>
         </is>
       </c>
-      <c r="F10" t="n">
-        <v>0</v>
-      </c>
-      <c r="G10" t="inlineStr">
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
+      <c r="H11" t="inlineStr">
         <is>
           <t>2021-07-24 08:00:28</t>
         </is>
       </c>
-      <c r="I10" t="n">
-        <v>1</v>
-      </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>安卓</t>
-        </is>
-      </c>
-      <c r="K10" t="inlineStr">
+      <c r="I11" t="n">
+        <v>2</v>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>未知</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
         <is>
           <t>57747963</t>
         </is>
       </c>
-      <c r="L10" t="inlineStr">
+      <c r="L11" t="inlineStr">
         <is>
           <t>女</t>
         </is>
       </c>
-      <c r="M10" t="inlineStr">
+      <c r="M11" t="inlineStr">
         <is>
           <t>卧槽，我竟然是原批！(´°̥̥̥̥̥̥̥̥ω°̥̥̥̥̥̥̥̥｀)
 原批，原批，嗯？原胚？哪有原胚！</t>
         </is>
       </c>
-      <c r="N10" t="n">
-        <v>5</v>
-      </c>
-      <c r="O10" t="inlineStr">
-        <is>
-          <t>年度大会员</t>
-        </is>
-      </c>
-      <c r="P10" t="inlineStr">
-        <is>
-          <t>神里绫华</t>
-        </is>
-      </c>
-      <c r="Q10" t="inlineStr">
-        <is>
-          <t>hanser</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>256667467</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>4976484153</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>Edmond_Dontes</t>
-        </is>
-      </c>
-      <c r="D11" t="n">
-        <v>63</v>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>是夏天，好耶！！！</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>0</v>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>2021-07-23 23:35:20</t>
-        </is>
-      </c>
-      <c r="I11" t="n">
-        <v>1</v>
-      </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>安卓</t>
-        </is>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>5422614</t>
-        </is>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>男</t>
-        </is>
-      </c>
-      <c r="M11" t="inlineStr">
-        <is>
-          <t>爱是丝线，希望是织布者，愿吾等的纹样中充满祝福。</t>
-        </is>
-      </c>
       <c r="N11" t="n">
         <v>5</v>
       </c>
@@ -1234,12 +1234,12 @@
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>明日方舟</t>
+          <t>神里绫华</t>
         </is>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>原神</t>
+          <t>hanser</t>
         </is>
       </c>
     </row>
@@ -1251,20 +1251,20 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>4976252099</t>
+          <t>4976484153</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>风后沉木</t>
+          <t>Edmond_Dontes</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>-1</v>
+        <v>63</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>艹</t>
+          <t>是夏天，好耶！！！</t>
         </is>
       </c>
       <c r="F12" t="n">
@@ -1272,16 +1272,16 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>4976252099</t>
+          <t>0</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>2021-07-23 23:05:53</t>
+          <t>2021-07-23 23:35:20</t>
         </is>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J12" t="inlineStr">
         <is>
@@ -1290,29 +1290,37 @@
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>293223906</t>
+          <t>5422614</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>保密</t>
+          <t>男</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>一遍又一遍地确认存在</t>
+          <t>爱是丝线，希望是织布者，愿吾等的纹样中充满祝福。</t>
         </is>
       </c>
       <c r="N12" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="O12" t="inlineStr">
         <is>
           <t>年度大会员</t>
         </is>
       </c>
-      <c r="P12" t="inlineStr"/>
-      <c r="Q12" t="inlineStr"/>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>明日方舟</t>
+        </is>
+      </c>
+      <c r="Q12" t="inlineStr">
+        <is>
+          <t>原神</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1322,12 +1330,12 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>4976010134</t>
+          <t>4976252099</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>资深舰长</t>
+          <t>风后沉木</t>
         </is>
       </c>
       <c r="D13" t="n">
@@ -1335,7 +1343,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>以前的评论区终于回来了[笑哭][笑哭]</t>
+          <t>艹</t>
         </is>
       </c>
       <c r="F13" t="n">
@@ -1343,12 +1351,12 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>4976010134</t>
+          <t>4976252099</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>2021-07-23 22:36:09</t>
+          <t>2021-07-23 23:05:53</t>
         </is>
       </c>
       <c r="I13" t="n">
@@ -1356,12 +1364,12 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>175409874</t>
+          <t>293223906</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
@@ -1369,25 +1377,21 @@
           <t>保密</t>
         </is>
       </c>
-      <c r="M13" t="inlineStr"/>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>一遍又一遍地确认存在</t>
+        </is>
+      </c>
       <c r="N13" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>大会员</t>
-        </is>
-      </c>
-      <c r="P13" t="inlineStr">
-        <is>
-          <t>崩坏3·天穹流星</t>
-        </is>
-      </c>
-      <c r="Q13" t="inlineStr">
-        <is>
-          <t>崩坏3·天穹流星</t>
-        </is>
-      </c>
+          <t>年度大会员</t>
+        </is>
+      </c>
+      <c r="P13" t="inlineStr"/>
+      <c r="Q13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1397,12 +1401,12 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>4975563347</t>
+          <t>4976010134</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>多吃包菜身体好</t>
+          <t>资深舰长</t>
         </is>
       </c>
       <c r="D14" t="n">
@@ -1410,7 +1414,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>回复 @崩坏3 :三蹦子，开心点，至少你超过了米游社的那个牛角包</t>
+          <t>以前的评论区终于回来了[笑哭][笑哭]</t>
         </is>
       </c>
       <c r="F14" t="n">
@@ -1418,12 +1422,12 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>4974131160</t>
+          <t>4976010134</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>2021-07-23 21:41:34</t>
+          <t>2021-07-23 22:36:09</t>
         </is>
       </c>
       <c r="I14" t="n">
@@ -1431,12 +1435,12 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>115250934</t>
+          <t>175409874</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
@@ -1446,7 +1450,7 @@
       </c>
       <c r="M14" t="inlineStr"/>
       <c r="N14" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="O14" t="inlineStr">
         <is>
@@ -1472,20 +1476,20 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>4975543259</t>
+          <t>4975563347</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>龙虎一生推哟</t>
+          <t>多吃包菜身体好</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>62</v>
+        <v>-1</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>识宝太可爱了 快给老子抱抱</t>
+          <t>回复 @崩坏3 :三蹦子，开心点，至少你超过了米游社的那个牛角包</t>
         </is>
       </c>
       <c r="F15" t="n">
@@ -1493,12 +1497,12 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4974131160</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>2021-07-23 21:39:01</t>
+          <t>2021-07-23 21:41:34</t>
         </is>
       </c>
       <c r="I15" t="n">
@@ -1506,40 +1510,36 @@
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>苹果</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>11086956</t>
+          <t>115250934</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>男</t>
-        </is>
-      </c>
-      <c r="M15" t="inlineStr">
-        <is>
-          <t>大河与龙儿，还有亚美、实乃梨、北村，一定要幸福啊！</t>
-        </is>
-      </c>
+          <t>保密</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr"/>
       <c r="N15" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>年度大会员</t>
+          <t>大会员</t>
         </is>
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>拳皇</t>
+          <t>崩坏3·天穹流星</t>
         </is>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>碧蓝航线2020</t>
+          <t>崩坏3·天穹流星</t>
         </is>
       </c>
     </row>
@@ -1551,20 +1551,20 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>4975465141</t>
+          <t>4975543259</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>新世紀鹹魚戰士</t>
+          <t>龙虎一生推哟</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>-1</v>
+        <v>62</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>回复 @崩坏3 :今超原？[doge]</t>
+          <t>识宝太可爱了 快给老子抱抱</t>
         </is>
       </c>
       <c r="F16" t="n">
@@ -1572,12 +1572,12 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>4974131160</t>
+          <t>0</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>2021-07-23 21:28:00</t>
+          <t>2021-07-23 21:39:01</t>
         </is>
       </c>
       <c r="I16" t="n">
@@ -1585,12 +1585,12 @@
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>网页</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>361795316</t>
+          <t>11086956</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
@@ -1598,17 +1598,29 @@
           <t>男</t>
         </is>
       </c>
-      <c r="M16" t="inlineStr"/>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>大河与龙儿，还有亚美、实乃梨、北村，一定要幸福啊！</t>
+        </is>
+      </c>
       <c r="N16" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>大会员</t>
-        </is>
-      </c>
-      <c r="P16" t="inlineStr"/>
-      <c r="Q16" t="inlineStr"/>
+          <t>年度大会员</t>
+        </is>
+      </c>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>拳皇</t>
+        </is>
+      </c>
+      <c r="Q16" t="inlineStr">
+        <is>
+          <t>碧蓝航线2020</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1618,12 +1630,12 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>4975306917</t>
+          <t>4975465141</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>无名的小宅</t>
+          <t>新世紀鹹魚戰士</t>
         </is>
       </c>
       <c r="D17" t="n">
@@ -1631,7 +1643,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>回复 @崩坏3 :今超鹿？[doge]</t>
+          <t>回复 @崩坏3 :今超原？[doge]</t>
         </is>
       </c>
       <c r="F17" t="n">
@@ -1644,7 +1656,7 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>2021-07-23 21:06:48</t>
+          <t>2021-07-23 21:28:00</t>
         </is>
       </c>
       <c r="I17" t="n">
@@ -1652,38 +1664,30 @@
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>440120576</t>
+          <t>361795316</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>保密</t>
+          <t>男</t>
         </is>
       </c>
       <c r="M17" t="inlineStr"/>
       <c r="N17" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="O17" t="inlineStr">
         <is>
           <t>大会员</t>
         </is>
       </c>
-      <c r="P17" t="inlineStr">
-        <is>
-          <t>良辰美景·不问天</t>
-        </is>
-      </c>
-      <c r="Q17" t="inlineStr">
-        <is>
-          <t>崩坏3·天穹流星</t>
-        </is>
-      </c>
+      <c r="P17" t="inlineStr"/>
+      <c r="Q17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1693,130 +1697,142 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
+          <t>4975306917</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>无名的小宅</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>-1</v>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>回复 @崩坏3 :今超鹿？[doge]</t>
+        </is>
+      </c>
+      <c r="F18" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>4974131160</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>2021-07-23 21:06:48</t>
+        </is>
+      </c>
+      <c r="I18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>未知</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>440120576</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>保密</t>
+        </is>
+      </c>
+      <c r="M18" t="inlineStr"/>
+      <c r="N18" t="n">
+        <v>4</v>
+      </c>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>大会员</t>
+        </is>
+      </c>
+      <c r="P18" t="inlineStr">
+        <is>
+          <t>良辰美景·不问天</t>
+        </is>
+      </c>
+      <c r="Q18" t="inlineStr">
+        <is>
+          <t>崩坏3·天穹流星</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>256667467</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
           <t>4975297596</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="C19" t="inlineStr">
         <is>
           <t>改掉这破ID</t>
         </is>
       </c>
-      <c r="D18" t="n">
+      <c r="D19" t="n">
         <v>61</v>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="E19" t="inlineStr">
         <is>
           <t>我什么时候能看到呆鹅，主线活动都没存在感[大哭]</t>
         </is>
       </c>
-      <c r="F18" t="n">
-        <v>0</v>
-      </c>
-      <c r="G18" t="inlineStr">
+      <c r="F19" t="n">
+        <v>0</v>
+      </c>
+      <c r="G19" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
+      <c r="H19" t="inlineStr">
         <is>
           <t>2021-07-23 21:06:01</t>
         </is>
       </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
-      <c r="J18" t="inlineStr">
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="inlineStr">
         <is>
           <t>安卓</t>
         </is>
       </c>
-      <c r="K18" t="inlineStr">
+      <c r="K19" t="inlineStr">
         <is>
           <t>27631207</t>
         </is>
       </c>
-      <c r="L18" t="inlineStr">
+      <c r="L19" t="inlineStr">
         <is>
           <t>保密</t>
         </is>
       </c>
-      <c r="M18" t="inlineStr">
+      <c r="M19" t="inlineStr">
         <is>
           <t xml:space="preserve">
     </t>
         </is>
       </c>
-      <c r="N18" t="n">
+      <c r="N19" t="n">
         <v>5</v>
       </c>
-      <c r="O18" t="inlineStr">
+      <c r="O19" t="inlineStr">
         <is>
           <t>大会员</t>
         </is>
       </c>
-      <c r="P18" t="inlineStr"/>
-      <c r="Q18" t="inlineStr"/>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>256667467</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>4975236290</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>泳君</t>
-        </is>
-      </c>
-      <c r="D19" t="n">
-        <v>60</v>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>@崩坏3第一偶像爱酱 @崩坏3 @崩坏3 @崩坏3 崩坏3高级区，打深渊卡住啦，这不快点搞一下那个怪，有血量，但是看不到怪，被读死了，我重进了三四次都不行，嗯？重新开始打到最后，就是有一个怪卡在那里</t>
-        </is>
-      </c>
-      <c r="F19" t="n">
-        <v>0</v>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>2021-07-23 20:57:48</t>
-        </is>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="inlineStr">
-        <is>
-          <t>安卓</t>
-        </is>
-      </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>2110035331</t>
-        </is>
-      </c>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>保密</t>
-        </is>
-      </c>
-      <c r="M19" t="inlineStr"/>
-      <c r="N19" t="n">
-        <v>2</v>
-      </c>
-      <c r="O19" t="inlineStr"/>
       <c r="P19" t="inlineStr"/>
       <c r="Q19" t="inlineStr"/>
     </row>
@@ -1828,20 +1844,20 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>4975157612</t>
+          <t>4975236290</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>冰棘23</t>
+          <t>泳君</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>-1</v>
+        <v>60</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>看满离[doge]</t>
+          <t>@崩坏3第一偶像爱酱 @崩坏3 @崩坏3 @崩坏3 崩坏3高级区，打深渊卡住啦，这不快点搞一下那个怪，有血量，但是看不到怪，被读死了，我重进了三四次都不行，嗯？重新开始打到最后，就是有一个怪卡在那里</t>
         </is>
       </c>
       <c r="F20" t="n">
@@ -1849,12 +1865,12 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>4975157612</t>
+          <t>0</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>2021-07-23 20:47:29</t>
+          <t>2021-07-23 20:57:48</t>
         </is>
       </c>
       <c r="I20" t="n">
@@ -1867,7 +1883,7 @@
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>2035760191</t>
+          <t>2110035331</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
@@ -1891,76 +1907,60 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>4975027242</t>
+          <t>4975157612</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>爱丽丝日常白给</t>
+          <t>冰棘23</t>
         </is>
       </c>
       <c r="D21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>看满离[doge]</t>
+        </is>
+      </c>
+      <c r="F21" t="n">
+        <v>0</v>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>4975157612</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>2021-07-23 20:47:29</t>
+        </is>
+      </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>安卓</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>2035760191</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>保密</t>
+        </is>
+      </c>
+      <c r="M21" t="inlineStr"/>
+      <c r="N21" t="n">
         <v>2</v>
       </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>回复 @七重樱嘤嘤嘤 :7.9号的那个动态咯，到现在都没个信</t>
-        </is>
-      </c>
-      <c r="F21" t="n">
-        <v>0</v>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>4974958215</t>
-        </is>
-      </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>2021-07-23 20:29:07</t>
-        </is>
-      </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
-      <c r="J21" t="inlineStr">
-        <is>
-          <t>安卓</t>
-        </is>
-      </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>1795287</t>
-        </is>
-      </c>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>女</t>
-        </is>
-      </c>
-      <c r="M21" t="inlineStr">
-        <is>
-          <t>生活让人们失望，游戏反而鼓励人们找到希望；生活没有教会人们的道理游戏反而教会了，真是讽刺</t>
-        </is>
-      </c>
-      <c r="N21" t="n">
-        <v>6</v>
-      </c>
-      <c r="O21" t="inlineStr">
-        <is>
-          <t>年度大会员</t>
-        </is>
-      </c>
-      <c r="P21" t="inlineStr">
-        <is>
-          <t>少女前线</t>
-        </is>
-      </c>
-      <c r="Q21" t="inlineStr">
-        <is>
-          <t>三周年恋曲</t>
-        </is>
-      </c>
+      <c r="O21" t="inlineStr"/>
+      <c r="P21" t="inlineStr"/>
+      <c r="Q21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1970,20 +1970,20 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>4975020698</t>
+          <t>4975027242</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>い粉笺难赋</t>
+          <t>爱丽丝日常白给</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>59</v>
+        <v>2</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>识宝真可爱啊</t>
+          <t>回复 @七重樱嘤嘤嘤 :7.9号的那个动态咯，到现在都没个信</t>
         </is>
       </c>
       <c r="F22" t="n">
@@ -1991,12 +1991,12 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4974958215</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>2021-07-23 20:28:05</t>
+          <t>2021-07-23 20:29:07</t>
         </is>
       </c>
       <c r="I22" t="n">
@@ -2004,26 +2004,26 @@
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>网页</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>276970091</t>
+          <t>1795287</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>男</t>
+          <t>女</t>
         </is>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>别这样，再这样，我拳头都硬了</t>
+          <t>生活让人们失望，游戏反而鼓励人们找到希望；生活没有教会人们的道理游戏反而教会了，真是讽刺</t>
         </is>
       </c>
       <c r="N22" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O22" t="inlineStr">
         <is>
@@ -2032,12 +2032,12 @@
       </c>
       <c r="P22" t="inlineStr">
         <is>
-          <t>hanser</t>
+          <t>少女前线</t>
         </is>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>鹿乃</t>
+          <t>三周年恋曲</t>
         </is>
       </c>
     </row>
@@ -2049,20 +2049,20 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>4974976400</t>
+          <t>4975020698</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>陌梓希</t>
+          <t>い粉笺难赋</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>识宝麻麻爱你[给心心]等等，我上仙呢[惊讶]阿符不在，等下孩子闹起来可没人能唬得住[藏狐]</t>
+          <t>识宝真可爱啊</t>
         </is>
       </c>
       <c r="F23" t="n">
@@ -2075,7 +2075,7 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>2021-07-23 20:21:45</t>
+          <t>2021-07-23 20:28:05</t>
         </is>
       </c>
       <c r="I23" t="n">
@@ -2083,22 +2083,22 @@
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>网页</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>290845597</t>
+          <t>276970091</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>保密</t>
+          <t>男</t>
         </is>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ( ゜- ゜)つロ 干杯</t>
+          <t>别这样，再这样，我拳头都硬了</t>
         </is>
       </c>
       <c r="N23" t="n">
@@ -2109,8 +2109,16 @@
           <t>年度大会员</t>
         </is>
       </c>
-      <c r="P23" t="inlineStr"/>
-      <c r="Q23" t="inlineStr"/>
+      <c r="P23" t="inlineStr">
+        <is>
+          <t>hanser</t>
+        </is>
+      </c>
+      <c r="Q23" t="inlineStr">
+        <is>
+          <t>鹿乃</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -2120,20 +2128,20 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>4974958215</t>
+          <t>4974976400</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>七重樱嘤嘤嘤</t>
+          <t>陌梓希</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>1</v>
+        <v>58</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>咋？你中奖了？</t>
+          <t>识宝麻麻爱你[给心心]等等，我上仙呢[惊讶]阿符不在，等下孩子闹起来可没人能唬得住[藏狐]</t>
         </is>
       </c>
       <c r="F24" t="n">
@@ -2141,12 +2149,12 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>4974958215</t>
+          <t>0</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>2021-07-23 20:20:20</t>
+          <t>2021-07-23 20:21:45</t>
         </is>
       </c>
       <c r="I24" t="n">
@@ -2154,42 +2162,34 @@
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>苹果</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>12006065</t>
+          <t>290845597</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>男</t>
+          <t>保密</t>
         </is>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>一次是偶然，两次是巧合，三次就是恶性事件了。</t>
+          <t xml:space="preserve"> ( ゜- ゜)つロ 干杯</t>
         </is>
       </c>
       <c r="N24" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="O24" t="inlineStr">
         <is>
           <t>年度大会员</t>
         </is>
       </c>
-      <c r="P24" t="inlineStr">
-        <is>
-          <t>崩坏3·天穹流星</t>
-        </is>
-      </c>
-      <c r="Q24" t="inlineStr">
-        <is>
-          <t>崩坏3·天穹流星</t>
-        </is>
-      </c>
+      <c r="P24" t="inlineStr"/>
+      <c r="Q24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -2199,20 +2199,20 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>4974941228</t>
+          <t>4974958215</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>b站太棒捏</t>
+          <t>七重樱嘤嘤嘤</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>57</v>
+        <v>1</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>为毛没兔女郎</t>
+          <t>咋？你中奖了？</t>
         </is>
       </c>
       <c r="F25" t="n">
@@ -2220,47 +2220,55 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4974958215</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>2021-07-23 20:17:09</t>
+          <t>2021-07-23 20:20:20</t>
         </is>
       </c>
       <c r="I25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>99364443</t>
+          <t>12006065</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>保密</t>
+          <t>男</t>
         </is>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>淦</t>
+          <t>一次是偶然，两次是巧合，三次就是恶性事件了。</t>
         </is>
       </c>
       <c r="N25" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>大会员</t>
-        </is>
-      </c>
-      <c r="P25" t="inlineStr"/>
-      <c r="Q25" t="inlineStr"/>
+          <t>年度大会员</t>
+        </is>
+      </c>
+      <c r="P25" t="inlineStr">
+        <is>
+          <t>崩坏3·天穹流星</t>
+        </is>
+      </c>
+      <c r="Q25" t="inlineStr">
+        <is>
+          <t>崩坏3·天穹流星</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -2270,20 +2278,20 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>4974857837</t>
+          <t>4974941228</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>泥土中的樱花</t>
+          <t>b站太棒捏</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>-1</v>
+        <v>57</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>不忍直视[灵魂出窍]</t>
+          <t>为毛没兔女郎</t>
         </is>
       </c>
       <c r="F26" t="n">
@@ -2291,12 +2299,12 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>4974857837</t>
+          <t>0</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>2021-07-23 20:06:28</t>
+          <t>2021-07-23 20:17:09</t>
         </is>
       </c>
       <c r="I26" t="n">
@@ -2309,7 +2317,7 @@
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>14263038</t>
+          <t>99364443</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
@@ -2319,27 +2327,19 @@
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>烟波浩淼的东湖</t>
+          <t>淦</t>
         </is>
       </c>
       <c r="N26" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="O26" t="inlineStr">
         <is>
           <t>大会员</t>
         </is>
       </c>
-      <c r="P26" t="inlineStr">
-        <is>
-          <t>雪未来</t>
-        </is>
-      </c>
-      <c r="Q26" t="inlineStr">
-        <is>
-          <t>2021拜年纪</t>
-        </is>
-      </c>
+      <c r="P26" t="inlineStr"/>
+      <c r="Q26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -2349,12 +2349,12 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>4974837959</t>
+          <t>4974857837</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>古明地覺得不行</t>
+          <t>泥土中的樱花</t>
         </is>
       </c>
       <c r="D27" t="n">
@@ -2362,7 +2362,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>看满离[doge]</t>
+          <t>不忍直视[灵魂出窍]</t>
         </is>
       </c>
       <c r="F27" t="n">
@@ -2370,47 +2370,55 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>4974837959</t>
+          <t>4974857837</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>2021-07-23 20:03:17</t>
+          <t>2021-07-23 20:06:28</t>
         </is>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>74341467</t>
+          <t>14263038</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>男</t>
+          <t>保密</t>
         </is>
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>所以饿神到底是个啥 ＾▽＾</t>
+          <t>烟波浩淼的东湖</t>
         </is>
       </c>
       <c r="N27" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O27" t="inlineStr">
         <is>
           <t>大会员</t>
         </is>
       </c>
-      <c r="P27" t="inlineStr"/>
-      <c r="Q27" t="inlineStr"/>
+      <c r="P27" t="inlineStr">
+        <is>
+          <t>雪未来</t>
+        </is>
+      </c>
+      <c r="Q27" t="inlineStr">
+        <is>
+          <t>2021拜年纪</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -2420,12 +2428,12 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>4974811071</t>
+          <t>4974837959</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>远方的彩虹海</t>
+          <t>古明地覺得不行</t>
         </is>
       </c>
       <c r="D28" t="n">
@@ -2433,7 +2441,7 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>蛮恶臭的，别玩了，这就像女生对其他女生荡妇羞辱一样，都是射到草人上的箭，现在咱怎么欢快玩梗，将来拳师就怎么打咱们。</t>
+          <t>看满离[doge]</t>
         </is>
       </c>
       <c r="F28" t="n">
@@ -2441,12 +2449,12 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>4974811071</t>
+          <t>4974837959</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>2021-07-23 19:59:32</t>
+          <t>2021-07-23 20:03:17</t>
         </is>
       </c>
       <c r="I28" t="n">
@@ -2454,12 +2462,12 @@
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>苹果</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>255954947</t>
+          <t>74341467</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
@@ -2469,7 +2477,7 @@
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>惊涛入海觅螭虎，风雪归山斩妖邪。</t>
+          <t>所以饿神到底是个啥 ＾▽＾</t>
         </is>
       </c>
       <c r="N28" t="n">
@@ -2491,20 +2499,20 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>4974735780</t>
+          <t>4974811071</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>养鸽能手小黄</t>
+          <t>远方的彩虹海</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>56</v>
+        <v>-1</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>识 宝 可 爱 妈妈爱[给心心]</t>
+          <t>蛮恶臭的，别玩了，这就像女生对其他女生荡妇羞辱一样，都是射到草人上的箭，现在咱怎么欢快玩梗，将来拳师就怎么打咱们。</t>
         </is>
       </c>
       <c r="F29" t="n">
@@ -2512,25 +2520,25 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4974811071</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>2021-07-23 19:49:31</t>
+          <t>2021-07-23 19:59:32</t>
         </is>
       </c>
       <c r="I29" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>苹果</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>44597512</t>
+          <t>255954947</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
@@ -2540,11 +2548,11 @@
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>这个人一点也不懒，但他就是没写︿(￣︶￣)︿</t>
+          <t>惊涛入海觅螭虎，风雪归山斩妖邪。</t>
         </is>
       </c>
       <c r="N29" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="O29" t="inlineStr">
         <is>
@@ -2562,20 +2570,20 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>4974657720</t>
+          <t>4974735780</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>白色立方糖</t>
+          <t>养鸽能手小黄</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>罗莎莉娅那个表情包好嗨呀[笑哭]</t>
+          <t>识 宝 可 爱 妈妈爱[给心心]</t>
         </is>
       </c>
       <c r="F30" t="n">
@@ -2588,20 +2596,20 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>2021-07-23 19:39:09</t>
+          <t>2021-07-23 19:49:31</t>
         </is>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>442275517</t>
+          <t>44597512</t>
         </is>
       </c>
       <c r="L30" t="inlineStr">
@@ -2611,13 +2619,17 @@
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>做一个真实的自己，开心就好。</t>
+          <t>这个人一点也不懒，但他就是没写︿(￣︶￣)︿</t>
         </is>
       </c>
       <c r="N30" t="n">
-        <v>4</v>
-      </c>
-      <c r="O30" t="inlineStr"/>
+        <v>6</v>
+      </c>
+      <c r="O30" t="inlineStr">
+        <is>
+          <t>大会员</t>
+        </is>
+      </c>
       <c r="P30" t="inlineStr"/>
       <c r="Q30" t="inlineStr"/>
     </row>
@@ -2629,20 +2641,20 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>4974655342</t>
+          <t>4974657720</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>椎名真曰</t>
+          <t>白色立方糖</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>我~~们~~是~~地~~球~~人~~</t>
+          <t>罗莎莉娅那个表情包好嗨呀[笑哭]</t>
         </is>
       </c>
       <c r="F31" t="n">
@@ -2655,40 +2667,36 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>2021-07-23 19:38:17</t>
+          <t>2021-07-23 19:39:09</t>
         </is>
       </c>
       <c r="I31" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>网页</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>507199496</t>
+          <t>442275517</t>
         </is>
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>保密</t>
+          <t>男</t>
         </is>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>岁月静好</t>
+          <t>做一个真实的自己，开心就好。</t>
         </is>
       </c>
       <c r="N31" t="n">
         <v>4</v>
       </c>
-      <c r="O31" t="inlineStr">
-        <is>
-          <t>大会员</t>
-        </is>
-      </c>
+      <c r="O31" t="inlineStr"/>
       <c r="P31" t="inlineStr"/>
       <c r="Q31" t="inlineStr"/>
     </row>
@@ -2700,20 +2708,20 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>4974556569</t>
+          <t>4974655342</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>梦游月</t>
+          <t>椎名真曰</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>-1</v>
+        <v>54</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>我那个很大，你忍一下[崩坏3_糖葫芦]</t>
+          <t>我~~们~~是~~地~~球~~人~~</t>
         </is>
       </c>
       <c r="F32" t="n">
@@ -2721,51 +2729,47 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>4974556569</t>
+          <t>0</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>2021-07-23 19:25:52</t>
+          <t>2021-07-23 19:38:17</t>
         </is>
       </c>
       <c r="I32" t="n">
+        <v>2</v>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>网页</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>507199496</t>
+        </is>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>保密</t>
+        </is>
+      </c>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>岁月静好</t>
+        </is>
+      </c>
+      <c r="N32" t="n">
         <v>4</v>
       </c>
-      <c r="J32" t="inlineStr">
-        <is>
-          <t>安卓</t>
-        </is>
-      </c>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>92912408</t>
-        </is>
-      </c>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>男</t>
-        </is>
-      </c>
-      <c r="M32" t="inlineStr">
-        <is>
-          <t>赤鸢仙人，我没有说谎</t>
-        </is>
-      </c>
-      <c r="N32" t="n">
-        <v>5</v>
-      </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>年度大会员</t>
+          <t>大会员</t>
         </is>
       </c>
       <c r="P32" t="inlineStr"/>
-      <c r="Q32" t="inlineStr">
-        <is>
-          <t>原神</t>
-        </is>
-      </c>
+      <c r="Q32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -2775,20 +2779,20 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>4974537365</t>
+          <t>4974556569</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>胖子还有小男孩</t>
+          <t>梦游月</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>53</v>
+        <v>-1</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>[原神_哇][原神_哼][原神_嗯][原神_欸嘿][原神_喝茶][原神_生气]</t>
+          <t>我那个很大，你忍一下[崩坏3_糖葫芦]</t>
         </is>
       </c>
       <c r="F33" t="n">
@@ -2796,16 +2800,16 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4974556569</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>2021-07-23 19:23:22</t>
+          <t>2021-07-23 19:25:52</t>
         </is>
       </c>
       <c r="I33" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J33" t="inlineStr">
         <is>
@@ -2814,7 +2818,7 @@
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>171877728</t>
+          <t>92912408</t>
         </is>
       </c>
       <c r="L33" t="inlineStr">
@@ -2822,17 +2826,25 @@
           <t>男</t>
         </is>
       </c>
-      <c r="M33" t="inlineStr"/>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>赤鸢仙人，我没有说谎</t>
+        </is>
+      </c>
       <c r="N33" t="n">
         <v>5</v>
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>大会员</t>
+          <t>年度大会员</t>
         </is>
       </c>
       <c r="P33" t="inlineStr"/>
-      <c r="Q33" t="inlineStr"/>
+      <c r="Q33" t="inlineStr">
+        <is>
+          <t>原神</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -2842,20 +2854,20 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>4974446826</t>
+          <t>4974537365</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>绫濑艾莉娅-Official</t>
+          <t>胖子还有小男孩</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>-1</v>
+        <v>53</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>就你离谱</t>
+          <t>[原神_哇][原神_哼][原神_嗯][原神_欸嘿][原神_喝茶][原神_生气]</t>
         </is>
       </c>
       <c r="F34" t="n">
@@ -2863,12 +2875,12 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>4974446826</t>
+          <t>0</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>2021-07-23 19:11:15</t>
+          <t>2021-07-23 19:23:22</t>
         </is>
       </c>
       <c r="I34" t="n">
@@ -2881,37 +2893,25 @@
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>270737513</t>
+          <t>171877728</t>
         </is>
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>保密</t>
-        </is>
-      </c>
-      <c r="M34" t="inlineStr">
-        <is>
-          <t>这里是Aria，是一位DD，目前在上高中，请多多关照。</t>
-        </is>
-      </c>
+          <t>男</t>
+        </is>
+      </c>
+      <c r="M34" t="inlineStr"/>
       <c r="N34" t="n">
         <v>5</v>
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>年度大会员</t>
-        </is>
-      </c>
-      <c r="P34" t="inlineStr">
-        <is>
-          <t>还有醒着的么</t>
-        </is>
-      </c>
-      <c r="Q34" t="inlineStr">
-        <is>
-          <t>希萝Hiiro</t>
-        </is>
-      </c>
+          <t>大会员</t>
+        </is>
+      </c>
+      <c r="P34" t="inlineStr"/>
+      <c r="Q34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -2921,37 +2921,37 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>4974378784</t>
+          <t>4974446826</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>爱丽丝日常白给</t>
+          <t>绫濑艾莉娅-Official</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>52</v>
+        <v>-1</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>在?转发中奖的事给我个回信?</t>
+          <t>就你离谱</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4974446826</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>2021-07-23 19:02:20</t>
+          <t>2021-07-23 19:11:15</t>
         </is>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J35" t="inlineStr">
         <is>
@@ -2960,21 +2960,21 @@
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>1795287</t>
+          <t>270737513</t>
         </is>
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>女</t>
+          <t>保密</t>
         </is>
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>生活让人们失望，游戏反而鼓励人们找到希望；生活没有教会人们的道理游戏反而教会了，真是讽刺</t>
+          <t>这里是Aria，是一位DD，目前在上高中，请多多关照。</t>
         </is>
       </c>
       <c r="N35" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="O35" t="inlineStr">
         <is>
@@ -2983,12 +2983,12 @@
       </c>
       <c r="P35" t="inlineStr">
         <is>
-          <t>少女前线</t>
+          <t>还有醒着的么</t>
         </is>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
-          <t>三周年恋曲</t>
+          <t>希萝Hiiro</t>
         </is>
       </c>
     </row>
@@ -3000,33 +3000,33 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>4974364070</t>
+          <t>4974378784</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>起风瓜瓜格</t>
+          <t>爱丽丝日常白给</t>
         </is>
       </c>
       <c r="D36" t="n">
+        <v>52</v>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>在?转发中奖的事给我个回信?</t>
+        </is>
+      </c>
+      <c r="F36" t="n">
         <v>2</v>
       </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>俺也一样[崩坏3_口水]</t>
-        </is>
-      </c>
-      <c r="F36" t="n">
-        <v>0</v>
-      </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>4974364070</t>
+          <t>0</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>2021-07-23 19:00:41</t>
+          <t>2021-07-23 19:02:20</t>
         </is>
       </c>
       <c r="I36" t="n">
@@ -3039,29 +3039,37 @@
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>286329857</t>
+          <t>1795287</t>
         </is>
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>保密</t>
-        </is>
-      </c>
-      <c r="M36" t="inlineStr"/>
+          <t>女</t>
+        </is>
+      </c>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>生活让人们失望，游戏反而鼓励人们找到希望；生活没有教会人们的道理游戏反而教会了，真是讽刺</t>
+        </is>
+      </c>
       <c r="N36" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>大会员</t>
+          <t>年度大会员</t>
         </is>
       </c>
       <c r="P36" t="inlineStr">
         <is>
-          <t>小闪电</t>
-        </is>
-      </c>
-      <c r="Q36" t="inlineStr"/>
+          <t>少女前线</t>
+        </is>
+      </c>
+      <c r="Q36" t="inlineStr">
+        <is>
+          <t>三周年恋曲</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -3071,20 +3079,20 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>4974353773</t>
+          <t>4974364070</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>这个名字我竟无言以对</t>
+          <t>起风瓜瓜格</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>51</v>
+        <v>2</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>[崩坏3_口水]</t>
+          <t>俺也一样[崩坏3_口水]</t>
         </is>
       </c>
       <c r="F37" t="n">
@@ -3092,12 +3100,12 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4974364070</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>2021-07-23 18:59:38</t>
+          <t>2021-07-23 19:00:41</t>
         </is>
       </c>
       <c r="I37" t="n">
@@ -3110,7 +3118,7 @@
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>73457516</t>
+          <t>286329857</t>
         </is>
       </c>
       <c r="L37" t="inlineStr">
@@ -3118,29 +3126,21 @@
           <t>保密</t>
         </is>
       </c>
-      <c r="M37" t="inlineStr">
-        <is>
-          <t>身为正骨老中医，不要问我为什么这么强。我会告诉你，久病成良医啊！</t>
-        </is>
-      </c>
+      <c r="M37" t="inlineStr"/>
       <c r="N37" t="n">
         <v>5</v>
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>年度大会员</t>
+          <t>大会员</t>
         </is>
       </c>
       <c r="P37" t="inlineStr">
         <is>
-          <t>洛天依9th生日纪念</t>
-        </is>
-      </c>
-      <c r="Q37" t="inlineStr">
-        <is>
-          <t>洛天依9th生日纪念</t>
-        </is>
-      </c>
+          <t>小闪电</t>
+        </is>
+      </c>
+      <c r="Q37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -3150,20 +3150,20 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>4974360909</t>
+          <t>4974353773</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>晓歌冬渔</t>
+          <t>这个名字我竟无言以对</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>-1</v>
+        <v>51</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>韩国舰长[辣眼睛]</t>
+          <t>[崩坏3_口水]</t>
         </is>
       </c>
       <c r="F38" t="n">
@@ -3171,16 +3171,16 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>4974360909</t>
+          <t>0</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>2021-07-23 18:59:31</t>
+          <t>2021-07-23 18:59:38</t>
         </is>
       </c>
       <c r="I38" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="J38" t="inlineStr">
         <is>
@@ -3189,7 +3189,7 @@
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>36117689</t>
+          <t>73457516</t>
         </is>
       </c>
       <c r="L38" t="inlineStr">
@@ -3199,19 +3199,27 @@
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>（つ*'ω'*c）</t>
+          <t>身为正骨老中医，不要问我为什么这么强。我会告诉你，久病成良医啊！</t>
         </is>
       </c>
       <c r="N38" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>大会员</t>
-        </is>
-      </c>
-      <c r="P38" t="inlineStr"/>
-      <c r="Q38" t="inlineStr"/>
+          <t>年度大会员</t>
+        </is>
+      </c>
+      <c r="P38" t="inlineStr">
+        <is>
+          <t>洛天依9th生日纪念</t>
+        </is>
+      </c>
+      <c r="Q38" t="inlineStr">
+        <is>
+          <t>洛天依9th生日纪念</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -3221,12 +3229,12 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>4974347908</t>
+          <t>4974360909</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>千凋家的凋凋子派蒙</t>
+          <t>晓歌冬渔</t>
         </is>
       </c>
       <c r="D39" t="n">
@@ -3234,7 +3242,7 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>回复 @42584845195_bili :大草[原神_喝茶]</t>
+          <t>韩国舰长[辣眼睛]</t>
         </is>
       </c>
       <c r="F39" t="n">
@@ -3242,25 +3250,25 @@
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>4974142271</t>
+          <t>4974360909</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>2021-07-23 18:58:25</t>
+          <t>2021-07-23 18:59:31</t>
         </is>
       </c>
       <c r="I39" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>319187707</t>
+          <t>36117689</t>
         </is>
       </c>
       <c r="L39" t="inlineStr">
@@ -3268,7 +3276,11 @@
           <t>保密</t>
         </is>
       </c>
-      <c r="M39" t="inlineStr"/>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>（つ*'ω'*c）</t>
+        </is>
+      </c>
       <c r="N39" t="n">
         <v>4</v>
       </c>
@@ -3288,12 +3300,12 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>4974334796</t>
+          <t>4974347908</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>夜お金</t>
+          <t>千凋家的凋凋子派蒙</t>
         </is>
       </c>
       <c r="D40" t="n">
@@ -3301,7 +3313,7 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>看满离[doge]</t>
+          <t>回复 @42584845195_bili :大草[原神_喝茶]</t>
         </is>
       </c>
       <c r="F40" t="n">
@@ -3309,16 +3321,16 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>4974334796</t>
+          <t>4974142271</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>2021-07-23 18:57:17</t>
+          <t>2021-07-23 18:58:25</t>
         </is>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J40" t="inlineStr">
         <is>
@@ -3327,7 +3339,7 @@
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>324060656</t>
+          <t>319187707</t>
         </is>
       </c>
       <c r="L40" t="inlineStr">
@@ -3335,29 +3347,17 @@
           <t>保密</t>
         </is>
       </c>
-      <c r="M40" t="inlineStr">
-        <is>
-          <t>平平淡淡才是真</t>
-        </is>
-      </c>
+      <c r="M40" t="inlineStr"/>
       <c r="N40" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="O40" t="inlineStr">
         <is>
           <t>大会员</t>
         </is>
       </c>
-      <c r="P40" t="inlineStr">
-        <is>
-          <t>崩坏3·天穹流星</t>
-        </is>
-      </c>
-      <c r="Q40" t="inlineStr">
-        <is>
-          <t>崩坏3·天穹流星</t>
-        </is>
-      </c>
+      <c r="P40" t="inlineStr"/>
+      <c r="Q40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -3367,20 +3367,20 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>4974336354</t>
+          <t>4974334796</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>冬月伊织</t>
+          <t>夜お金</t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>50</v>
+        <v>-1</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>识宝对风扇发声也太憨了[大笑]</t>
+          <t>看满离[doge]</t>
         </is>
       </c>
       <c r="F41" t="n">
@@ -3388,12 +3388,12 @@
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4974334796</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>2021-07-23 18:56:21</t>
+          <t>2021-07-23 18:57:17</t>
         </is>
       </c>
       <c r="I41" t="n">
@@ -3406,7 +3406,7 @@
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>9365560</t>
+          <t>324060656</t>
         </is>
       </c>
       <c r="L41" t="inlineStr">
@@ -3416,7 +3416,7 @@
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>今天依旧是没有中奖的一天呢~</t>
+          <t>平平淡淡才是真</t>
         </is>
       </c>
       <c r="N41" t="n">
@@ -3424,12 +3424,12 @@
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>年度大会员</t>
+          <t>大会员</t>
         </is>
       </c>
       <c r="P41" t="inlineStr">
         <is>
-          <t>萌宠小兔挂件</t>
+          <t>崩坏3·天穹流星</t>
         </is>
       </c>
       <c r="Q41" t="inlineStr">
@@ -3446,20 +3446,20 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>4974319504</t>
+          <t>4974336354</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Emotional_梓皓</t>
+          <t>冬月伊织</t>
         </is>
       </c>
       <c r="D42" t="n">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>上大号？</t>
+          <t>识宝对风扇发声也太憨了[大笑]</t>
         </is>
       </c>
       <c r="F42" t="n">
@@ -3467,12 +3467,12 @@
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>4974319504</t>
+          <t>0</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>2021-07-23 18:55:33</t>
+          <t>2021-07-23 18:56:21</t>
         </is>
       </c>
       <c r="I42" t="n">
@@ -3480,22 +3480,22 @@
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>396422021</t>
+          <t>9365560</t>
         </is>
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>男</t>
+          <t>保密</t>
         </is>
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>一直在抽奖，一直没中QAQ</t>
+          <t>今天依旧是没有中奖的一天呢~</t>
         </is>
       </c>
       <c r="N42" t="n">
@@ -3503,11 +3503,19 @@
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>大会员</t>
-        </is>
-      </c>
-      <c r="P42" t="inlineStr"/>
-      <c r="Q42" t="inlineStr"/>
+          <t>年度大会员</t>
+        </is>
+      </c>
+      <c r="P42" t="inlineStr">
+        <is>
+          <t>萌宠小兔挂件</t>
+        </is>
+      </c>
+      <c r="Q42" t="inlineStr">
+        <is>
+          <t>崩坏3·天穹流星</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -3517,20 +3525,20 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>4974312942</t>
+          <t>4974319504</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>匹诺曹Pinoc</t>
+          <t>Emotional_梓皓</t>
         </is>
       </c>
       <c r="D43" t="n">
-        <v>48</v>
+        <v>1</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>新的弔图马上出现</t>
+          <t>上大号？</t>
         </is>
       </c>
       <c r="F43" t="n">
@@ -3538,12 +3546,12 @@
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4974319504</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>2021-07-23 18:54:02</t>
+          <t>2021-07-23 18:55:33</t>
         </is>
       </c>
       <c r="I43" t="n">
@@ -3551,38 +3559,34 @@
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>36567254</t>
+          <t>396422021</t>
         </is>
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>保密</t>
-        </is>
-      </c>
-      <c r="M43" t="inlineStr"/>
+          <t>男</t>
+        </is>
+      </c>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>一直在抽奖，一直没中QAQ</t>
+        </is>
+      </c>
       <c r="N43" t="n">
         <v>5</v>
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>年度大会员</t>
-        </is>
-      </c>
-      <c r="P43" t="inlineStr">
-        <is>
-          <t>崩坏3·天穹流星</t>
-        </is>
-      </c>
-      <c r="Q43" t="inlineStr">
-        <is>
-          <t>崩坏3·天穹流星</t>
-        </is>
-      </c>
+          <t>大会员</t>
+        </is>
+      </c>
+      <c r="P43" t="inlineStr"/>
+      <c r="Q43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -3592,20 +3596,20 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>4974304105</t>
+          <t>4974312942</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>在心动_</t>
+          <t>匹诺曹Pinoc</t>
         </is>
       </c>
       <c r="D44" t="n">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>好家伙，我都快开学了</t>
+          <t>新的弔图马上出现</t>
         </is>
       </c>
       <c r="F44" t="n">
@@ -3618,7 +3622,7 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>2021-07-23 18:53:10</t>
+          <t>2021-07-23 18:54:02</t>
         </is>
       </c>
       <c r="I44" t="n">
@@ -3631,7 +3635,7 @@
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>357064238</t>
+          <t>36567254</t>
         </is>
       </c>
       <c r="L44" t="inlineStr">
@@ -3639,27 +3643,23 @@
           <t>保密</t>
         </is>
       </c>
-      <c r="M44" t="inlineStr">
-        <is>
-          <t>❕该账号封禁中</t>
-        </is>
-      </c>
+      <c r="M44" t="inlineStr"/>
       <c r="N44" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>大会员</t>
+          <t>年度大会员</t>
         </is>
       </c>
       <c r="P44" t="inlineStr">
         <is>
-          <t>星座系列：水瓶座</t>
+          <t>崩坏3·天穹流星</t>
         </is>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>星座系列：水瓶座</t>
+          <t>崩坏3·天穹流星</t>
         </is>
       </c>
     </row>
@@ -3671,20 +3671,20 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>4974281840</t>
+          <t>4974304105</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>计屁碍事GPS</t>
+          <t>在心动_</t>
         </is>
       </c>
       <c r="D45" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>希儿情头[崩坏3_GKD][崩坏3_拜托了]</t>
+          <t>好家伙，我都快开学了</t>
         </is>
       </c>
       <c r="F45" t="n">
@@ -3697,7 +3697,7 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>2021-07-23 18:49:37</t>
+          <t>2021-07-23 18:53:10</t>
         </is>
       </c>
       <c r="I45" t="n">
@@ -3705,22 +3705,26 @@
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>苹果</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>34482589</t>
+          <t>357064238</t>
         </is>
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>男</t>
-        </is>
-      </c>
-      <c r="M45" t="inlineStr"/>
+          <t>保密</t>
+        </is>
+      </c>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>❕该账号封禁中</t>
+        </is>
+      </c>
       <c r="N45" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="O45" t="inlineStr">
         <is>
@@ -3729,10 +3733,14 @@
       </c>
       <c r="P45" t="inlineStr">
         <is>
-          <t>原神</t>
-        </is>
-      </c>
-      <c r="Q45" t="inlineStr"/>
+          <t>星座系列：水瓶座</t>
+        </is>
+      </c>
+      <c r="Q45" t="inlineStr">
+        <is>
+          <t>星座系列：水瓶座</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -3742,20 +3750,20 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>4974269060</t>
+          <t>4974281840</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>纯白恶魔_</t>
+          <t>计屁碍事GPS</t>
         </is>
       </c>
       <c r="D46" t="n">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>芜湖，有情头诶，</t>
+          <t>希儿情头[崩坏3_GKD][崩坏3_拜托了]</t>
         </is>
       </c>
       <c r="F46" t="n">
@@ -3768,7 +3776,7 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>2021-07-23 18:48:34</t>
+          <t>2021-07-23 18:49:37</t>
         </is>
       </c>
       <c r="I46" t="n">
@@ -3776,17 +3784,17 @@
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>34199793</t>
+          <t>34482589</t>
         </is>
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>女</t>
+          <t>男</t>
         </is>
       </c>
       <c r="M46" t="inlineStr"/>
@@ -3800,14 +3808,10 @@
       </c>
       <c r="P46" t="inlineStr">
         <is>
-          <t>崩坏3·天穹流星</t>
-        </is>
-      </c>
-      <c r="Q46" t="inlineStr">
-        <is>
-          <t>崩坏3·天穹流星</t>
-        </is>
-      </c>
+          <t>原神</t>
+        </is>
+      </c>
+      <c r="Q46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -3817,204 +3821,212 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
+          <t>4974269060</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>纯白恶魔_</t>
+        </is>
+      </c>
+      <c r="D47" t="n">
+        <v>45</v>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>芜湖，有情头诶，</t>
+        </is>
+      </c>
+      <c r="F47" t="n">
+        <v>0</v>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>2021-07-23 18:48:34</t>
+        </is>
+      </c>
+      <c r="I47" t="n">
+        <v>0</v>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>未知</t>
+        </is>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>34199793</t>
+        </is>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>女</t>
+        </is>
+      </c>
+      <c r="M47" t="inlineStr"/>
+      <c r="N47" t="n">
+        <v>5</v>
+      </c>
+      <c r="O47" t="inlineStr">
+        <is>
+          <t>大会员</t>
+        </is>
+      </c>
+      <c r="P47" t="inlineStr">
+        <is>
+          <t>崩坏3·天穹流星</t>
+        </is>
+      </c>
+      <c r="Q47" t="inlineStr">
+        <is>
+          <t>崩坏3·天穹流星</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>256667467</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
           <t>4974258532</t>
         </is>
       </c>
-      <c r="C47" t="inlineStr">
+      <c r="C48" t="inlineStr">
         <is>
           <t>和大的啊大</t>
         </is>
       </c>
-      <c r="D47" t="n">
+      <c r="D48" t="n">
         <v>44</v>
       </c>
-      <c r="E47" t="inlineStr">
+      <c r="E48" t="inlineStr">
         <is>
           <t>第八个表情让我想到那个喷射的那个图[笑哭][笑哭]
 此刻正是，审判之时[doge][doge]</t>
         </is>
       </c>
-      <c r="F47" t="n">
-        <v>0</v>
-      </c>
-      <c r="G47" t="inlineStr">
+      <c r="F48" t="n">
+        <v>0</v>
+      </c>
+      <c r="G48" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="H47" t="inlineStr">
+      <c r="H48" t="inlineStr">
         <is>
           <t>2021-07-23 18:46:24</t>
         </is>
       </c>
-      <c r="I47" t="n">
-        <v>1</v>
-      </c>
-      <c r="J47" t="inlineStr">
-        <is>
-          <t>安卓</t>
-        </is>
-      </c>
-      <c r="K47" t="inlineStr">
+      <c r="I48" t="n">
+        <v>2</v>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>未知</t>
+        </is>
+      </c>
+      <c r="K48" t="inlineStr">
         <is>
           <t>26957615</t>
         </is>
       </c>
-      <c r="L47" t="inlineStr">
+      <c r="L48" t="inlineStr">
         <is>
           <t>男</t>
         </is>
       </c>
-      <c r="M47" t="inlineStr">
+      <c r="M48" t="inlineStr">
         <is>
           <t>***</t>
         </is>
       </c>
-      <c r="N47" t="n">
+      <c r="N48" t="n">
         <v>6</v>
       </c>
-      <c r="O47" t="inlineStr">
+      <c r="O48" t="inlineStr">
         <is>
           <t>年度大会员</t>
         </is>
       </c>
-      <c r="P47" t="inlineStr"/>
-      <c r="Q47" t="inlineStr">
+      <c r="P48" t="inlineStr"/>
+      <c r="Q48" t="inlineStr">
         <is>
           <t>崩坏3·天穹流星</t>
         </is>
       </c>
     </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>256667467</t>
-        </is>
-      </c>
-      <c r="B48" t="inlineStr">
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>256667467</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
         <is>
           <t>4974256618</t>
         </is>
       </c>
-      <c r="C48" t="inlineStr">
+      <c r="C49" t="inlineStr">
         <is>
           <t>十玄殿</t>
         </is>
       </c>
-      <c r="D48" t="n">
+      <c r="D49" t="n">
         <v>43</v>
       </c>
-      <c r="E48" t="inlineStr">
+      <c r="E49" t="inlineStr">
         <is>
           <t>识律小屁孩[笑哭]</t>
         </is>
       </c>
-      <c r="F48" t="n">
-        <v>0</v>
-      </c>
-      <c r="G48" t="inlineStr">
+      <c r="F49" t="n">
+        <v>0</v>
+      </c>
+      <c r="G49" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="H48" t="inlineStr">
+      <c r="H49" t="inlineStr">
         <is>
           <t>2021-07-23 18:45:39</t>
         </is>
       </c>
-      <c r="I48" t="n">
-        <v>0</v>
-      </c>
-      <c r="J48" t="inlineStr">
-        <is>
-          <t>安卓</t>
-        </is>
-      </c>
-      <c r="K48" t="inlineStr">
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>未知</t>
+        </is>
+      </c>
+      <c r="K49" t="inlineStr">
         <is>
           <t>19103673</t>
         </is>
       </c>
-      <c r="L48" t="inlineStr">
+      <c r="L49" t="inlineStr">
         <is>
           <t>男</t>
         </is>
       </c>
-      <c r="M48" t="inlineStr">
+      <c r="M49" t="inlineStr">
         <is>
           <t>幻想，只是灵魂的力量。(￣_￣ )
 在现实中，毫无作用Ծ‸Ծ</t>
         </is>
       </c>
-      <c r="N48" t="n">
+      <c r="N49" t="n">
         <v>5</v>
-      </c>
-      <c r="O48" t="inlineStr">
-        <is>
-          <t>大会员</t>
-        </is>
-      </c>
-      <c r="P48" t="inlineStr"/>
-      <c r="Q48" t="inlineStr"/>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>256667467</t>
-        </is>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>4974235389</t>
-        </is>
-      </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>红星的照耀</t>
-        </is>
-      </c>
-      <c r="D49" t="n">
-        <v>42</v>
-      </c>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>飞鱼丸，你又在转发动态了，休息一下吧[doge]</t>
-        </is>
-      </c>
-      <c r="F49" t="n">
-        <v>0</v>
-      </c>
-      <c r="G49" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>2021-07-23 18:42:46</t>
-        </is>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="inlineStr">
-        <is>
-          <t>安卓</t>
-        </is>
-      </c>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>492363445</t>
-        </is>
-      </c>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>保密</t>
-        </is>
-      </c>
-      <c r="M49" t="inlineStr"/>
-      <c r="N49" t="n">
-        <v>4</v>
       </c>
       <c r="O49" t="inlineStr">
         <is>
@@ -4032,124 +4044,128 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
+          <t>4974235389</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>红星的照耀</t>
+        </is>
+      </c>
+      <c r="D50" t="n">
+        <v>42</v>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>飞鱼丸，你又在转发动态了，休息一下吧[doge]</t>
+        </is>
+      </c>
+      <c r="F50" t="n">
+        <v>0</v>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>2021-07-23 18:42:46</t>
+        </is>
+      </c>
+      <c r="I50" t="n">
+        <v>0</v>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>未知</t>
+        </is>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>492363445</t>
+        </is>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>保密</t>
+        </is>
+      </c>
+      <c r="M50" t="inlineStr"/>
+      <c r="N50" t="n">
+        <v>4</v>
+      </c>
+      <c r="O50" t="inlineStr">
+        <is>
+          <t>大会员</t>
+        </is>
+      </c>
+      <c r="P50" t="inlineStr"/>
+      <c r="Q50" t="inlineStr"/>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>256667467</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
           <t>4974225868</t>
         </is>
       </c>
-      <c r="C50" t="inlineStr">
+      <c r="C51" t="inlineStr">
         <is>
           <t>彼时溯</t>
         </is>
       </c>
-      <c r="D50" t="n">
+      <c r="D51" t="n">
         <v>41</v>
       </c>
-      <c r="E50" t="inlineStr">
+      <c r="E51" t="inlineStr">
         <is>
           <t>图四黑希：舰长，你怎么只有这么点？[嫌弃][嫌弃]
 图五希儿：舰长，你只有这么点[害羞][害羞]</t>
         </is>
       </c>
-      <c r="F50" t="n">
+      <c r="F51" t="n">
         <v>8</v>
       </c>
-      <c r="G50" t="inlineStr">
+      <c r="G51" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="H50" t="inlineStr">
+      <c r="H51" t="inlineStr">
         <is>
           <t>2021-07-23 18:41:20</t>
         </is>
       </c>
-      <c r="I50" t="n">
-        <v>140</v>
-      </c>
-      <c r="J50" t="inlineStr">
-        <is>
-          <t>安卓</t>
-        </is>
-      </c>
-      <c r="K50" t="inlineStr">
+      <c r="I51" t="n">
+        <v>152</v>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>未知</t>
+        </is>
+      </c>
+      <c r="K51" t="inlineStr">
         <is>
           <t>95947256</t>
         </is>
       </c>
-      <c r="L50" t="inlineStr">
+      <c r="L51" t="inlineStr">
         <is>
           <t>男</t>
         </is>
       </c>
-      <c r="M50" t="inlineStr">
+      <c r="M51" t="inlineStr">
         <is>
           <t>没有那个必要</t>
         </is>
       </c>
-      <c r="N50" t="n">
+      <c r="N51" t="n">
         <v>5</v>
-      </c>
-      <c r="O50" t="inlineStr"/>
-      <c r="P50" t="inlineStr"/>
-      <c r="Q50" t="inlineStr"/>
-    </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>256667467</t>
-        </is>
-      </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>4974221584</t>
-        </is>
-      </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>蒲柯</t>
-        </is>
-      </c>
-      <c r="D51" t="n">
-        <v>40</v>
-      </c>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>很喜欢米桑的精彩剧情文案“奇怪明明穿的不是很多感觉很热。”“用兔耳朵和运气赢得尊严和未来。”“你们不开放些，客人们是不会喜欢的。”“可恶，这件也太小了吧，肉都被挤出来了”[给心心]</t>
-        </is>
-      </c>
-      <c r="F51" t="n">
-        <v>0</v>
-      </c>
-      <c r="G51" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>2021-07-23 18:41:18</t>
-        </is>
-      </c>
-      <c r="I51" t="n">
-        <v>1</v>
-      </c>
-      <c r="J51" t="inlineStr">
-        <is>
-          <t>安卓</t>
-        </is>
-      </c>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>1251837426</t>
-        </is>
-      </c>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>保密</t>
-        </is>
-      </c>
-      <c r="M51" t="inlineStr"/>
-      <c r="N51" t="n">
-        <v>2</v>
       </c>
       <c r="O51" t="inlineStr"/>
       <c r="P51" t="inlineStr"/>
@@ -4163,7 +4179,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>4974217019</t>
+          <t>4974221584</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -4172,28 +4188,28 @@
         </is>
       </c>
       <c r="D52" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>为视频里所有的美好而战崩坏3PⅤBV1YA41157Dt[给心心]</t>
+          <t>很喜欢米桑的精彩剧情文案“奇怪明明穿的不是很多感觉很热。”“用兔耳朵和运气赢得尊严和未来。”“你们不开放些，客人们是不会喜欢的。”“可恶，这件也太小了吧，肉都被挤出来了”[给心心]</t>
         </is>
       </c>
       <c r="F52" t="n">
+        <v>0</v>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>2021-07-23 18:41:18</t>
+        </is>
+      </c>
+      <c r="I52" t="n">
         <v>1</v>
-      </c>
-      <c r="G52" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>2021-07-23 18:41:12</t>
-        </is>
-      </c>
-      <c r="I52" t="n">
-        <v>3</v>
       </c>
       <c r="J52" t="inlineStr">
         <is>
@@ -4226,150 +4242,134 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
+          <t>4974217019</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>蒲柯</t>
+        </is>
+      </c>
+      <c r="D53" t="n">
+        <v>39</v>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>为视频里所有的美好而战崩坏3PⅤBV1YA41157Dt[给心心]</t>
+        </is>
+      </c>
+      <c r="F53" t="n">
+        <v>1</v>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>2021-07-23 18:41:12</t>
+        </is>
+      </c>
+      <c r="I53" t="n">
+        <v>3</v>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>未知</t>
+        </is>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>1251837426</t>
+        </is>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>保密</t>
+        </is>
+      </c>
+      <c r="M53" t="inlineStr"/>
+      <c r="N53" t="n">
+        <v>2</v>
+      </c>
+      <c r="O53" t="inlineStr"/>
+      <c r="P53" t="inlineStr"/>
+      <c r="Q53" t="inlineStr"/>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>256667467</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
           <t>4974199687</t>
         </is>
       </c>
-      <c r="C53" t="inlineStr">
+      <c r="C54" t="inlineStr">
         <is>
           <t>殺丘さま</t>
         </is>
       </c>
-      <c r="D53" t="n">
+      <c r="D54" t="n">
         <v>-1</v>
       </c>
-      <c r="E53" t="inlineStr">
+      <c r="E54" t="inlineStr">
         <is>
           <t>爷青回</t>
         </is>
       </c>
-      <c r="F53" t="n">
-        <v>0</v>
-      </c>
-      <c r="G53" t="inlineStr">
+      <c r="F54" t="n">
+        <v>0</v>
+      </c>
+      <c r="G54" t="inlineStr">
         <is>
           <t>4974199687</t>
         </is>
       </c>
-      <c r="H53" t="inlineStr">
+      <c r="H54" t="inlineStr">
         <is>
           <t>2021-07-23 18:38:52</t>
         </is>
       </c>
-      <c r="I53" t="n">
-        <v>0</v>
-      </c>
-      <c r="J53" t="inlineStr">
+      <c r="I54" t="n">
+        <v>0</v>
+      </c>
+      <c r="J54" t="inlineStr">
         <is>
           <t>苹果</t>
         </is>
       </c>
-      <c r="K53" t="inlineStr">
+      <c r="K54" t="inlineStr">
         <is>
           <t>530958433</t>
         </is>
       </c>
-      <c r="L53" t="inlineStr">
+      <c r="L54" t="inlineStr">
         <is>
           <t>保密</t>
         </is>
       </c>
-      <c r="M53" t="inlineStr">
+      <c r="M54" t="inlineStr">
         <is>
           <t>住校，六日回来 QQ：2686232730
 邮箱：seizekenkill@outlook</t>
         </is>
       </c>
-      <c r="N53" t="n">
+      <c r="N54" t="n">
         <v>4</v>
       </c>
-      <c r="O53" t="inlineStr">
+      <c r="O54" t="inlineStr">
         <is>
           <t>大会员</t>
         </is>
       </c>
-      <c r="P53" t="inlineStr"/>
-      <c r="Q53" t="inlineStr">
+      <c r="P54" t="inlineStr"/>
+      <c r="Q54" t="inlineStr">
         <is>
           <t>#EveOneCat</t>
-        </is>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t>256667467</t>
-        </is>
-      </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>4974189871</t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>散華-禮瀰</t>
-        </is>
-      </c>
-      <c r="D54" t="n">
-        <v>37</v>
-      </c>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>识宝，你怎么跟个傻子一样[doge]</t>
-        </is>
-      </c>
-      <c r="F54" t="n">
-        <v>0</v>
-      </c>
-      <c r="G54" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>2021-07-23 18:38:02</t>
-        </is>
-      </c>
-      <c r="I54" t="n">
-        <v>0</v>
-      </c>
-      <c r="J54" t="inlineStr">
-        <is>
-          <t>安卓</t>
-        </is>
-      </c>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>96260615</t>
-        </is>
-      </c>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>男</t>
-        </is>
-      </c>
-      <c r="M54" t="inlineStr">
-        <is>
-          <t>淦！</t>
-        </is>
-      </c>
-      <c r="N54" t="n">
-        <v>5</v>
-      </c>
-      <c r="O54" t="inlineStr">
-        <is>
-          <t>年度大会员</t>
-        </is>
-      </c>
-      <c r="P54" t="inlineStr">
-        <is>
-          <t>原神</t>
-        </is>
-      </c>
-      <c r="Q54" t="inlineStr">
-        <is>
-          <t>原神</t>
         </is>
       </c>
     </row>
@@ -4381,20 +4381,20 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>4974190638</t>
+          <t>4974189871</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>可爱布丁舰长</t>
+          <t>散華-禮瀰</t>
         </is>
       </c>
       <c r="D55" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>识三岁呵呵呵呵</t>
+          <t>识宝，你怎么跟个傻子一样[doge]</t>
         </is>
       </c>
       <c r="F55" t="n">
@@ -4407,28 +4407,32 @@
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>2021-07-23 18:37:09</t>
+          <t>2021-07-23 18:38:02</t>
         </is>
       </c>
       <c r="I55" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>49981668</t>
+          <t>96260615</t>
         </is>
       </c>
       <c r="L55" t="inlineStr">
         <is>
-          <t>保密</t>
-        </is>
-      </c>
-      <c r="M55" t="inlineStr"/>
+          <t>男</t>
+        </is>
+      </c>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>淦！</t>
+        </is>
+      </c>
       <c r="N55" t="n">
         <v>5</v>
       </c>
@@ -4437,8 +4441,16 @@
           <t>年度大会员</t>
         </is>
       </c>
-      <c r="P55" t="inlineStr"/>
-      <c r="Q55" t="inlineStr"/>
+      <c r="P55" t="inlineStr">
+        <is>
+          <t>原神</t>
+        </is>
+      </c>
+      <c r="Q55" t="inlineStr">
+        <is>
+          <t>原神</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -4448,20 +4460,20 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>4974176186</t>
+          <t>4974190638</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>硫酸兑水滴眼睛</t>
+          <t>可爱布丁舰长</t>
         </is>
       </c>
       <c r="D56" t="n">
-        <v>1</v>
+        <v>36</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>口水擦擦[崩坏3_吃惊]</t>
+          <t>识三岁呵呵呵呵</t>
         </is>
       </c>
       <c r="F56" t="n">
@@ -4469,25 +4481,25 @@
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>4974176186</t>
+          <t>0</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>2021-07-23 18:35:25</t>
+          <t>2021-07-23 18:37:09</t>
         </is>
       </c>
       <c r="I56" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>439160450</t>
+          <t>49981668</t>
         </is>
       </c>
       <c r="L56" t="inlineStr">
@@ -4495,29 +4507,17 @@
           <t>保密</t>
         </is>
       </c>
-      <c r="M56" t="inlineStr">
-        <is>
-          <t>白内障看不清，硫酸兑水滴眼睛O_O"</t>
-        </is>
-      </c>
+      <c r="M56" t="inlineStr"/>
       <c r="N56" t="n">
         <v>5</v>
       </c>
       <c r="O56" t="inlineStr">
         <is>
-          <t>大会员</t>
-        </is>
-      </c>
-      <c r="P56" t="inlineStr">
-        <is>
-          <t>原神</t>
-        </is>
-      </c>
-      <c r="Q56" t="inlineStr">
-        <is>
-          <t>原神</t>
-        </is>
-      </c>
+          <t>年度大会员</t>
+        </is>
+      </c>
+      <c r="P56" t="inlineStr"/>
+      <c r="Q56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -4527,20 +4527,20 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>4974171920</t>
+          <t>4974176186</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>简約の</t>
+          <t>硫酸兑水滴眼睛</t>
         </is>
       </c>
       <c r="D57" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>看一下我的满命钟离[崩坏3_口水]</t>
+          <t>口水擦擦[崩坏3_吃惊]</t>
         </is>
       </c>
       <c r="F57" t="n">
@@ -4548,25 +4548,25 @@
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>4974171920</t>
+          <t>4974176186</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>2021-07-23 18:34:30</t>
+          <t>2021-07-23 18:35:25</t>
         </is>
       </c>
       <c r="I57" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>苹果</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>32291048</t>
+          <t>439160450</t>
         </is>
       </c>
       <c r="L57" t="inlineStr">
@@ -4576,7 +4576,7 @@
       </c>
       <c r="M57" t="inlineStr">
         <is>
-          <t>知足常乐 ʘᴗʘ</t>
+          <t>白内障看不清，硫酸兑水滴眼睛O_O"</t>
         </is>
       </c>
       <c r="N57" t="n">
@@ -4584,7 +4584,7 @@
       </c>
       <c r="O57" t="inlineStr">
         <is>
-          <t>年度大会员</t>
+          <t>大会员</t>
         </is>
       </c>
       <c r="P57" t="inlineStr">
@@ -4592,7 +4592,11 @@
           <t>原神</t>
         </is>
       </c>
-      <c r="Q57" t="inlineStr"/>
+      <c r="Q57" t="inlineStr">
+        <is>
+          <t>原神</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -4602,12 +4606,12 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>4974168659</t>
+          <t>4974171920</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>烤奶全糖不加冰丶</t>
+          <t>简約の</t>
         </is>
       </c>
       <c r="D58" t="n">
@@ -4615,7 +4619,7 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>今超鹿？[doge]</t>
+          <t>看一下我的满命钟离[崩坏3_口水]</t>
         </is>
       </c>
       <c r="F58" t="n">
@@ -4623,25 +4627,25 @@
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>4974168659</t>
+          <t>4974171920</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>2021-07-23 18:34:29</t>
+          <t>2021-07-23 18:34:30</t>
         </is>
       </c>
       <c r="I58" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>293262117</t>
+          <t>32291048</t>
         </is>
       </c>
       <c r="L58" t="inlineStr">
@@ -4649,16 +4653,24 @@
           <t>保密</t>
         </is>
       </c>
-      <c r="M58" t="inlineStr"/>
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>知足常乐 ʘᴗʘ</t>
+        </is>
+      </c>
       <c r="N58" t="n">
         <v>5</v>
       </c>
       <c r="O58" t="inlineStr">
         <is>
-          <t>大会员</t>
-        </is>
-      </c>
-      <c r="P58" t="inlineStr"/>
+          <t>年度大会员</t>
+        </is>
+      </c>
+      <c r="P58" t="inlineStr">
+        <is>
+          <t>原神</t>
+        </is>
+      </c>
       <c r="Q58" t="inlineStr"/>
     </row>
     <row r="59">
@@ -4669,12 +4681,12 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>4974159461</t>
+          <t>4974168659</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>42584845195_bili</t>
+          <t>烤奶全糖不加冰丶</t>
         </is>
       </c>
       <c r="D59" t="n">
@@ -4682,7 +4694,7 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>回复 @等待樱花的下一次绽放 :难道不是：看！满命钟离[呲牙]</t>
+          <t>今超鹿？[doge]</t>
         </is>
       </c>
       <c r="F59" t="n">
@@ -4690,12 +4702,12 @@
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>4974142271</t>
+          <t>4974168659</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>2021-07-23 18:33:24</t>
+          <t>2021-07-23 18:34:29</t>
         </is>
       </c>
       <c r="I59" t="n">
@@ -4708,21 +4720,17 @@
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>398412542</t>
+          <t>293262117</t>
         </is>
       </c>
       <c r="L59" t="inlineStr">
         <is>
-          <t>男</t>
-        </is>
-      </c>
-      <c r="M59" t="inlineStr">
-        <is>
-          <t>这个人很神秘，什么都没有写</t>
-        </is>
-      </c>
+          <t>保密</t>
+        </is>
+      </c>
+      <c r="M59" t="inlineStr"/>
       <c r="N59" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="O59" t="inlineStr">
         <is>
@@ -4740,12 +4748,12 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>4974157893</t>
+          <t>4974159461</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>尘封的微风</t>
+          <t>42584845195_bili</t>
         </is>
       </c>
       <c r="D60" t="n">
@@ -4753,7 +4761,7 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>回复 @等待樱花的下一次绽放 :懂了懂了</t>
+          <t>回复 @等待樱花的下一次绽放 :难道不是：看！满命钟离[呲牙]</t>
         </is>
       </c>
       <c r="F60" t="n">
@@ -4766,46 +4774,42 @@
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>2021-07-23 18:32:41</t>
+          <t>2021-07-23 18:33:24</t>
         </is>
       </c>
       <c r="I60" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>349002256</t>
+          <t>398412542</t>
         </is>
       </c>
       <c r="L60" t="inlineStr">
         <is>
-          <t>保密</t>
-        </is>
-      </c>
-      <c r="M60" t="inlineStr"/>
+          <t>男</t>
+        </is>
+      </c>
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>这个人很神秘，什么都没有写</t>
+        </is>
+      </c>
       <c r="N60" t="n">
         <v>4</v>
       </c>
       <c r="O60" t="inlineStr">
         <is>
-          <t>年度大会员</t>
-        </is>
-      </c>
-      <c r="P60" t="inlineStr">
-        <is>
-          <t>崩坏3·天穹流星</t>
-        </is>
-      </c>
-      <c r="Q60" t="inlineStr">
-        <is>
-          <t>崩坏3·天穹流星</t>
-        </is>
-      </c>
+          <t>大会员</t>
+        </is>
+      </c>
+      <c r="P60" t="inlineStr"/>
+      <c r="Q60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -4815,54 +4819,129 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
+          <t>4974157893</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>尘封的微风</t>
+        </is>
+      </c>
+      <c r="D61" t="n">
+        <v>-1</v>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>回复 @等待樱花的下一次绽放 :懂了懂了</t>
+        </is>
+      </c>
+      <c r="F61" t="n">
+        <v>0</v>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>4974142271</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>2021-07-23 18:32:41</t>
+        </is>
+      </c>
+      <c r="I61" t="n">
+        <v>0</v>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>安卓</t>
+        </is>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>349002256</t>
+        </is>
+      </c>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>保密</t>
+        </is>
+      </c>
+      <c r="M61" t="inlineStr"/>
+      <c r="N61" t="n">
+        <v>4</v>
+      </c>
+      <c r="O61" t="inlineStr">
+        <is>
+          <t>年度大会员</t>
+        </is>
+      </c>
+      <c r="P61" t="inlineStr">
+        <is>
+          <t>崩坏3·天穹流星</t>
+        </is>
+      </c>
+      <c r="Q61" t="inlineStr">
+        <is>
+          <t>崩坏3·天穹流星</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>256667467</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
           <t>4974156233</t>
         </is>
       </c>
-      <c r="C61" t="inlineStr">
+      <c r="C62" t="inlineStr">
         <is>
           <t>开心的琳芙斯</t>
         </is>
       </c>
-      <c r="D61" t="n">
+      <c r="D62" t="n">
         <v>35</v>
       </c>
-      <c r="E61" t="inlineStr">
+      <c r="E62" t="inlineStr">
         <is>
           <t>我喜欢你[崩坏3_口水]</t>
         </is>
       </c>
-      <c r="F61" t="n">
+      <c r="F62" t="n">
         <v>2</v>
       </c>
-      <c r="G61" t="inlineStr">
+      <c r="G62" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="H61" t="inlineStr">
+      <c r="H62" t="inlineStr">
         <is>
           <t>2021-07-23 18:31:58</t>
         </is>
       </c>
-      <c r="I61" t="n">
-        <v>73</v>
-      </c>
-      <c r="J61" t="inlineStr">
+      <c r="I62" t="n">
+        <v>76</v>
+      </c>
+      <c r="J62" t="inlineStr">
         <is>
           <t>安卓</t>
         </is>
       </c>
-      <c r="K61" t="inlineStr">
+      <c r="K62" t="inlineStr">
         <is>
           <t>20918170</t>
         </is>
       </c>
-      <c r="L61" t="inlineStr">
+      <c r="L62" t="inlineStr">
         <is>
           <t>男</t>
         </is>
       </c>
-      <c r="M61" t="inlineStr">
+      <c r="M62" t="inlineStr">
         <is>
           <t>执手听音裙流香，弦断魂销，芳心何伤？
 笑靥花落明眸动，残梦惊醒，因何彷徨？
@@ -4870,91 +4949,12 @@
 风翩柳絮月容黯，香肩微寒，叶落凄凉。</t>
         </is>
       </c>
-      <c r="N61" t="n">
+      <c r="N62" t="n">
         <v>6</v>
       </c>
-      <c r="O61" t="inlineStr">
+      <c r="O62" t="inlineStr">
         <is>
           <t>年度大会员</t>
-        </is>
-      </c>
-      <c r="P61" t="inlineStr">
-        <is>
-          <t>崩坏3·天穹流星</t>
-        </is>
-      </c>
-      <c r="Q61" t="inlineStr">
-        <is>
-          <t>崩坏3·天穹流星</t>
-        </is>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="inlineStr">
-        <is>
-          <t>256667467</t>
-        </is>
-      </c>
-      <c r="B62" t="inlineStr">
-        <is>
-          <t>4974155780</t>
-        </is>
-      </c>
-      <c r="C62" t="inlineStr">
-        <is>
-          <t>等待樱花的下一次绽放</t>
-        </is>
-      </c>
-      <c r="D62" t="n">
-        <v>-1</v>
-      </c>
-      <c r="E62" t="inlineStr">
-        <is>
-          <t>回复 @崩坏3 :你连未定的都超不过，丢不丢人呀[doge]</t>
-        </is>
-      </c>
-      <c r="F62" t="n">
-        <v>0</v>
-      </c>
-      <c r="G62" t="inlineStr">
-        <is>
-          <t>4974131160</t>
-        </is>
-      </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>2021-07-23 18:31:45</t>
-        </is>
-      </c>
-      <c r="I62" t="n">
-        <v>18</v>
-      </c>
-      <c r="J62" t="inlineStr">
-        <is>
-          <t>安卓</t>
-        </is>
-      </c>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>316319966</t>
-        </is>
-      </c>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>保密</t>
-        </is>
-      </c>
-      <c r="M62" t="inlineStr">
-        <is>
-          <t>我真的真的单推符华</t>
-        </is>
-      </c>
-      <c r="N62" t="n">
-        <v>5</v>
-      </c>
-      <c r="O62" t="inlineStr">
-        <is>
-          <t>大会员</t>
         </is>
       </c>
       <c r="P62" t="inlineStr">
@@ -4976,7 +4976,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>4974143710</t>
+          <t>4974155780</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -4989,7 +4989,7 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>回复 @尘封的微风 :进来看到自己想看的东西，满意地离开</t>
+          <t>回复 @崩坏3 :你连未定的都超不过，丢不丢人呀[doge]</t>
         </is>
       </c>
       <c r="F63" t="n">
@@ -4997,16 +4997,16 @@
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>4974142271</t>
+          <t>4974131160</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>2021-07-23 18:30:41</t>
+          <t>2021-07-23 18:31:45</t>
         </is>
       </c>
       <c r="I63" t="n">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="J63" t="inlineStr">
         <is>
@@ -5055,12 +5055,12 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>4974142271</t>
+          <t>4974143710</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>尘封的微风</t>
+          <t>等待樱花的下一次绽放</t>
         </is>
       </c>
       <c r="D64" t="n">
@@ -5068,7 +5068,7 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>看满离是什么意思？</t>
+          <t>回复 @尘封的微风 :进来看到自己想看的东西，满意地离开</t>
         </is>
       </c>
       <c r="F64" t="n">
@@ -5081,20 +5081,20 @@
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>2021-07-23 18:30:08</t>
+          <t>2021-07-23 18:30:41</t>
         </is>
       </c>
       <c r="I64" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>349002256</t>
+          <t>316319966</t>
         </is>
       </c>
       <c r="L64" t="inlineStr">
@@ -5102,13 +5102,17 @@
           <t>保密</t>
         </is>
       </c>
-      <c r="M64" t="inlineStr"/>
+      <c r="M64" t="inlineStr">
+        <is>
+          <t>我真的真的单推符华</t>
+        </is>
+      </c>
       <c r="N64" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="O64" t="inlineStr">
         <is>
-          <t>年度大会员</t>
+          <t>大会员</t>
         </is>
       </c>
       <c r="P64" t="inlineStr">
@@ -5130,20 +5134,20 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>4974140902</t>
+          <t>4974142271</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>FABAGV</t>
+          <t>尘封的微风</t>
         </is>
       </c>
       <c r="D65" t="n">
-        <v>34</v>
+        <v>-1</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>好哎[崩坏3_干杯]</t>
+          <t>看满离是什么意思？</t>
         </is>
       </c>
       <c r="F65" t="n">
@@ -5151,16 +5155,16 @@
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4974142271</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>2021-07-23 18:29:37</t>
+          <t>2021-07-23 18:30:08</t>
         </is>
       </c>
       <c r="I65" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J65" t="inlineStr">
         <is>
@@ -5169,25 +5173,21 @@
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>426864347</t>
+          <t>349002256</t>
         </is>
       </c>
       <c r="L65" t="inlineStr">
         <is>
-          <t>男</t>
-        </is>
-      </c>
-      <c r="M65" t="inlineStr">
-        <is>
-          <t>Nobody exists on purpose. Nobody belongs any where.</t>
-        </is>
-      </c>
+          <t>保密</t>
+        </is>
+      </c>
+      <c r="M65" t="inlineStr"/>
       <c r="N65" t="n">
         <v>4</v>
       </c>
       <c r="O65" t="inlineStr">
         <is>
-          <t>大会员</t>
+          <t>年度大会员</t>
         </is>
       </c>
       <c r="P65" t="inlineStr">
@@ -5209,20 +5209,20 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>4974131160</t>
+          <t>4974140902</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>崩坏3</t>
+          <t>FABAGV</t>
         </is>
       </c>
       <c r="D66" t="n">
-        <v>-1</v>
+        <v>34</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>听不见听不见（自我催眠中……</t>
+          <t>好哎[崩坏3_干杯]</t>
         </is>
       </c>
       <c r="F66" t="n">
@@ -5230,43 +5230,43 @@
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>4974131160</t>
+          <t>0</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>2021-07-23 18:29:20</t>
+          <t>2021-07-23 18:29:37</t>
         </is>
       </c>
       <c r="I66" t="n">
-        <v>93</v>
+        <v>0</v>
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>网页</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>256667467</t>
+          <t>426864347</t>
         </is>
       </c>
       <c r="L66" t="inlineStr">
         <is>
-          <t>保密</t>
+          <t>男</t>
         </is>
       </c>
       <c r="M66" t="inlineStr">
         <is>
-          <t>怒*大伟哥出奇迹！</t>
+          <t>Nobody exists on purpose. Nobody belongs any where.</t>
         </is>
       </c>
       <c r="N66" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="O66" t="inlineStr">
         <is>
-          <t>年度大会员</t>
+          <t>大会员</t>
         </is>
       </c>
       <c r="P66" t="inlineStr">
@@ -5288,20 +5288,20 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>4974130142</t>
+          <t>4974131160</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>指针影子</t>
+          <t>崩坏3</t>
         </is>
       </c>
       <c r="D67" t="n">
-        <v>33</v>
+        <v>-1</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>[崩坏3_赞][崩坏3_赞][崩坏3_赞][崩坏3_赞][崩坏3_赞][崩坏3_赞][崩坏3_赞][崩坏3_赞][崩坏3_赞][崩坏3_赞][崩坏3_赞][崩坏3_赞][崩坏3_赞][崩坏3_赞]</t>
+          <t>听不见听不见（自我催眠中……</t>
         </is>
       </c>
       <c r="F67" t="n">
@@ -5309,25 +5309,25 @@
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4974131160</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>2021-07-23 18:28:56</t>
+          <t>2021-07-23 18:29:20</t>
         </is>
       </c>
       <c r="I67" t="n">
-        <v>0</v>
+        <v>97</v>
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>384999</t>
+          <t>256667467</t>
         </is>
       </c>
       <c r="L67" t="inlineStr">
@@ -5337,7 +5337,7 @@
       </c>
       <c r="M67" t="inlineStr">
         <is>
-          <t>不在你辉煌时慕名而来，也未曾在你低谷时离你而去。拨弄时光的指针；遨游命运的影子；欺诈与恶作剧的化身</t>
+          <t>怒*大伟哥出奇迹！</t>
         </is>
       </c>
       <c r="N67" t="n">
@@ -5345,7 +5345,7 @@
       </c>
       <c r="O67" t="inlineStr">
         <is>
-          <t>大会员</t>
+          <t>年度大会员</t>
         </is>
       </c>
       <c r="P67" t="inlineStr">
@@ -5367,20 +5367,20 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>4974127966</t>
+          <t>4974130142</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Aqopz</t>
+          <t>指针影子</t>
         </is>
       </c>
       <c r="D68" t="n">
-        <v>-1</v>
+        <v>33</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>看满离</t>
+          <t>[崩坏3_赞][崩坏3_赞][崩坏3_赞][崩坏3_赞][崩坏3_赞][崩坏3_赞][崩坏3_赞][崩坏3_赞][崩坏3_赞][崩坏3_赞][崩坏3_赞][崩坏3_赞][崩坏3_赞][崩坏3_赞]</t>
         </is>
       </c>
       <c r="F68" t="n">
@@ -5388,16 +5388,16 @@
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>4974127966</t>
+          <t>0</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>2021-07-23 18:28:30</t>
+          <t>2021-07-23 18:28:56</t>
         </is>
       </c>
       <c r="I68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J68" t="inlineStr">
         <is>
@@ -5406,21 +5406,21 @@
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>197612281</t>
+          <t>384999</t>
         </is>
       </c>
       <c r="L68" t="inlineStr">
         <is>
-          <t>男</t>
+          <t>保密</t>
         </is>
       </c>
       <c r="M68" t="inlineStr">
         <is>
-          <t>嘘</t>
+          <t>不在你辉煌时慕名而来，也未曾在你低谷时离你而去。拨弄时光的指针；遨游命运的影子；欺诈与恶作剧的化身</t>
         </is>
       </c>
       <c r="N68" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O68" t="inlineStr">
         <is>
@@ -5429,7 +5429,7 @@
       </c>
       <c r="P68" t="inlineStr">
         <is>
-          <t>AQZ</t>
+          <t>崩坏3·天穹流星</t>
         </is>
       </c>
       <c r="Q68" t="inlineStr">
@@ -5446,38 +5446,38 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>4974125533</t>
+          <t>4974127966</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>佐佐木栅栏小姐</t>
+          <t>Aqopz</t>
         </is>
       </c>
       <c r="D69" t="n">
+        <v>-1</v>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>看满离</t>
+        </is>
+      </c>
+      <c r="F69" t="n">
+        <v>0</v>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>4974127966</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>2021-07-23 18:28:30</t>
+        </is>
+      </c>
+      <c r="I69" t="n">
         <v>2</v>
       </c>
-      <c r="E69" t="inlineStr">
-        <is>
-          <t>老熟人了</t>
-        </is>
-      </c>
-      <c r="F69" t="n">
-        <v>0</v>
-      </c>
-      <c r="G69" t="inlineStr">
-        <is>
-          <t>4974125533</t>
-        </is>
-      </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>2021-07-23 18:27:34</t>
-        </is>
-      </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
       <c r="J69" t="inlineStr">
         <is>
           <t>未知</t>
@@ -5485,7 +5485,7 @@
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>11084927</t>
+          <t>197612281</t>
         </is>
       </c>
       <c r="L69" t="inlineStr">
@@ -5495,7 +5495,7 @@
       </c>
       <c r="M69" t="inlineStr">
         <is>
-          <t>脆弱，纳米什么时候锁啊</t>
+          <t>嘘</t>
         </is>
       </c>
       <c r="N69" t="n">
@@ -5506,8 +5506,16 @@
           <t>大会员</t>
         </is>
       </c>
-      <c r="P69" t="inlineStr"/>
-      <c r="Q69" t="inlineStr"/>
+      <c r="P69" t="inlineStr">
+        <is>
+          <t>AQZ</t>
+        </is>
+      </c>
+      <c r="Q69" t="inlineStr">
+        <is>
+          <t>崩坏3·天穹流星</t>
+        </is>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -5517,18 +5525,89 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
+          <t>4974125533</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>佐佐木栅栏小姐</t>
+        </is>
+      </c>
+      <c r="D70" t="n">
+        <v>2</v>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>老熟人了</t>
+        </is>
+      </c>
+      <c r="F70" t="n">
+        <v>0</v>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>4974125533</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>2021-07-23 18:27:34</t>
+        </is>
+      </c>
+      <c r="I70" t="n">
+        <v>0</v>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>未知</t>
+        </is>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>11084927</t>
+        </is>
+      </c>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>男</t>
+        </is>
+      </c>
+      <c r="M70" t="inlineStr">
+        <is>
+          <t>脆弱，纳米什么时候锁啊</t>
+        </is>
+      </c>
+      <c r="N70" t="n">
+        <v>5</v>
+      </c>
+      <c r="O70" t="inlineStr">
+        <is>
+          <t>大会员</t>
+        </is>
+      </c>
+      <c r="P70" t="inlineStr"/>
+      <c r="Q70" t="inlineStr"/>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>256667467</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
           <t>4974113913</t>
         </is>
       </c>
-      <c r="C70" t="inlineStr">
+      <c r="C71" t="inlineStr">
         <is>
           <t>帅哥冬东</t>
         </is>
       </c>
-      <c r="D70" t="n">
+      <c r="D71" t="n">
         <v>32</v>
       </c>
-      <c r="E70" t="inlineStr">
+      <c r="E71" t="inlineStr">
         <is>
           <t>那些口口声声，说崩坏三越来越氪的人
 应该看看你们，像我一样
@@ -5574,113 +5653,46 @@
 氪金吧，崩浪！[给心心][给心心][给心心]</t>
         </is>
       </c>
-      <c r="F70" t="n">
-        <v>0</v>
-      </c>
-      <c r="G70" t="inlineStr">
+      <c r="F71" t="n">
+        <v>0</v>
+      </c>
+      <c r="G71" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="H70" t="inlineStr">
+      <c r="H71" t="inlineStr">
         <is>
           <t>2021-07-23 18:26:58</t>
         </is>
       </c>
-      <c r="I70" t="n">
+      <c r="I71" t="n">
         <v>5</v>
       </c>
-      <c r="J70" t="inlineStr">
+      <c r="J71" t="inlineStr">
         <is>
           <t>安卓</t>
         </is>
       </c>
-      <c r="K70" t="inlineStr">
+      <c r="K71" t="inlineStr">
         <is>
           <t>25322750</t>
         </is>
       </c>
-      <c r="L70" t="inlineStr">
+      <c r="L71" t="inlineStr">
         <is>
           <t>男</t>
         </is>
       </c>
-      <c r="M70" t="inlineStr"/>
-      <c r="N70" t="n">
+      <c r="M71" t="inlineStr"/>
+      <c r="N71" t="n">
         <v>5</v>
       </c>
-      <c r="O70" t="inlineStr">
+      <c r="O71" t="inlineStr">
         <is>
           <t>大会员</t>
         </is>
       </c>
-      <c r="P70" t="inlineStr"/>
-      <c r="Q70" t="inlineStr"/>
-    </row>
-    <row r="71">
-      <c r="A71" t="inlineStr">
-        <is>
-          <t>256667467</t>
-        </is>
-      </c>
-      <c r="B71" t="inlineStr">
-        <is>
-          <t>4974104274</t>
-        </is>
-      </c>
-      <c r="C71" t="inlineStr">
-        <is>
-          <t>VentiWW</t>
-        </is>
-      </c>
-      <c r="D71" t="n">
-        <v>31</v>
-      </c>
-      <c r="E71" t="inlineStr">
-        <is>
-          <t>崩壞3但粉絲再不超過愛醬，就要和愛醬一起下鍋(</t>
-        </is>
-      </c>
-      <c r="F71" t="n">
-        <v>0</v>
-      </c>
-      <c r="G71" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t>2021-07-23 18:26:37</t>
-        </is>
-      </c>
-      <c r="I71" t="n">
-        <v>0</v>
-      </c>
-      <c r="J71" t="inlineStr">
-        <is>
-          <t>安卓</t>
-        </is>
-      </c>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>690551146</t>
-        </is>
-      </c>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>保密</t>
-        </is>
-      </c>
-      <c r="M71" t="inlineStr">
-        <is>
-          <t>當我的指尖劃過你的面頰，我恍然夢醒，我們從未處於同一世界...</t>
-        </is>
-      </c>
-      <c r="N71" t="n">
-        <v>3</v>
-      </c>
-      <c r="O71" t="inlineStr"/>
       <c r="P71" t="inlineStr"/>
       <c r="Q71" t="inlineStr"/>
     </row>
@@ -5692,20 +5704,20 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>4974100428</t>
+          <t>4974104274</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>樱花庄的罪骨银鸦</t>
+          <t>VentiWW</t>
         </is>
       </c>
       <c r="D72" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>https://b23.tv/wrrGh9</t>
+          <t>崩壞3但粉絲再不超過愛醬，就要和愛醬一起下鍋(</t>
         </is>
       </c>
       <c r="F72" t="n">
@@ -5718,7 +5730,7 @@
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>2021-07-23 18:24:53</t>
+          <t>2021-07-23 18:26:37</t>
         </is>
       </c>
       <c r="I72" t="n">
@@ -5726,37 +5738,29 @@
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K72" t="inlineStr">
         <is>
-          <t>238286273</t>
+          <t>690551146</t>
         </is>
       </c>
       <c r="L72" t="inlineStr">
         <is>
-          <t>男</t>
+          <t>保密</t>
         </is>
       </c>
       <c r="M72" t="inlineStr">
         <is>
-          <t>一个喜欢玩游戏的舞铲阶级菜比</t>
+          <t>當我的指尖劃過你的面頰，我恍然夢醒，我們從未處於同一世界...</t>
         </is>
       </c>
       <c r="N72" t="n">
-        <v>5</v>
-      </c>
-      <c r="O72" t="inlineStr">
-        <is>
-          <t>年度大会员</t>
-        </is>
-      </c>
-      <c r="P72" t="inlineStr">
-        <is>
-          <t>工作细胞</t>
-        </is>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="O72" t="inlineStr"/>
+      <c r="P72" t="inlineStr"/>
       <c r="Q72" t="inlineStr"/>
     </row>
     <row r="73">
@@ -5767,20 +5771,20 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>4974093015</t>
+          <t>4974100428</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>这什么人啊</t>
+          <t>樱花庄的罪骨银鸦</t>
         </is>
       </c>
       <c r="D73" t="n">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>看满离</t>
+          <t>https://b23.tv/wrrGh9</t>
         </is>
       </c>
       <c r="F73" t="n">
@@ -5788,16 +5792,16 @@
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>4974093015</t>
+          <t>0</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>2021-07-23 18:24:02</t>
+          <t>2021-07-23 18:24:53</t>
         </is>
       </c>
       <c r="I73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J73" t="inlineStr">
         <is>
@@ -5806,28 +5810,32 @@
       </c>
       <c r="K73" t="inlineStr">
         <is>
-          <t>2037192383</t>
+          <t>238286273</t>
         </is>
       </c>
       <c r="L73" t="inlineStr">
         <is>
-          <t>保密</t>
+          <t>男</t>
         </is>
       </c>
       <c r="M73" t="inlineStr">
         <is>
-          <t>我真的好菜啊——</t>
+          <t>一个喜欢玩游戏的舞铲阶级菜比</t>
         </is>
       </c>
       <c r="N73" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="O73" t="inlineStr">
         <is>
-          <t>大会员</t>
-        </is>
-      </c>
-      <c r="P73" t="inlineStr"/>
+          <t>年度大会员</t>
+        </is>
+      </c>
+      <c r="P73" t="inlineStr">
+        <is>
+          <t>工作细胞</t>
+        </is>
+      </c>
       <c r="Q73" t="inlineStr"/>
     </row>
     <row r="74">
@@ -5838,20 +5846,20 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>4974088325</t>
+          <t>4974093015</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Truismers</t>
+          <t>这什么人啊</t>
         </is>
       </c>
       <c r="D74" t="n">
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>今天三蹦子的粉丝超过爱酱了吗？[脱单doge][脱单doge][脱单doge]</t>
+          <t>看满离</t>
         </is>
       </c>
       <c r="F74" t="n">
@@ -5859,25 +5867,25 @@
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4974093015</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>2021-07-23 18:23:56</t>
+          <t>2021-07-23 18:24:02</t>
         </is>
       </c>
       <c r="I74" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K74" t="inlineStr">
         <is>
-          <t>359363400</t>
+          <t>2037192383</t>
         </is>
       </c>
       <c r="L74" t="inlineStr">
@@ -5887,11 +5895,11 @@
       </c>
       <c r="M74" t="inlineStr">
         <is>
-          <t>世上本无事，庸人自扰之。</t>
+          <t>我真的好菜啊——</t>
         </is>
       </c>
       <c r="N74" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="O74" t="inlineStr">
         <is>
@@ -5909,20 +5917,20 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>4974084270</t>
+          <t>4974088325</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>惜寒EXCE</t>
+          <t>Truismers</t>
         </is>
       </c>
       <c r="D75" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>[原神_生气]</t>
+          <t>今天三蹦子的粉丝超过爱酱了吗？[脱单doge][脱单doge][脱单doge]</t>
         </is>
       </c>
       <c r="F75" t="n">
@@ -5935,7 +5943,7 @@
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>2021-07-23 18:23:18</t>
+          <t>2021-07-23 18:23:56</t>
         </is>
       </c>
       <c r="I75" t="n">
@@ -5943,12 +5951,12 @@
       </c>
       <c r="J75" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K75" t="inlineStr">
         <is>
-          <t>236993234</t>
+          <t>359363400</t>
         </is>
       </c>
       <c r="L75" t="inlineStr">
@@ -5958,7 +5966,7 @@
       </c>
       <c r="M75" t="inlineStr">
         <is>
-          <t>！该账号封禁中</t>
+          <t>世上本无事，庸人自扰之。</t>
         </is>
       </c>
       <c r="N75" t="n">
@@ -5969,11 +5977,7 @@
           <t>大会员</t>
         </is>
       </c>
-      <c r="P75" t="inlineStr">
-        <is>
-          <t>12周年夏日狂欢</t>
-        </is>
-      </c>
+      <c r="P75" t="inlineStr"/>
       <c r="Q75" t="inlineStr"/>
     </row>
     <row r="76">
@@ -5984,20 +5988,20 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>4974091234</t>
+          <t>4974084270</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>崩坏三第一偶像渡鸦</t>
+          <t>惜寒EXCE</t>
         </is>
       </c>
       <c r="D76" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>好耶</t>
+          <t>[原神_生气]</t>
         </is>
       </c>
       <c r="F76" t="n">
@@ -6010,7 +6014,7 @@
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>2021-07-23 18:23:17</t>
+          <t>2021-07-23 18:23:18</t>
         </is>
       </c>
       <c r="I76" t="n">
@@ -6018,22 +6022,22 @@
       </c>
       <c r="J76" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K76" t="inlineStr">
         <is>
-          <t>34208931</t>
+          <t>236993234</t>
         </is>
       </c>
       <c r="L76" t="inlineStr">
         <is>
-          <t>男</t>
+          <t>保密</t>
         </is>
       </c>
       <c r="M76" t="inlineStr">
         <is>
-          <t>爱酱?真不熟，还得是我渡鸦！</t>
+          <t>！该账号封禁中</t>
         </is>
       </c>
       <c r="N76" t="n">
@@ -6046,14 +6050,10 @@
       </c>
       <c r="P76" t="inlineStr">
         <is>
-          <t>崩坏3·天穹流星</t>
-        </is>
-      </c>
-      <c r="Q76" t="inlineStr">
-        <is>
-          <t>崩坏3·天穹流星</t>
-        </is>
-      </c>
+          <t>12周年夏日狂欢</t>
+        </is>
+      </c>
+      <c r="Q76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -6063,20 +6063,20 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>4974083755</t>
+          <t>4974091234</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>ko-ra</t>
+          <t>崩坏三第一偶像渡鸦</t>
         </is>
       </c>
       <c r="D77" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>你看这个飞鱼丸，就这么些评论，真的太逊了[doge]</t>
+          <t>好耶</t>
         </is>
       </c>
       <c r="F77" t="n">
@@ -6089,7 +6089,7 @@
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>2021-07-23 18:23:07</t>
+          <t>2021-07-23 18:23:17</t>
         </is>
       </c>
       <c r="I77" t="n">
@@ -6097,12 +6097,12 @@
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K77" t="inlineStr">
         <is>
-          <t>294588772</t>
+          <t>34208931</t>
         </is>
       </c>
       <c r="L77" t="inlineStr">
@@ -6110,23 +6110,27 @@
           <t>男</t>
         </is>
       </c>
-      <c r="M77" t="inlineStr"/>
+      <c r="M77" t="inlineStr">
+        <is>
+          <t>爱酱?真不熟，还得是我渡鸦！</t>
+        </is>
+      </c>
       <c r="N77" t="n">
         <v>5</v>
       </c>
       <c r="O77" t="inlineStr">
         <is>
-          <t>年度大会员</t>
+          <t>大会员</t>
         </is>
       </c>
       <c r="P77" t="inlineStr">
         <is>
-          <t>总之就是非常可爱</t>
+          <t>崩坏3·天穹流星</t>
         </is>
       </c>
       <c r="Q77" t="inlineStr">
         <is>
-          <t>总之就是非常可爱</t>
+          <t>崩坏3·天穹流星</t>
         </is>
       </c>
     </row>
@@ -6138,20 +6142,20 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>4974086397</t>
+          <t>4974083755</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>绫华_刻晴</t>
+          <t>ko-ra</t>
         </is>
       </c>
       <c r="D78" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>啊啊啊啊。我的识宝[喜欢][喜欢]</t>
+          <t>你看这个飞鱼丸，就这么些评论，真的太逊了[doge]</t>
         </is>
       </c>
       <c r="F78" t="n">
@@ -6164,7 +6168,7 @@
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>2021-07-23 18:23:05</t>
+          <t>2021-07-23 18:23:07</t>
         </is>
       </c>
       <c r="I78" t="n">
@@ -6172,12 +6176,12 @@
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K78" t="inlineStr">
         <is>
-          <t>385556903</t>
+          <t>294588772</t>
         </is>
       </c>
       <c r="L78" t="inlineStr">
@@ -6196,12 +6200,12 @@
       </c>
       <c r="P78" t="inlineStr">
         <is>
-          <t>星座系列：巨蟹座</t>
+          <t>总之就是非常可爱</t>
         </is>
       </c>
       <c r="Q78" t="inlineStr">
         <is>
-          <t>星座装扮巨蟹座</t>
+          <t>总之就是非常可爱</t>
         </is>
       </c>
     </row>
@@ -6213,20 +6217,20 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>4974085423</t>
+          <t>4974086397</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>IO-zza</t>
+          <t>绫华_刻晴</t>
         </is>
       </c>
       <c r="D79" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>所以为什么人均只有一个鼻孔？[doge]</t>
+          <t>啊啊啊啊。我的识宝[喜欢][喜欢]</t>
         </is>
       </c>
       <c r="F79" t="n">
@@ -6239,20 +6243,20 @@
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>2021-07-23 18:22:38</t>
+          <t>2021-07-23 18:23:05</t>
         </is>
       </c>
       <c r="I79" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t>苹果</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K79" t="inlineStr">
         <is>
-          <t>266986370</t>
+          <t>385556903</t>
         </is>
       </c>
       <c r="L79" t="inlineStr">
@@ -6260,21 +6264,25 @@
           <t>男</t>
         </is>
       </c>
-      <c r="M79" t="inlineStr">
-        <is>
-          <t>本人架子鼓8级，获金牌2个，银牌2个，现为Medly萌新，求各位大佬传授乐理~</t>
-        </is>
-      </c>
+      <c r="M79" t="inlineStr"/>
       <c r="N79" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="O79" t="inlineStr">
         <is>
-          <t>大会员</t>
-        </is>
-      </c>
-      <c r="P79" t="inlineStr"/>
-      <c r="Q79" t="inlineStr"/>
+          <t>年度大会员</t>
+        </is>
+      </c>
+      <c r="P79" t="inlineStr">
+        <is>
+          <t>星座系列：巨蟹座</t>
+        </is>
+      </c>
+      <c r="Q79" t="inlineStr">
+        <is>
+          <t>星座装扮巨蟹座</t>
+        </is>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -6284,20 +6292,20 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>4974062172</t>
+          <t>4974085423</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>大师傅x</t>
+          <t>IO-zza</t>
         </is>
       </c>
       <c r="D80" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>爬</t>
+          <t>所以为什么人均只有一个鼻孔？[doge]</t>
         </is>
       </c>
       <c r="F80" t="n">
@@ -6310,20 +6318,20 @@
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>2021-07-23 18:19:40</t>
+          <t>2021-07-23 18:22:38</t>
         </is>
       </c>
       <c r="I80" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J80" t="inlineStr">
         <is>
-          <t>网页</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K80" t="inlineStr">
         <is>
-          <t>20568348</t>
+          <t>266986370</t>
         </is>
       </c>
       <c r="L80" t="inlineStr">
@@ -6331,9 +6339,13 @@
           <t>男</t>
         </is>
       </c>
-      <c r="M80" t="inlineStr"/>
+      <c r="M80" t="inlineStr">
+        <is>
+          <t>本人架子鼓8级，获金牌2个，银牌2个，现为Medly萌新，求各位大佬传授乐理~</t>
+        </is>
+      </c>
       <c r="N80" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="O80" t="inlineStr">
         <is>
@@ -6351,20 +6363,20 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>4974053928</t>
+          <t>4974062172</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>也也是也</t>
+          <t>大师傅x</t>
         </is>
       </c>
       <c r="D81" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>[冷][吃瓜]</t>
+          <t>爬</t>
         </is>
       </c>
       <c r="F81" t="n">
@@ -6377,50 +6389,38 @@
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>2021-07-23 18:19:26</t>
+          <t>2021-07-23 18:19:40</t>
         </is>
       </c>
       <c r="I81" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>网页</t>
         </is>
       </c>
       <c r="K81" t="inlineStr">
         <is>
-          <t>48980755</t>
+          <t>20568348</t>
         </is>
       </c>
       <c r="L81" t="inlineStr">
         <is>
-          <t>保密</t>
-        </is>
-      </c>
-      <c r="M81" t="inlineStr">
-        <is>
-          <t>你氪金 肝时间，游戏公司赚钱，我白嫖。(๑˙ー˙๑)</t>
-        </is>
-      </c>
+          <t>男</t>
+        </is>
+      </c>
+      <c r="M81" t="inlineStr"/>
       <c r="N81" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="O81" t="inlineStr">
         <is>
-          <t>年度大会员</t>
-        </is>
-      </c>
-      <c r="P81" t="inlineStr">
-        <is>
-          <t>汉化日记</t>
-        </is>
-      </c>
-      <c r="Q81" t="inlineStr">
-        <is>
-          <t>年度大会员</t>
-        </is>
-      </c>
+          <t>大会员</t>
+        </is>
+      </c>
+      <c r="P81" t="inlineStr"/>
+      <c r="Q81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -6430,20 +6430,20 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>4974057731</t>
+          <t>4974053928</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>illusion星环</t>
+          <t>也也是也</t>
         </is>
       </c>
       <c r="D82" t="n">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>看满离[doge]</t>
+          <t>[冷][吃瓜]</t>
         </is>
       </c>
       <c r="F82" t="n">
@@ -6451,16 +6451,16 @@
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>4974057731</t>
+          <t>0</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>2021-07-23 18:19:14</t>
+          <t>2021-07-23 18:19:26</t>
         </is>
       </c>
       <c r="I82" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="J82" t="inlineStr">
         <is>
@@ -6469,7 +6469,7 @@
       </c>
       <c r="K82" t="inlineStr">
         <is>
-          <t>349096036</t>
+          <t>48980755</t>
         </is>
       </c>
       <c r="L82" t="inlineStr">
@@ -6479,18 +6479,22 @@
       </c>
       <c r="M82" t="inlineStr">
         <is>
-          <t>我才没有懒到什么都不写</t>
+          <t>你氪金 肝时间，游戏公司赚钱，我白嫖。(๑˙ー˙๑)</t>
         </is>
       </c>
       <c r="N82" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O82" t="inlineStr">
         <is>
           <t>年度大会员</t>
         </is>
       </c>
-      <c r="P82" t="inlineStr"/>
+      <c r="P82" t="inlineStr">
+        <is>
+          <t>汉化日记</t>
+        </is>
+      </c>
       <c r="Q82" t="inlineStr">
         <is>
           <t>年度大会员</t>
@@ -6505,20 +6509,20 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>4974061024</t>
+          <t>4974057731</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>墨语书文香芳古</t>
+          <t>illusion星环</t>
         </is>
       </c>
       <c r="D83" t="n">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>识宝，我的识宝[打call]！</t>
+          <t>看满离[doge]</t>
         </is>
       </c>
       <c r="F83" t="n">
@@ -6526,49 +6530,49 @@
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4974057731</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>2021-07-23 18:19:13</t>
+          <t>2021-07-23 18:19:14</t>
         </is>
       </c>
       <c r="I83" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K83" t="inlineStr">
         <is>
-          <t>24817850</t>
+          <t>349096036</t>
         </is>
       </c>
       <c r="L83" t="inlineStr">
         <is>
-          <t>男</t>
-        </is>
-      </c>
-      <c r="M83" t="inlineStr"/>
+          <t>保密</t>
+        </is>
+      </c>
+      <c r="M83" t="inlineStr">
+        <is>
+          <t>我才没有懒到什么都不写</t>
+        </is>
+      </c>
       <c r="N83" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="O83" t="inlineStr">
         <is>
           <t>年度大会员</t>
         </is>
       </c>
-      <c r="P83" t="inlineStr">
-        <is>
-          <t>崩坏3·天穹流星</t>
-        </is>
-      </c>
+      <c r="P83" t="inlineStr"/>
       <c r="Q83" t="inlineStr">
         <is>
-          <t>崩坏3·天穹流星</t>
+          <t>年度大会员</t>
         </is>
       </c>
     </row>
@@ -6580,144 +6584,144 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
+          <t>4974061024</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>墨语书文香芳古</t>
+        </is>
+      </c>
+      <c r="D84" t="n">
+        <v>21</v>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>识宝，我的识宝[打call]！</t>
+        </is>
+      </c>
+      <c r="F84" t="n">
+        <v>0</v>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>2021-07-23 18:19:13</t>
+        </is>
+      </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>未知</t>
+        </is>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>24817850</t>
+        </is>
+      </c>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>男</t>
+        </is>
+      </c>
+      <c r="M84" t="inlineStr"/>
+      <c r="N84" t="n">
+        <v>6</v>
+      </c>
+      <c r="O84" t="inlineStr">
+        <is>
+          <t>年度大会员</t>
+        </is>
+      </c>
+      <c r="P84" t="inlineStr">
+        <is>
+          <t>崩坏3·天穹流星</t>
+        </is>
+      </c>
+      <c r="Q84" t="inlineStr">
+        <is>
+          <t>崩坏3·天穹流星</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>256667467</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
           <t>4974049054</t>
         </is>
       </c>
-      <c r="C84" t="inlineStr">
+      <c r="C85" t="inlineStr">
         <is>
           <t>爱阿比的咕哒子</t>
         </is>
       </c>
-      <c r="D84" t="n">
+      <c r="D85" t="n">
         <v>20</v>
       </c>
-      <c r="E84" t="inlineStr">
+      <c r="E85" t="inlineStr">
         <is>
           <t>我还以为是派蒙的画作[doge]</t>
         </is>
       </c>
-      <c r="F84" t="n">
-        <v>0</v>
-      </c>
-      <c r="G84" t="inlineStr">
+      <c r="F85" t="n">
+        <v>0</v>
+      </c>
+      <c r="G85" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="H84" t="inlineStr">
+      <c r="H85" t="inlineStr">
         <is>
           <t>2021-07-23 18:18:25</t>
         </is>
       </c>
-      <c r="I84" t="n">
+      <c r="I85" t="n">
         <v>1</v>
       </c>
-      <c r="J84" t="inlineStr">
-        <is>
-          <t>安卓</t>
-        </is>
-      </c>
-      <c r="K84" t="inlineStr">
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>未知</t>
+        </is>
+      </c>
+      <c r="K85" t="inlineStr">
         <is>
           <t>14592499</t>
         </is>
       </c>
-      <c r="L84" t="inlineStr">
+      <c r="L85" t="inlineStr">
         <is>
           <t>男</t>
         </is>
       </c>
-      <c r="M84" t="inlineStr">
+      <c r="M85" t="inlineStr">
         <is>
           <t>你来啦
 要被你看光了呢(๑°3°๑)</t>
         </is>
       </c>
-      <c r="N84" t="n">
-        <v>5</v>
-      </c>
-      <c r="O84" t="inlineStr">
-        <is>
-          <t>年度大会员</t>
-        </is>
-      </c>
-      <c r="P84" t="inlineStr"/>
-      <c r="Q84" t="inlineStr"/>
-    </row>
-    <row r="85">
-      <c r="A85" t="inlineStr">
-        <is>
-          <t>256667467</t>
-        </is>
-      </c>
-      <c r="B85" t="inlineStr">
-        <is>
-          <t>4974046809</t>
-        </is>
-      </c>
-      <c r="C85" t="inlineStr">
-        <is>
-          <t>无史大帝</t>
-        </is>
-      </c>
-      <c r="D85" t="n">
-        <v>1</v>
-      </c>
-      <c r="E85" t="inlineStr">
-        <is>
-          <t>哟，这不那谁吗</t>
-        </is>
-      </c>
-      <c r="F85" t="n">
-        <v>0</v>
-      </c>
-      <c r="G85" t="inlineStr">
-        <is>
-          <t>4974046809</t>
-        </is>
-      </c>
-      <c r="H85" t="inlineStr">
-        <is>
-          <t>2021-07-23 18:17:31</t>
-        </is>
-      </c>
-      <c r="I85" t="n">
-        <v>0</v>
-      </c>
-      <c r="J85" t="inlineStr">
-        <is>
-          <t>未知</t>
-        </is>
-      </c>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>4559635</t>
-        </is>
-      </c>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>男</t>
-        </is>
-      </c>
-      <c r="M85" t="inlineStr"/>
       <c r="N85" t="n">
         <v>5</v>
       </c>
       <c r="O85" t="inlineStr">
         <is>
-          <t>大会员</t>
-        </is>
-      </c>
-      <c r="P85" t="inlineStr">
-        <is>
-          <t>原神</t>
-        </is>
-      </c>
-      <c r="Q85" t="inlineStr">
-        <is>
-          <t>原神</t>
-        </is>
-      </c>
+          <t>年度大会员</t>
+        </is>
+      </c>
+      <c r="P85" t="inlineStr"/>
+      <c r="Q85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -6727,20 +6731,20 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>4974045406</t>
+          <t>4974046809</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>月影心殇</t>
+          <t>无史大帝</t>
         </is>
       </c>
       <c r="D86" t="n">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>识宝有两张，[热词系列_排面]</t>
+          <t>哟，这不那谁吗</t>
         </is>
       </c>
       <c r="F86" t="n">
@@ -6748,43 +6752,51 @@
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4974046809</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>2021-07-23 18:16:57</t>
+          <t>2021-07-23 18:17:31</t>
         </is>
       </c>
       <c r="I86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J86" t="inlineStr">
         <is>
-          <t>苹果</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K86" t="inlineStr">
         <is>
-          <t>503382801</t>
+          <t>4559635</t>
         </is>
       </c>
       <c r="L86" t="inlineStr">
         <is>
-          <t>保密</t>
+          <t>男</t>
         </is>
       </c>
       <c r="M86" t="inlineStr"/>
       <c r="N86" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="O86" t="inlineStr">
         <is>
           <t>大会员</t>
         </is>
       </c>
-      <c r="P86" t="inlineStr"/>
-      <c r="Q86" t="inlineStr"/>
+      <c r="P86" t="inlineStr">
+        <is>
+          <t>原神</t>
+        </is>
+      </c>
+      <c r="Q86" t="inlineStr">
+        <is>
+          <t>原神</t>
+        </is>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -6794,20 +6806,20 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>4974045209</t>
+          <t>4974045406</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>月墮の零</t>
+          <t>月影心殇</t>
         </is>
       </c>
       <c r="D87" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>[tv_点赞]新表情包get~</t>
+          <t>识宝有两张，[热词系列_排面]</t>
         </is>
       </c>
       <c r="F87" t="n">
@@ -6820,20 +6832,20 @@
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>2021-07-23 18:16:52</t>
+          <t>2021-07-23 18:16:57</t>
         </is>
       </c>
       <c r="I87" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J87" t="inlineStr">
         <is>
-          <t>网页</t>
+          <t>苹果</t>
         </is>
       </c>
       <c r="K87" t="inlineStr">
         <is>
-          <t>149018</t>
+          <t>503382801</t>
         </is>
       </c>
       <c r="L87" t="inlineStr">
@@ -6843,19 +6855,15 @@
       </c>
       <c r="M87" t="inlineStr"/>
       <c r="N87" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="O87" t="inlineStr">
         <is>
-          <t>年度大会员</t>
+          <t>大会员</t>
         </is>
       </c>
       <c r="P87" t="inlineStr"/>
-      <c r="Q87" t="inlineStr">
-        <is>
-          <t>椎名菜羽</t>
-        </is>
-      </c>
+      <c r="Q87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -6865,20 +6873,20 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>4974034792</t>
+          <t>4974045209</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>北辰一刀流y</t>
+          <t>月墮の零</t>
         </is>
       </c>
       <c r="D88" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>识宝朝风扇啊啊啊的样子也太小孩了哈哈哈[2233娘_大笑]</t>
+          <t>[tv_点赞]新表情包get~</t>
         </is>
       </c>
       <c r="F88" t="n">
@@ -6891,20 +6899,20 @@
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>2021-07-23 18:16:41</t>
+          <t>2021-07-23 18:16:52</t>
         </is>
       </c>
       <c r="I88" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J88" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K88" t="inlineStr">
         <is>
-          <t>296563884</t>
+          <t>149018</t>
         </is>
       </c>
       <c r="L88" t="inlineStr">
@@ -6912,25 +6920,21 @@
           <t>保密</t>
         </is>
       </c>
-      <c r="M88" t="inlineStr">
-        <is>
-          <t>这个人是个懒狗，什么都没有写</t>
-        </is>
-      </c>
+      <c r="M88" t="inlineStr"/>
       <c r="N88" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O88" t="inlineStr">
         <is>
-          <t>大会员</t>
-        </is>
-      </c>
-      <c r="P88" t="inlineStr">
-        <is>
-          <t>斗破苍穹</t>
-        </is>
-      </c>
-      <c r="Q88" t="inlineStr"/>
+          <t>年度大会员</t>
+        </is>
+      </c>
+      <c r="P88" t="inlineStr"/>
+      <c r="Q88" t="inlineStr">
+        <is>
+          <t>椎名菜羽</t>
+        </is>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -6940,20 +6944,20 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>4974041268</t>
+          <t>4974034792</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>櫻之梦</t>
+          <t>北辰一刀流y</t>
         </is>
       </c>
       <c r="D89" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>不送卡差评</t>
+          <t>识宝朝风扇啊啊啊的样子也太小孩了哈哈哈[2233娘_大笑]</t>
         </is>
       </c>
       <c r="F89" t="n">
@@ -6966,20 +6970,20 @@
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>2021-07-23 18:16:33</t>
+          <t>2021-07-23 18:16:41</t>
         </is>
       </c>
       <c r="I89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J89" t="inlineStr">
         <is>
-          <t>苹果</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K89" t="inlineStr">
         <is>
-          <t>386915650</t>
+          <t>296563884</t>
         </is>
       </c>
       <c r="L89" t="inlineStr">
@@ -6989,7 +6993,7 @@
       </c>
       <c r="M89" t="inlineStr">
         <is>
-          <t>医学考研学习中…</t>
+          <t>这个人是个懒狗，什么都没有写</t>
         </is>
       </c>
       <c r="N89" t="n">
@@ -7000,7 +7004,11 @@
           <t>大会员</t>
         </is>
       </c>
-      <c r="P89" t="inlineStr"/>
+      <c r="P89" t="inlineStr">
+        <is>
+          <t>斗破苍穹</t>
+        </is>
+      </c>
       <c r="Q89" t="inlineStr"/>
     </row>
     <row r="90">
@@ -7011,20 +7019,20 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>4974036012</t>
+          <t>4974041268</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>漆黑ノ白</t>
+          <t>櫻之梦</t>
         </is>
       </c>
       <c r="D90" t="n">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>感觉好久没看到这句话了</t>
+          <t>不送卡差评</t>
         </is>
       </c>
       <c r="F90" t="n">
@@ -7032,25 +7040,25 @@
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>4974036012</t>
+          <t>0</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>2021-07-23 18:16:13</t>
+          <t>2021-07-23 18:16:33</t>
         </is>
       </c>
       <c r="I90" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="J90" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K90" t="inlineStr">
         <is>
-          <t>35648711</t>
+          <t>386915650</t>
         </is>
       </c>
       <c r="L90" t="inlineStr">
@@ -7060,7 +7068,7 @@
       </c>
       <c r="M90" t="inlineStr">
         <is>
-          <t>追逐幻影</t>
+          <t>医学考研学习中…</t>
         </is>
       </c>
       <c r="N90" t="n">
@@ -7068,7 +7076,7 @@
       </c>
       <c r="O90" t="inlineStr">
         <is>
-          <t>年度大会员</t>
+          <t>大会员</t>
         </is>
       </c>
       <c r="P90" t="inlineStr"/>
@@ -7082,144 +7090,136 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
+          <t>4974036012</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>漆黑ノ白</t>
+        </is>
+      </c>
+      <c r="D91" t="n">
+        <v>1</v>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>感觉好久没看到这句话了</t>
+        </is>
+      </c>
+      <c r="F91" t="n">
+        <v>0</v>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>4974036012</t>
+        </is>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>2021-07-23 18:16:13</t>
+        </is>
+      </c>
+      <c r="I91" t="n">
+        <v>14</v>
+      </c>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>未知</t>
+        </is>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>35648711</t>
+        </is>
+      </c>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>保密</t>
+        </is>
+      </c>
+      <c r="M91" t="inlineStr">
+        <is>
+          <t>追逐幻影</t>
+        </is>
+      </c>
+      <c r="N91" t="n">
+        <v>5</v>
+      </c>
+      <c r="O91" t="inlineStr">
+        <is>
+          <t>年度大会员</t>
+        </is>
+      </c>
+      <c r="P91" t="inlineStr"/>
+      <c r="Q91" t="inlineStr"/>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>256667467</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
           <t>4974040444</t>
         </is>
       </c>
-      <c r="C91" t="inlineStr">
+      <c r="C92" t="inlineStr">
         <is>
           <t>二十二的二次方</t>
         </is>
       </c>
-      <c r="D91" t="n">
+      <c r="D92" t="n">
         <v>15</v>
       </c>
-      <c r="E91" t="inlineStr">
+      <c r="E92" t="inlineStr">
         <is>
           <t>好肥哦</t>
         </is>
       </c>
-      <c r="F91" t="n">
-        <v>0</v>
-      </c>
-      <c r="G91" t="inlineStr">
+      <c r="F92" t="n">
+        <v>0</v>
+      </c>
+      <c r="G92" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="H91" t="inlineStr">
+      <c r="H92" t="inlineStr">
         <is>
           <t>2021-07-23 18:16:13</t>
         </is>
       </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="inlineStr">
-        <is>
-          <t>安卓</t>
-        </is>
-      </c>
-      <c r="K91" t="inlineStr">
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>未知</t>
+        </is>
+      </c>
+      <c r="K92" t="inlineStr">
         <is>
           <t>27540972</t>
         </is>
       </c>
-      <c r="L91" t="inlineStr">
+      <c r="L92" t="inlineStr">
         <is>
           <t>保密</t>
         </is>
       </c>
-      <c r="M91" t="inlineStr">
+      <c r="M92" t="inlineStr">
         <is>
           <t>我喜欢原神崩三，人总不能连自己喜欢的东西都不敢承认吧，错的一直不是游戏而是人。
 以及八重樱赛高！！！！</t>
         </is>
       </c>
-      <c r="N91" t="n">
-        <v>5</v>
-      </c>
-      <c r="O91" t="inlineStr">
-        <is>
-          <t>大会员</t>
-        </is>
-      </c>
-      <c r="P91" t="inlineStr">
-        <is>
-          <t>原神</t>
-        </is>
-      </c>
-      <c r="Q91" t="inlineStr">
-        <is>
-          <t>崩坏3·天穹流星</t>
-        </is>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" t="inlineStr">
-        <is>
-          <t>256667467</t>
-        </is>
-      </c>
-      <c r="B92" t="inlineStr">
-        <is>
-          <t>4974033561</t>
-        </is>
-      </c>
-      <c r="C92" t="inlineStr">
-        <is>
-          <t>东风41D洲际战略核导弹</t>
-        </is>
-      </c>
-      <c r="D92" t="n">
-        <v>14</v>
-      </c>
-      <c r="E92" t="inlineStr">
-        <is>
-          <t>在？能不能出个琪亚娜1:7的手办？顺带给琪亚娜霓裳挂画补一下货！[生气]</t>
-        </is>
-      </c>
-      <c r="F92" t="n">
-        <v>0</v>
-      </c>
-      <c r="G92" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H92" t="inlineStr">
-        <is>
-          <t>2021-07-23 18:16:11</t>
-        </is>
-      </c>
-      <c r="I92" t="n">
-        <v>16</v>
-      </c>
-      <c r="J92" t="inlineStr">
-        <is>
-          <t>苹果</t>
-        </is>
-      </c>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>350738745</t>
-        </is>
-      </c>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>男</t>
-        </is>
-      </c>
-      <c r="M92" t="inlineStr">
-        <is>
-          <t>无～</t>
-        </is>
-      </c>
       <c r="N92" t="n">
         <v>5</v>
       </c>
       <c r="O92" t="inlineStr">
         <is>
-          <t>年度大会员</t>
+          <t>大会员</t>
         </is>
       </c>
       <c r="P92" t="inlineStr">
@@ -7241,20 +7241,20 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>4974032578</t>
+          <t>4974033561</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>魔法少爷Daddy</t>
+          <t>东风41D洲际战略核导弹</t>
         </is>
       </c>
       <c r="D93" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>B站能用吗？[脱单doge]</t>
+          <t>在？能不能出个琪亚娜1:7的手办？顺带给琪亚娜霓裳挂画补一下货！[生气]</t>
         </is>
       </c>
       <c r="F93" t="n">
@@ -7267,48 +7267,48 @@
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>2021-07-23 18:15:47</t>
+          <t>2021-07-23 18:16:11</t>
         </is>
       </c>
       <c r="I93" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="J93" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>苹果</t>
         </is>
       </c>
       <c r="K93" t="inlineStr">
         <is>
-          <t>347850432</t>
+          <t>350738745</t>
         </is>
       </c>
       <c r="L93" t="inlineStr">
         <is>
-          <t>保密</t>
+          <t>男</t>
         </is>
       </c>
       <c r="M93" t="inlineStr">
         <is>
-          <t>❕该帐号封禁中</t>
+          <t>无～</t>
         </is>
       </c>
       <c r="N93" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="O93" t="inlineStr">
         <is>
-          <t>大会员</t>
+          <t>年度大会员</t>
         </is>
       </c>
       <c r="P93" t="inlineStr">
         <is>
-          <t>2021拜年纪</t>
+          <t>原神</t>
         </is>
       </c>
       <c r="Q93" t="inlineStr">
         <is>
-          <t>2021拜年纪</t>
+          <t>崩坏3·天穹流星</t>
         </is>
       </c>
     </row>
@@ -7320,18 +7320,97 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
+          <t>4974032578</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>魔法少爷Daddy</t>
+        </is>
+      </c>
+      <c r="D94" t="n">
+        <v>13</v>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>B站能用吗？[脱单doge]</t>
+        </is>
+      </c>
+      <c r="F94" t="n">
+        <v>0</v>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>2021-07-23 18:15:47</t>
+        </is>
+      </c>
+      <c r="I94" t="n">
+        <v>23</v>
+      </c>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>安卓</t>
+        </is>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>347850432</t>
+        </is>
+      </c>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>保密</t>
+        </is>
+      </c>
+      <c r="M94" t="inlineStr">
+        <is>
+          <t>❕该帐号封禁中</t>
+        </is>
+      </c>
+      <c r="N94" t="n">
+        <v>4</v>
+      </c>
+      <c r="O94" t="inlineStr">
+        <is>
+          <t>大会员</t>
+        </is>
+      </c>
+      <c r="P94" t="inlineStr">
+        <is>
+          <t>2021拜年纪</t>
+        </is>
+      </c>
+      <c r="Q94" t="inlineStr">
+        <is>
+          <t>2021拜年纪</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>256667467</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
           <t>4974023960</t>
         </is>
       </c>
-      <c r="C94" t="inlineStr">
+      <c r="C95" t="inlineStr">
         <is>
           <t>帅哥冬东</t>
         </is>
       </c>
-      <c r="D94" t="n">
+      <c r="D95" t="n">
         <v>11</v>
       </c>
-      <c r="E94" t="inlineStr">
+      <c r="E95" t="inlineStr">
         <is>
           <t>喂喂，听得到吗？这边是刺耳的杂音。
 这边淘宝花费260获得的重装月兔外面签到获得什么时候给个解释?
@@ -7346,97 +7425,30 @@
 2021.7.23</t>
         </is>
       </c>
-      <c r="F94" t="n">
+      <c r="F95" t="n">
         <v>2</v>
       </c>
-      <c r="G94" t="inlineStr">
+      <c r="G95" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="H94" t="inlineStr">
+      <c r="H95" t="inlineStr">
         <is>
           <t>2021-07-23 18:15:19</t>
         </is>
       </c>
-      <c r="I94" t="n">
+      <c r="I95" t="n">
         <v>3</v>
       </c>
-      <c r="J94" t="inlineStr">
+      <c r="J95" t="inlineStr">
         <is>
           <t>安卓</t>
         </is>
       </c>
-      <c r="K94" t="inlineStr">
+      <c r="K95" t="inlineStr">
         <is>
           <t>25322750</t>
-        </is>
-      </c>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>男</t>
-        </is>
-      </c>
-      <c r="M94" t="inlineStr"/>
-      <c r="N94" t="n">
-        <v>5</v>
-      </c>
-      <c r="O94" t="inlineStr">
-        <is>
-          <t>大会员</t>
-        </is>
-      </c>
-      <c r="P94" t="inlineStr"/>
-      <c r="Q94" t="inlineStr"/>
-    </row>
-    <row r="95">
-      <c r="A95" t="inlineStr">
-        <is>
-          <t>256667467</t>
-        </is>
-      </c>
-      <c r="B95" t="inlineStr">
-        <is>
-          <t>4974030846</t>
-        </is>
-      </c>
-      <c r="C95" t="inlineStr">
-        <is>
-          <t>hello_rain</t>
-        </is>
-      </c>
-      <c r="D95" t="n">
-        <v>10</v>
-      </c>
-      <c r="E95" t="inlineStr">
-        <is>
-          <t>识宝怎么憨憨的？[doge]</t>
-        </is>
-      </c>
-      <c r="F95" t="n">
-        <v>0</v>
-      </c>
-      <c r="G95" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H95" t="inlineStr">
-        <is>
-          <t>2021-07-23 18:15:06</t>
-        </is>
-      </c>
-      <c r="I95" t="n">
-        <v>0</v>
-      </c>
-      <c r="J95" t="inlineStr">
-        <is>
-          <t>安卓</t>
-        </is>
-      </c>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>85982269</t>
         </is>
       </c>
       <c r="L95" t="inlineStr">
@@ -7450,14 +7462,10 @@
       </c>
       <c r="O95" t="inlineStr">
         <is>
-          <t>年度大会员</t>
-        </is>
-      </c>
-      <c r="P95" t="inlineStr">
-        <is>
-          <t>凹凸世界</t>
-        </is>
-      </c>
+          <t>大会员</t>
+        </is>
+      </c>
+      <c r="P95" t="inlineStr"/>
       <c r="Q95" t="inlineStr"/>
     </row>
     <row r="96">
@@ -7468,20 +7476,20 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>4974027064</t>
+          <t>4974030846</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>1340732447</t>
+          <t>hello_rain</t>
         </is>
       </c>
       <c r="D96" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>为什么没有绯狱丸的表情包</t>
+          <t>识宝怎么憨憨的？[doge]</t>
         </is>
       </c>
       <c r="F96" t="n">
@@ -7494,7 +7502,7 @@
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>2021-07-23 18:14:58</t>
+          <t>2021-07-23 18:15:06</t>
         </is>
       </c>
       <c r="I96" t="n">
@@ -7502,12 +7510,12 @@
       </c>
       <c r="J96" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K96" t="inlineStr">
         <is>
-          <t>1801856</t>
+          <t>85982269</t>
         </is>
       </c>
       <c r="L96" t="inlineStr">
@@ -7524,12 +7532,12 @@
           <t>年度大会员</t>
         </is>
       </c>
-      <c r="P96" t="inlineStr"/>
-      <c r="Q96" t="inlineStr">
-        <is>
-          <t>崩坏3·天穹流星</t>
-        </is>
-      </c>
+      <c r="P96" t="inlineStr">
+        <is>
+          <t>凹凸世界</t>
+        </is>
+      </c>
+      <c r="Q96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -7539,20 +7547,20 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>4974026948</t>
+          <t>4974027064</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>很非的嘤樱怪</t>
+          <t>1340732447</t>
         </is>
       </c>
       <c r="D97" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>希儿[打call]</t>
+          <t>为什么没有绯狱丸的表情包</t>
         </is>
       </c>
       <c r="F97" t="n">
@@ -7565,38 +7573,42 @@
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>2021-07-23 18:14:56</t>
+          <t>2021-07-23 18:14:58</t>
         </is>
       </c>
       <c r="I97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J97" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K97" t="inlineStr">
         <is>
-          <t>495136074</t>
+          <t>1801856</t>
         </is>
       </c>
       <c r="L97" t="inlineStr">
         <is>
-          <t>保密</t>
+          <t>男</t>
         </is>
       </c>
       <c r="M97" t="inlineStr"/>
       <c r="N97" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="O97" t="inlineStr">
         <is>
-          <t>大会员</t>
+          <t>年度大会员</t>
         </is>
       </c>
       <c r="P97" t="inlineStr"/>
-      <c r="Q97" t="inlineStr"/>
+      <c r="Q97" t="inlineStr">
+        <is>
+          <t>崩坏3·天穹流星</t>
+        </is>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -7606,20 +7618,20 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>4974022894</t>
+          <t>4974026948</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>秋风悲-夏雨泪</t>
+          <t>很非的嘤樱怪</t>
         </is>
       </c>
       <c r="D98" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>第一[藏狐]</t>
+          <t>希儿[打call]</t>
         </is>
       </c>
       <c r="F98" t="n">
@@ -7632,34 +7644,30 @@
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>2021-07-23 18:14:51</t>
+          <t>2021-07-23 18:14:56</t>
         </is>
       </c>
       <c r="I98" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J98" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K98" t="inlineStr">
         <is>
-          <t>347550815</t>
+          <t>495136074</t>
         </is>
       </c>
       <c r="L98" t="inlineStr">
         <is>
-          <t>男</t>
-        </is>
-      </c>
-      <c r="M98" t="inlineStr">
-        <is>
-          <t>二次元萌新，请多多指教。</t>
-        </is>
-      </c>
+          <t>保密</t>
+        </is>
+      </c>
+      <c r="M98" t="inlineStr"/>
       <c r="N98" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="O98" t="inlineStr">
         <is>
@@ -7677,20 +7685,20 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>4974022736</t>
+          <t>4974022894</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>叶陨辰迹</t>
+          <t>秋风悲-夏雨泪</t>
         </is>
       </c>
       <c r="D99" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>前排踢你pg[脱单doge]</t>
+          <t>第一[藏狐]</t>
         </is>
       </c>
       <c r="F99" t="n">
@@ -7703,7 +7711,7 @@
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>2021-07-23 18:14:47</t>
+          <t>2021-07-23 18:14:51</t>
         </is>
       </c>
       <c r="I99" t="n">
@@ -7711,12 +7719,12 @@
       </c>
       <c r="J99" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K99" t="inlineStr">
         <is>
-          <t>277697315</t>
+          <t>347550815</t>
         </is>
       </c>
       <c r="L99" t="inlineStr">
@@ -7724,7 +7732,11 @@
           <t>男</t>
         </is>
       </c>
-      <c r="M99" t="inlineStr"/>
+      <c r="M99" t="inlineStr">
+        <is>
+          <t>二次元萌新，请多多指教。</t>
+        </is>
+      </c>
       <c r="N99" t="n">
         <v>5</v>
       </c>
@@ -7744,20 +7756,20 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>4974026405</t>
+          <t>4974022736</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>很非的嘤樱怪</t>
+          <t>叶陨辰迹</t>
         </is>
       </c>
       <c r="D100" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>丽塔[打call]</t>
+          <t>前排踢你pg[脱单doge]</t>
         </is>
       </c>
       <c r="F100" t="n">
@@ -7770,30 +7782,30 @@
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>2021-07-23 18:14:43</t>
+          <t>2021-07-23 18:14:47</t>
         </is>
       </c>
       <c r="I100" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J100" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K100" t="inlineStr">
         <is>
-          <t>495136074</t>
+          <t>277697315</t>
         </is>
       </c>
       <c r="L100" t="inlineStr">
         <is>
-          <t>保密</t>
+          <t>男</t>
         </is>
       </c>
       <c r="M100" t="inlineStr"/>
       <c r="N100" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="O100" t="inlineStr">
         <is>
@@ -7811,46 +7823,46 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>4974019538</t>
+          <t>4974026405</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>南宫司雀</t>
+          <t>很非的嘤樱怪</t>
         </is>
       </c>
       <c r="D101" t="n">
+        <v>4</v>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>丽塔[打call]</t>
+        </is>
+      </c>
+      <c r="F101" t="n">
+        <v>0</v>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t>2021-07-23 18:14:43</t>
+        </is>
+      </c>
+      <c r="I101" t="n">
         <v>3</v>
       </c>
-      <c r="E101" t="inlineStr">
-        <is>
-          <t>老梗来一遍，今超爱？[doge]</t>
-        </is>
-      </c>
-      <c r="F101" t="n">
-        <v>22</v>
-      </c>
-      <c r="G101" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H101" t="inlineStr">
-        <is>
-          <t>2021-07-23 18:14:33</t>
-        </is>
-      </c>
-      <c r="I101" t="n">
-        <v>328</v>
-      </c>
       <c r="J101" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K101" t="inlineStr">
         <is>
-          <t>346525097</t>
+          <t>495136074</t>
         </is>
       </c>
       <c r="L101" t="inlineStr">
@@ -7858,13 +7870,9 @@
           <t>保密</t>
         </is>
       </c>
-      <c r="M101" t="inlineStr">
-        <is>
-          <t>不定期更新。</t>
-        </is>
-      </c>
+      <c r="M101" t="inlineStr"/>
       <c r="N101" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="O101" t="inlineStr">
         <is>
@@ -7882,24 +7890,24 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>4974019342</t>
+          <t>4974019538</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>哭泣的贤者</t>
+          <t>南宫司雀</t>
         </is>
       </c>
       <c r="D102" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>[藏狐]</t>
+          <t>老梗来一遍，今超爱？[doge]</t>
         </is>
       </c>
       <c r="F102" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="G102" t="inlineStr">
         <is>
@@ -7908,20 +7916,20 @@
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>2021-07-23 18:14:28</t>
+          <t>2021-07-23 18:14:33</t>
         </is>
       </c>
       <c r="I102" t="n">
-        <v>0</v>
+        <v>342</v>
       </c>
       <c r="J102" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K102" t="inlineStr">
         <is>
-          <t>123252656</t>
+          <t>346525097</t>
         </is>
       </c>
       <c r="L102" t="inlineStr">
@@ -7929,7 +7937,11 @@
           <t>保密</t>
         </is>
       </c>
-      <c r="M102" t="inlineStr"/>
+      <c r="M102" t="inlineStr">
+        <is>
+          <t>不定期更新。</t>
+        </is>
+      </c>
       <c r="N102" t="n">
         <v>5</v>
       </c>
@@ -7940,6 +7952,73 @@
       </c>
       <c r="P102" t="inlineStr"/>
       <c r="Q102" t="inlineStr"/>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>256667467</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>4974019342</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>哭泣的贤者</t>
+        </is>
+      </c>
+      <c r="D103" t="n">
+        <v>1</v>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>[藏狐]</t>
+        </is>
+      </c>
+      <c r="F103" t="n">
+        <v>0</v>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H103" t="inlineStr">
+        <is>
+          <t>2021-07-23 18:14:28</t>
+        </is>
+      </c>
+      <c r="I103" t="n">
+        <v>0</v>
+      </c>
+      <c r="J103" t="inlineStr">
+        <is>
+          <t>未知</t>
+        </is>
+      </c>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>123252656</t>
+        </is>
+      </c>
+      <c r="L103" t="inlineStr">
+        <is>
+          <t>保密</t>
+        </is>
+      </c>
+      <c r="M103" t="inlineStr"/>
+      <c r="N103" t="n">
+        <v>5</v>
+      </c>
+      <c r="O103" t="inlineStr">
+        <is>
+          <t>大会员</t>
+        </is>
+      </c>
+      <c r="P103" t="inlineStr"/>
+      <c r="Q103" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/bh3/550601222371727765_2021-07-23_18-13-57.xlsx
+++ b/bh3/550601222371727765_2021-07-23_18-13-57.xlsx
@@ -515,12 +515,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>5021940869</t>
+          <t>5044181347</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>伊玔Kasylana</t>
+          <t>已然重生的梦想之城</t>
         </is>
       </c>
       <c r="D2" t="n">
@@ -528,7 +528,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>乆乆乆乆乆乆乆乆乆乆乆</t>
+          <t>看满离</t>
         </is>
       </c>
       <c r="F2" t="n">
@@ -536,12 +536,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>5021940869</t>
+          <t>5044181347</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2021-07-29 20:29:57</t>
+          <t>2021-08-01 14:57:06</t>
         </is>
       </c>
       <c r="I2" t="n">
@@ -554,21 +554,21 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>35421357</t>
+          <t>485200375</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>保密</t>
+          <t>女</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>愿薪火相传，美德不灭。</t>
+          <t>被雾气弥漫笼罩着的一颗星星</t>
         </is>
       </c>
       <c r="N2" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="O2" t="inlineStr">
         <is>
@@ -577,14 +577,10 @@
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>原神</t>
-        </is>
-      </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>原神</t>
-        </is>
-      </c>
+          <t>刺客伍六七</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -594,20 +590,20 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>5004844996</t>
+          <t>5021940869</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>何不R</t>
+          <t>伊玔Kasylana</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>70</v>
+        <v>-1</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>我宣布我支持ch一切决定，玩家不满全都是玩家的错，再杠你们也是千人律者[doge]</t>
+          <t>乆乆乆乆乆乆乆乆乆乆乆</t>
         </is>
       </c>
       <c r="F3" t="n">
@@ -615,12 +611,12 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5021940869</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2021-07-27 19:30:43</t>
+          <t>2021-07-29 20:29:57</t>
         </is>
       </c>
       <c r="I3" t="n">
@@ -628,12 +624,12 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>网页</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>1719757053</t>
+          <t>35421357</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
@@ -643,15 +639,27 @@
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>：D</t>
+          <t>愿薪火相传，美德不灭。</t>
         </is>
       </c>
       <c r="N3" t="n">
-        <v>2</v>
-      </c>
-      <c r="O3" t="inlineStr"/>
-      <c r="P3" t="inlineStr"/>
-      <c r="Q3" t="inlineStr"/>
+        <v>5</v>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>年度大会员</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>原神</t>
+        </is>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>原神</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -661,20 +669,20 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>5003803568</t>
+          <t>5004844996</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>违规昵称处理通知呵呵</t>
+          <t>何不R</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>-1</v>
+        <v>70</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>乌合之众？</t>
+          <t>我宣布我支持ch一切决定，玩家不满全都是玩家的错，再杠你们也是千人律者[doge]</t>
         </is>
       </c>
       <c r="F4" t="n">
@@ -682,12 +690,12 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>5003803568</t>
+          <t>0</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2021-07-27 17:21:16</t>
+          <t>2021-07-27 19:30:43</t>
         </is>
       </c>
       <c r="I4" t="n">
@@ -700,7 +708,7 @@
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>259851623</t>
+          <t>1719757053</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
@@ -710,17 +718,13 @@
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>想冲的私信</t>
+          <t>：D</t>
         </is>
       </c>
       <c r="N4" t="n">
-        <v>5</v>
-      </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>大会员</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="O4" t="inlineStr"/>
       <c r="P4" t="inlineStr"/>
       <c r="Q4" t="inlineStr"/>
     </row>
@@ -732,139 +736,135 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>5003803568</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>违规昵称处理通知呵呵</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>-1</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>乌合之众？</t>
+        </is>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>5003803568</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>2021-07-27 17:21:16</t>
+        </is>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>未知</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>259851623</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>保密</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>想冲的私信</t>
+        </is>
+      </c>
+      <c r="N5" t="n">
+        <v>5</v>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>大会员</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr"/>
+      <c r="Q5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>256667467</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>5000256491</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>mhy养殖鸡场</t>
         </is>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>69</v>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>0.98mhy概率诈骗，实际概率与文案不符合。开天剑 原效果为主动攻击削弱100%防御，后因为骗氪改为80%。凰剑在1.8版本之前效果为火伤增加118%?来着？后因为炎八新角色砍为每击附加118火伤?2.2，2.3连着2个S，炽翎，冰卡 惹到氪金佬 ，停氪弃坑新S滚，然后连续2版本送这2个S角色。空中劈叉，第二次夏日活动文案直接骂玩家是空中劈叉的睿智清洁工。二周年就是个nt周年庆，让玩家各种肝肝肝凹排名拿限定徽章。双塌缩，好像是月轮可以靠闪避打出双塌缩低成本打龙虾，后面修复。黑皮蛋改版，战圣鬼 直接秒黑蛋 不符合预期，直接官方修改黑蛋设定。游骑兵十字架，这个武器可以低成本拿丽塔BOSS高分，后因为低成本 直接不符合预期给你改数据。无限激光，山吹未增幅前大招在激光攻击时候可以直接释放不会终止攻击，即利用大招攻击脆弱敌人回血，再利用量子2主动聚怪，可以低成本打无尽深渊，最开始官方确定了是设定没问题，后面直接翻脸 不符合预期，更改了这个技能。大月卡蛋黄，最开始出凭证没有说过那个蛋黄期限，后面4.2版本突然说那个东西有期限了，导致玩家之前几个版本想屯蛋黄换后续好东西的直接玩完，然后官方并且推出 玩家亏本蛋黄置换蛋紫的方案，公然压榨玩家。佐罗套，这套圣痕在beta服有bug，快乐猎人可以触发 回血更多，降低无尽深渊成本，官方不修复，但是在佐罗套up后几个小时突然说修复，然后补偿了1k水晶来着？连10连都不够。雷刀-鬼角 这装备一直都有个问题 攻击附带40%雷伤来着？忘了 反正给月光用当初很厉害 超越了电磁炮，后面几个版本后不符合预期 补偿点水晶修复...反正多的去了。 只要威胁到官方的利益 从装备到玩家自己开拓的玩法，全部砍。
 我会在每个动态下发一遍，什么叫用户粘性啊（后仰）</t>
         </is>
       </c>
-      <c r="F5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" t="inlineStr">
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>2021-07-27 08:08:18</t>
         </is>
       </c>
-      <c r="I5" t="n">
+      <c r="I6" t="n">
         <v>3</v>
       </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>安卓</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>未知</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
         <is>
           <t>28446194</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="L6" t="inlineStr">
         <is>
           <t>男</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr"/>
-      <c r="N5" t="n">
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="n">
         <v>5</v>
       </c>
-      <c r="O5" t="inlineStr">
+      <c r="O6" t="inlineStr">
         <is>
           <t>年度大会员</t>
         </is>
       </c>
-      <c r="P5" t="inlineStr"/>
-      <c r="Q5" t="inlineStr"/>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>256667467</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>4989391476</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>白毛薛定谔</t>
-        </is>
-      </c>
-      <c r="D6" t="n">
-        <v>-1</v>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>看满离[doge]</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>0</v>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>4989391476</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>2021-07-25 19:46:03</t>
-        </is>
-      </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>安卓</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>349251074</t>
-        </is>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>保密</t>
-        </is>
-      </c>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>究极懒汉，想更就更～(￣▽￣～)(～￣▽￣)～</t>
-        </is>
-      </c>
-      <c r="N6" t="n">
-        <v>4</v>
-      </c>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t>大会员</t>
-        </is>
-      </c>
-      <c r="P6" t="inlineStr">
-        <is>
-          <t>BW2020</t>
-        </is>
-      </c>
+      <c r="P6" t="inlineStr"/>
       <c r="Q6" t="inlineStr"/>
     </row>
     <row r="7">
@@ -875,20 +875,20 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>4985409612</t>
+          <t>4989391476</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>黑羽丶沫白</t>
+          <t>白毛薛定谔</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>人偶怎么还在啊</t>
+          <t>看满离[doge]</t>
         </is>
       </c>
       <c r="F7" t="n">
@@ -896,55 +896,51 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>4985409612</t>
+          <t>4989391476</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>2021-07-25 09:03:40</t>
+          <t>2021-07-25 19:46:03</t>
         </is>
       </c>
       <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>未知</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>349251074</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>保密</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>究极懒汉，想更就更～(￣▽￣～)(～￣▽￣)～</t>
+        </is>
+      </c>
+      <c r="N7" t="n">
         <v>4</v>
       </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>安卓</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>6131259</t>
-        </is>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>保密</t>
-        </is>
-      </c>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>这个人是个憨批</t>
-        </is>
-      </c>
-      <c r="N7" t="n">
-        <v>6</v>
-      </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>年度大会员</t>
+          <t>大会员</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>崩坏3·天穹流星</t>
-        </is>
-      </c>
-      <c r="Q7" t="inlineStr">
-        <is>
-          <t>崩坏3·天穹流星</t>
-        </is>
-      </c>
+          <t>BW2020</t>
+        </is>
+      </c>
+      <c r="Q7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -954,20 +950,20 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>4984853533</t>
+          <t>4985409612</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>残翼之幻影</t>
+          <t>黑羽丶沫白</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>干，回不去了[tv_白眼]</t>
+          <t>人偶怎么还在啊</t>
         </is>
       </c>
       <c r="F8" t="n">
@@ -975,47 +971,55 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>4984853533</t>
+          <t>4985409612</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>2021-07-25 04:21:20</t>
+          <t>2021-07-25 09:03:40</t>
         </is>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>344600257</t>
+          <t>6131259</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>男</t>
+          <t>保密</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>在游戏中寻找另一种可能性</t>
+          <t>这个人是个憨批</t>
         </is>
       </c>
       <c r="N8" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O8" t="inlineStr">
         <is>
           <t>年度大会员</t>
         </is>
       </c>
-      <c r="P8" t="inlineStr"/>
-      <c r="Q8" t="inlineStr"/>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>崩坏3·天穹流星</t>
+        </is>
+      </c>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>崩坏3·天穹流星</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1025,12 +1029,12 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>4980306948</t>
+          <t>4984853533</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>宵宫ず</t>
+          <t>残翼之幻影</t>
         </is>
       </c>
       <c r="D9" t="n">
@@ -1038,7 +1042,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>啊这</t>
+          <t>干，回不去了[tv_白眼]</t>
         </is>
       </c>
       <c r="F9" t="n">
@@ -1046,12 +1050,12 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>4980306948</t>
+          <t>4984853533</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>2021-07-24 15:05:29</t>
+          <t>2021-07-25 04:21:20</t>
         </is>
       </c>
       <c r="I9" t="n">
@@ -1059,22 +1063,22 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>133155882</t>
+          <t>344600257</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>保密</t>
+          <t>男</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>《单推人》</t>
+          <t>在游戏中寻找另一种可能性</t>
         </is>
       </c>
       <c r="N9" t="n">
@@ -1082,19 +1086,11 @@
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>大会员</t>
-        </is>
-      </c>
-      <c r="P9" t="inlineStr">
-        <is>
-          <t>呜米</t>
-        </is>
-      </c>
-      <c r="Q9" t="inlineStr">
-        <is>
-          <t>呜米</t>
-        </is>
-      </c>
+          <t>年度大会员</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr"/>
+      <c r="Q9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1104,37 +1100,37 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>4977912700</t>
+          <t>4980306948</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>大师傅x</t>
+          <t>宵宫ず</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>67</v>
+        <v>-1</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>爬</t>
+          <t>啊这</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4980306948</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>2021-07-24 08:19:10</t>
+          <t>2021-07-24 15:05:29</t>
         </is>
       </c>
       <c r="I10" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J10" t="inlineStr">
         <is>
@@ -1143,15 +1139,19 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>20568348</t>
+          <t>133155882</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>男</t>
-        </is>
-      </c>
-      <c r="M10" t="inlineStr"/>
+          <t>保密</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>《单推人》</t>
+        </is>
+      </c>
       <c r="N10" t="n">
         <v>5</v>
       </c>
@@ -1160,8 +1160,16 @@
           <t>大会员</t>
         </is>
       </c>
-      <c r="P10" t="inlineStr"/>
-      <c r="Q10" t="inlineStr"/>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>呜米</t>
+        </is>
+      </c>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>呜米</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1171,138 +1179,126 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
+          <t>4977912700</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>大师傅x</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>67</v>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>爬</t>
+        </is>
+      </c>
+      <c r="F11" t="n">
+        <v>5</v>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>2021-07-24 08:19:10</t>
+        </is>
+      </c>
+      <c r="I11" t="n">
+        <v>6</v>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>未知</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>20568348</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>男</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr"/>
+      <c r="N11" t="n">
+        <v>5</v>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>大会员</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr"/>
+      <c r="Q11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>256667467</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
           <t>4977855933</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="C12" t="inlineStr">
         <is>
           <t>神里淩华</t>
         </is>
       </c>
-      <c r="D11" t="n">
+      <c r="D12" t="n">
         <v>66</v>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>找个人跟我用图4/5希儿情侣头像[doge]</t>
         </is>
       </c>
-      <c r="F11" t="n">
-        <v>0</v>
-      </c>
-      <c r="G11" t="inlineStr">
+      <c r="F12" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
+      <c r="H12" t="inlineStr">
         <is>
           <t>2021-07-24 08:00:28</t>
         </is>
       </c>
-      <c r="I11" t="n">
+      <c r="I12" t="n">
         <v>2</v>
       </c>
-      <c r="J11" t="inlineStr">
+      <c r="J12" t="inlineStr">
         <is>
           <t>未知</t>
         </is>
       </c>
-      <c r="K11" t="inlineStr">
+      <c r="K12" t="inlineStr">
         <is>
           <t>57747963</t>
         </is>
       </c>
-      <c r="L11" t="inlineStr">
+      <c r="L12" t="inlineStr">
         <is>
           <t>女</t>
         </is>
       </c>
-      <c r="M11" t="inlineStr">
+      <c r="M12" t="inlineStr">
         <is>
           <t>卧槽，我竟然是原批！(´°̥̥̥̥̥̥̥̥ω°̥̥̥̥̥̥̥̥｀)
 原批，原批，嗯？原胚？哪有原胚！</t>
         </is>
       </c>
-      <c r="N11" t="n">
-        <v>5</v>
-      </c>
-      <c r="O11" t="inlineStr">
-        <is>
-          <t>年度大会员</t>
-        </is>
-      </c>
-      <c r="P11" t="inlineStr">
-        <is>
-          <t>神里绫华</t>
-        </is>
-      </c>
-      <c r="Q11" t="inlineStr">
-        <is>
-          <t>hanser</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>256667467</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>4976484153</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>Edmond_Dontes</t>
-        </is>
-      </c>
-      <c r="D12" t="n">
-        <v>63</v>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>是夏天，好耶！！！</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>0</v>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>2021-07-23 23:35:20</t>
-        </is>
-      </c>
-      <c r="I12" t="n">
-        <v>1</v>
-      </c>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>安卓</t>
-        </is>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>5422614</t>
-        </is>
-      </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>男</t>
-        </is>
-      </c>
-      <c r="M12" t="inlineStr">
-        <is>
-          <t>爱是丝线，希望是织布者，愿吾等的纹样中充满祝福。</t>
-        </is>
-      </c>
       <c r="N12" t="n">
         <v>5</v>
       </c>
@@ -1313,12 +1309,12 @@
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>明日方舟</t>
+          <t>神里绫华</t>
         </is>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>原神</t>
+          <t>hanser</t>
         </is>
       </c>
     </row>
@@ -1330,20 +1326,20 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>4976252099</t>
+          <t>4976484153</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>风后沉木</t>
+          <t>Edmond_Dontes</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>-1</v>
+        <v>63</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>艹</t>
+          <t>是夏天，好耶！！！</t>
         </is>
       </c>
       <c r="F13" t="n">
@@ -1351,47 +1347,55 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>4976252099</t>
+          <t>0</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>2021-07-23 23:05:53</t>
+          <t>2021-07-23 23:35:20</t>
         </is>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>293223906</t>
+          <t>5422614</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>保密</t>
+          <t>男</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>一遍又一遍地确认存在</t>
+          <t>爱是丝线，希望是织布者，愿吾等的纹样中充满祝福。</t>
         </is>
       </c>
       <c r="N13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="O13" t="inlineStr">
         <is>
           <t>年度大会员</t>
         </is>
       </c>
-      <c r="P13" t="inlineStr"/>
-      <c r="Q13" t="inlineStr"/>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>明日方舟</t>
+        </is>
+      </c>
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>原神</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1401,12 +1405,12 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>4976010134</t>
+          <t>4976252099</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>资深舰长</t>
+          <t>风后沉木</t>
         </is>
       </c>
       <c r="D14" t="n">
@@ -1414,7 +1418,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>以前的评论区终于回来了[笑哭][笑哭]</t>
+          <t>艹</t>
         </is>
       </c>
       <c r="F14" t="n">
@@ -1422,12 +1426,12 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>4976010134</t>
+          <t>4976252099</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>2021-07-23 22:36:09</t>
+          <t>2021-07-23 23:05:53</t>
         </is>
       </c>
       <c r="I14" t="n">
@@ -1440,7 +1444,7 @@
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>175409874</t>
+          <t>293223906</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
@@ -1448,25 +1452,21 @@
           <t>保密</t>
         </is>
       </c>
-      <c r="M14" t="inlineStr"/>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>一遍又一遍地确认存在</t>
+        </is>
+      </c>
       <c r="N14" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>大会员</t>
-        </is>
-      </c>
-      <c r="P14" t="inlineStr">
-        <is>
-          <t>崩坏3·天穹流星</t>
-        </is>
-      </c>
-      <c r="Q14" t="inlineStr">
-        <is>
-          <t>崩坏3·天穹流星</t>
-        </is>
-      </c>
+          <t>年度大会员</t>
+        </is>
+      </c>
+      <c r="P14" t="inlineStr"/>
+      <c r="Q14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1476,12 +1476,12 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>4975563347</t>
+          <t>4976010134</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>多吃包菜身体好</t>
+          <t>资深舰长</t>
         </is>
       </c>
       <c r="D15" t="n">
@@ -1489,7 +1489,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>回复 @崩坏3 :三蹦子，开心点，至少你超过了米游社的那个牛角包</t>
+          <t>以前的评论区终于回来了[笑哭][笑哭]</t>
         </is>
       </c>
       <c r="F15" t="n">
@@ -1497,12 +1497,12 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>4974131160</t>
+          <t>4976010134</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>2021-07-23 21:41:34</t>
+          <t>2021-07-23 22:36:09</t>
         </is>
       </c>
       <c r="I15" t="n">
@@ -1515,7 +1515,7 @@
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>115250934</t>
+          <t>175409874</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
@@ -1525,7 +1525,7 @@
       </c>
       <c r="M15" t="inlineStr"/>
       <c r="N15" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
@@ -1551,20 +1551,20 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>4975543259</t>
+          <t>4975563347</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>龙虎一生推哟</t>
+          <t>多吃包菜身体好</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>62</v>
+        <v>-1</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>识宝太可爱了 快给老子抱抱</t>
+          <t>回复 @崩坏3 :三蹦子，开心点，至少你超过了米游社的那个牛角包</t>
         </is>
       </c>
       <c r="F16" t="n">
@@ -1572,12 +1572,12 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4974131160</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>2021-07-23 21:39:01</t>
+          <t>2021-07-23 21:41:34</t>
         </is>
       </c>
       <c r="I16" t="n">
@@ -1590,35 +1590,31 @@
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>11086956</t>
+          <t>115250934</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>男</t>
-        </is>
-      </c>
-      <c r="M16" t="inlineStr">
-        <is>
-          <t>大河与龙儿，还有亚美、实乃梨、北村，一定要幸福啊！</t>
-        </is>
-      </c>
+          <t>保密</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr"/>
       <c r="N16" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>年度大会员</t>
+          <t>大会员</t>
         </is>
       </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>拳皇</t>
+          <t>崩坏3·天穹流星</t>
         </is>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>碧蓝航线2020</t>
+          <t>崩坏3·天穹流星</t>
         </is>
       </c>
     </row>
@@ -1630,20 +1626,20 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>4975465141</t>
+          <t>4975543259</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>新世紀鹹魚戰士</t>
+          <t>龙虎一生推哟</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>-1</v>
+        <v>62</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>回复 @崩坏3 :今超原？[doge]</t>
+          <t>识宝太可爱了 快给老子抱抱</t>
         </is>
       </c>
       <c r="F17" t="n">
@@ -1651,12 +1647,12 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>4974131160</t>
+          <t>0</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>2021-07-23 21:28:00</t>
+          <t>2021-07-23 21:39:01</t>
         </is>
       </c>
       <c r="I17" t="n">
@@ -1664,12 +1660,12 @@
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>苹果</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>361795316</t>
+          <t>11086956</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
@@ -1677,17 +1673,29 @@
           <t>男</t>
         </is>
       </c>
-      <c r="M17" t="inlineStr"/>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>大河与龙儿，还有亚美、实乃梨、北村，一定要幸福啊！</t>
+        </is>
+      </c>
       <c r="N17" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>大会员</t>
-        </is>
-      </c>
-      <c r="P17" t="inlineStr"/>
-      <c r="Q17" t="inlineStr"/>
+          <t>年度大会员</t>
+        </is>
+      </c>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>拳皇</t>
+        </is>
+      </c>
+      <c r="Q17" t="inlineStr">
+        <is>
+          <t>碧蓝航线2020</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1697,12 +1705,12 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>4975306917</t>
+          <t>4975465141</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>无名的小宅</t>
+          <t>新世紀鹹魚戰士</t>
         </is>
       </c>
       <c r="D18" t="n">
@@ -1710,7 +1718,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>回复 @崩坏3 :今超鹿？[doge]</t>
+          <t>回复 @崩坏3 :今超原？[doge]</t>
         </is>
       </c>
       <c r="F18" t="n">
@@ -1723,7 +1731,7 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>2021-07-23 21:06:48</t>
+          <t>2021-07-23 21:28:00</t>
         </is>
       </c>
       <c r="I18" t="n">
@@ -1736,33 +1744,25 @@
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>440120576</t>
+          <t>361795316</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>保密</t>
+          <t>男</t>
         </is>
       </c>
       <c r="M18" t="inlineStr"/>
       <c r="N18" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="O18" t="inlineStr">
         <is>
           <t>大会员</t>
         </is>
       </c>
-      <c r="P18" t="inlineStr">
-        <is>
-          <t>良辰美景·不问天</t>
-        </is>
-      </c>
-      <c r="Q18" t="inlineStr">
-        <is>
-          <t>崩坏3·天穹流星</t>
-        </is>
-      </c>
+      <c r="P18" t="inlineStr"/>
+      <c r="Q18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1772,130 +1772,142 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
+          <t>4975306917</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>无名的小宅</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>回复 @崩坏3 :今超鹿？[doge]</t>
+        </is>
+      </c>
+      <c r="F19" t="n">
+        <v>0</v>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>4974131160</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>2021-07-23 21:06:48</t>
+        </is>
+      </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>未知</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>440120576</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>保密</t>
+        </is>
+      </c>
+      <c r="M19" t="inlineStr"/>
+      <c r="N19" t="n">
+        <v>4</v>
+      </c>
+      <c r="O19" t="inlineStr">
+        <is>
+          <t>大会员</t>
+        </is>
+      </c>
+      <c r="P19" t="inlineStr">
+        <is>
+          <t>良辰美景·不问天</t>
+        </is>
+      </c>
+      <c r="Q19" t="inlineStr">
+        <is>
+          <t>崩坏3·天穹流星</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>256667467</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
           <t>4975297596</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="C20" t="inlineStr">
         <is>
           <t>改掉这破ID</t>
         </is>
       </c>
-      <c r="D19" t="n">
+      <c r="D20" t="n">
         <v>61</v>
       </c>
-      <c r="E19" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t>我什么时候能看到呆鹅，主线活动都没存在感[大哭]</t>
         </is>
       </c>
-      <c r="F19" t="n">
-        <v>0</v>
-      </c>
-      <c r="G19" t="inlineStr">
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
+      <c r="H20" t="inlineStr">
         <is>
           <t>2021-07-23 21:06:01</t>
         </is>
       </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="inlineStr">
-        <is>
-          <t>安卓</t>
-        </is>
-      </c>
-      <c r="K19" t="inlineStr">
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>未知</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
         <is>
           <t>27631207</t>
         </is>
       </c>
-      <c r="L19" t="inlineStr">
+      <c r="L20" t="inlineStr">
         <is>
           <t>保密</t>
         </is>
       </c>
-      <c r="M19" t="inlineStr">
+      <c r="M20" t="inlineStr">
         <is>
           <t xml:space="preserve">
     </t>
         </is>
       </c>
-      <c r="N19" t="n">
+      <c r="N20" t="n">
         <v>5</v>
       </c>
-      <c r="O19" t="inlineStr">
+      <c r="O20" t="inlineStr">
         <is>
           <t>大会员</t>
         </is>
       </c>
-      <c r="P19" t="inlineStr"/>
-      <c r="Q19" t="inlineStr"/>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>256667467</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>4975236290</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>泳君</t>
-        </is>
-      </c>
-      <c r="D20" t="n">
-        <v>60</v>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>@崩坏3第一偶像爱酱 @崩坏3 @崩坏3 @崩坏3 崩坏3高级区，打深渊卡住啦，这不快点搞一下那个怪，有血量，但是看不到怪，被读死了，我重进了三四次都不行，嗯？重新开始打到最后，就是有一个怪卡在那里</t>
-        </is>
-      </c>
-      <c r="F20" t="n">
-        <v>0</v>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>2021-07-23 20:57:48</t>
-        </is>
-      </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" t="inlineStr">
-        <is>
-          <t>安卓</t>
-        </is>
-      </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>2110035331</t>
-        </is>
-      </c>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>保密</t>
-        </is>
-      </c>
-      <c r="M20" t="inlineStr"/>
-      <c r="N20" t="n">
-        <v>2</v>
-      </c>
-      <c r="O20" t="inlineStr"/>
       <c r="P20" t="inlineStr"/>
       <c r="Q20" t="inlineStr"/>
     </row>
@@ -1907,20 +1919,20 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>4975157612</t>
+          <t>4975236290</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>冰棘23</t>
+          <t>泳君</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>-1</v>
+        <v>60</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>看满离[doge]</t>
+          <t>@崩坏3第一偶像爱酱 @崩坏3 @崩坏3 @崩坏3 崩坏3高级区，打深渊卡住啦，这不快点搞一下那个怪，有血量，但是看不到怪，被读死了，我重进了三四次都不行，嗯？重新开始打到最后，就是有一个怪卡在那里</t>
         </is>
       </c>
       <c r="F21" t="n">
@@ -1928,12 +1940,12 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>4975157612</t>
+          <t>0</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>2021-07-23 20:47:29</t>
+          <t>2021-07-23 20:57:48</t>
         </is>
       </c>
       <c r="I21" t="n">
@@ -1946,7 +1958,7 @@
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>2035760191</t>
+          <t>2110035331</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
@@ -1970,76 +1982,60 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>4975027242</t>
+          <t>4975157612</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>爱丽丝日常白给</t>
+          <t>冰棘23</t>
         </is>
       </c>
       <c r="D22" t="n">
+        <v>-1</v>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>看满离[doge]</t>
+        </is>
+      </c>
+      <c r="F22" t="n">
+        <v>0</v>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>4975157612</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>2021-07-23 20:47:29</t>
+        </is>
+      </c>
+      <c r="I22" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>安卓</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>2035760191</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>保密</t>
+        </is>
+      </c>
+      <c r="M22" t="inlineStr"/>
+      <c r="N22" t="n">
         <v>2</v>
       </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>回复 @七重樱嘤嘤嘤 :7.9号的那个动态咯，到现在都没个信</t>
-        </is>
-      </c>
-      <c r="F22" t="n">
-        <v>0</v>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>4974958215</t>
-        </is>
-      </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>2021-07-23 20:29:07</t>
-        </is>
-      </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" t="inlineStr">
-        <is>
-          <t>安卓</t>
-        </is>
-      </c>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>1795287</t>
-        </is>
-      </c>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>女</t>
-        </is>
-      </c>
-      <c r="M22" t="inlineStr">
-        <is>
-          <t>生活让人们失望，游戏反而鼓励人们找到希望；生活没有教会人们的道理游戏反而教会了，真是讽刺</t>
-        </is>
-      </c>
-      <c r="N22" t="n">
-        <v>6</v>
-      </c>
-      <c r="O22" t="inlineStr">
-        <is>
-          <t>年度大会员</t>
-        </is>
-      </c>
-      <c r="P22" t="inlineStr">
-        <is>
-          <t>少女前线</t>
-        </is>
-      </c>
-      <c r="Q22" t="inlineStr">
-        <is>
-          <t>三周年恋曲</t>
-        </is>
-      </c>
+      <c r="O22" t="inlineStr"/>
+      <c r="P22" t="inlineStr"/>
+      <c r="Q22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -2049,20 +2045,20 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>4975020698</t>
+          <t>4975027242</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>い粉笺难赋</t>
+          <t>爱丽丝日常白给</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>59</v>
+        <v>2</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>识宝真可爱啊</t>
+          <t>回复 @七重樱嘤嘤嘤 :7.9号的那个动态咯，到现在都没个信</t>
         </is>
       </c>
       <c r="F23" t="n">
@@ -2070,12 +2066,12 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4974958215</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>2021-07-23 20:28:05</t>
+          <t>2021-07-23 20:29:07</t>
         </is>
       </c>
       <c r="I23" t="n">
@@ -2083,26 +2079,26 @@
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>网页</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>276970091</t>
+          <t>1795287</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>男</t>
+          <t>女</t>
         </is>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>别这样，再这样，我拳头都硬了</t>
+          <t>生活让人们失望，游戏反而鼓励人们找到希望；生活没有教会人们的道理游戏反而教会了，真是讽刺</t>
         </is>
       </c>
       <c r="N23" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O23" t="inlineStr">
         <is>
@@ -2111,12 +2107,12 @@
       </c>
       <c r="P23" t="inlineStr">
         <is>
-          <t>hanser</t>
+          <t>少女前线</t>
         </is>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>鹿乃</t>
+          <t>三周年恋曲</t>
         </is>
       </c>
     </row>
@@ -2128,20 +2124,20 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>4974976400</t>
+          <t>4975020698</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>陌梓希</t>
+          <t>い粉笺难赋</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>识宝麻麻爱你[给心心]等等，我上仙呢[惊讶]阿符不在，等下孩子闹起来可没人能唬得住[藏狐]</t>
+          <t>识宝真可爱啊</t>
         </is>
       </c>
       <c r="F24" t="n">
@@ -2154,7 +2150,7 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>2021-07-23 20:21:45</t>
+          <t>2021-07-23 20:28:05</t>
         </is>
       </c>
       <c r="I24" t="n">
@@ -2162,22 +2158,22 @@
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>网页</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>290845597</t>
+          <t>276970091</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>保密</t>
+          <t>男</t>
         </is>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ( ゜- ゜)つロ 干杯</t>
+          <t>别这样，再这样，我拳头都硬了</t>
         </is>
       </c>
       <c r="N24" t="n">
@@ -2188,8 +2184,16 @@
           <t>年度大会员</t>
         </is>
       </c>
-      <c r="P24" t="inlineStr"/>
-      <c r="Q24" t="inlineStr"/>
+      <c r="P24" t="inlineStr">
+        <is>
+          <t>hanser</t>
+        </is>
+      </c>
+      <c r="Q24" t="inlineStr">
+        <is>
+          <t>鹿乃</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -2199,20 +2203,20 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>4974958215</t>
+          <t>4974976400</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>七重樱嘤嘤嘤</t>
+          <t>陌梓希</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>1</v>
+        <v>58</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>咋？你中奖了？</t>
+          <t>识宝麻麻爱你[给心心]等等，我上仙呢[惊讶]阿符不在，等下孩子闹起来可没人能唬得住[藏狐]</t>
         </is>
       </c>
       <c r="F25" t="n">
@@ -2220,12 +2224,12 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>4974958215</t>
+          <t>0</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>2021-07-23 20:20:20</t>
+          <t>2021-07-23 20:21:45</t>
         </is>
       </c>
       <c r="I25" t="n">
@@ -2238,37 +2242,29 @@
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>12006065</t>
+          <t>290845597</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>男</t>
+          <t>保密</t>
         </is>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>一次是偶然，两次是巧合，三次就是恶性事件了。</t>
+          <t xml:space="preserve"> ( ゜- ゜)つロ 干杯</t>
         </is>
       </c>
       <c r="N25" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="O25" t="inlineStr">
         <is>
           <t>年度大会员</t>
         </is>
       </c>
-      <c r="P25" t="inlineStr">
-        <is>
-          <t>崩坏3·天穹流星</t>
-        </is>
-      </c>
-      <c r="Q25" t="inlineStr">
-        <is>
-          <t>崩坏3·天穹流星</t>
-        </is>
-      </c>
+      <c r="P25" t="inlineStr"/>
+      <c r="Q25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -2278,20 +2274,20 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>4974941228</t>
+          <t>4974958215</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>b站太棒捏</t>
+          <t>七重樱嘤嘤嘤</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>57</v>
+        <v>1</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>为毛没兔女郎</t>
+          <t>咋？你中奖了？</t>
         </is>
       </c>
       <c r="F26" t="n">
@@ -2299,47 +2295,55 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4974958215</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>2021-07-23 20:17:09</t>
+          <t>2021-07-23 20:20:20</t>
         </is>
       </c>
       <c r="I26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>苹果</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>99364443</t>
+          <t>12006065</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>保密</t>
+          <t>男</t>
         </is>
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>淦</t>
+          <t>一次是偶然，两次是巧合，三次就是恶性事件了。</t>
         </is>
       </c>
       <c r="N26" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>大会员</t>
-        </is>
-      </c>
-      <c r="P26" t="inlineStr"/>
-      <c r="Q26" t="inlineStr"/>
+          <t>年度大会员</t>
+        </is>
+      </c>
+      <c r="P26" t="inlineStr">
+        <is>
+          <t>崩坏3·天穹流星</t>
+        </is>
+      </c>
+      <c r="Q26" t="inlineStr">
+        <is>
+          <t>崩坏3·天穹流星</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -2349,20 +2353,20 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>4974857837</t>
+          <t>4974941228</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>泥土中的樱花</t>
+          <t>b站太棒捏</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>-1</v>
+        <v>57</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>不忍直视[灵魂出窍]</t>
+          <t>为毛没兔女郎</t>
         </is>
       </c>
       <c r="F27" t="n">
@@ -2370,12 +2374,12 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>4974857837</t>
+          <t>0</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>2021-07-23 20:06:28</t>
+          <t>2021-07-23 20:17:09</t>
         </is>
       </c>
       <c r="I27" t="n">
@@ -2383,12 +2387,12 @@
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>14263038</t>
+          <t>99364443</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
@@ -2398,27 +2402,19 @@
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>烟波浩淼的东湖</t>
+          <t>淦</t>
         </is>
       </c>
       <c r="N27" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="O27" t="inlineStr">
         <is>
           <t>大会员</t>
         </is>
       </c>
-      <c r="P27" t="inlineStr">
-        <is>
-          <t>雪未来</t>
-        </is>
-      </c>
-      <c r="Q27" t="inlineStr">
-        <is>
-          <t>2021拜年纪</t>
-        </is>
-      </c>
+      <c r="P27" t="inlineStr"/>
+      <c r="Q27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -2428,12 +2424,12 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>4974837959</t>
+          <t>4974857837</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>古明地覺得不行</t>
+          <t>泥土中的樱花</t>
         </is>
       </c>
       <c r="D28" t="n">
@@ -2441,7 +2437,7 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>看满离[doge]</t>
+          <t>不忍直视[灵魂出窍]</t>
         </is>
       </c>
       <c r="F28" t="n">
@@ -2449,47 +2445,55 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>4974837959</t>
+          <t>4974857837</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>2021-07-23 20:03:17</t>
+          <t>2021-07-23 20:06:28</t>
         </is>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>74341467</t>
+          <t>14263038</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>男</t>
+          <t>保密</t>
         </is>
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>所以饿神到底是个啥 ＾▽＾</t>
+          <t>烟波浩淼的东湖</t>
         </is>
       </c>
       <c r="N28" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O28" t="inlineStr">
         <is>
           <t>大会员</t>
         </is>
       </c>
-      <c r="P28" t="inlineStr"/>
-      <c r="Q28" t="inlineStr"/>
+      <c r="P28" t="inlineStr">
+        <is>
+          <t>雪未来</t>
+        </is>
+      </c>
+      <c r="Q28" t="inlineStr">
+        <is>
+          <t>2021拜年纪</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -2499,12 +2503,12 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>4974811071</t>
+          <t>4974837959</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>远方的彩虹海</t>
+          <t>古明地覺得不行</t>
         </is>
       </c>
       <c r="D29" t="n">
@@ -2512,7 +2516,7 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>蛮恶臭的，别玩了，这就像女生对其他女生荡妇羞辱一样，都是射到草人上的箭，现在咱怎么欢快玩梗，将来拳师就怎么打咱们。</t>
+          <t>看满离[doge]</t>
         </is>
       </c>
       <c r="F29" t="n">
@@ -2520,12 +2524,12 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>4974811071</t>
+          <t>4974837959</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>2021-07-23 19:59:32</t>
+          <t>2021-07-23 20:03:17</t>
         </is>
       </c>
       <c r="I29" t="n">
@@ -2533,12 +2537,12 @@
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>苹果</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>255954947</t>
+          <t>74341467</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
@@ -2548,7 +2552,7 @@
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>惊涛入海觅螭虎，风雪归山斩妖邪。</t>
+          <t>所以饿神到底是个啥 ＾▽＾</t>
         </is>
       </c>
       <c r="N29" t="n">
@@ -2570,20 +2574,20 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>4974735780</t>
+          <t>4974811071</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>养鸽能手小黄</t>
+          <t>远方的彩虹海</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>56</v>
+        <v>-1</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>识 宝 可 爱 妈妈爱[给心心]</t>
+          <t>蛮恶臭的，别玩了，这就像女生对其他女生荡妇羞辱一样，都是射到草人上的箭，现在咱怎么欢快玩梗，将来拳师就怎么打咱们。</t>
         </is>
       </c>
       <c r="F30" t="n">
@@ -2591,25 +2595,25 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4974811071</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>2021-07-23 19:49:31</t>
+          <t>2021-07-23 19:59:32</t>
         </is>
       </c>
       <c r="I30" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>苹果</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>44597512</t>
+          <t>255954947</t>
         </is>
       </c>
       <c r="L30" t="inlineStr">
@@ -2619,11 +2623,11 @@
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>这个人一点也不懒，但他就是没写︿(￣︶￣)︿</t>
+          <t>惊涛入海觅螭虎，风雪归山斩妖邪。</t>
         </is>
       </c>
       <c r="N30" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="O30" t="inlineStr">
         <is>
@@ -2641,20 +2645,20 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>4974657720</t>
+          <t>4974735780</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>白色立方糖</t>
+          <t>养鸽能手小黄</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>罗莎莉娅那个表情包好嗨呀[笑哭]</t>
+          <t>识 宝 可 爱 妈妈爱[给心心]</t>
         </is>
       </c>
       <c r="F31" t="n">
@@ -2667,20 +2671,20 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>2021-07-23 19:39:09</t>
+          <t>2021-07-23 19:49:31</t>
         </is>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>442275517</t>
+          <t>44597512</t>
         </is>
       </c>
       <c r="L31" t="inlineStr">
@@ -2690,13 +2694,17 @@
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>做一个真实的自己，开心就好。</t>
+          <t>这个人一点也不懒，但他就是没写︿(￣︶￣)︿</t>
         </is>
       </c>
       <c r="N31" t="n">
-        <v>4</v>
-      </c>
-      <c r="O31" t="inlineStr"/>
+        <v>6</v>
+      </c>
+      <c r="O31" t="inlineStr">
+        <is>
+          <t>大会员</t>
+        </is>
+      </c>
       <c r="P31" t="inlineStr"/>
       <c r="Q31" t="inlineStr"/>
     </row>
@@ -2708,20 +2716,20 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>4974655342</t>
+          <t>4974657720</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>椎名真曰</t>
+          <t>白色立方糖</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>我~~们~~是~~地~~球~~人~~</t>
+          <t>罗莎莉娅那个表情包好嗨呀[笑哭]</t>
         </is>
       </c>
       <c r="F32" t="n">
@@ -2734,40 +2742,36 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>2021-07-23 19:38:17</t>
+          <t>2021-07-23 19:39:09</t>
         </is>
       </c>
       <c r="I32" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>网页</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>507199496</t>
+          <t>442275517</t>
         </is>
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>保密</t>
+          <t>男</t>
         </is>
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>岁月静好</t>
+          <t>做一个真实的自己，开心就好。</t>
         </is>
       </c>
       <c r="N32" t="n">
         <v>4</v>
       </c>
-      <c r="O32" t="inlineStr">
-        <is>
-          <t>大会员</t>
-        </is>
-      </c>
+      <c r="O32" t="inlineStr"/>
       <c r="P32" t="inlineStr"/>
       <c r="Q32" t="inlineStr"/>
     </row>
@@ -2779,20 +2783,20 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>4974556569</t>
+          <t>4974655342</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>梦游月</t>
+          <t>椎名真曰</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>-1</v>
+        <v>54</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>我那个很大，你忍一下[崩坏3_糖葫芦]</t>
+          <t>我~~们~~是~~地~~球~~人~~</t>
         </is>
       </c>
       <c r="F33" t="n">
@@ -2800,51 +2804,47 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>4974556569</t>
+          <t>0</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>2021-07-23 19:25:52</t>
+          <t>2021-07-23 19:38:17</t>
         </is>
       </c>
       <c r="I33" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>92912408</t>
+          <t>507199496</t>
         </is>
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>男</t>
+          <t>保密</t>
         </is>
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>赤鸢仙人，我没有说谎</t>
+          <t>岁月静好</t>
         </is>
       </c>
       <c r="N33" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>年度大会员</t>
+          <t>大会员</t>
         </is>
       </c>
       <c r="P33" t="inlineStr"/>
-      <c r="Q33" t="inlineStr">
-        <is>
-          <t>原神</t>
-        </is>
-      </c>
+      <c r="Q33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -2854,20 +2854,20 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>4974537365</t>
+          <t>4974556569</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>胖子还有小男孩</t>
+          <t>梦游月</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>53</v>
+        <v>-1</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>[原神_哇][原神_哼][原神_嗯][原神_欸嘿][原神_喝茶][原神_生气]</t>
+          <t>我那个很大，你忍一下[崩坏3_糖葫芦]</t>
         </is>
       </c>
       <c r="F34" t="n">
@@ -2875,16 +2875,16 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4974556569</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>2021-07-23 19:23:22</t>
+          <t>2021-07-23 19:25:52</t>
         </is>
       </c>
       <c r="I34" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J34" t="inlineStr">
         <is>
@@ -2893,7 +2893,7 @@
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>171877728</t>
+          <t>92912408</t>
         </is>
       </c>
       <c r="L34" t="inlineStr">
@@ -2901,17 +2901,25 @@
           <t>男</t>
         </is>
       </c>
-      <c r="M34" t="inlineStr"/>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>赤鸢仙人，我没有说谎</t>
+        </is>
+      </c>
       <c r="N34" t="n">
         <v>5</v>
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>大会员</t>
+          <t>年度大会员</t>
         </is>
       </c>
       <c r="P34" t="inlineStr"/>
-      <c r="Q34" t="inlineStr"/>
+      <c r="Q34" t="inlineStr">
+        <is>
+          <t>原神</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -2921,20 +2929,20 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>4974446826</t>
+          <t>4974537365</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>绫濑艾莉娅-Official</t>
+          <t>胖子还有小男孩</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>-1</v>
+        <v>53</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>就你离谱</t>
+          <t>[原神_哇][原神_哼][原神_嗯][原神_欸嘿][原神_喝茶][原神_生气]</t>
         </is>
       </c>
       <c r="F35" t="n">
@@ -2942,12 +2950,12 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>4974446826</t>
+          <t>0</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>2021-07-23 19:11:15</t>
+          <t>2021-07-23 19:23:22</t>
         </is>
       </c>
       <c r="I35" t="n">
@@ -2955,42 +2963,30 @@
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>270737513</t>
+          <t>171877728</t>
         </is>
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>保密</t>
-        </is>
-      </c>
-      <c r="M35" t="inlineStr">
-        <is>
-          <t>这里是Aria，是一位DD，目前在上高中，请多多关照。</t>
-        </is>
-      </c>
+          <t>男</t>
+        </is>
+      </c>
+      <c r="M35" t="inlineStr"/>
       <c r="N35" t="n">
         <v>5</v>
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>年度大会员</t>
-        </is>
-      </c>
-      <c r="P35" t="inlineStr">
-        <is>
-          <t>还有醒着的么</t>
-        </is>
-      </c>
-      <c r="Q35" t="inlineStr">
-        <is>
-          <t>希萝Hiiro</t>
-        </is>
-      </c>
+          <t>大会员</t>
+        </is>
+      </c>
+      <c r="P35" t="inlineStr"/>
+      <c r="Q35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -3000,60 +2996,60 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>4974378784</t>
+          <t>4974446826</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>爱丽丝日常白给</t>
+          <t>绫濑艾莉娅-Official</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>52</v>
+        <v>-1</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>在?转发中奖的事给我个回信?</t>
+          <t>就你离谱</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4974446826</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>2021-07-23 19:02:20</t>
+          <t>2021-07-23 19:11:15</t>
         </is>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>1795287</t>
+          <t>270737513</t>
         </is>
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>女</t>
+          <t>保密</t>
         </is>
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>生活让人们失望，游戏反而鼓励人们找到希望；生活没有教会人们的道理游戏反而教会了，真是讽刺</t>
+          <t>这里是Aria，是一位DD，目前在上高中，请多多关照。</t>
         </is>
       </c>
       <c r="N36" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="O36" t="inlineStr">
         <is>
@@ -3062,12 +3058,12 @@
       </c>
       <c r="P36" t="inlineStr">
         <is>
-          <t>少女前线</t>
+          <t>还有醒着的么</t>
         </is>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
-          <t>三周年恋曲</t>
+          <t>希萝Hiiro</t>
         </is>
       </c>
     </row>
@@ -3079,33 +3075,33 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>4974364070</t>
+          <t>4974378784</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>起风瓜瓜格</t>
+          <t>爱丽丝日常白给</t>
         </is>
       </c>
       <c r="D37" t="n">
+        <v>52</v>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>在?转发中奖的事给我个回信?</t>
+        </is>
+      </c>
+      <c r="F37" t="n">
         <v>2</v>
       </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>俺也一样[崩坏3_口水]</t>
-        </is>
-      </c>
-      <c r="F37" t="n">
-        <v>0</v>
-      </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>4974364070</t>
+          <t>0</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>2021-07-23 19:00:41</t>
+          <t>2021-07-23 19:02:20</t>
         </is>
       </c>
       <c r="I37" t="n">
@@ -3118,29 +3114,37 @@
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>286329857</t>
+          <t>1795287</t>
         </is>
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>保密</t>
-        </is>
-      </c>
-      <c r="M37" t="inlineStr"/>
+          <t>女</t>
+        </is>
+      </c>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>生活让人们失望，游戏反而鼓励人们找到希望；生活没有教会人们的道理游戏反而教会了，真是讽刺</t>
+        </is>
+      </c>
       <c r="N37" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>大会员</t>
+          <t>年度大会员</t>
         </is>
       </c>
       <c r="P37" t="inlineStr">
         <is>
-          <t>小闪电</t>
-        </is>
-      </c>
-      <c r="Q37" t="inlineStr"/>
+          <t>少女前线</t>
+        </is>
+      </c>
+      <c r="Q37" t="inlineStr">
+        <is>
+          <t>三周年恋曲</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -3150,20 +3154,20 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>4974353773</t>
+          <t>4974364070</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>这个名字我竟无言以对</t>
+          <t>起风瓜瓜格</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>51</v>
+        <v>2</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>[崩坏3_口水]</t>
+          <t>俺也一样[崩坏3_口水]</t>
         </is>
       </c>
       <c r="F38" t="n">
@@ -3171,12 +3175,12 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4974364070</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>2021-07-23 18:59:38</t>
+          <t>2021-07-23 19:00:41</t>
         </is>
       </c>
       <c r="I38" t="n">
@@ -3189,7 +3193,7 @@
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>73457516</t>
+          <t>286329857</t>
         </is>
       </c>
       <c r="L38" t="inlineStr">
@@ -3197,29 +3201,21 @@
           <t>保密</t>
         </is>
       </c>
-      <c r="M38" t="inlineStr">
-        <is>
-          <t>身为正骨老中医，不要问我为什么这么强。我会告诉你，久病成良医啊！</t>
-        </is>
-      </c>
+      <c r="M38" t="inlineStr"/>
       <c r="N38" t="n">
         <v>5</v>
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>年度大会员</t>
+          <t>大会员</t>
         </is>
       </c>
       <c r="P38" t="inlineStr">
         <is>
-          <t>洛天依9th生日纪念</t>
-        </is>
-      </c>
-      <c r="Q38" t="inlineStr">
-        <is>
-          <t>洛天依9th生日纪念</t>
-        </is>
-      </c>
+          <t>小闪电</t>
+        </is>
+      </c>
+      <c r="Q38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -3229,20 +3225,20 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>4974360909</t>
+          <t>4974353773</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>晓歌冬渔</t>
+          <t>这个名字我竟无言以对</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>-1</v>
+        <v>51</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>韩国舰长[辣眼睛]</t>
+          <t>[崩坏3_口水]</t>
         </is>
       </c>
       <c r="F39" t="n">
@@ -3250,16 +3246,16 @@
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>4974360909</t>
+          <t>0</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>2021-07-23 18:59:31</t>
+          <t>2021-07-23 18:59:38</t>
         </is>
       </c>
       <c r="I39" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="J39" t="inlineStr">
         <is>
@@ -3268,7 +3264,7 @@
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>36117689</t>
+          <t>73457516</t>
         </is>
       </c>
       <c r="L39" t="inlineStr">
@@ -3278,19 +3274,27 @@
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>（つ*'ω'*c）</t>
+          <t>身为正骨老中医，不要问我为什么这么强。我会告诉你，久病成良医啊！</t>
         </is>
       </c>
       <c r="N39" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>大会员</t>
-        </is>
-      </c>
-      <c r="P39" t="inlineStr"/>
-      <c r="Q39" t="inlineStr"/>
+          <t>年度大会员</t>
+        </is>
+      </c>
+      <c r="P39" t="inlineStr">
+        <is>
+          <t>洛天依9th生日纪念</t>
+        </is>
+      </c>
+      <c r="Q39" t="inlineStr">
+        <is>
+          <t>洛天依9th生日纪念</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -3300,12 +3304,12 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>4974347908</t>
+          <t>4974360909</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>千凋家的凋凋子派蒙</t>
+          <t>晓歌冬渔</t>
         </is>
       </c>
       <c r="D40" t="n">
@@ -3313,7 +3317,7 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>回复 @42584845195_bili :大草[原神_喝茶]</t>
+          <t>韩国舰长[辣眼睛]</t>
         </is>
       </c>
       <c r="F40" t="n">
@@ -3321,25 +3325,25 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>4974142271</t>
+          <t>4974360909</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>2021-07-23 18:58:25</t>
+          <t>2021-07-23 18:59:31</t>
         </is>
       </c>
       <c r="I40" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>319187707</t>
+          <t>36117689</t>
         </is>
       </c>
       <c r="L40" t="inlineStr">
@@ -3347,7 +3351,11 @@
           <t>保密</t>
         </is>
       </c>
-      <c r="M40" t="inlineStr"/>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>（つ*'ω'*c）</t>
+        </is>
+      </c>
       <c r="N40" t="n">
         <v>4</v>
       </c>
@@ -3367,12 +3375,12 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>4974334796</t>
+          <t>4974347908</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>夜お金</t>
+          <t>千凋家的凋凋子派蒙</t>
         </is>
       </c>
       <c r="D41" t="n">
@@ -3380,7 +3388,7 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>看满离[doge]</t>
+          <t>回复 @42584845195_bili :大草[原神_喝茶]</t>
         </is>
       </c>
       <c r="F41" t="n">
@@ -3388,16 +3396,16 @@
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>4974334796</t>
+          <t>4974142271</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>2021-07-23 18:57:17</t>
+          <t>2021-07-23 18:58:25</t>
         </is>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J41" t="inlineStr">
         <is>
@@ -3406,7 +3414,7 @@
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>324060656</t>
+          <t>319187707</t>
         </is>
       </c>
       <c r="L41" t="inlineStr">
@@ -3414,29 +3422,17 @@
           <t>保密</t>
         </is>
       </c>
-      <c r="M41" t="inlineStr">
-        <is>
-          <t>平平淡淡才是真</t>
-        </is>
-      </c>
+      <c r="M41" t="inlineStr"/>
       <c r="N41" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="O41" t="inlineStr">
         <is>
           <t>大会员</t>
         </is>
       </c>
-      <c r="P41" t="inlineStr">
-        <is>
-          <t>崩坏3·天穹流星</t>
-        </is>
-      </c>
-      <c r="Q41" t="inlineStr">
-        <is>
-          <t>崩坏3·天穹流星</t>
-        </is>
-      </c>
+      <c r="P41" t="inlineStr"/>
+      <c r="Q41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -3446,20 +3442,20 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>4974336354</t>
+          <t>4974334796</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>冬月伊织</t>
+          <t>夜お金</t>
         </is>
       </c>
       <c r="D42" t="n">
-        <v>50</v>
+        <v>-1</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>识宝对风扇发声也太憨了[大笑]</t>
+          <t>看满离[doge]</t>
         </is>
       </c>
       <c r="F42" t="n">
@@ -3467,12 +3463,12 @@
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4974334796</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>2021-07-23 18:56:21</t>
+          <t>2021-07-23 18:57:17</t>
         </is>
       </c>
       <c r="I42" t="n">
@@ -3485,7 +3481,7 @@
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>9365560</t>
+          <t>324060656</t>
         </is>
       </c>
       <c r="L42" t="inlineStr">
@@ -3495,7 +3491,7 @@
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>今天依旧是没有中奖的一天呢~</t>
+          <t>平平淡淡才是真</t>
         </is>
       </c>
       <c r="N42" t="n">
@@ -3503,12 +3499,12 @@
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>年度大会员</t>
+          <t>大会员</t>
         </is>
       </c>
       <c r="P42" t="inlineStr">
         <is>
-          <t>萌宠小兔挂件</t>
+          <t>崩坏3·天穹流星</t>
         </is>
       </c>
       <c r="Q42" t="inlineStr">
@@ -3525,20 +3521,20 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>4974319504</t>
+          <t>4974336354</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Emotional_梓皓</t>
+          <t>冬月伊织</t>
         </is>
       </c>
       <c r="D43" t="n">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>上大号？</t>
+          <t>识宝对风扇发声也太憨了[大笑]</t>
         </is>
       </c>
       <c r="F43" t="n">
@@ -3546,12 +3542,12 @@
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>4974319504</t>
+          <t>0</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>2021-07-23 18:55:33</t>
+          <t>2021-07-23 18:56:21</t>
         </is>
       </c>
       <c r="I43" t="n">
@@ -3564,17 +3560,17 @@
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>396422021</t>
+          <t>9365560</t>
         </is>
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>男</t>
+          <t>保密</t>
         </is>
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>一直在抽奖，一直没中QAQ</t>
+          <t>今天依旧是没有中奖的一天呢~</t>
         </is>
       </c>
       <c r="N43" t="n">
@@ -3582,11 +3578,19 @@
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>大会员</t>
-        </is>
-      </c>
-      <c r="P43" t="inlineStr"/>
-      <c r="Q43" t="inlineStr"/>
+          <t>年度大会员</t>
+        </is>
+      </c>
+      <c r="P43" t="inlineStr">
+        <is>
+          <t>萌宠小兔挂件</t>
+        </is>
+      </c>
+      <c r="Q43" t="inlineStr">
+        <is>
+          <t>崩坏3·天穹流星</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -3596,20 +3600,20 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>4974312942</t>
+          <t>4974319504</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>匹诺曹Pinoc</t>
+          <t>Emotional_梓皓</t>
         </is>
       </c>
       <c r="D44" t="n">
-        <v>48</v>
+        <v>1</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>新的弔图马上出现</t>
+          <t>上大号？</t>
         </is>
       </c>
       <c r="F44" t="n">
@@ -3617,12 +3621,12 @@
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4974319504</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>2021-07-23 18:54:02</t>
+          <t>2021-07-23 18:55:33</t>
         </is>
       </c>
       <c r="I44" t="n">
@@ -3630,38 +3634,34 @@
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>36567254</t>
+          <t>396422021</t>
         </is>
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>保密</t>
-        </is>
-      </c>
-      <c r="M44" t="inlineStr"/>
+          <t>男</t>
+        </is>
+      </c>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>一直在抽奖，一直没中QAQ</t>
+        </is>
+      </c>
       <c r="N44" t="n">
         <v>5</v>
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>年度大会员</t>
-        </is>
-      </c>
-      <c r="P44" t="inlineStr">
-        <is>
-          <t>崩坏3·天穹流星</t>
-        </is>
-      </c>
-      <c r="Q44" t="inlineStr">
-        <is>
-          <t>崩坏3·天穹流星</t>
-        </is>
-      </c>
+          <t>大会员</t>
+        </is>
+      </c>
+      <c r="P44" t="inlineStr"/>
+      <c r="Q44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -3671,20 +3671,20 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>4974304105</t>
+          <t>4974312942</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>在心动_</t>
+          <t>匹诺曹Pinoc</t>
         </is>
       </c>
       <c r="D45" t="n">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>好家伙，我都快开学了</t>
+          <t>新的弔图马上出现</t>
         </is>
       </c>
       <c r="F45" t="n">
@@ -3697,7 +3697,7 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>2021-07-23 18:53:10</t>
+          <t>2021-07-23 18:54:02</t>
         </is>
       </c>
       <c r="I45" t="n">
@@ -3705,12 +3705,12 @@
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>357064238</t>
+          <t>36567254</t>
         </is>
       </c>
       <c r="L45" t="inlineStr">
@@ -3718,27 +3718,23 @@
           <t>保密</t>
         </is>
       </c>
-      <c r="M45" t="inlineStr">
-        <is>
-          <t>❕该账号封禁中</t>
-        </is>
-      </c>
+      <c r="M45" t="inlineStr"/>
       <c r="N45" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>大会员</t>
+          <t>年度大会员</t>
         </is>
       </c>
       <c r="P45" t="inlineStr">
         <is>
-          <t>星座系列：水瓶座</t>
+          <t>崩坏3·天穹流星</t>
         </is>
       </c>
       <c r="Q45" t="inlineStr">
         <is>
-          <t>星座系列：水瓶座</t>
+          <t>崩坏3·天穹流星</t>
         </is>
       </c>
     </row>
@@ -3750,20 +3746,20 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>4974281840</t>
+          <t>4974304105</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>计屁碍事GPS</t>
+          <t>在心动_</t>
         </is>
       </c>
       <c r="D46" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>希儿情头[崩坏3_GKD][崩坏3_拜托了]</t>
+          <t>好家伙，我都快开学了</t>
         </is>
       </c>
       <c r="F46" t="n">
@@ -3776,7 +3772,7 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>2021-07-23 18:49:37</t>
+          <t>2021-07-23 18:53:10</t>
         </is>
       </c>
       <c r="I46" t="n">
@@ -3784,22 +3780,26 @@
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>34482589</t>
+          <t>357064238</t>
         </is>
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>男</t>
-        </is>
-      </c>
-      <c r="M46" t="inlineStr"/>
+          <t>保密</t>
+        </is>
+      </c>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>❕该账号封禁中</t>
+        </is>
+      </c>
       <c r="N46" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="O46" t="inlineStr">
         <is>
@@ -3808,10 +3808,14 @@
       </c>
       <c r="P46" t="inlineStr">
         <is>
-          <t>原神</t>
-        </is>
-      </c>
-      <c r="Q46" t="inlineStr"/>
+          <t>星座系列：水瓶座</t>
+        </is>
+      </c>
+      <c r="Q46" t="inlineStr">
+        <is>
+          <t>星座系列：水瓶座</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -3821,20 +3825,20 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>4974269060</t>
+          <t>4974281840</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>纯白恶魔_</t>
+          <t>计屁碍事GPS</t>
         </is>
       </c>
       <c r="D47" t="n">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>芜湖，有情头诶，</t>
+          <t>希儿情头[崩坏3_GKD][崩坏3_拜托了]</t>
         </is>
       </c>
       <c r="F47" t="n">
@@ -3847,7 +3851,7 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>2021-07-23 18:48:34</t>
+          <t>2021-07-23 18:49:37</t>
         </is>
       </c>
       <c r="I47" t="n">
@@ -3855,17 +3859,17 @@
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>苹果</t>
         </is>
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>34199793</t>
+          <t>34482589</t>
         </is>
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>女</t>
+          <t>男</t>
         </is>
       </c>
       <c r="M47" t="inlineStr"/>
@@ -3879,14 +3883,10 @@
       </c>
       <c r="P47" t="inlineStr">
         <is>
-          <t>崩坏3·天穹流星</t>
-        </is>
-      </c>
-      <c r="Q47" t="inlineStr">
-        <is>
-          <t>崩坏3·天穹流星</t>
-        </is>
-      </c>
+          <t>原神</t>
+        </is>
+      </c>
+      <c r="Q47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -3896,204 +3896,212 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
+          <t>4974269060</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>纯白恶魔_</t>
+        </is>
+      </c>
+      <c r="D48" t="n">
+        <v>45</v>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>芜湖，有情头诶，</t>
+        </is>
+      </c>
+      <c r="F48" t="n">
+        <v>0</v>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>2021-07-23 18:48:34</t>
+        </is>
+      </c>
+      <c r="I48" t="n">
+        <v>0</v>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>未知</t>
+        </is>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>34199793</t>
+        </is>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>女</t>
+        </is>
+      </c>
+      <c r="M48" t="inlineStr"/>
+      <c r="N48" t="n">
+        <v>5</v>
+      </c>
+      <c r="O48" t="inlineStr">
+        <is>
+          <t>大会员</t>
+        </is>
+      </c>
+      <c r="P48" t="inlineStr">
+        <is>
+          <t>崩坏3·天穹流星</t>
+        </is>
+      </c>
+      <c r="Q48" t="inlineStr">
+        <is>
+          <t>崩坏3·天穹流星</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>256667467</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
           <t>4974258532</t>
         </is>
       </c>
-      <c r="C48" t="inlineStr">
+      <c r="C49" t="inlineStr">
         <is>
           <t>和大的啊大</t>
         </is>
       </c>
-      <c r="D48" t="n">
+      <c r="D49" t="n">
         <v>44</v>
       </c>
-      <c r="E48" t="inlineStr">
+      <c r="E49" t="inlineStr">
         <is>
           <t>第八个表情让我想到那个喷射的那个图[笑哭][笑哭]
 此刻正是，审判之时[doge][doge]</t>
         </is>
       </c>
-      <c r="F48" t="n">
-        <v>0</v>
-      </c>
-      <c r="G48" t="inlineStr">
+      <c r="F49" t="n">
+        <v>0</v>
+      </c>
+      <c r="G49" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="H48" t="inlineStr">
+      <c r="H49" t="inlineStr">
         <is>
           <t>2021-07-23 18:46:24</t>
         </is>
       </c>
-      <c r="I48" t="n">
+      <c r="I49" t="n">
         <v>2</v>
       </c>
-      <c r="J48" t="inlineStr">
+      <c r="J49" t="inlineStr">
         <is>
           <t>未知</t>
         </is>
       </c>
-      <c r="K48" t="inlineStr">
+      <c r="K49" t="inlineStr">
         <is>
           <t>26957615</t>
         </is>
       </c>
-      <c r="L48" t="inlineStr">
+      <c r="L49" t="inlineStr">
         <is>
           <t>男</t>
         </is>
       </c>
-      <c r="M48" t="inlineStr">
+      <c r="M49" t="inlineStr">
         <is>
           <t>***</t>
         </is>
       </c>
-      <c r="N48" t="n">
+      <c r="N49" t="n">
         <v>6</v>
       </c>
-      <c r="O48" t="inlineStr">
+      <c r="O49" t="inlineStr">
         <is>
           <t>年度大会员</t>
         </is>
       </c>
-      <c r="P48" t="inlineStr"/>
-      <c r="Q48" t="inlineStr">
+      <c r="P49" t="inlineStr"/>
+      <c r="Q49" t="inlineStr">
         <is>
           <t>崩坏3·天穹流星</t>
         </is>
       </c>
     </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>256667467</t>
-        </is>
-      </c>
-      <c r="B49" t="inlineStr">
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>256667467</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
         <is>
           <t>4974256618</t>
         </is>
       </c>
-      <c r="C49" t="inlineStr">
+      <c r="C50" t="inlineStr">
         <is>
           <t>十玄殿</t>
         </is>
       </c>
-      <c r="D49" t="n">
+      <c r="D50" t="n">
         <v>43</v>
       </c>
-      <c r="E49" t="inlineStr">
+      <c r="E50" t="inlineStr">
         <is>
           <t>识律小屁孩[笑哭]</t>
         </is>
       </c>
-      <c r="F49" t="n">
-        <v>0</v>
-      </c>
-      <c r="G49" t="inlineStr">
+      <c r="F50" t="n">
+        <v>0</v>
+      </c>
+      <c r="G50" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="H49" t="inlineStr">
+      <c r="H50" t="inlineStr">
         <is>
           <t>2021-07-23 18:45:39</t>
         </is>
       </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="inlineStr">
-        <is>
-          <t>未知</t>
-        </is>
-      </c>
-      <c r="K49" t="inlineStr">
+      <c r="I50" t="n">
+        <v>0</v>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>安卓</t>
+        </is>
+      </c>
+      <c r="K50" t="inlineStr">
         <is>
           <t>19103673</t>
         </is>
       </c>
-      <c r="L49" t="inlineStr">
+      <c r="L50" t="inlineStr">
         <is>
           <t>男</t>
         </is>
       </c>
-      <c r="M49" t="inlineStr">
+      <c r="M50" t="inlineStr">
         <is>
           <t>幻想，只是灵魂的力量。(￣_￣ )
 在现实中，毫无作用Ծ‸Ծ</t>
         </is>
       </c>
-      <c r="N49" t="n">
+      <c r="N50" t="n">
         <v>5</v>
-      </c>
-      <c r="O49" t="inlineStr">
-        <is>
-          <t>大会员</t>
-        </is>
-      </c>
-      <c r="P49" t="inlineStr"/>
-      <c r="Q49" t="inlineStr"/>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>256667467</t>
-        </is>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>4974235389</t>
-        </is>
-      </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>红星的照耀</t>
-        </is>
-      </c>
-      <c r="D50" t="n">
-        <v>42</v>
-      </c>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>飞鱼丸，你又在转发动态了，休息一下吧[doge]</t>
-        </is>
-      </c>
-      <c r="F50" t="n">
-        <v>0</v>
-      </c>
-      <c r="G50" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>2021-07-23 18:42:46</t>
-        </is>
-      </c>
-      <c r="I50" t="n">
-        <v>0</v>
-      </c>
-      <c r="J50" t="inlineStr">
-        <is>
-          <t>未知</t>
-        </is>
-      </c>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>492363445</t>
-        </is>
-      </c>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>保密</t>
-        </is>
-      </c>
-      <c r="M50" t="inlineStr"/>
-      <c r="N50" t="n">
-        <v>4</v>
       </c>
       <c r="O50" t="inlineStr">
         <is>
@@ -4111,124 +4119,128 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
+          <t>4974235389</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>红星的照耀</t>
+        </is>
+      </c>
+      <c r="D51" t="n">
+        <v>42</v>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>飞鱼丸，你又在转发动态了，休息一下吧[doge]</t>
+        </is>
+      </c>
+      <c r="F51" t="n">
+        <v>0</v>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>2021-07-23 18:42:46</t>
+        </is>
+      </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>安卓</t>
+        </is>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>492363445</t>
+        </is>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>保密</t>
+        </is>
+      </c>
+      <c r="M51" t="inlineStr"/>
+      <c r="N51" t="n">
+        <v>4</v>
+      </c>
+      <c r="O51" t="inlineStr">
+        <is>
+          <t>大会员</t>
+        </is>
+      </c>
+      <c r="P51" t="inlineStr"/>
+      <c r="Q51" t="inlineStr"/>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>256667467</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
           <t>4974225868</t>
         </is>
       </c>
-      <c r="C51" t="inlineStr">
+      <c r="C52" t="inlineStr">
         <is>
           <t>彼时溯</t>
         </is>
       </c>
-      <c r="D51" t="n">
+      <c r="D52" t="n">
         <v>41</v>
       </c>
-      <c r="E51" t="inlineStr">
+      <c r="E52" t="inlineStr">
         <is>
           <t>图四黑希：舰长，你怎么只有这么点？[嫌弃][嫌弃]
 图五希儿：舰长，你只有这么点[害羞][害羞]</t>
         </is>
       </c>
-      <c r="F51" t="n">
+      <c r="F52" t="n">
         <v>8</v>
       </c>
-      <c r="G51" t="inlineStr">
+      <c r="G52" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="H51" t="inlineStr">
+      <c r="H52" t="inlineStr">
         <is>
           <t>2021-07-23 18:41:20</t>
         </is>
       </c>
-      <c r="I51" t="n">
-        <v>152</v>
-      </c>
-      <c r="J51" t="inlineStr">
+      <c r="I52" t="n">
+        <v>153</v>
+      </c>
+      <c r="J52" t="inlineStr">
         <is>
           <t>未知</t>
         </is>
       </c>
-      <c r="K51" t="inlineStr">
+      <c r="K52" t="inlineStr">
         <is>
           <t>95947256</t>
         </is>
       </c>
-      <c r="L51" t="inlineStr">
+      <c r="L52" t="inlineStr">
         <is>
           <t>男</t>
         </is>
       </c>
-      <c r="M51" t="inlineStr">
+      <c r="M52" t="inlineStr">
         <is>
           <t>没有那个必要</t>
         </is>
       </c>
-      <c r="N51" t="n">
+      <c r="N52" t="n">
         <v>5</v>
-      </c>
-      <c r="O51" t="inlineStr"/>
-      <c r="P51" t="inlineStr"/>
-      <c r="Q51" t="inlineStr"/>
-    </row>
-    <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>256667467</t>
-        </is>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>4974221584</t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>蒲柯</t>
-        </is>
-      </c>
-      <c r="D52" t="n">
-        <v>40</v>
-      </c>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>很喜欢米桑的精彩剧情文案“奇怪明明穿的不是很多感觉很热。”“用兔耳朵和运气赢得尊严和未来。”“你们不开放些，客人们是不会喜欢的。”“可恶，这件也太小了吧，肉都被挤出来了”[给心心]</t>
-        </is>
-      </c>
-      <c r="F52" t="n">
-        <v>0</v>
-      </c>
-      <c r="G52" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>2021-07-23 18:41:18</t>
-        </is>
-      </c>
-      <c r="I52" t="n">
-        <v>1</v>
-      </c>
-      <c r="J52" t="inlineStr">
-        <is>
-          <t>安卓</t>
-        </is>
-      </c>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>1251837426</t>
-        </is>
-      </c>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>保密</t>
-        </is>
-      </c>
-      <c r="M52" t="inlineStr"/>
-      <c r="N52" t="n">
-        <v>2</v>
       </c>
       <c r="O52" t="inlineStr"/>
       <c r="P52" t="inlineStr"/>
@@ -4242,7 +4254,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>4974217019</t>
+          <t>4974221584</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -4251,32 +4263,32 @@
         </is>
       </c>
       <c r="D53" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>为视频里所有的美好而战崩坏3PⅤBV1YA41157Dt[给心心]</t>
+          <t>很喜欢米桑的精彩剧情文案“奇怪明明穿的不是很多感觉很热。”“用兔耳朵和运气赢得尊严和未来。”“你们不开放些，客人们是不会喜欢的。”“可恶，这件也太小了吧，肉都被挤出来了”[给心心]</t>
         </is>
       </c>
       <c r="F53" t="n">
+        <v>0</v>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>2021-07-23 18:41:18</t>
+        </is>
+      </c>
+      <c r="I53" t="n">
         <v>1</v>
       </c>
-      <c r="G53" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>2021-07-23 18:41:12</t>
-        </is>
-      </c>
-      <c r="I53" t="n">
-        <v>3</v>
-      </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K53" t="inlineStr">
@@ -4305,150 +4317,134 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
+          <t>4974217019</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>蒲柯</t>
+        </is>
+      </c>
+      <c r="D54" t="n">
+        <v>39</v>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>为视频里所有的美好而战崩坏3PⅤBV1YA41157Dt[给心心]</t>
+        </is>
+      </c>
+      <c r="F54" t="n">
+        <v>1</v>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>2021-07-23 18:41:12</t>
+        </is>
+      </c>
+      <c r="I54" t="n">
+        <v>3</v>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>未知</t>
+        </is>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>1251837426</t>
+        </is>
+      </c>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>保密</t>
+        </is>
+      </c>
+      <c r="M54" t="inlineStr"/>
+      <c r="N54" t="n">
+        <v>2</v>
+      </c>
+      <c r="O54" t="inlineStr"/>
+      <c r="P54" t="inlineStr"/>
+      <c r="Q54" t="inlineStr"/>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>256667467</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
           <t>4974199687</t>
         </is>
       </c>
-      <c r="C54" t="inlineStr">
+      <c r="C55" t="inlineStr">
         <is>
           <t>殺丘さま</t>
         </is>
       </c>
-      <c r="D54" t="n">
+      <c r="D55" t="n">
         <v>-1</v>
       </c>
-      <c r="E54" t="inlineStr">
+      <c r="E55" t="inlineStr">
         <is>
           <t>爷青回</t>
         </is>
       </c>
-      <c r="F54" t="n">
-        <v>0</v>
-      </c>
-      <c r="G54" t="inlineStr">
+      <c r="F55" t="n">
+        <v>0</v>
+      </c>
+      <c r="G55" t="inlineStr">
         <is>
           <t>4974199687</t>
         </is>
       </c>
-      <c r="H54" t="inlineStr">
+      <c r="H55" t="inlineStr">
         <is>
           <t>2021-07-23 18:38:52</t>
         </is>
       </c>
-      <c r="I54" t="n">
-        <v>0</v>
-      </c>
-      <c r="J54" t="inlineStr">
+      <c r="I55" t="n">
+        <v>0</v>
+      </c>
+      <c r="J55" t="inlineStr">
         <is>
           <t>苹果</t>
         </is>
       </c>
-      <c r="K54" t="inlineStr">
+      <c r="K55" t="inlineStr">
         <is>
           <t>530958433</t>
         </is>
       </c>
-      <c r="L54" t="inlineStr">
+      <c r="L55" t="inlineStr">
         <is>
           <t>保密</t>
         </is>
       </c>
-      <c r="M54" t="inlineStr">
+      <c r="M55" t="inlineStr">
         <is>
           <t>住校，六日回来 QQ：2686232730
 邮箱：seizekenkill@outlook</t>
         </is>
       </c>
-      <c r="N54" t="n">
+      <c r="N55" t="n">
         <v>4</v>
       </c>
-      <c r="O54" t="inlineStr">
+      <c r="O55" t="inlineStr">
         <is>
           <t>大会员</t>
         </is>
       </c>
-      <c r="P54" t="inlineStr"/>
-      <c r="Q54" t="inlineStr">
+      <c r="P55" t="inlineStr"/>
+      <c r="Q55" t="inlineStr">
         <is>
           <t>#EveOneCat</t>
-        </is>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="inlineStr">
-        <is>
-          <t>256667467</t>
-        </is>
-      </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>4974189871</t>
-        </is>
-      </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>散華-禮瀰</t>
-        </is>
-      </c>
-      <c r="D55" t="n">
-        <v>37</v>
-      </c>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>识宝，你怎么跟个傻子一样[doge]</t>
-        </is>
-      </c>
-      <c r="F55" t="n">
-        <v>0</v>
-      </c>
-      <c r="G55" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>2021-07-23 18:38:02</t>
-        </is>
-      </c>
-      <c r="I55" t="n">
-        <v>0</v>
-      </c>
-      <c r="J55" t="inlineStr">
-        <is>
-          <t>未知</t>
-        </is>
-      </c>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>96260615</t>
-        </is>
-      </c>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>男</t>
-        </is>
-      </c>
-      <c r="M55" t="inlineStr">
-        <is>
-          <t>淦！</t>
-        </is>
-      </c>
-      <c r="N55" t="n">
-        <v>5</v>
-      </c>
-      <c r="O55" t="inlineStr">
-        <is>
-          <t>年度大会员</t>
-        </is>
-      </c>
-      <c r="P55" t="inlineStr">
-        <is>
-          <t>原神</t>
-        </is>
-      </c>
-      <c r="Q55" t="inlineStr">
-        <is>
-          <t>原神</t>
         </is>
       </c>
     </row>
@@ -4460,20 +4456,20 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>4974190638</t>
+          <t>4974189871</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>可爱布丁舰长</t>
+          <t>散華-禮瀰</t>
         </is>
       </c>
       <c r="D56" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>识三岁呵呵呵呵</t>
+          <t>识宝，你怎么跟个傻子一样[doge]</t>
         </is>
       </c>
       <c r="F56" t="n">
@@ -4486,28 +4482,32 @@
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>2021-07-23 18:37:09</t>
+          <t>2021-07-23 18:38:02</t>
         </is>
       </c>
       <c r="I56" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>49981668</t>
+          <t>96260615</t>
         </is>
       </c>
       <c r="L56" t="inlineStr">
         <is>
-          <t>保密</t>
-        </is>
-      </c>
-      <c r="M56" t="inlineStr"/>
+          <t>男</t>
+        </is>
+      </c>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>淦！</t>
+        </is>
+      </c>
       <c r="N56" t="n">
         <v>5</v>
       </c>
@@ -4516,8 +4516,16 @@
           <t>年度大会员</t>
         </is>
       </c>
-      <c r="P56" t="inlineStr"/>
-      <c r="Q56" t="inlineStr"/>
+      <c r="P56" t="inlineStr">
+        <is>
+          <t>原神</t>
+        </is>
+      </c>
+      <c r="Q56" t="inlineStr">
+        <is>
+          <t>原神</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -4527,20 +4535,20 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>4974176186</t>
+          <t>4974190638</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>硫酸兑水滴眼睛</t>
+          <t>可爱布丁舰长</t>
         </is>
       </c>
       <c r="D57" t="n">
-        <v>1</v>
+        <v>36</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>口水擦擦[崩坏3_吃惊]</t>
+          <t>识三岁呵呵呵呵</t>
         </is>
       </c>
       <c r="F57" t="n">
@@ -4548,16 +4556,16 @@
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>4974176186</t>
+          <t>0</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>2021-07-23 18:35:25</t>
+          <t>2021-07-23 18:37:09</t>
         </is>
       </c>
       <c r="I57" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="J57" t="inlineStr">
         <is>
@@ -4566,7 +4574,7 @@
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>439160450</t>
+          <t>49981668</t>
         </is>
       </c>
       <c r="L57" t="inlineStr">
@@ -4574,29 +4582,17 @@
           <t>保密</t>
         </is>
       </c>
-      <c r="M57" t="inlineStr">
-        <is>
-          <t>白内障看不清，硫酸兑水滴眼睛O_O"</t>
-        </is>
-      </c>
+      <c r="M57" t="inlineStr"/>
       <c r="N57" t="n">
         <v>5</v>
       </c>
       <c r="O57" t="inlineStr">
         <is>
-          <t>大会员</t>
-        </is>
-      </c>
-      <c r="P57" t="inlineStr">
-        <is>
-          <t>原神</t>
-        </is>
-      </c>
-      <c r="Q57" t="inlineStr">
-        <is>
-          <t>原神</t>
-        </is>
-      </c>
+          <t>年度大会员</t>
+        </is>
+      </c>
+      <c r="P57" t="inlineStr"/>
+      <c r="Q57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -4606,20 +4602,20 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>4974171920</t>
+          <t>4974176186</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>简約の</t>
+          <t>硫酸兑水滴眼睛</t>
         </is>
       </c>
       <c r="D58" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>看一下我的满命钟离[崩坏3_口水]</t>
+          <t>口水擦擦[崩坏3_吃惊]</t>
         </is>
       </c>
       <c r="F58" t="n">
@@ -4627,25 +4623,25 @@
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>4974171920</t>
+          <t>4974176186</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>2021-07-23 18:34:30</t>
+          <t>2021-07-23 18:35:25</t>
         </is>
       </c>
       <c r="I58" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>32291048</t>
+          <t>439160450</t>
         </is>
       </c>
       <c r="L58" t="inlineStr">
@@ -4655,7 +4651,7 @@
       </c>
       <c r="M58" t="inlineStr">
         <is>
-          <t>知足常乐 ʘᴗʘ</t>
+          <t>白内障看不清，硫酸兑水滴眼睛O_O"</t>
         </is>
       </c>
       <c r="N58" t="n">
@@ -4663,7 +4659,7 @@
       </c>
       <c r="O58" t="inlineStr">
         <is>
-          <t>年度大会员</t>
+          <t>大会员</t>
         </is>
       </c>
       <c r="P58" t="inlineStr">
@@ -4671,7 +4667,11 @@
           <t>原神</t>
         </is>
       </c>
-      <c r="Q58" t="inlineStr"/>
+      <c r="Q58" t="inlineStr">
+        <is>
+          <t>原神</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -4681,12 +4681,12 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>4974168659</t>
+          <t>4974171920</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>烤奶全糖不加冰丶</t>
+          <t>简約の</t>
         </is>
       </c>
       <c r="D59" t="n">
@@ -4694,7 +4694,7 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>今超鹿？[doge]</t>
+          <t>看一下我的满命钟离[崩坏3_口水]</t>
         </is>
       </c>
       <c r="F59" t="n">
@@ -4702,25 +4702,25 @@
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>4974168659</t>
+          <t>4974171920</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>2021-07-23 18:34:29</t>
+          <t>2021-07-23 18:34:30</t>
         </is>
       </c>
       <c r="I59" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>293262117</t>
+          <t>32291048</t>
         </is>
       </c>
       <c r="L59" t="inlineStr">
@@ -4728,16 +4728,24 @@
           <t>保密</t>
         </is>
       </c>
-      <c r="M59" t="inlineStr"/>
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>知足常乐 ʘᴗʘ</t>
+        </is>
+      </c>
       <c r="N59" t="n">
         <v>5</v>
       </c>
       <c r="O59" t="inlineStr">
         <is>
-          <t>大会员</t>
-        </is>
-      </c>
-      <c r="P59" t="inlineStr"/>
+          <t>年度大会员</t>
+        </is>
+      </c>
+      <c r="P59" t="inlineStr">
+        <is>
+          <t>原神</t>
+        </is>
+      </c>
       <c r="Q59" t="inlineStr"/>
     </row>
     <row r="60">
@@ -4748,12 +4756,12 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>4974159461</t>
+          <t>4974168659</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>42584845195_bili</t>
+          <t>烤奶全糖不加冰丶</t>
         </is>
       </c>
       <c r="D60" t="n">
@@ -4761,7 +4769,7 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>回复 @等待樱花的下一次绽放 :难道不是：看！满命钟离[呲牙]</t>
+          <t>今超鹿？[doge]</t>
         </is>
       </c>
       <c r="F60" t="n">
@@ -4769,39 +4777,35 @@
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>4974142271</t>
+          <t>4974168659</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>2021-07-23 18:33:24</t>
+          <t>2021-07-23 18:34:29</t>
         </is>
       </c>
       <c r="I60" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>398412542</t>
+          <t>293262117</t>
         </is>
       </c>
       <c r="L60" t="inlineStr">
         <is>
-          <t>男</t>
-        </is>
-      </c>
-      <c r="M60" t="inlineStr">
-        <is>
-          <t>这个人很神秘，什么都没有写</t>
-        </is>
-      </c>
+          <t>保密</t>
+        </is>
+      </c>
+      <c r="M60" t="inlineStr"/>
       <c r="N60" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="O60" t="inlineStr">
         <is>
@@ -4819,12 +4823,12 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>4974157893</t>
+          <t>4974159461</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>尘封的微风</t>
+          <t>42584845195_bili</t>
         </is>
       </c>
       <c r="D61" t="n">
@@ -4832,7 +4836,7 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>回复 @等待樱花的下一次绽放 :懂了懂了</t>
+          <t>回复 @等待樱花的下一次绽放 :难道不是：看！满命钟离[呲牙]</t>
         </is>
       </c>
       <c r="F61" t="n">
@@ -4845,46 +4849,42 @@
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>2021-07-23 18:32:41</t>
+          <t>2021-07-23 18:33:24</t>
         </is>
       </c>
       <c r="I61" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>349002256</t>
+          <t>398412542</t>
         </is>
       </c>
       <c r="L61" t="inlineStr">
         <is>
-          <t>保密</t>
-        </is>
-      </c>
-      <c r="M61" t="inlineStr"/>
+          <t>男</t>
+        </is>
+      </c>
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>这个人很神秘，什么都没有写</t>
+        </is>
+      </c>
       <c r="N61" t="n">
         <v>4</v>
       </c>
       <c r="O61" t="inlineStr">
         <is>
-          <t>年度大会员</t>
-        </is>
-      </c>
-      <c r="P61" t="inlineStr">
-        <is>
-          <t>崩坏3·天穹流星</t>
-        </is>
-      </c>
-      <c r="Q61" t="inlineStr">
-        <is>
-          <t>崩坏3·天穹流星</t>
-        </is>
-      </c>
+          <t>大会员</t>
+        </is>
+      </c>
+      <c r="P61" t="inlineStr"/>
+      <c r="Q61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -4894,54 +4894,129 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
+          <t>4974157893</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>尘封的微风</t>
+        </is>
+      </c>
+      <c r="D62" t="n">
+        <v>-1</v>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>回复 @等待樱花的下一次绽放 :懂了懂了</t>
+        </is>
+      </c>
+      <c r="F62" t="n">
+        <v>0</v>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>4974142271</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>2021-07-23 18:32:41</t>
+        </is>
+      </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>安卓</t>
+        </is>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>349002256</t>
+        </is>
+      </c>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>保密</t>
+        </is>
+      </c>
+      <c r="M62" t="inlineStr"/>
+      <c r="N62" t="n">
+        <v>4</v>
+      </c>
+      <c r="O62" t="inlineStr">
+        <is>
+          <t>年度大会员</t>
+        </is>
+      </c>
+      <c r="P62" t="inlineStr">
+        <is>
+          <t>崩坏3·天穹流星</t>
+        </is>
+      </c>
+      <c r="Q62" t="inlineStr">
+        <is>
+          <t>崩坏3·天穹流星</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>256667467</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
           <t>4974156233</t>
         </is>
       </c>
-      <c r="C62" t="inlineStr">
+      <c r="C63" t="inlineStr">
         <is>
           <t>开心的琳芙斯</t>
         </is>
       </c>
-      <c r="D62" t="n">
+      <c r="D63" t="n">
         <v>35</v>
       </c>
-      <c r="E62" t="inlineStr">
+      <c r="E63" t="inlineStr">
         <is>
           <t>我喜欢你[崩坏3_口水]</t>
         </is>
       </c>
-      <c r="F62" t="n">
+      <c r="F63" t="n">
         <v>2</v>
       </c>
-      <c r="G62" t="inlineStr">
+      <c r="G63" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="H62" t="inlineStr">
+      <c r="H63" t="inlineStr">
         <is>
           <t>2021-07-23 18:31:58</t>
         </is>
       </c>
-      <c r="I62" t="n">
-        <v>76</v>
-      </c>
-      <c r="J62" t="inlineStr">
-        <is>
-          <t>安卓</t>
-        </is>
-      </c>
-      <c r="K62" t="inlineStr">
+      <c r="I63" t="n">
+        <v>77</v>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>未知</t>
+        </is>
+      </c>
+      <c r="K63" t="inlineStr">
         <is>
           <t>20918170</t>
         </is>
       </c>
-      <c r="L62" t="inlineStr">
+      <c r="L63" t="inlineStr">
         <is>
           <t>男</t>
         </is>
       </c>
-      <c r="M62" t="inlineStr">
+      <c r="M63" t="inlineStr">
         <is>
           <t>执手听音裙流香，弦断魂销，芳心何伤？
 笑靥花落明眸动，残梦惊醒，因何彷徨？
@@ -4949,91 +5024,12 @@
 风翩柳絮月容黯，香肩微寒，叶落凄凉。</t>
         </is>
       </c>
-      <c r="N62" t="n">
+      <c r="N63" t="n">
         <v>6</v>
       </c>
-      <c r="O62" t="inlineStr">
+      <c r="O63" t="inlineStr">
         <is>
           <t>年度大会员</t>
-        </is>
-      </c>
-      <c r="P62" t="inlineStr">
-        <is>
-          <t>崩坏3·天穹流星</t>
-        </is>
-      </c>
-      <c r="Q62" t="inlineStr">
-        <is>
-          <t>崩坏3·天穹流星</t>
-        </is>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="inlineStr">
-        <is>
-          <t>256667467</t>
-        </is>
-      </c>
-      <c r="B63" t="inlineStr">
-        <is>
-          <t>4974155780</t>
-        </is>
-      </c>
-      <c r="C63" t="inlineStr">
-        <is>
-          <t>等待樱花的下一次绽放</t>
-        </is>
-      </c>
-      <c r="D63" t="n">
-        <v>-1</v>
-      </c>
-      <c r="E63" t="inlineStr">
-        <is>
-          <t>回复 @崩坏3 :你连未定的都超不过，丢不丢人呀[doge]</t>
-        </is>
-      </c>
-      <c r="F63" t="n">
-        <v>0</v>
-      </c>
-      <c r="G63" t="inlineStr">
-        <is>
-          <t>4974131160</t>
-        </is>
-      </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>2021-07-23 18:31:45</t>
-        </is>
-      </c>
-      <c r="I63" t="n">
-        <v>19</v>
-      </c>
-      <c r="J63" t="inlineStr">
-        <is>
-          <t>安卓</t>
-        </is>
-      </c>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>316319966</t>
-        </is>
-      </c>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>保密</t>
-        </is>
-      </c>
-      <c r="M63" t="inlineStr">
-        <is>
-          <t>我真的真的单推符华</t>
-        </is>
-      </c>
-      <c r="N63" t="n">
-        <v>5</v>
-      </c>
-      <c r="O63" t="inlineStr">
-        <is>
-          <t>大会员</t>
         </is>
       </c>
       <c r="P63" t="inlineStr">
@@ -5055,7 +5051,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>4974143710</t>
+          <t>4974155780</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -5068,7 +5064,7 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>回复 @尘封的微风 :进来看到自己想看的东西，满意地离开</t>
+          <t>回复 @崩坏3 :你连未定的都超不过，丢不丢人呀[doge]</t>
         </is>
       </c>
       <c r="F64" t="n">
@@ -5076,16 +5072,16 @@
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>4974142271</t>
+          <t>4974131160</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>2021-07-23 18:30:41</t>
+          <t>2021-07-23 18:31:45</t>
         </is>
       </c>
       <c r="I64" t="n">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="J64" t="inlineStr">
         <is>
@@ -5134,12 +5130,12 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>4974142271</t>
+          <t>4974143710</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>尘封的微风</t>
+          <t>等待樱花的下一次绽放</t>
         </is>
       </c>
       <c r="D65" t="n">
@@ -5147,7 +5143,7 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>看满离是什么意思？</t>
+          <t>回复 @尘封的微风 :进来看到自己想看的东西，满意地离开</t>
         </is>
       </c>
       <c r="F65" t="n">
@@ -5160,20 +5156,20 @@
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>2021-07-23 18:30:08</t>
+          <t>2021-07-23 18:30:41</t>
         </is>
       </c>
       <c r="I65" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>349002256</t>
+          <t>316319966</t>
         </is>
       </c>
       <c r="L65" t="inlineStr">
@@ -5181,13 +5177,17 @@
           <t>保密</t>
         </is>
       </c>
-      <c r="M65" t="inlineStr"/>
+      <c r="M65" t="inlineStr">
+        <is>
+          <t>我真的真的单推符华</t>
+        </is>
+      </c>
       <c r="N65" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="O65" t="inlineStr">
         <is>
-          <t>年度大会员</t>
+          <t>大会员</t>
         </is>
       </c>
       <c r="P65" t="inlineStr">
@@ -5209,20 +5209,20 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>4974140902</t>
+          <t>4974142271</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>FABAGV</t>
+          <t>尘封的微风</t>
         </is>
       </c>
       <c r="D66" t="n">
-        <v>34</v>
+        <v>-1</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>好哎[崩坏3_干杯]</t>
+          <t>看满离是什么意思？</t>
         </is>
       </c>
       <c r="F66" t="n">
@@ -5230,16 +5230,16 @@
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4974142271</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>2021-07-23 18:29:37</t>
+          <t>2021-07-23 18:30:08</t>
         </is>
       </c>
       <c r="I66" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J66" t="inlineStr">
         <is>
@@ -5248,25 +5248,21 @@
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>426864347</t>
+          <t>349002256</t>
         </is>
       </c>
       <c r="L66" t="inlineStr">
         <is>
-          <t>男</t>
-        </is>
-      </c>
-      <c r="M66" t="inlineStr">
-        <is>
-          <t>Nobody exists on purpose. Nobody belongs any where.</t>
-        </is>
-      </c>
+          <t>保密</t>
+        </is>
+      </c>
+      <c r="M66" t="inlineStr"/>
       <c r="N66" t="n">
         <v>4</v>
       </c>
       <c r="O66" t="inlineStr">
         <is>
-          <t>大会员</t>
+          <t>年度大会员</t>
         </is>
       </c>
       <c r="P66" t="inlineStr">
@@ -5288,20 +5284,20 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>4974131160</t>
+          <t>4974140902</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>崩坏3</t>
+          <t>FABAGV</t>
         </is>
       </c>
       <c r="D67" t="n">
-        <v>-1</v>
+        <v>34</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>听不见听不见（自我催眠中……</t>
+          <t>好哎[崩坏3_干杯]</t>
         </is>
       </c>
       <c r="F67" t="n">
@@ -5309,16 +5305,16 @@
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>4974131160</t>
+          <t>0</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>2021-07-23 18:29:20</t>
+          <t>2021-07-23 18:29:37</t>
         </is>
       </c>
       <c r="I67" t="n">
-        <v>97</v>
+        <v>0</v>
       </c>
       <c r="J67" t="inlineStr">
         <is>
@@ -5327,25 +5323,25 @@
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>256667467</t>
+          <t>426864347</t>
         </is>
       </c>
       <c r="L67" t="inlineStr">
         <is>
-          <t>保密</t>
+          <t>男</t>
         </is>
       </c>
       <c r="M67" t="inlineStr">
         <is>
-          <t>怒*大伟哥出奇迹！</t>
+          <t>Nobody exists on purpose. Nobody belongs any where.</t>
         </is>
       </c>
       <c r="N67" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="O67" t="inlineStr">
         <is>
-          <t>年度大会员</t>
+          <t>大会员</t>
         </is>
       </c>
       <c r="P67" t="inlineStr">
@@ -5367,20 +5363,20 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>4974130142</t>
+          <t>4974131160</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>指针影子</t>
+          <t>崩坏3</t>
         </is>
       </c>
       <c r="D68" t="n">
-        <v>33</v>
+        <v>-1</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>[崩坏3_赞][崩坏3_赞][崩坏3_赞][崩坏3_赞][崩坏3_赞][崩坏3_赞][崩坏3_赞][崩坏3_赞][崩坏3_赞][崩坏3_赞][崩坏3_赞][崩坏3_赞][崩坏3_赞][崩坏3_赞]</t>
+          <t>听不见听不见（自我催眠中……</t>
         </is>
       </c>
       <c r="F68" t="n">
@@ -5388,16 +5384,16 @@
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4974131160</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>2021-07-23 18:28:56</t>
+          <t>2021-07-23 18:29:20</t>
         </is>
       </c>
       <c r="I68" t="n">
-        <v>0</v>
+        <v>97</v>
       </c>
       <c r="J68" t="inlineStr">
         <is>
@@ -5406,7 +5402,7 @@
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>384999</t>
+          <t>256667467</t>
         </is>
       </c>
       <c r="L68" t="inlineStr">
@@ -5416,7 +5412,7 @@
       </c>
       <c r="M68" t="inlineStr">
         <is>
-          <t>不在你辉煌时慕名而来，也未曾在你低谷时离你而去。拨弄时光的指针；遨游命运的影子；欺诈与恶作剧的化身</t>
+          <t>怒*大伟哥出奇迹！</t>
         </is>
       </c>
       <c r="N68" t="n">
@@ -5424,7 +5420,7 @@
       </c>
       <c r="O68" t="inlineStr">
         <is>
-          <t>大会员</t>
+          <t>年度大会员</t>
         </is>
       </c>
       <c r="P68" t="inlineStr">
@@ -5446,20 +5442,20 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>4974127966</t>
+          <t>4974130142</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Aqopz</t>
+          <t>指针影子</t>
         </is>
       </c>
       <c r="D69" t="n">
-        <v>-1</v>
+        <v>33</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>看满离</t>
+          <t>[崩坏3_赞][崩坏3_赞][崩坏3_赞][崩坏3_赞][崩坏3_赞][崩坏3_赞][崩坏3_赞][崩坏3_赞][崩坏3_赞][崩坏3_赞][崩坏3_赞][崩坏3_赞][崩坏3_赞][崩坏3_赞]</t>
         </is>
       </c>
       <c r="F69" t="n">
@@ -5467,16 +5463,16 @@
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>4974127966</t>
+          <t>0</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>2021-07-23 18:28:30</t>
+          <t>2021-07-23 18:28:56</t>
         </is>
       </c>
       <c r="I69" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J69" t="inlineStr">
         <is>
@@ -5485,21 +5481,21 @@
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>197612281</t>
+          <t>384999</t>
         </is>
       </c>
       <c r="L69" t="inlineStr">
         <is>
-          <t>男</t>
+          <t>保密</t>
         </is>
       </c>
       <c r="M69" t="inlineStr">
         <is>
-          <t>嘘</t>
+          <t>不在你辉煌时慕名而来，也未曾在你低谷时离你而去。拨弄时光的指针；遨游命运的影子；欺诈与恶作剧的化身</t>
         </is>
       </c>
       <c r="N69" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O69" t="inlineStr">
         <is>
@@ -5508,7 +5504,7 @@
       </c>
       <c r="P69" t="inlineStr">
         <is>
-          <t>AQZ</t>
+          <t>崩坏3·天穹流星</t>
         </is>
       </c>
       <c r="Q69" t="inlineStr">
@@ -5525,38 +5521,38 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>4974125533</t>
+          <t>4974127966</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>佐佐木栅栏小姐</t>
+          <t>Aqopz</t>
         </is>
       </c>
       <c r="D70" t="n">
+        <v>-1</v>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>看满离</t>
+        </is>
+      </c>
+      <c r="F70" t="n">
+        <v>0</v>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>4974127966</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>2021-07-23 18:28:30</t>
+        </is>
+      </c>
+      <c r="I70" t="n">
         <v>2</v>
       </c>
-      <c r="E70" t="inlineStr">
-        <is>
-          <t>老熟人了</t>
-        </is>
-      </c>
-      <c r="F70" t="n">
-        <v>0</v>
-      </c>
-      <c r="G70" t="inlineStr">
-        <is>
-          <t>4974125533</t>
-        </is>
-      </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>2021-07-23 18:27:34</t>
-        </is>
-      </c>
-      <c r="I70" t="n">
-        <v>0</v>
-      </c>
       <c r="J70" t="inlineStr">
         <is>
           <t>未知</t>
@@ -5564,7 +5560,7 @@
       </c>
       <c r="K70" t="inlineStr">
         <is>
-          <t>11084927</t>
+          <t>197612281</t>
         </is>
       </c>
       <c r="L70" t="inlineStr">
@@ -5574,7 +5570,7 @@
       </c>
       <c r="M70" t="inlineStr">
         <is>
-          <t>脆弱，纳米什么时候锁啊</t>
+          <t>嘘</t>
         </is>
       </c>
       <c r="N70" t="n">
@@ -5585,8 +5581,16 @@
           <t>大会员</t>
         </is>
       </c>
-      <c r="P70" t="inlineStr"/>
-      <c r="Q70" t="inlineStr"/>
+      <c r="P70" t="inlineStr">
+        <is>
+          <t>AQZ</t>
+        </is>
+      </c>
+      <c r="Q70" t="inlineStr">
+        <is>
+          <t>崩坏3·天穹流星</t>
+        </is>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -5596,18 +5600,89 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
+          <t>4974125533</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>佐佐木栅栏小姐</t>
+        </is>
+      </c>
+      <c r="D71" t="n">
+        <v>2</v>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>老熟人了</t>
+        </is>
+      </c>
+      <c r="F71" t="n">
+        <v>0</v>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>4974125533</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>2021-07-23 18:27:34</t>
+        </is>
+      </c>
+      <c r="I71" t="n">
+        <v>0</v>
+      </c>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>未知</t>
+        </is>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>11084927</t>
+        </is>
+      </c>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>男</t>
+        </is>
+      </c>
+      <c r="M71" t="inlineStr">
+        <is>
+          <t>脆弱，纳米什么时候锁啊</t>
+        </is>
+      </c>
+      <c r="N71" t="n">
+        <v>5</v>
+      </c>
+      <c r="O71" t="inlineStr">
+        <is>
+          <t>大会员</t>
+        </is>
+      </c>
+      <c r="P71" t="inlineStr"/>
+      <c r="Q71" t="inlineStr"/>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>256667467</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
           <t>4974113913</t>
         </is>
       </c>
-      <c r="C71" t="inlineStr">
+      <c r="C72" t="inlineStr">
         <is>
           <t>帅哥冬东</t>
         </is>
       </c>
-      <c r="D71" t="n">
+      <c r="D72" t="n">
         <v>32</v>
       </c>
-      <c r="E71" t="inlineStr">
+      <c r="E72" t="inlineStr">
         <is>
           <t>那些口口声声，说崩坏三越来越氪的人
 应该看看你们，像我一样
@@ -5653,113 +5728,46 @@
 氪金吧，崩浪！[给心心][给心心][给心心]</t>
         </is>
       </c>
-      <c r="F71" t="n">
-        <v>0</v>
-      </c>
-      <c r="G71" t="inlineStr">
+      <c r="F72" t="n">
+        <v>0</v>
+      </c>
+      <c r="G72" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="H71" t="inlineStr">
+      <c r="H72" t="inlineStr">
         <is>
           <t>2021-07-23 18:26:58</t>
         </is>
       </c>
-      <c r="I71" t="n">
+      <c r="I72" t="n">
         <v>5</v>
       </c>
-      <c r="J71" t="inlineStr">
+      <c r="J72" t="inlineStr">
         <is>
           <t>安卓</t>
         </is>
       </c>
-      <c r="K71" t="inlineStr">
+      <c r="K72" t="inlineStr">
         <is>
           <t>25322750</t>
         </is>
       </c>
-      <c r="L71" t="inlineStr">
+      <c r="L72" t="inlineStr">
         <is>
           <t>男</t>
         </is>
       </c>
-      <c r="M71" t="inlineStr"/>
-      <c r="N71" t="n">
+      <c r="M72" t="inlineStr"/>
+      <c r="N72" t="n">
         <v>5</v>
       </c>
-      <c r="O71" t="inlineStr">
+      <c r="O72" t="inlineStr">
         <is>
           <t>大会员</t>
         </is>
       </c>
-      <c r="P71" t="inlineStr"/>
-      <c r="Q71" t="inlineStr"/>
-    </row>
-    <row r="72">
-      <c r="A72" t="inlineStr">
-        <is>
-          <t>256667467</t>
-        </is>
-      </c>
-      <c r="B72" t="inlineStr">
-        <is>
-          <t>4974104274</t>
-        </is>
-      </c>
-      <c r="C72" t="inlineStr">
-        <is>
-          <t>VentiWW</t>
-        </is>
-      </c>
-      <c r="D72" t="n">
-        <v>31</v>
-      </c>
-      <c r="E72" t="inlineStr">
-        <is>
-          <t>崩壞3但粉絲再不超過愛醬，就要和愛醬一起下鍋(</t>
-        </is>
-      </c>
-      <c r="F72" t="n">
-        <v>0</v>
-      </c>
-      <c r="G72" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H72" t="inlineStr">
-        <is>
-          <t>2021-07-23 18:26:37</t>
-        </is>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="inlineStr">
-        <is>
-          <t>未知</t>
-        </is>
-      </c>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>690551146</t>
-        </is>
-      </c>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>保密</t>
-        </is>
-      </c>
-      <c r="M72" t="inlineStr">
-        <is>
-          <t>當我的指尖劃過你的面頰，我恍然夢醒，我們從未處於同一世界...</t>
-        </is>
-      </c>
-      <c r="N72" t="n">
-        <v>3</v>
-      </c>
-      <c r="O72" t="inlineStr"/>
       <c r="P72" t="inlineStr"/>
       <c r="Q72" t="inlineStr"/>
     </row>
@@ -5771,20 +5779,20 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>4974100428</t>
+          <t>4974104274</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>樱花庄的罪骨银鸦</t>
+          <t>VentiWW</t>
         </is>
       </c>
       <c r="D73" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>https://b23.tv/wrrGh9</t>
+          <t>崩壞3但粉絲再不超過愛醬，就要和愛醬一起下鍋(</t>
         </is>
       </c>
       <c r="F73" t="n">
@@ -5797,7 +5805,7 @@
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>2021-07-23 18:24:53</t>
+          <t>2021-07-23 18:26:37</t>
         </is>
       </c>
       <c r="I73" t="n">
@@ -5805,37 +5813,29 @@
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K73" t="inlineStr">
         <is>
-          <t>238286273</t>
+          <t>690551146</t>
         </is>
       </c>
       <c r="L73" t="inlineStr">
         <is>
-          <t>男</t>
+          <t>保密</t>
         </is>
       </c>
       <c r="M73" t="inlineStr">
         <is>
-          <t>一个喜欢玩游戏的舞铲阶级菜比</t>
+          <t>當我的指尖劃過你的面頰，我恍然夢醒，我們從未處於同一世界...</t>
         </is>
       </c>
       <c r="N73" t="n">
-        <v>5</v>
-      </c>
-      <c r="O73" t="inlineStr">
-        <is>
-          <t>年度大会员</t>
-        </is>
-      </c>
-      <c r="P73" t="inlineStr">
-        <is>
-          <t>工作细胞</t>
-        </is>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="O73" t="inlineStr"/>
+      <c r="P73" t="inlineStr"/>
       <c r="Q73" t="inlineStr"/>
     </row>
     <row r="74">
@@ -5846,20 +5846,20 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>4974093015</t>
+          <t>4974100428</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>这什么人啊</t>
+          <t>樱花庄的罪骨银鸦</t>
         </is>
       </c>
       <c r="D74" t="n">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>看满离</t>
+          <t>https://b23.tv/wrrGh9</t>
         </is>
       </c>
       <c r="F74" t="n">
@@ -5867,16 +5867,16 @@
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>4974093015</t>
+          <t>0</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>2021-07-23 18:24:02</t>
+          <t>2021-07-23 18:24:53</t>
         </is>
       </c>
       <c r="I74" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J74" t="inlineStr">
         <is>
@@ -5885,28 +5885,32 @@
       </c>
       <c r="K74" t="inlineStr">
         <is>
-          <t>2037192383</t>
+          <t>238286273</t>
         </is>
       </c>
       <c r="L74" t="inlineStr">
         <is>
-          <t>保密</t>
+          <t>男</t>
         </is>
       </c>
       <c r="M74" t="inlineStr">
         <is>
-          <t>我真的好菜啊——</t>
+          <t>一个喜欢玩游戏的舞铲阶级菜比</t>
         </is>
       </c>
       <c r="N74" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="O74" t="inlineStr">
         <is>
-          <t>大会员</t>
-        </is>
-      </c>
-      <c r="P74" t="inlineStr"/>
+          <t>年度大会员</t>
+        </is>
+      </c>
+      <c r="P74" t="inlineStr">
+        <is>
+          <t>工作细胞</t>
+        </is>
+      </c>
       <c r="Q74" t="inlineStr"/>
     </row>
     <row r="75">
@@ -5917,20 +5921,20 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>4974088325</t>
+          <t>4974093015</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Truismers</t>
+          <t>这什么人啊</t>
         </is>
       </c>
       <c r="D75" t="n">
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>今天三蹦子的粉丝超过爱酱了吗？[脱单doge][脱单doge][脱单doge]</t>
+          <t>看满离</t>
         </is>
       </c>
       <c r="F75" t="n">
@@ -5938,16 +5942,16 @@
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4974093015</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>2021-07-23 18:23:56</t>
+          <t>2021-07-23 18:24:02</t>
         </is>
       </c>
       <c r="I75" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J75" t="inlineStr">
         <is>
@@ -5956,7 +5960,7 @@
       </c>
       <c r="K75" t="inlineStr">
         <is>
-          <t>359363400</t>
+          <t>2037192383</t>
         </is>
       </c>
       <c r="L75" t="inlineStr">
@@ -5966,11 +5970,11 @@
       </c>
       <c r="M75" t="inlineStr">
         <is>
-          <t>世上本无事，庸人自扰之。</t>
+          <t>我真的好菜啊——</t>
         </is>
       </c>
       <c r="N75" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="O75" t="inlineStr">
         <is>
@@ -5988,20 +5992,20 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>4974084270</t>
+          <t>4974088325</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>惜寒EXCE</t>
+          <t>Truismers</t>
         </is>
       </c>
       <c r="D76" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>[原神_生气]</t>
+          <t>今天三蹦子的粉丝超过爱酱了吗？[脱单doge][脱单doge][脱单doge]</t>
         </is>
       </c>
       <c r="F76" t="n">
@@ -6014,7 +6018,7 @@
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>2021-07-23 18:23:18</t>
+          <t>2021-07-23 18:23:56</t>
         </is>
       </c>
       <c r="I76" t="n">
@@ -6027,7 +6031,7 @@
       </c>
       <c r="K76" t="inlineStr">
         <is>
-          <t>236993234</t>
+          <t>359363400</t>
         </is>
       </c>
       <c r="L76" t="inlineStr">
@@ -6037,7 +6041,7 @@
       </c>
       <c r="M76" t="inlineStr">
         <is>
-          <t>！该账号封禁中</t>
+          <t>世上本无事，庸人自扰之。</t>
         </is>
       </c>
       <c r="N76" t="n">
@@ -6048,11 +6052,7 @@
           <t>大会员</t>
         </is>
       </c>
-      <c r="P76" t="inlineStr">
-        <is>
-          <t>12周年夏日狂欢</t>
-        </is>
-      </c>
+      <c r="P76" t="inlineStr"/>
       <c r="Q76" t="inlineStr"/>
     </row>
     <row r="77">
@@ -6063,20 +6063,20 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>4974091234</t>
+          <t>4974084270</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>崩坏三第一偶像渡鸦</t>
+          <t>惜寒EXCE</t>
         </is>
       </c>
       <c r="D77" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>好耶</t>
+          <t>[原神_生气]</t>
         </is>
       </c>
       <c r="F77" t="n">
@@ -6089,7 +6089,7 @@
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>2021-07-23 18:23:17</t>
+          <t>2021-07-23 18:23:18</t>
         </is>
       </c>
       <c r="I77" t="n">
@@ -6097,22 +6097,22 @@
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K77" t="inlineStr">
         <is>
-          <t>34208931</t>
+          <t>236993234</t>
         </is>
       </c>
       <c r="L77" t="inlineStr">
         <is>
-          <t>男</t>
+          <t>保密</t>
         </is>
       </c>
       <c r="M77" t="inlineStr">
         <is>
-          <t>爱酱?真不熟，还得是我渡鸦！</t>
+          <t>！该账号封禁中</t>
         </is>
       </c>
       <c r="N77" t="n">
@@ -6125,14 +6125,10 @@
       </c>
       <c r="P77" t="inlineStr">
         <is>
-          <t>崩坏3·天穹流星</t>
-        </is>
-      </c>
-      <c r="Q77" t="inlineStr">
-        <is>
-          <t>崩坏3·天穹流星</t>
-        </is>
-      </c>
+          <t>12周年夏日狂欢</t>
+        </is>
+      </c>
+      <c r="Q77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -6142,20 +6138,20 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>4974083755</t>
+          <t>4974091234</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>ko-ra</t>
+          <t>崩坏三第一偶像渡鸦</t>
         </is>
       </c>
       <c r="D78" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>你看这个飞鱼丸，就这么些评论，真的太逊了[doge]</t>
+          <t>好耶</t>
         </is>
       </c>
       <c r="F78" t="n">
@@ -6168,7 +6164,7 @@
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>2021-07-23 18:23:07</t>
+          <t>2021-07-23 18:23:17</t>
         </is>
       </c>
       <c r="I78" t="n">
@@ -6181,7 +6177,7 @@
       </c>
       <c r="K78" t="inlineStr">
         <is>
-          <t>294588772</t>
+          <t>34208931</t>
         </is>
       </c>
       <c r="L78" t="inlineStr">
@@ -6189,23 +6185,27 @@
           <t>男</t>
         </is>
       </c>
-      <c r="M78" t="inlineStr"/>
+      <c r="M78" t="inlineStr">
+        <is>
+          <t>爱酱?真不熟，还得是我渡鸦！</t>
+        </is>
+      </c>
       <c r="N78" t="n">
         <v>5</v>
       </c>
       <c r="O78" t="inlineStr">
         <is>
-          <t>年度大会员</t>
+          <t>大会员</t>
         </is>
       </c>
       <c r="P78" t="inlineStr">
         <is>
-          <t>总之就是非常可爱</t>
+          <t>崩坏3·天穹流星</t>
         </is>
       </c>
       <c r="Q78" t="inlineStr">
         <is>
-          <t>总之就是非常可爱</t>
+          <t>崩坏3·天穹流星</t>
         </is>
       </c>
     </row>
@@ -6217,20 +6217,20 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>4974086397</t>
+          <t>4974083755</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>绫华_刻晴</t>
+          <t>ko-ra</t>
         </is>
       </c>
       <c r="D79" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>啊啊啊啊。我的识宝[喜欢][喜欢]</t>
+          <t>你看这个飞鱼丸，就这么些评论，真的太逊了[doge]</t>
         </is>
       </c>
       <c r="F79" t="n">
@@ -6243,7 +6243,7 @@
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>2021-07-23 18:23:05</t>
+          <t>2021-07-23 18:23:07</t>
         </is>
       </c>
       <c r="I79" t="n">
@@ -6251,12 +6251,12 @@
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K79" t="inlineStr">
         <is>
-          <t>385556903</t>
+          <t>294588772</t>
         </is>
       </c>
       <c r="L79" t="inlineStr">
@@ -6275,12 +6275,12 @@
       </c>
       <c r="P79" t="inlineStr">
         <is>
-          <t>星座系列：巨蟹座</t>
+          <t>总之就是非常可爱</t>
         </is>
       </c>
       <c r="Q79" t="inlineStr">
         <is>
-          <t>星座装扮巨蟹座</t>
+          <t>总之就是非常可爱</t>
         </is>
       </c>
     </row>
@@ -6292,20 +6292,20 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>4974085423</t>
+          <t>4974086397</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>IO-zza</t>
+          <t>绫华_刻晴</t>
         </is>
       </c>
       <c r="D80" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>所以为什么人均只有一个鼻孔？[doge]</t>
+          <t>啊啊啊啊。我的识宝[喜欢][喜欢]</t>
         </is>
       </c>
       <c r="F80" t="n">
@@ -6318,20 +6318,20 @@
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>2021-07-23 18:22:38</t>
+          <t>2021-07-23 18:23:05</t>
         </is>
       </c>
       <c r="I80" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J80" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K80" t="inlineStr">
         <is>
-          <t>266986370</t>
+          <t>385556903</t>
         </is>
       </c>
       <c r="L80" t="inlineStr">
@@ -6339,21 +6339,25 @@
           <t>男</t>
         </is>
       </c>
-      <c r="M80" t="inlineStr">
-        <is>
-          <t>本人架子鼓8级，获金牌2个，银牌2个，现为Medly萌新，求各位大佬传授乐理~</t>
-        </is>
-      </c>
+      <c r="M80" t="inlineStr"/>
       <c r="N80" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="O80" t="inlineStr">
         <is>
-          <t>大会员</t>
-        </is>
-      </c>
-      <c r="P80" t="inlineStr"/>
-      <c r="Q80" t="inlineStr"/>
+          <t>年度大会员</t>
+        </is>
+      </c>
+      <c r="P80" t="inlineStr">
+        <is>
+          <t>星座系列：巨蟹座</t>
+        </is>
+      </c>
+      <c r="Q80" t="inlineStr">
+        <is>
+          <t>星座装扮巨蟹座</t>
+        </is>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -6363,20 +6367,20 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>4974062172</t>
+          <t>4974085423</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>大师傅x</t>
+          <t>IO-zza</t>
         </is>
       </c>
       <c r="D81" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>爬</t>
+          <t>所以为什么人均只有一个鼻孔？[doge]</t>
         </is>
       </c>
       <c r="F81" t="n">
@@ -6389,20 +6393,20 @@
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>2021-07-23 18:19:40</t>
+          <t>2021-07-23 18:22:38</t>
         </is>
       </c>
       <c r="I81" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>网页</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K81" t="inlineStr">
         <is>
-          <t>20568348</t>
+          <t>266986370</t>
         </is>
       </c>
       <c r="L81" t="inlineStr">
@@ -6410,9 +6414,13 @@
           <t>男</t>
         </is>
       </c>
-      <c r="M81" t="inlineStr"/>
+      <c r="M81" t="inlineStr">
+        <is>
+          <t>本人架子鼓8级，获金牌2个，银牌2个，现为Medly萌新，求各位大佬传授乐理~</t>
+        </is>
+      </c>
       <c r="N81" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="O81" t="inlineStr">
         <is>
@@ -6430,20 +6438,20 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>4974053928</t>
+          <t>4974062172</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>也也是也</t>
+          <t>大师傅x</t>
         </is>
       </c>
       <c r="D82" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>[冷][吃瓜]</t>
+          <t>爬</t>
         </is>
       </c>
       <c r="F82" t="n">
@@ -6456,50 +6464,38 @@
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>2021-07-23 18:19:26</t>
+          <t>2021-07-23 18:19:40</t>
         </is>
       </c>
       <c r="I82" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="J82" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>网页</t>
         </is>
       </c>
       <c r="K82" t="inlineStr">
         <is>
-          <t>48980755</t>
+          <t>20568348</t>
         </is>
       </c>
       <c r="L82" t="inlineStr">
         <is>
-          <t>保密</t>
-        </is>
-      </c>
-      <c r="M82" t="inlineStr">
-        <is>
-          <t>你氪金 肝时间，游戏公司赚钱，我白嫖。(๑˙ー˙๑)</t>
-        </is>
-      </c>
+          <t>男</t>
+        </is>
+      </c>
+      <c r="M82" t="inlineStr"/>
       <c r="N82" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="O82" t="inlineStr">
         <is>
-          <t>年度大会员</t>
-        </is>
-      </c>
-      <c r="P82" t="inlineStr">
-        <is>
-          <t>汉化日记</t>
-        </is>
-      </c>
-      <c r="Q82" t="inlineStr">
-        <is>
-          <t>年度大会员</t>
-        </is>
-      </c>
+          <t>大会员</t>
+        </is>
+      </c>
+      <c r="P82" t="inlineStr"/>
+      <c r="Q82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -6509,20 +6505,20 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>4974057731</t>
+          <t>4974053928</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>illusion星环</t>
+          <t>也也是也</t>
         </is>
       </c>
       <c r="D83" t="n">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>看满离[doge]</t>
+          <t>[冷][吃瓜]</t>
         </is>
       </c>
       <c r="F83" t="n">
@@ -6530,16 +6526,16 @@
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>4974057731</t>
+          <t>0</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>2021-07-23 18:19:14</t>
+          <t>2021-07-23 18:19:26</t>
         </is>
       </c>
       <c r="I83" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="J83" t="inlineStr">
         <is>
@@ -6548,7 +6544,7 @@
       </c>
       <c r="K83" t="inlineStr">
         <is>
-          <t>349096036</t>
+          <t>48980755</t>
         </is>
       </c>
       <c r="L83" t="inlineStr">
@@ -6558,18 +6554,22 @@
       </c>
       <c r="M83" t="inlineStr">
         <is>
-          <t>我才没有懒到什么都不写</t>
+          <t>你氪金 肝时间，游戏公司赚钱，我白嫖。(๑˙ー˙๑)</t>
         </is>
       </c>
       <c r="N83" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O83" t="inlineStr">
         <is>
           <t>年度大会员</t>
         </is>
       </c>
-      <c r="P83" t="inlineStr"/>
+      <c r="P83" t="inlineStr">
+        <is>
+          <t>汉化日记</t>
+        </is>
+      </c>
       <c r="Q83" t="inlineStr">
         <is>
           <t>年度大会员</t>
@@ -6584,20 +6584,20 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>4974061024</t>
+          <t>4974057731</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>墨语书文香芳古</t>
+          <t>illusion星环</t>
         </is>
       </c>
       <c r="D84" t="n">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>识宝，我的识宝[打call]！</t>
+          <t>看满离[doge]</t>
         </is>
       </c>
       <c r="F84" t="n">
@@ -6605,16 +6605,16 @@
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4974057731</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>2021-07-23 18:19:13</t>
+          <t>2021-07-23 18:19:14</t>
         </is>
       </c>
       <c r="I84" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J84" t="inlineStr">
         <is>
@@ -6623,31 +6623,31 @@
       </c>
       <c r="K84" t="inlineStr">
         <is>
-          <t>24817850</t>
+          <t>349096036</t>
         </is>
       </c>
       <c r="L84" t="inlineStr">
         <is>
-          <t>男</t>
-        </is>
-      </c>
-      <c r="M84" t="inlineStr"/>
+          <t>保密</t>
+        </is>
+      </c>
+      <c r="M84" t="inlineStr">
+        <is>
+          <t>我才没有懒到什么都不写</t>
+        </is>
+      </c>
       <c r="N84" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="O84" t="inlineStr">
         <is>
           <t>年度大会员</t>
         </is>
       </c>
-      <c r="P84" t="inlineStr">
-        <is>
-          <t>崩坏3·天穹流星</t>
-        </is>
-      </c>
+      <c r="P84" t="inlineStr"/>
       <c r="Q84" t="inlineStr">
         <is>
-          <t>崩坏3·天穹流星</t>
+          <t>年度大会员</t>
         </is>
       </c>
     </row>
@@ -6659,144 +6659,144 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
+          <t>4974061024</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>墨语书文香芳古</t>
+        </is>
+      </c>
+      <c r="D85" t="n">
+        <v>21</v>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>识宝，我的识宝[打call]！</t>
+        </is>
+      </c>
+      <c r="F85" t="n">
+        <v>0</v>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>2021-07-23 18:19:13</t>
+        </is>
+      </c>
+      <c r="I85" t="n">
+        <v>0</v>
+      </c>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>未知</t>
+        </is>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>24817850</t>
+        </is>
+      </c>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>男</t>
+        </is>
+      </c>
+      <c r="M85" t="inlineStr"/>
+      <c r="N85" t="n">
+        <v>6</v>
+      </c>
+      <c r="O85" t="inlineStr">
+        <is>
+          <t>年度大会员</t>
+        </is>
+      </c>
+      <c r="P85" t="inlineStr">
+        <is>
+          <t>崩坏3·天穹流星</t>
+        </is>
+      </c>
+      <c r="Q85" t="inlineStr">
+        <is>
+          <t>崩坏3·天穹流星</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>256667467</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
           <t>4974049054</t>
         </is>
       </c>
-      <c r="C85" t="inlineStr">
+      <c r="C86" t="inlineStr">
         <is>
           <t>爱阿比的咕哒子</t>
         </is>
       </c>
-      <c r="D85" t="n">
+      <c r="D86" t="n">
         <v>20</v>
       </c>
-      <c r="E85" t="inlineStr">
+      <c r="E86" t="inlineStr">
         <is>
           <t>我还以为是派蒙的画作[doge]</t>
         </is>
       </c>
-      <c r="F85" t="n">
-        <v>0</v>
-      </c>
-      <c r="G85" t="inlineStr">
+      <c r="F86" t="n">
+        <v>0</v>
+      </c>
+      <c r="G86" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="H85" t="inlineStr">
+      <c r="H86" t="inlineStr">
         <is>
           <t>2021-07-23 18:18:25</t>
         </is>
       </c>
-      <c r="I85" t="n">
+      <c r="I86" t="n">
         <v>1</v>
       </c>
-      <c r="J85" t="inlineStr">
+      <c r="J86" t="inlineStr">
         <is>
           <t>未知</t>
         </is>
       </c>
-      <c r="K85" t="inlineStr">
+      <c r="K86" t="inlineStr">
         <is>
           <t>14592499</t>
         </is>
       </c>
-      <c r="L85" t="inlineStr">
+      <c r="L86" t="inlineStr">
         <is>
           <t>男</t>
         </is>
       </c>
-      <c r="M85" t="inlineStr">
+      <c r="M86" t="inlineStr">
         <is>
           <t>你来啦
 要被你看光了呢(๑°3°๑)</t>
         </is>
       </c>
-      <c r="N85" t="n">
-        <v>5</v>
-      </c>
-      <c r="O85" t="inlineStr">
-        <is>
-          <t>年度大会员</t>
-        </is>
-      </c>
-      <c r="P85" t="inlineStr"/>
-      <c r="Q85" t="inlineStr"/>
-    </row>
-    <row r="86">
-      <c r="A86" t="inlineStr">
-        <is>
-          <t>256667467</t>
-        </is>
-      </c>
-      <c r="B86" t="inlineStr">
-        <is>
-          <t>4974046809</t>
-        </is>
-      </c>
-      <c r="C86" t="inlineStr">
-        <is>
-          <t>无史大帝</t>
-        </is>
-      </c>
-      <c r="D86" t="n">
-        <v>1</v>
-      </c>
-      <c r="E86" t="inlineStr">
-        <is>
-          <t>哟，这不那谁吗</t>
-        </is>
-      </c>
-      <c r="F86" t="n">
-        <v>0</v>
-      </c>
-      <c r="G86" t="inlineStr">
-        <is>
-          <t>4974046809</t>
-        </is>
-      </c>
-      <c r="H86" t="inlineStr">
-        <is>
-          <t>2021-07-23 18:17:31</t>
-        </is>
-      </c>
-      <c r="I86" t="n">
-        <v>0</v>
-      </c>
-      <c r="J86" t="inlineStr">
-        <is>
-          <t>未知</t>
-        </is>
-      </c>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>4559635</t>
-        </is>
-      </c>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>男</t>
-        </is>
-      </c>
-      <c r="M86" t="inlineStr"/>
       <c r="N86" t="n">
         <v>5</v>
       </c>
       <c r="O86" t="inlineStr">
         <is>
-          <t>大会员</t>
-        </is>
-      </c>
-      <c r="P86" t="inlineStr">
-        <is>
-          <t>原神</t>
-        </is>
-      </c>
-      <c r="Q86" t="inlineStr">
-        <is>
-          <t>原神</t>
-        </is>
-      </c>
+          <t>年度大会员</t>
+        </is>
+      </c>
+      <c r="P86" t="inlineStr"/>
+      <c r="Q86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -6806,20 +6806,20 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>4974045406</t>
+          <t>4974046809</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>月影心殇</t>
+          <t>无史大帝</t>
         </is>
       </c>
       <c r="D87" t="n">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>识宝有两张，[热词系列_排面]</t>
+          <t>哟，这不那谁吗</t>
         </is>
       </c>
       <c r="F87" t="n">
@@ -6827,43 +6827,51 @@
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4974046809</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>2021-07-23 18:16:57</t>
+          <t>2021-07-23 18:17:31</t>
         </is>
       </c>
       <c r="I87" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J87" t="inlineStr">
         <is>
-          <t>苹果</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K87" t="inlineStr">
         <is>
-          <t>503382801</t>
+          <t>4559635</t>
         </is>
       </c>
       <c r="L87" t="inlineStr">
         <is>
-          <t>保密</t>
+          <t>男</t>
         </is>
       </c>
       <c r="M87" t="inlineStr"/>
       <c r="N87" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="O87" t="inlineStr">
         <is>
           <t>大会员</t>
         </is>
       </c>
-      <c r="P87" t="inlineStr"/>
-      <c r="Q87" t="inlineStr"/>
+      <c r="P87" t="inlineStr">
+        <is>
+          <t>原神</t>
+        </is>
+      </c>
+      <c r="Q87" t="inlineStr">
+        <is>
+          <t>原神</t>
+        </is>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -6873,20 +6881,20 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>4974045209</t>
+          <t>4974045406</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>月墮の零</t>
+          <t>月影心殇</t>
         </is>
       </c>
       <c r="D88" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>[tv_点赞]新表情包get~</t>
+          <t>识宝有两张，[热词系列_排面]</t>
         </is>
       </c>
       <c r="F88" t="n">
@@ -6899,20 +6907,20 @@
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>2021-07-23 18:16:52</t>
+          <t>2021-07-23 18:16:57</t>
         </is>
       </c>
       <c r="I88" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J88" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>苹果</t>
         </is>
       </c>
       <c r="K88" t="inlineStr">
         <is>
-          <t>149018</t>
+          <t>503382801</t>
         </is>
       </c>
       <c r="L88" t="inlineStr">
@@ -6922,19 +6930,15 @@
       </c>
       <c r="M88" t="inlineStr"/>
       <c r="N88" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="O88" t="inlineStr">
         <is>
-          <t>年度大会员</t>
+          <t>大会员</t>
         </is>
       </c>
       <c r="P88" t="inlineStr"/>
-      <c r="Q88" t="inlineStr">
-        <is>
-          <t>椎名菜羽</t>
-        </is>
-      </c>
+      <c r="Q88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -6944,20 +6948,20 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>4974034792</t>
+          <t>4974045209</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>北辰一刀流y</t>
+          <t>月墮の零</t>
         </is>
       </c>
       <c r="D89" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>识宝朝风扇啊啊啊的样子也太小孩了哈哈哈[2233娘_大笑]</t>
+          <t>[tv_点赞]新表情包get~</t>
         </is>
       </c>
       <c r="F89" t="n">
@@ -6970,20 +6974,20 @@
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>2021-07-23 18:16:41</t>
+          <t>2021-07-23 18:16:52</t>
         </is>
       </c>
       <c r="I89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J89" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K89" t="inlineStr">
         <is>
-          <t>296563884</t>
+          <t>149018</t>
         </is>
       </c>
       <c r="L89" t="inlineStr">
@@ -6991,25 +6995,21 @@
           <t>保密</t>
         </is>
       </c>
-      <c r="M89" t="inlineStr">
-        <is>
-          <t>这个人是个懒狗，什么都没有写</t>
-        </is>
-      </c>
+      <c r="M89" t="inlineStr"/>
       <c r="N89" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O89" t="inlineStr">
         <is>
-          <t>大会员</t>
-        </is>
-      </c>
-      <c r="P89" t="inlineStr">
-        <is>
-          <t>斗破苍穹</t>
-        </is>
-      </c>
-      <c r="Q89" t="inlineStr"/>
+          <t>年度大会员</t>
+        </is>
+      </c>
+      <c r="P89" t="inlineStr"/>
+      <c r="Q89" t="inlineStr">
+        <is>
+          <t>椎名菜羽</t>
+        </is>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -7019,20 +7019,20 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>4974041268</t>
+          <t>4974034792</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>櫻之梦</t>
+          <t>北辰一刀流y</t>
         </is>
       </c>
       <c r="D90" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>不送卡差评</t>
+          <t>识宝朝风扇啊啊啊的样子也太小孩了哈哈哈[2233娘_大笑]</t>
         </is>
       </c>
       <c r="F90" t="n">
@@ -7045,20 +7045,20 @@
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>2021-07-23 18:16:33</t>
+          <t>2021-07-23 18:16:41</t>
         </is>
       </c>
       <c r="I90" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J90" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K90" t="inlineStr">
         <is>
-          <t>386915650</t>
+          <t>296563884</t>
         </is>
       </c>
       <c r="L90" t="inlineStr">
@@ -7068,7 +7068,7 @@
       </c>
       <c r="M90" t="inlineStr">
         <is>
-          <t>医学考研学习中…</t>
+          <t>这个人是个懒狗，什么都没有写</t>
         </is>
       </c>
       <c r="N90" t="n">
@@ -7079,7 +7079,11 @@
           <t>大会员</t>
         </is>
       </c>
-      <c r="P90" t="inlineStr"/>
+      <c r="P90" t="inlineStr">
+        <is>
+          <t>斗破苍穹</t>
+        </is>
+      </c>
       <c r="Q90" t="inlineStr"/>
     </row>
     <row r="91">
@@ -7090,20 +7094,20 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>4974036012</t>
+          <t>4974041268</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>漆黑ノ白</t>
+          <t>櫻之梦</t>
         </is>
       </c>
       <c r="D91" t="n">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>感觉好久没看到这句话了</t>
+          <t>不送卡差评</t>
         </is>
       </c>
       <c r="F91" t="n">
@@ -7111,16 +7115,16 @@
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>4974036012</t>
+          <t>0</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>2021-07-23 18:16:13</t>
+          <t>2021-07-23 18:16:33</t>
         </is>
       </c>
       <c r="I91" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="J91" t="inlineStr">
         <is>
@@ -7129,7 +7133,7 @@
       </c>
       <c r="K91" t="inlineStr">
         <is>
-          <t>35648711</t>
+          <t>386915650</t>
         </is>
       </c>
       <c r="L91" t="inlineStr">
@@ -7139,7 +7143,7 @@
       </c>
       <c r="M91" t="inlineStr">
         <is>
-          <t>追逐幻影</t>
+          <t>医学考研学习中…</t>
         </is>
       </c>
       <c r="N91" t="n">
@@ -7147,7 +7151,7 @@
       </c>
       <c r="O91" t="inlineStr">
         <is>
-          <t>年度大会员</t>
+          <t>大会员</t>
         </is>
       </c>
       <c r="P91" t="inlineStr"/>
@@ -7161,144 +7165,136 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
+          <t>4974036012</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>漆黑ノ白</t>
+        </is>
+      </c>
+      <c r="D92" t="n">
+        <v>1</v>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>感觉好久没看到这句话了</t>
+        </is>
+      </c>
+      <c r="F92" t="n">
+        <v>0</v>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>4974036012</t>
+        </is>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>2021-07-23 18:16:13</t>
+        </is>
+      </c>
+      <c r="I92" t="n">
+        <v>14</v>
+      </c>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>未知</t>
+        </is>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>35648711</t>
+        </is>
+      </c>
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>保密</t>
+        </is>
+      </c>
+      <c r="M92" t="inlineStr">
+        <is>
+          <t>追逐幻影</t>
+        </is>
+      </c>
+      <c r="N92" t="n">
+        <v>5</v>
+      </c>
+      <c r="O92" t="inlineStr">
+        <is>
+          <t>年度大会员</t>
+        </is>
+      </c>
+      <c r="P92" t="inlineStr"/>
+      <c r="Q92" t="inlineStr"/>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>256667467</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
           <t>4974040444</t>
         </is>
       </c>
-      <c r="C92" t="inlineStr">
+      <c r="C93" t="inlineStr">
         <is>
           <t>二十二的二次方</t>
         </is>
       </c>
-      <c r="D92" t="n">
+      <c r="D93" t="n">
         <v>15</v>
       </c>
-      <c r="E92" t="inlineStr">
+      <c r="E93" t="inlineStr">
         <is>
           <t>好肥哦</t>
         </is>
       </c>
-      <c r="F92" t="n">
-        <v>0</v>
-      </c>
-      <c r="G92" t="inlineStr">
+      <c r="F93" t="n">
+        <v>0</v>
+      </c>
+      <c r="G93" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="H92" t="inlineStr">
+      <c r="H93" t="inlineStr">
         <is>
           <t>2021-07-23 18:16:13</t>
         </is>
       </c>
-      <c r="I92" t="n">
-        <v>0</v>
-      </c>
-      <c r="J92" t="inlineStr">
+      <c r="I93" t="n">
+        <v>0</v>
+      </c>
+      <c r="J93" t="inlineStr">
         <is>
           <t>未知</t>
         </is>
       </c>
-      <c r="K92" t="inlineStr">
+      <c r="K93" t="inlineStr">
         <is>
           <t>27540972</t>
         </is>
       </c>
-      <c r="L92" t="inlineStr">
+      <c r="L93" t="inlineStr">
         <is>
           <t>保密</t>
         </is>
       </c>
-      <c r="M92" t="inlineStr">
+      <c r="M93" t="inlineStr">
         <is>
           <t>我喜欢原神崩三，人总不能连自己喜欢的东西都不敢承认吧，错的一直不是游戏而是人。
 以及八重樱赛高！！！！</t>
         </is>
       </c>
-      <c r="N92" t="n">
-        <v>5</v>
-      </c>
-      <c r="O92" t="inlineStr">
-        <is>
-          <t>大会员</t>
-        </is>
-      </c>
-      <c r="P92" t="inlineStr">
-        <is>
-          <t>原神</t>
-        </is>
-      </c>
-      <c r="Q92" t="inlineStr">
-        <is>
-          <t>崩坏3·天穹流星</t>
-        </is>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" t="inlineStr">
-        <is>
-          <t>256667467</t>
-        </is>
-      </c>
-      <c r="B93" t="inlineStr">
-        <is>
-          <t>4974033561</t>
-        </is>
-      </c>
-      <c r="C93" t="inlineStr">
-        <is>
-          <t>东风41D洲际战略核导弹</t>
-        </is>
-      </c>
-      <c r="D93" t="n">
-        <v>14</v>
-      </c>
-      <c r="E93" t="inlineStr">
-        <is>
-          <t>在？能不能出个琪亚娜1:7的手办？顺带给琪亚娜霓裳挂画补一下货！[生气]</t>
-        </is>
-      </c>
-      <c r="F93" t="n">
-        <v>0</v>
-      </c>
-      <c r="G93" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H93" t="inlineStr">
-        <is>
-          <t>2021-07-23 18:16:11</t>
-        </is>
-      </c>
-      <c r="I93" t="n">
-        <v>17</v>
-      </c>
-      <c r="J93" t="inlineStr">
-        <is>
-          <t>苹果</t>
-        </is>
-      </c>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>350738745</t>
-        </is>
-      </c>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>男</t>
-        </is>
-      </c>
-      <c r="M93" t="inlineStr">
-        <is>
-          <t>无～</t>
-        </is>
-      </c>
       <c r="N93" t="n">
         <v>5</v>
       </c>
       <c r="O93" t="inlineStr">
         <is>
-          <t>年度大会员</t>
+          <t>大会员</t>
         </is>
       </c>
       <c r="P93" t="inlineStr">
@@ -7320,20 +7316,20 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>4974032578</t>
+          <t>4974033561</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>魔法少爷Daddy</t>
+          <t>东风41D洲际战略核导弹</t>
         </is>
       </c>
       <c r="D94" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>B站能用吗？[脱单doge]</t>
+          <t>在？能不能出个琪亚娜1:7的手办？顺带给琪亚娜霓裳挂画补一下货！[生气]</t>
         </is>
       </c>
       <c r="F94" t="n">
@@ -7346,48 +7342,48 @@
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>2021-07-23 18:15:47</t>
+          <t>2021-07-23 18:16:11</t>
         </is>
       </c>
       <c r="I94" t="n">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="J94" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K94" t="inlineStr">
         <is>
-          <t>347850432</t>
+          <t>350738745</t>
         </is>
       </c>
       <c r="L94" t="inlineStr">
         <is>
-          <t>保密</t>
+          <t>男</t>
         </is>
       </c>
       <c r="M94" t="inlineStr">
         <is>
-          <t>❕该帐号封禁中</t>
+          <t>无～</t>
         </is>
       </c>
       <c r="N94" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="O94" t="inlineStr">
         <is>
-          <t>大会员</t>
+          <t>年度大会员</t>
         </is>
       </c>
       <c r="P94" t="inlineStr">
         <is>
-          <t>2021拜年纪</t>
+          <t>原神</t>
         </is>
       </c>
       <c r="Q94" t="inlineStr">
         <is>
-          <t>2021拜年纪</t>
+          <t>崩坏3·天穹流星</t>
         </is>
       </c>
     </row>
@@ -7399,18 +7395,97 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
+          <t>4974032578</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>魔法少爷Daddy</t>
+        </is>
+      </c>
+      <c r="D95" t="n">
+        <v>13</v>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>B站能用吗？[脱单doge]</t>
+        </is>
+      </c>
+      <c r="F95" t="n">
+        <v>0</v>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>2021-07-23 18:15:47</t>
+        </is>
+      </c>
+      <c r="I95" t="n">
+        <v>23</v>
+      </c>
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>安卓</t>
+        </is>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>347850432</t>
+        </is>
+      </c>
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>保密</t>
+        </is>
+      </c>
+      <c r="M95" t="inlineStr">
+        <is>
+          <t>❕该帐号封禁中</t>
+        </is>
+      </c>
+      <c r="N95" t="n">
+        <v>4</v>
+      </c>
+      <c r="O95" t="inlineStr">
+        <is>
+          <t>大会员</t>
+        </is>
+      </c>
+      <c r="P95" t="inlineStr">
+        <is>
+          <t>2021拜年纪</t>
+        </is>
+      </c>
+      <c r="Q95" t="inlineStr">
+        <is>
+          <t>2021拜年纪</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>256667467</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
           <t>4974023960</t>
         </is>
       </c>
-      <c r="C95" t="inlineStr">
+      <c r="C96" t="inlineStr">
         <is>
           <t>帅哥冬东</t>
         </is>
       </c>
-      <c r="D95" t="n">
+      <c r="D96" t="n">
         <v>11</v>
       </c>
-      <c r="E95" t="inlineStr">
+      <c r="E96" t="inlineStr">
         <is>
           <t>喂喂，听得到吗？这边是刺耳的杂音。
 这边淘宝花费260获得的重装月兔外面签到获得什么时候给个解释?
@@ -7425,97 +7500,30 @@
 2021.7.23</t>
         </is>
       </c>
-      <c r="F95" t="n">
+      <c r="F96" t="n">
         <v>2</v>
       </c>
-      <c r="G95" t="inlineStr">
+      <c r="G96" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="H95" t="inlineStr">
+      <c r="H96" t="inlineStr">
         <is>
           <t>2021-07-23 18:15:19</t>
         </is>
       </c>
-      <c r="I95" t="n">
+      <c r="I96" t="n">
         <v>3</v>
       </c>
-      <c r="J95" t="inlineStr">
+      <c r="J96" t="inlineStr">
         <is>
           <t>安卓</t>
         </is>
       </c>
-      <c r="K95" t="inlineStr">
+      <c r="K96" t="inlineStr">
         <is>
           <t>25322750</t>
-        </is>
-      </c>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>男</t>
-        </is>
-      </c>
-      <c r="M95" t="inlineStr"/>
-      <c r="N95" t="n">
-        <v>5</v>
-      </c>
-      <c r="O95" t="inlineStr">
-        <is>
-          <t>大会员</t>
-        </is>
-      </c>
-      <c r="P95" t="inlineStr"/>
-      <c r="Q95" t="inlineStr"/>
-    </row>
-    <row r="96">
-      <c r="A96" t="inlineStr">
-        <is>
-          <t>256667467</t>
-        </is>
-      </c>
-      <c r="B96" t="inlineStr">
-        <is>
-          <t>4974030846</t>
-        </is>
-      </c>
-      <c r="C96" t="inlineStr">
-        <is>
-          <t>hello_rain</t>
-        </is>
-      </c>
-      <c r="D96" t="n">
-        <v>10</v>
-      </c>
-      <c r="E96" t="inlineStr">
-        <is>
-          <t>识宝怎么憨憨的？[doge]</t>
-        </is>
-      </c>
-      <c r="F96" t="n">
-        <v>0</v>
-      </c>
-      <c r="G96" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H96" t="inlineStr">
-        <is>
-          <t>2021-07-23 18:15:06</t>
-        </is>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="inlineStr">
-        <is>
-          <t>未知</t>
-        </is>
-      </c>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>85982269</t>
         </is>
       </c>
       <c r="L96" t="inlineStr">
@@ -7529,14 +7537,10 @@
       </c>
       <c r="O96" t="inlineStr">
         <is>
-          <t>年度大会员</t>
-        </is>
-      </c>
-      <c r="P96" t="inlineStr">
-        <is>
-          <t>凹凸世界</t>
-        </is>
-      </c>
+          <t>大会员</t>
+        </is>
+      </c>
+      <c r="P96" t="inlineStr"/>
       <c r="Q96" t="inlineStr"/>
     </row>
     <row r="97">
@@ -7547,20 +7551,20 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>4974027064</t>
+          <t>4974030846</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>1340732447</t>
+          <t>hello_rain</t>
         </is>
       </c>
       <c r="D97" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>为什么没有绯狱丸的表情包</t>
+          <t>识宝怎么憨憨的？[doge]</t>
         </is>
       </c>
       <c r="F97" t="n">
@@ -7573,7 +7577,7 @@
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>2021-07-23 18:14:58</t>
+          <t>2021-07-23 18:15:06</t>
         </is>
       </c>
       <c r="I97" t="n">
@@ -7586,7 +7590,7 @@
       </c>
       <c r="K97" t="inlineStr">
         <is>
-          <t>1801856</t>
+          <t>85982269</t>
         </is>
       </c>
       <c r="L97" t="inlineStr">
@@ -7603,12 +7607,12 @@
           <t>年度大会员</t>
         </is>
       </c>
-      <c r="P97" t="inlineStr"/>
-      <c r="Q97" t="inlineStr">
-        <is>
-          <t>崩坏3·天穹流星</t>
-        </is>
-      </c>
+      <c r="P97" t="inlineStr">
+        <is>
+          <t>凹凸世界</t>
+        </is>
+      </c>
+      <c r="Q97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -7618,20 +7622,20 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>4974026948</t>
+          <t>4974027064</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>很非的嘤樱怪</t>
+          <t>1340732447</t>
         </is>
       </c>
       <c r="D98" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>希儿[打call]</t>
+          <t>为什么没有绯狱丸的表情包</t>
         </is>
       </c>
       <c r="F98" t="n">
@@ -7644,11 +7648,11 @@
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>2021-07-23 18:14:56</t>
+          <t>2021-07-23 18:14:58</t>
         </is>
       </c>
       <c r="I98" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J98" t="inlineStr">
         <is>
@@ -7657,25 +7661,29 @@
       </c>
       <c r="K98" t="inlineStr">
         <is>
-          <t>495136074</t>
+          <t>1801856</t>
         </is>
       </c>
       <c r="L98" t="inlineStr">
         <is>
-          <t>保密</t>
+          <t>男</t>
         </is>
       </c>
       <c r="M98" t="inlineStr"/>
       <c r="N98" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="O98" t="inlineStr">
         <is>
-          <t>大会员</t>
+          <t>年度大会员</t>
         </is>
       </c>
       <c r="P98" t="inlineStr"/>
-      <c r="Q98" t="inlineStr"/>
+      <c r="Q98" t="inlineStr">
+        <is>
+          <t>崩坏3·天穹流星</t>
+        </is>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -7685,20 +7693,20 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>4974022894</t>
+          <t>4974026948</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>秋风悲-夏雨泪</t>
+          <t>很非的嘤樱怪</t>
         </is>
       </c>
       <c r="D99" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>第一[藏狐]</t>
+          <t>希儿[打call]</t>
         </is>
       </c>
       <c r="F99" t="n">
@@ -7711,11 +7719,11 @@
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>2021-07-23 18:14:51</t>
+          <t>2021-07-23 18:14:56</t>
         </is>
       </c>
       <c r="I99" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J99" t="inlineStr">
         <is>
@@ -7724,21 +7732,17 @@
       </c>
       <c r="K99" t="inlineStr">
         <is>
-          <t>347550815</t>
+          <t>495136074</t>
         </is>
       </c>
       <c r="L99" t="inlineStr">
         <is>
-          <t>男</t>
-        </is>
-      </c>
-      <c r="M99" t="inlineStr">
-        <is>
-          <t>二次元萌新，请多多指教。</t>
-        </is>
-      </c>
+          <t>保密</t>
+        </is>
+      </c>
+      <c r="M99" t="inlineStr"/>
       <c r="N99" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="O99" t="inlineStr">
         <is>
@@ -7756,20 +7760,20 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>4974022736</t>
+          <t>4974022894</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>叶陨辰迹</t>
+          <t>秋风悲-夏雨泪</t>
         </is>
       </c>
       <c r="D100" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>前排踢你pg[脱单doge]</t>
+          <t>第一[藏狐]</t>
         </is>
       </c>
       <c r="F100" t="n">
@@ -7782,7 +7786,7 @@
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>2021-07-23 18:14:47</t>
+          <t>2021-07-23 18:14:51</t>
         </is>
       </c>
       <c r="I100" t="n">
@@ -7795,7 +7799,7 @@
       </c>
       <c r="K100" t="inlineStr">
         <is>
-          <t>277697315</t>
+          <t>347550815</t>
         </is>
       </c>
       <c r="L100" t="inlineStr">
@@ -7803,7 +7807,11 @@
           <t>男</t>
         </is>
       </c>
-      <c r="M100" t="inlineStr"/>
+      <c r="M100" t="inlineStr">
+        <is>
+          <t>二次元萌新，请多多指教。</t>
+        </is>
+      </c>
       <c r="N100" t="n">
         <v>5</v>
       </c>
@@ -7823,20 +7831,20 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>4974026405</t>
+          <t>4974022736</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>很非的嘤樱怪</t>
+          <t>叶陨辰迹</t>
         </is>
       </c>
       <c r="D101" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>丽塔[打call]</t>
+          <t>前排踢你pg[脱单doge]</t>
         </is>
       </c>
       <c r="F101" t="n">
@@ -7849,11 +7857,11 @@
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>2021-07-23 18:14:43</t>
+          <t>2021-07-23 18:14:47</t>
         </is>
       </c>
       <c r="I101" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J101" t="inlineStr">
         <is>
@@ -7862,17 +7870,17 @@
       </c>
       <c r="K101" t="inlineStr">
         <is>
-          <t>495136074</t>
+          <t>277697315</t>
         </is>
       </c>
       <c r="L101" t="inlineStr">
         <is>
-          <t>保密</t>
+          <t>男</t>
         </is>
       </c>
       <c r="M101" t="inlineStr"/>
       <c r="N101" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="O101" t="inlineStr">
         <is>
@@ -7890,38 +7898,38 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>4974019538</t>
+          <t>4974026405</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>南宫司雀</t>
+          <t>很非的嘤樱怪</t>
         </is>
       </c>
       <c r="D102" t="n">
+        <v>4</v>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>丽塔[打call]</t>
+        </is>
+      </c>
+      <c r="F102" t="n">
+        <v>0</v>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H102" t="inlineStr">
+        <is>
+          <t>2021-07-23 18:14:43</t>
+        </is>
+      </c>
+      <c r="I102" t="n">
         <v>3</v>
       </c>
-      <c r="E102" t="inlineStr">
-        <is>
-          <t>老梗来一遍，今超爱？[doge]</t>
-        </is>
-      </c>
-      <c r="F102" t="n">
-        <v>22</v>
-      </c>
-      <c r="G102" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H102" t="inlineStr">
-        <is>
-          <t>2021-07-23 18:14:33</t>
-        </is>
-      </c>
-      <c r="I102" t="n">
-        <v>342</v>
-      </c>
       <c r="J102" t="inlineStr">
         <is>
           <t>未知</t>
@@ -7929,7 +7937,7 @@
       </c>
       <c r="K102" t="inlineStr">
         <is>
-          <t>346525097</t>
+          <t>495136074</t>
         </is>
       </c>
       <c r="L102" t="inlineStr">
@@ -7937,13 +7945,9 @@
           <t>保密</t>
         </is>
       </c>
-      <c r="M102" t="inlineStr">
-        <is>
-          <t>不定期更新。</t>
-        </is>
-      </c>
+      <c r="M102" t="inlineStr"/>
       <c r="N102" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="O102" t="inlineStr">
         <is>
@@ -7961,24 +7965,24 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>4974019342</t>
+          <t>4974019538</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>哭泣的贤者</t>
+          <t>南宫司雀</t>
         </is>
       </c>
       <c r="D103" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>[藏狐]</t>
+          <t>老梗来一遍，今超爱？[doge]</t>
         </is>
       </c>
       <c r="F103" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="G103" t="inlineStr">
         <is>
@@ -7987,11 +7991,11 @@
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>2021-07-23 18:14:28</t>
+          <t>2021-07-23 18:14:33</t>
         </is>
       </c>
       <c r="I103" t="n">
-        <v>0</v>
+        <v>343</v>
       </c>
       <c r="J103" t="inlineStr">
         <is>
@@ -8000,7 +8004,7 @@
       </c>
       <c r="K103" t="inlineStr">
         <is>
-          <t>123252656</t>
+          <t>346525097</t>
         </is>
       </c>
       <c r="L103" t="inlineStr">
@@ -8008,7 +8012,11 @@
           <t>保密</t>
         </is>
       </c>
-      <c r="M103" t="inlineStr"/>
+      <c r="M103" t="inlineStr">
+        <is>
+          <t>不定期更新。</t>
+        </is>
+      </c>
       <c r="N103" t="n">
         <v>5</v>
       </c>
@@ -8019,6 +8027,73 @@
       </c>
       <c r="P103" t="inlineStr"/>
       <c r="Q103" t="inlineStr"/>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>256667467</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>4974019342</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>哭泣的贤者</t>
+        </is>
+      </c>
+      <c r="D104" t="n">
+        <v>1</v>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>[藏狐]</t>
+        </is>
+      </c>
+      <c r="F104" t="n">
+        <v>0</v>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H104" t="inlineStr">
+        <is>
+          <t>2021-07-23 18:14:28</t>
+        </is>
+      </c>
+      <c r="I104" t="n">
+        <v>0</v>
+      </c>
+      <c r="J104" t="inlineStr">
+        <is>
+          <t>未知</t>
+        </is>
+      </c>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>123252656</t>
+        </is>
+      </c>
+      <c r="L104" t="inlineStr">
+        <is>
+          <t>保密</t>
+        </is>
+      </c>
+      <c r="M104" t="inlineStr"/>
+      <c r="N104" t="n">
+        <v>5</v>
+      </c>
+      <c r="O104" t="inlineStr">
+        <is>
+          <t>大会员</t>
+        </is>
+      </c>
+      <c r="P104" t="inlineStr"/>
+      <c r="Q104" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/bh3/550601222371727765_2021-07-23_18-13-57.xlsx
+++ b/bh3/550601222371727765_2021-07-23_18-13-57.xlsx
@@ -1360,7 +1360,7 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
@@ -1660,7 +1660,7 @@
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>苹果</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
@@ -1953,7 +1953,7 @@
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
@@ -2016,7 +2016,7 @@
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
@@ -2158,7 +2158,7 @@
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>网页</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
@@ -2308,7 +2308,7 @@
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>苹果</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
@@ -2537,7 +2537,7 @@
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
@@ -3109,7 +3109,7 @@
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
@@ -3188,7 +3188,7 @@
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
@@ -3409,7 +3409,7 @@
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
@@ -3476,7 +3476,7 @@
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K42" t="inlineStr">
@@ -3780,7 +3780,7 @@
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K46" t="inlineStr">
@@ -3859,7 +3859,7 @@
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>苹果</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K47" t="inlineStr">
@@ -4081,7 +4081,7 @@
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K50" t="inlineStr">
@@ -4153,7 +4153,7 @@
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K51" t="inlineStr">
@@ -4217,7 +4217,7 @@
         </is>
       </c>
       <c r="I52" t="n">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="J52" t="inlineStr">
         <is>
@@ -4414,7 +4414,7 @@
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>苹果</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K55" t="inlineStr">
@@ -4490,7 +4490,7 @@
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K56" t="inlineStr">
@@ -4636,7 +4636,7 @@
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K58" t="inlineStr">
@@ -4790,7 +4790,7 @@
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K60" t="inlineStr">
@@ -4928,7 +4928,7 @@
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K62" t="inlineStr">
@@ -5393,7 +5393,7 @@
         </is>
       </c>
       <c r="I68" t="n">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="J68" t="inlineStr">
         <is>
@@ -5813,7 +5813,7 @@
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K73" t="inlineStr">
@@ -6097,7 +6097,7 @@
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K77" t="inlineStr">
@@ -6251,7 +6251,7 @@
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K79" t="inlineStr">
@@ -6326,7 +6326,7 @@
       </c>
       <c r="J80" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K80" t="inlineStr">
@@ -6915,7 +6915,7 @@
       </c>
       <c r="J88" t="inlineStr">
         <is>
-          <t>苹果</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K88" t="inlineStr">
@@ -7053,7 +7053,7 @@
       </c>
       <c r="J90" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K90" t="inlineStr">
@@ -7429,7 +7429,7 @@
       </c>
       <c r="J95" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K95" t="inlineStr">
@@ -7995,7 +7995,7 @@
         </is>
       </c>
       <c r="I103" t="n">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="J103" t="inlineStr">
         <is>

--- a/bh3/550601222371727765_2021-07-23_18-13-57.xlsx
+++ b/bh3/550601222371727765_2021-07-23_18-13-57.xlsx
@@ -16,7 +16,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+  </numFmts>
   <fonts count="1">
     <font>
       <name val="Calibri"/>
@@ -46,8 +48,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -419,6 +422,19 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="12" customWidth="1" min="1" max="1"/>
+    <col width="12" customWidth="1" min="2" max="2"/>
+    <col width="12" customWidth="1" min="3" max="3"/>
+    <col width="50" customWidth="1" min="5" max="5"/>
+    <col width="12" customWidth="1" min="7" max="7"/>
+    <col width="20" customWidth="1" min="8" max="8"/>
+    <col width="12" customWidth="1" min="11" max="11"/>
+    <col width="12" customWidth="1" min="13" max="13"/>
+    <col width="12" customWidth="1" min="15" max="15"/>
+    <col width="20" customWidth="1" min="16" max="16"/>
+    <col width="20" customWidth="1" min="17" max="17"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
@@ -539,10 +555,8 @@
           <t>5044181347</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>2021-08-01 14:57:06</t>
-        </is>
+      <c r="H2" s="1" t="n">
+        <v>44409.62298611111</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -614,10 +628,8 @@
           <t>5021940869</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>2021-07-29 20:29:57</t>
-        </is>
+      <c r="H3" s="1" t="n">
+        <v>44406.85413194444</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -693,10 +705,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>2021-07-27 19:30:43</t>
-        </is>
+      <c r="H4" s="1" t="n">
+        <v>44404.81299768519</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -760,10 +770,8 @@
           <t>5003803568</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>2021-07-27 17:21:16</t>
-        </is>
+      <c r="H5" s="1" t="n">
+        <v>44404.72310185185</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -832,10 +840,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>2021-07-27 08:08:18</t>
-        </is>
+      <c r="H6" s="1" t="n">
+        <v>44404.33909722222</v>
       </c>
       <c r="I6" t="n">
         <v>3</v>
@@ -899,10 +905,8 @@
           <t>4989391476</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>2021-07-25 19:46:03</t>
-        </is>
+      <c r="H7" s="1" t="n">
+        <v>44402.82364583333</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -974,10 +978,8 @@
           <t>4985409612</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>2021-07-25 09:03:40</t>
-        </is>
+      <c r="H8" s="1" t="n">
+        <v>44402.37754629629</v>
       </c>
       <c r="I8" t="n">
         <v>5</v>
@@ -1053,10 +1055,8 @@
           <t>4984853533</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>2021-07-25 04:21:20</t>
-        </is>
+      <c r="H9" s="1" t="n">
+        <v>44402.18148148148</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -1124,10 +1124,8 @@
           <t>4980306948</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>2021-07-24 15:05:29</t>
-        </is>
+      <c r="H10" s="1" t="n">
+        <v>44401.62880787037</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1203,10 +1201,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>2021-07-24 08:19:10</t>
-        </is>
+      <c r="H11" s="1" t="n">
+        <v>44401.34664351852</v>
       </c>
       <c r="I11" t="n">
         <v>6</v>
@@ -1270,10 +1266,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>2021-07-24 08:00:28</t>
-        </is>
+      <c r="H12" s="1" t="n">
+        <v>44401.33365740741</v>
       </c>
       <c r="I12" t="n">
         <v>2</v>
@@ -1350,10 +1344,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>2021-07-23 23:35:20</t>
-        </is>
+      <c r="H13" s="1" t="n">
+        <v>44400.98287037037</v>
       </c>
       <c r="I13" t="n">
         <v>1</v>
@@ -1429,10 +1421,8 @@
           <t>4976252099</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>2021-07-23 23:05:53</t>
-        </is>
+      <c r="H14" s="1" t="n">
+        <v>44400.96241898148</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1500,10 +1490,8 @@
           <t>4976010134</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>2021-07-23 22:36:09</t>
-        </is>
+      <c r="H15" s="1" t="n">
+        <v>44400.94177083333</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1575,10 +1563,8 @@
           <t>4974131160</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>2021-07-23 21:41:34</t>
-        </is>
+      <c r="H16" s="1" t="n">
+        <v>44400.90386574074</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1650,10 +1636,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>2021-07-23 21:39:01</t>
-        </is>
+      <c r="H17" s="1" t="n">
+        <v>44400.9020949074</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1729,10 +1713,8 @@
           <t>4974131160</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>2021-07-23 21:28:00</t>
-        </is>
+      <c r="H18" s="1" t="n">
+        <v>44400.89444444444</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1796,10 +1778,8 @@
           <t>4974131160</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>2021-07-23 21:06:48</t>
-        </is>
+      <c r="H19" s="1" t="n">
+        <v>44400.87972222222</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -1871,10 +1851,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>2021-07-23 21:06:01</t>
-        </is>
+      <c r="H20" s="1" t="n">
+        <v>44400.87917824074</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -1943,10 +1921,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>2021-07-23 20:57:48</t>
-        </is>
+      <c r="H21" s="1" t="n">
+        <v>44400.87347222222</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2006,10 +1982,8 @@
           <t>4975157612</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>2021-07-23 20:47:29</t>
-        </is>
+      <c r="H22" s="1" t="n">
+        <v>44400.86630787037</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2069,10 +2043,8 @@
           <t>4974958215</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>2021-07-23 20:29:07</t>
-        </is>
+      <c r="H23" s="1" t="n">
+        <v>44400.85355324074</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2148,10 +2120,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>2021-07-23 20:28:05</t>
-        </is>
+      <c r="H24" s="1" t="n">
+        <v>44400.85283564815</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2227,10 +2197,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>2021-07-23 20:21:45</t>
-        </is>
+      <c r="H25" s="1" t="n">
+        <v>44400.8484375</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2298,10 +2266,8 @@
           <t>4974958215</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>2021-07-23 20:20:20</t>
-        </is>
+      <c r="H26" s="1" t="n">
+        <v>44400.8474537037</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2377,10 +2343,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>2021-07-23 20:17:09</t>
-        </is>
+      <c r="H27" s="1" t="n">
+        <v>44400.84524305556</v>
       </c>
       <c r="I27" t="n">
         <v>1</v>
@@ -2448,10 +2412,8 @@
           <t>4974857837</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>2021-07-23 20:06:28</t>
-        </is>
+      <c r="H28" s="1" t="n">
+        <v>44400.83782407407</v>
       </c>
       <c r="I28" t="n">
         <v>1</v>
@@ -2527,10 +2489,8 @@
           <t>4974837959</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>2021-07-23 20:03:17</t>
-        </is>
+      <c r="H29" s="1" t="n">
+        <v>44400.83561342592</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2598,10 +2558,8 @@
           <t>4974811071</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>2021-07-23 19:59:32</t>
-        </is>
+      <c r="H30" s="1" t="n">
+        <v>44400.83300925926</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2669,10 +2627,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>2021-07-23 19:49:31</t>
-        </is>
+      <c r="H31" s="1" t="n">
+        <v>44400.82605324074</v>
       </c>
       <c r="I31" t="n">
         <v>9</v>
@@ -2740,10 +2696,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>2021-07-23 19:39:09</t>
-        </is>
+      <c r="H32" s="1" t="n">
+        <v>44400.81885416667</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -2807,10 +2761,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>2021-07-23 19:38:17</t>
-        </is>
+      <c r="H33" s="1" t="n">
+        <v>44400.81825231481</v>
       </c>
       <c r="I33" t="n">
         <v>2</v>
@@ -2878,10 +2830,8 @@
           <t>4974556569</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>2021-07-23 19:25:52</t>
-        </is>
+      <c r="H34" s="1" t="n">
+        <v>44400.80962962963</v>
       </c>
       <c r="I34" t="n">
         <v>5</v>
@@ -2953,10 +2903,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>2021-07-23 19:23:22</t>
-        </is>
+      <c r="H35" s="1" t="n">
+        <v>44400.80789351852</v>
       </c>
       <c r="I35" t="n">
         <v>1</v>
@@ -3020,10 +2968,8 @@
           <t>4974446826</t>
         </is>
       </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>2021-07-23 19:11:15</t>
-        </is>
+      <c r="H36" s="1" t="n">
+        <v>44400.79947916666</v>
       </c>
       <c r="I36" t="n">
         <v>1</v>
@@ -3099,10 +3045,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>2021-07-23 19:02:20</t>
-        </is>
+      <c r="H37" s="1" t="n">
+        <v>44400.79328703704</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3178,10 +3122,8 @@
           <t>4974364070</t>
         </is>
       </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>2021-07-23 19:00:41</t>
-        </is>
+      <c r="H38" s="1" t="n">
+        <v>44400.7921412037</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3249,10 +3191,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>2021-07-23 18:59:38</t>
-        </is>
+      <c r="H39" s="1" t="n">
+        <v>44400.79141203704</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3328,10 +3268,8 @@
           <t>4974360909</t>
         </is>
       </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>2021-07-23 18:59:31</t>
-        </is>
+      <c r="H40" s="1" t="n">
+        <v>44400.79133101852</v>
       </c>
       <c r="I40" t="n">
         <v>9</v>
@@ -3399,10 +3337,8 @@
           <t>4974142271</t>
         </is>
       </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>2021-07-23 18:58:25</t>
-        </is>
+      <c r="H41" s="1" t="n">
+        <v>44400.79056712963</v>
       </c>
       <c r="I41" t="n">
         <v>1</v>
@@ -3466,10 +3402,8 @@
           <t>4974334796</t>
         </is>
       </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>2021-07-23 18:57:17</t>
-        </is>
+      <c r="H42" s="1" t="n">
+        <v>44400.78978009259</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3545,10 +3479,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>2021-07-23 18:56:21</t>
-        </is>
+      <c r="H43" s="1" t="n">
+        <v>44400.78913194445</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3624,10 +3556,8 @@
           <t>4974319504</t>
         </is>
       </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>2021-07-23 18:55:33</t>
-        </is>
+      <c r="H44" s="1" t="n">
+        <v>44400.78857638889</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -3695,10 +3625,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>2021-07-23 18:54:02</t>
-        </is>
+      <c r="H45" s="1" t="n">
+        <v>44400.78752314814</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -3770,10 +3698,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>2021-07-23 18:53:10</t>
-        </is>
+      <c r="H46" s="1" t="n">
+        <v>44400.7869212963</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -3849,10 +3775,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>2021-07-23 18:49:37</t>
-        </is>
+      <c r="H47" s="1" t="n">
+        <v>44400.78445601852</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
@@ -3920,10 +3844,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>2021-07-23 18:48:34</t>
-        </is>
+      <c r="H48" s="1" t="n">
+        <v>44400.78372685185</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
@@ -3996,10 +3918,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>2021-07-23 18:46:24</t>
-        </is>
+      <c r="H49" s="1" t="n">
+        <v>44400.78222222222</v>
       </c>
       <c r="I49" t="n">
         <v>2</v>
@@ -4071,10 +3991,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>2021-07-23 18:45:39</t>
-        </is>
+      <c r="H50" s="1" t="n">
+        <v>44400.78170138889</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
@@ -4143,10 +4061,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>2021-07-23 18:42:46</t>
-        </is>
+      <c r="H51" s="1" t="n">
+        <v>44400.77969907408</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
@@ -4211,10 +4127,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>2021-07-23 18:41:20</t>
-        </is>
+      <c r="H52" s="1" t="n">
+        <v>44400.77870370371</v>
       </c>
       <c r="I52" t="n">
         <v>154</v>
@@ -4278,10 +4192,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>2021-07-23 18:41:18</t>
-        </is>
+      <c r="H53" s="1" t="n">
+        <v>44400.77868055556</v>
       </c>
       <c r="I53" t="n">
         <v>1</v>
@@ -4341,10 +4253,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>2021-07-23 18:41:12</t>
-        </is>
+      <c r="H54" s="1" t="n">
+        <v>44400.77861111111</v>
       </c>
       <c r="I54" t="n">
         <v>3</v>
@@ -4404,10 +4314,8 @@
           <t>4974199687</t>
         </is>
       </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>2021-07-23 18:38:52</t>
-        </is>
+      <c r="H55" s="1" t="n">
+        <v>44400.77699074074</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
@@ -4480,10 +4388,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>2021-07-23 18:38:02</t>
-        </is>
+      <c r="H56" s="1" t="n">
+        <v>44400.77641203703</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
@@ -4559,10 +4465,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>2021-07-23 18:37:09</t>
-        </is>
+      <c r="H57" s="1" t="n">
+        <v>44400.77579861111</v>
       </c>
       <c r="I57" t="n">
         <v>8</v>
@@ -4626,10 +4530,8 @@
           <t>4974176186</t>
         </is>
       </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>2021-07-23 18:35:25</t>
-        </is>
+      <c r="H58" s="1" t="n">
+        <v>44400.77459490741</v>
       </c>
       <c r="I58" t="n">
         <v>4</v>
@@ -4705,10 +4607,8 @@
           <t>4974171920</t>
         </is>
       </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>2021-07-23 18:34:30</t>
-        </is>
+      <c r="H59" s="1" t="n">
+        <v>44400.77395833333</v>
       </c>
       <c r="I59" t="n">
         <v>3</v>
@@ -4780,10 +4680,8 @@
           <t>4974168659</t>
         </is>
       </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>2021-07-23 18:34:29</t>
-        </is>
+      <c r="H60" s="1" t="n">
+        <v>44400.77394675926</v>
       </c>
       <c r="I60" t="n">
         <v>1</v>
@@ -4847,10 +4745,8 @@
           <t>4974142271</t>
         </is>
       </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>2021-07-23 18:33:24</t>
-        </is>
+      <c r="H61" s="1" t="n">
+        <v>44400.77319444445</v>
       </c>
       <c r="I61" t="n">
         <v>2</v>
@@ -4918,10 +4814,8 @@
           <t>4974142271</t>
         </is>
       </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>2021-07-23 18:32:41</t>
-        </is>
+      <c r="H62" s="1" t="n">
+        <v>44400.77269675926</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
@@ -4993,10 +4887,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>2021-07-23 18:31:58</t>
-        </is>
+      <c r="H63" s="1" t="n">
+        <v>44400.77219907408</v>
       </c>
       <c r="I63" t="n">
         <v>77</v>
@@ -5075,10 +4967,8 @@
           <t>4974131160</t>
         </is>
       </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>2021-07-23 18:31:45</t>
-        </is>
+      <c r="H64" s="1" t="n">
+        <v>44400.77204861111</v>
       </c>
       <c r="I64" t="n">
         <v>19</v>
@@ -5154,10 +5044,8 @@
           <t>4974142271</t>
         </is>
       </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>2021-07-23 18:30:41</t>
-        </is>
+      <c r="H65" s="1" t="n">
+        <v>44400.77130787037</v>
       </c>
       <c r="I65" t="n">
         <v>7</v>
@@ -5233,10 +5121,8 @@
           <t>4974142271</t>
         </is>
       </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>2021-07-23 18:30:08</t>
-        </is>
+      <c r="H66" s="1" t="n">
+        <v>44400.77092592593</v>
       </c>
       <c r="I66" t="n">
         <v>2</v>
@@ -5308,10 +5194,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t>2021-07-23 18:29:37</t>
-        </is>
+      <c r="H67" s="1" t="n">
+        <v>44400.77056712963</v>
       </c>
       <c r="I67" t="n">
         <v>0</v>
@@ -5387,10 +5271,8 @@
           <t>4974131160</t>
         </is>
       </c>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t>2021-07-23 18:29:20</t>
-        </is>
+      <c r="H68" s="1" t="n">
+        <v>44400.77037037037</v>
       </c>
       <c r="I68" t="n">
         <v>99</v>
@@ -5466,10 +5348,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>2021-07-23 18:28:56</t>
-        </is>
+      <c r="H69" s="1" t="n">
+        <v>44400.77009259259</v>
       </c>
       <c r="I69" t="n">
         <v>0</v>
@@ -5545,10 +5425,8 @@
           <t>4974127966</t>
         </is>
       </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>2021-07-23 18:28:30</t>
-        </is>
+      <c r="H70" s="1" t="n">
+        <v>44400.76979166667</v>
       </c>
       <c r="I70" t="n">
         <v>2</v>
@@ -5624,10 +5502,8 @@
           <t>4974125533</t>
         </is>
       </c>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t>2021-07-23 18:27:34</t>
-        </is>
+      <c r="H71" s="1" t="n">
+        <v>44400.76914351852</v>
       </c>
       <c r="I71" t="n">
         <v>0</v>
@@ -5736,10 +5612,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H72" t="inlineStr">
-        <is>
-          <t>2021-07-23 18:26:58</t>
-        </is>
+      <c r="H72" s="1" t="n">
+        <v>44400.76872685185</v>
       </c>
       <c r="I72" t="n">
         <v>5</v>
@@ -5803,10 +5677,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H73" t="inlineStr">
-        <is>
-          <t>2021-07-23 18:26:37</t>
-        </is>
+      <c r="H73" s="1" t="n">
+        <v>44400.7684837963</v>
       </c>
       <c r="I73" t="n">
         <v>0</v>
@@ -5870,10 +5742,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H74" t="inlineStr">
-        <is>
-          <t>2021-07-23 18:24:53</t>
-        </is>
+      <c r="H74" s="1" t="n">
+        <v>44400.76728009259</v>
       </c>
       <c r="I74" t="n">
         <v>0</v>
@@ -5945,10 +5815,8 @@
           <t>4974093015</t>
         </is>
       </c>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>2021-07-23 18:24:02</t>
-        </is>
+      <c r="H75" s="1" t="n">
+        <v>44400.76668981482</v>
       </c>
       <c r="I75" t="n">
         <v>2</v>
@@ -6016,10 +5884,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t>2021-07-23 18:23:56</t>
-        </is>
+      <c r="H76" s="1" t="n">
+        <v>44400.76662037037</v>
       </c>
       <c r="I76" t="n">
         <v>0</v>
@@ -6087,10 +5953,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H77" t="inlineStr">
-        <is>
-          <t>2021-07-23 18:23:18</t>
-        </is>
+      <c r="H77" s="1" t="n">
+        <v>44400.76618055555</v>
       </c>
       <c r="I77" t="n">
         <v>0</v>
@@ -6162,10 +6026,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H78" t="inlineStr">
-        <is>
-          <t>2021-07-23 18:23:17</t>
-        </is>
+      <c r="H78" s="1" t="n">
+        <v>44400.76616898148</v>
       </c>
       <c r="I78" t="n">
         <v>0</v>
@@ -6241,10 +6103,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>2021-07-23 18:23:07</t>
-        </is>
+      <c r="H79" s="1" t="n">
+        <v>44400.76605324074</v>
       </c>
       <c r="I79" t="n">
         <v>0</v>
@@ -6316,10 +6176,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H80" t="inlineStr">
-        <is>
-          <t>2021-07-23 18:23:05</t>
-        </is>
+      <c r="H80" s="1" t="n">
+        <v>44400.76603009259</v>
       </c>
       <c r="I80" t="n">
         <v>0</v>
@@ -6391,10 +6249,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H81" t="inlineStr">
-        <is>
-          <t>2021-07-23 18:22:38</t>
-        </is>
+      <c r="H81" s="1" t="n">
+        <v>44400.76571759259</v>
       </c>
       <c r="I81" t="n">
         <v>2</v>
@@ -6462,10 +6318,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H82" t="inlineStr">
-        <is>
-          <t>2021-07-23 18:19:40</t>
-        </is>
+      <c r="H82" s="1" t="n">
+        <v>44400.76365740741</v>
       </c>
       <c r="I82" t="n">
         <v>1</v>
@@ -6529,10 +6383,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H83" t="inlineStr">
-        <is>
-          <t>2021-07-23 18:19:26</t>
-        </is>
+      <c r="H83" s="1" t="n">
+        <v>44400.76349537037</v>
       </c>
       <c r="I83" t="n">
         <v>7</v>
@@ -6608,10 +6460,8 @@
           <t>4974057731</t>
         </is>
       </c>
-      <c r="H84" t="inlineStr">
-        <is>
-          <t>2021-07-23 18:19:14</t>
-        </is>
+      <c r="H84" s="1" t="n">
+        <v>44400.76335648148</v>
       </c>
       <c r="I84" t="n">
         <v>3</v>
@@ -6683,10 +6533,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H85" t="inlineStr">
-        <is>
-          <t>2021-07-23 18:19:13</t>
-        </is>
+      <c r="H85" s="1" t="n">
+        <v>44400.76334490741</v>
       </c>
       <c r="I85" t="n">
         <v>0</v>
@@ -6758,10 +6606,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H86" t="inlineStr">
-        <is>
-          <t>2021-07-23 18:18:25</t>
-        </is>
+      <c r="H86" s="1" t="n">
+        <v>44400.76278935185</v>
       </c>
       <c r="I86" t="n">
         <v>1</v>
@@ -6830,10 +6676,8 @@
           <t>4974046809</t>
         </is>
       </c>
-      <c r="H87" t="inlineStr">
-        <is>
-          <t>2021-07-23 18:17:31</t>
-        </is>
+      <c r="H87" s="1" t="n">
+        <v>44400.76216435185</v>
       </c>
       <c r="I87" t="n">
         <v>0</v>
@@ -6905,10 +6749,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H88" t="inlineStr">
-        <is>
-          <t>2021-07-23 18:16:57</t>
-        </is>
+      <c r="H88" s="1" t="n">
+        <v>44400.76177083333</v>
       </c>
       <c r="I88" t="n">
         <v>1</v>
@@ -6972,10 +6814,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H89" t="inlineStr">
-        <is>
-          <t>2021-07-23 18:16:52</t>
-        </is>
+      <c r="H89" s="1" t="n">
+        <v>44400.76171296297</v>
       </c>
       <c r="I89" t="n">
         <v>0</v>
@@ -7043,10 +6883,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H90" t="inlineStr">
-        <is>
-          <t>2021-07-23 18:16:41</t>
-        </is>
+      <c r="H90" s="1" t="n">
+        <v>44400.76158564815</v>
       </c>
       <c r="I90" t="n">
         <v>1</v>
@@ -7118,10 +6956,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H91" t="inlineStr">
-        <is>
-          <t>2021-07-23 18:16:33</t>
-        </is>
+      <c r="H91" s="1" t="n">
+        <v>44400.76149305556</v>
       </c>
       <c r="I91" t="n">
         <v>0</v>
@@ -7189,10 +7025,8 @@
           <t>4974036012</t>
         </is>
       </c>
-      <c r="H92" t="inlineStr">
-        <is>
-          <t>2021-07-23 18:16:13</t>
-        </is>
+      <c r="H92" s="1" t="n">
+        <v>44400.76126157407</v>
       </c>
       <c r="I92" t="n">
         <v>14</v>
@@ -7260,10 +7094,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H93" t="inlineStr">
-        <is>
-          <t>2021-07-23 18:16:13</t>
-        </is>
+      <c r="H93" s="1" t="n">
+        <v>44400.76126157407</v>
       </c>
       <c r="I93" t="n">
         <v>0</v>
@@ -7340,10 +7172,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H94" t="inlineStr">
-        <is>
-          <t>2021-07-23 18:16:11</t>
-        </is>
+      <c r="H94" s="1" t="n">
+        <v>44400.76123842593</v>
       </c>
       <c r="I94" t="n">
         <v>17</v>
@@ -7419,10 +7249,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H95" t="inlineStr">
-        <is>
-          <t>2021-07-23 18:15:47</t>
-        </is>
+      <c r="H95" s="1" t="n">
+        <v>44400.76096064815</v>
       </c>
       <c r="I95" t="n">
         <v>23</v>
@@ -7508,10 +7336,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H96" t="inlineStr">
-        <is>
-          <t>2021-07-23 18:15:19</t>
-        </is>
+      <c r="H96" s="1" t="n">
+        <v>44400.76063657407</v>
       </c>
       <c r="I96" t="n">
         <v>3</v>
@@ -7575,10 +7401,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H97" t="inlineStr">
-        <is>
-          <t>2021-07-23 18:15:06</t>
-        </is>
+      <c r="H97" s="1" t="n">
+        <v>44400.76048611111</v>
       </c>
       <c r="I97" t="n">
         <v>0</v>
@@ -7646,10 +7470,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H98" t="inlineStr">
-        <is>
-          <t>2021-07-23 18:14:58</t>
-        </is>
+      <c r="H98" s="1" t="n">
+        <v>44400.76039351852</v>
       </c>
       <c r="I98" t="n">
         <v>0</v>
@@ -7717,10 +7539,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H99" t="inlineStr">
-        <is>
-          <t>2021-07-23 18:14:56</t>
-        </is>
+      <c r="H99" s="1" t="n">
+        <v>44400.76037037037</v>
       </c>
       <c r="I99" t="n">
         <v>1</v>
@@ -7784,10 +7604,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H100" t="inlineStr">
-        <is>
-          <t>2021-07-23 18:14:51</t>
-        </is>
+      <c r="H100" s="1" t="n">
+        <v>44400.7603125</v>
       </c>
       <c r="I100" t="n">
         <v>0</v>
@@ -7855,10 +7673,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H101" t="inlineStr">
-        <is>
-          <t>2021-07-23 18:14:47</t>
-        </is>
+      <c r="H101" s="1" t="n">
+        <v>44400.7602662037</v>
       </c>
       <c r="I101" t="n">
         <v>0</v>
@@ -7922,10 +7738,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H102" t="inlineStr">
-        <is>
-          <t>2021-07-23 18:14:43</t>
-        </is>
+      <c r="H102" s="1" t="n">
+        <v>44400.76021990741</v>
       </c>
       <c r="I102" t="n">
         <v>3</v>
@@ -7989,10 +7803,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H103" t="inlineStr">
-        <is>
-          <t>2021-07-23 18:14:33</t>
-        </is>
+      <c r="H103" s="1" t="n">
+        <v>44400.76010416666</v>
       </c>
       <c r="I103" t="n">
         <v>347</v>
@@ -8060,10 +7872,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H104" t="inlineStr">
-        <is>
-          <t>2021-07-23 18:14:28</t>
-        </is>
+      <c r="H104" s="1" t="n">
+        <v>44400.76004629629</v>
       </c>
       <c r="I104" t="n">
         <v>0</v>
